--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7D1D3C-D52A-49CD-BD8A-577B32E3525B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16CD50D-FF77-4AC7-9FF2-90498D2FE1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="370">
   <si>
     <t>English</t>
   </si>
@@ -600,10 +600,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JackalSidekickNum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サイドキック作成数</t>
     <rPh sb="6" eb="8">
       <t>サクセイ</t>
@@ -1936,6 +1932,34 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>buttonCountText</t>
+  </si>
+  <si>
+    <t>残り</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalAbilityCount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AliceAbilityCount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破壊工作の回数</t>
+    <rPh sb="0" eb="4">
+      <t>ハカイコウサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2265,10 +2289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q194"/>
+  <dimension ref="A1:Q197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B62" workbookViewId="0">
-      <selection activeCell="M74" sqref="M74"/>
+    <sheetView tabSelected="1" topLeftCell="C109" workbookViewId="0">
+      <selection activeCell="M120" sqref="M120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2407,10 +2431,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="M10" t="s">
         <v>328</v>
-      </c>
-      <c r="M10" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
@@ -2481,7 +2505,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -2492,15 +2516,15 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="M19" t="s">
         <v>315</v>
-      </c>
-      <c r="M19" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
@@ -2517,7 +2541,7 @@
         <v>50</v>
       </c>
       <c r="M21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -2550,55 +2574,55 @@
         <v>59</v>
       </c>
       <c r="M24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="M25" t="s">
         <v>319</v>
-      </c>
-      <c r="M25" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M29" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
+        <v>323</v>
+      </c>
+      <c r="M30" t="s">
         <v>324</v>
-      </c>
-      <c r="M30" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
+        <v>325</v>
+      </c>
+      <c r="M31" t="s">
         <v>326</v>
-      </c>
-      <c r="M31" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -2609,7 +2633,7 @@
         <v>62</v>
       </c>
       <c r="M32" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
@@ -2620,7 +2644,7 @@
         <v>64</v>
       </c>
       <c r="M33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
@@ -2631,7 +2655,7 @@
         <v>66</v>
       </c>
       <c r="M34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
@@ -2642,95 +2666,95 @@
         <v>68</v>
       </c>
       <c r="M35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M37" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
+        <v>336</v>
+      </c>
+      <c r="M38" t="s">
         <v>337</v>
-      </c>
-      <c r="M38" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
+        <v>338</v>
+      </c>
+      <c r="M39" t="s">
         <v>339</v>
-      </c>
-      <c r="M39" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M40" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M42" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M43" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
+        <v>343</v>
+      </c>
+      <c r="M44" t="s">
         <v>344</v>
-      </c>
-      <c r="M44" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
+        <v>345</v>
+      </c>
+      <c r="M45" t="s">
         <v>346</v>
-      </c>
-      <c r="M45" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
+        <v>354</v>
+      </c>
+      <c r="M47" t="s">
         <v>355</v>
-      </c>
-      <c r="M47" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
+        <v>356</v>
+      </c>
+      <c r="M48" t="s">
         <v>357</v>
-      </c>
-      <c r="M48" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
+        <v>358</v>
+      </c>
+      <c r="M49" t="s">
         <v>359</v>
-      </c>
-      <c r="M49" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
@@ -2834,986 +2858,1002 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
+        <v>289</v>
+      </c>
+      <c r="B64" t="s">
         <v>290</v>
       </c>
-      <c r="B64" t="s">
-        <v>291</v>
-      </c>
       <c r="M64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
+        <v>291</v>
+      </c>
+      <c r="B65" t="s">
         <v>292</v>
       </c>
-      <c r="B65" t="s">
-        <v>293</v>
-      </c>
       <c r="M65" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
+        <v>293</v>
+      </c>
+      <c r="B67" t="s">
         <v>294</v>
       </c>
-      <c r="B67" t="s">
+      <c r="M67" t="s">
         <v>295</v>
-      </c>
-      <c r="M67" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
+        <v>296</v>
+      </c>
+      <c r="B69" t="s">
         <v>297</v>
       </c>
-      <c r="B69" t="s">
+      <c r="M69" t="s">
         <v>298</v>
-      </c>
-      <c r="M69" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
+        <v>299</v>
+      </c>
+      <c r="B70" t="s">
         <v>300</v>
       </c>
-      <c r="B70" t="s">
+      <c r="M70" t="s">
         <v>301</v>
-      </c>
-      <c r="M70" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B71" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M71" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B72" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M72" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
+        <v>304</v>
+      </c>
+      <c r="B73" t="s">
         <v>305</v>
       </c>
-      <c r="B73" t="s">
+      <c r="M73" t="s">
         <v>306</v>
-      </c>
-      <c r="M73" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M75" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>361</v>
+      </c>
+      <c r="M77" t="s">
         <v>363</v>
-      </c>
-      <c r="M76" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>283</v>
+        <v>362</v>
       </c>
       <c r="M78" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
-        <v>282</v>
-      </c>
-      <c r="M79" t="s">
-        <v>284</v>
+        <v>364</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M80" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M81" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
+        <v>284</v>
+      </c>
+      <c r="M82" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>285</v>
+      </c>
+      <c r="M83" t="s">
         <v>287</v>
       </c>
-      <c r="M82" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
-        <v>268</v>
-      </c>
-      <c r="M85" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>108</v>
-      </c>
-      <c r="M86" t="s">
-        <v>109</v>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>286</v>
+      </c>
+      <c r="M84" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>267</v>
       </c>
       <c r="M87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M88" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M89" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M90" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>237</v>
+        <v>106</v>
       </c>
       <c r="M91" t="s">
-        <v>240</v>
+        <v>112</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>238</v>
+        <v>107</v>
       </c>
       <c r="M92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>236</v>
+      </c>
+      <c r="M93" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="M94" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
-        <v>114</v>
-      </c>
-      <c r="M95" t="s">
-        <v>123</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>115</v>
+        <v>268</v>
       </c>
       <c r="M96" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M97" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M98" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M99" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M100" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M101" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M102" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M103" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>241</v>
+        <v>121</v>
       </c>
       <c r="M104" t="s">
-        <v>243</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
+        <v>122</v>
+      </c>
+      <c r="M105" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>240</v>
+      </c>
+      <c r="M106" t="s">
         <v>242</v>
-      </c>
-      <c r="M105" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="M107" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
-        <v>128</v>
-      </c>
-      <c r="M108" t="s">
-        <v>138</v>
+        <v>243</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="M109" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M110" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M111" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M112" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M113" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M114" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M115" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M116" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M117" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>245</v>
+        <v>136</v>
       </c>
       <c r="M118" t="s">
-        <v>247</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>246</v>
+        <v>137</v>
       </c>
       <c r="M119" t="s">
-        <v>248</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>368</v>
+      </c>
+      <c r="M120" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="M121" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="M122" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
-        <v>140</v>
-      </c>
-      <c r="M123" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>141</v>
+        <v>270</v>
       </c>
       <c r="M124" t="s">
-        <v>110</v>
+        <v>272</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>142</v>
+        <v>271</v>
       </c>
       <c r="M125" t="s">
-        <v>169</v>
+        <v>273</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M126" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M127" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M128" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M129" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M130" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M131" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M132" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M133" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A134" s="1" t="s">
-        <v>330</v>
+      <c r="A134" t="s">
+        <v>148</v>
       </c>
       <c r="M134" t="s">
-        <v>331</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>153</v>
+        <v>367</v>
       </c>
       <c r="M135" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M136" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A137" t="s">
-        <v>155</v>
+      <c r="A137" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="M137" t="s">
-        <v>160</v>
+        <v>330</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="M138" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M139" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="M140" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>332</v>
+        <v>156</v>
       </c>
       <c r="M141" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="M142" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A143" s="1" t="s">
-        <v>333</v>
+      <c r="A143" t="s">
+        <v>161</v>
       </c>
       <c r="M143" t="s">
-        <v>334</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>168</v>
+        <v>331</v>
       </c>
       <c r="M144" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="M145" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A146" t="s">
-        <v>176</v>
+      <c r="A146" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="M146" t="s">
-        <v>174</v>
+        <v>333</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>249</v>
+        <v>167</v>
       </c>
       <c r="M147" t="s">
-        <v>254</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="M148" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="M149" t="s">
-        <v>252</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>248</v>
+      </c>
+      <c r="M150" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="M151" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>276</v>
+        <v>250</v>
       </c>
       <c r="M152" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A153" t="s">
-        <v>178</v>
-      </c>
-      <c r="M153" t="s">
-        <v>179</v>
+        <v>251</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>181</v>
+        <v>274</v>
       </c>
       <c r="M154" t="s">
-        <v>180</v>
+        <v>277</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>182</v>
+        <v>275</v>
       </c>
       <c r="M155" t="s">
-        <v>184</v>
+        <v>276</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M156" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="M157" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="M158" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="M159" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="M160" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="M161" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M162" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M163" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M164" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M165" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M166" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M167" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M168" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="M169" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="M170" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="M171" t="s">
-        <v>266</v>
+        <v>210</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="M172" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="M173" t="s">
-        <v>261</v>
+        <v>212</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M174" t="s">
-        <v>260</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A175" t="s">
+        <v>255</v>
+      </c>
+      <c r="M175" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="M176" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
       <c r="M177" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A178" t="s">
-        <v>215</v>
-      </c>
-      <c r="M178" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
+        <v>278</v>
+      </c>
+      <c r="M179" t="s">
         <v>216</v>
-      </c>
-      <c r="M179" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M180" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M181" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M182" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M183" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M184" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="M185" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="M186" t="s">
-        <v>228</v>
+        <v>111</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M187" t="s">
-        <v>230</v>
+        <v>112</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M188" t="s">
-        <v>236</v>
+        <v>113</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M189" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="M190" t="s">
-        <v>124</v>
+        <v>229</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M191" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M192" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="M193" t="s">
-        <v>267</v>
+        <v>124</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
+        <v>233</v>
+      </c>
+      <c r="M194" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A195" t="s">
+        <v>234</v>
+      </c>
+      <c r="M195" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A196" t="s">
+        <v>261</v>
+      </c>
+      <c r="M196" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A197" t="s">
+        <v>262</v>
+      </c>
+      <c r="M197" t="s">
         <v>263</v>
-      </c>
-      <c r="M194" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16CD50D-FF77-4AC7-9FF2-90498D2FE1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AC960B-FEFD-4A47-B898-41003D23AB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="372">
   <si>
     <t>English</t>
   </si>
@@ -1960,6 +1960,16 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crewImportantText</t>
+  </si>
+  <si>
+    <t>タスクを完了させよう</t>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2289,10 +2299,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q197"/>
+  <dimension ref="A1:Q198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C109" workbookViewId="0">
-      <selection activeCell="M120" sqref="M120"/>
+    <sheetView tabSelected="1" topLeftCell="C87" workbookViewId="0">
+      <selection activeCell="M99" sqref="M99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3008,17 +3018,17 @@
         <v>288</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
-        <v>267</v>
-      </c>
-      <c r="M87" t="s">
-        <v>109</v>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>370</v>
+      </c>
+      <c r="M86" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>108</v>
+        <v>267</v>
       </c>
       <c r="M88" t="s">
         <v>109</v>
@@ -3026,63 +3036,63 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M89" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M90" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M92" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>236</v>
+        <v>107</v>
       </c>
       <c r="M93" t="s">
-        <v>239</v>
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
+        <v>236</v>
+      </c>
+      <c r="M94" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
         <v>237</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M95" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
-        <v>268</v>
-      </c>
-      <c r="M96" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>114</v>
+        <v>268</v>
       </c>
       <c r="M97" t="s">
         <v>123</v>
@@ -3090,95 +3100,95 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M98" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M100" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M101" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M102" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M104" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M105" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>240</v>
+        <v>122</v>
       </c>
       <c r="M106" t="s">
-        <v>242</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
+        <v>240</v>
+      </c>
+      <c r="M107" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
         <v>241</v>
       </c>
-      <c r="M107" t="s">
+      <c r="M108" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
-        <v>269</v>
-      </c>
-      <c r="M109" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>128</v>
+        <v>269</v>
       </c>
       <c r="M110" t="s">
         <v>138</v>
@@ -3186,535 +3196,535 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M111" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M112" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M113" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M114" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M115" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M116" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M117" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M118" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M119" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>368</v>
+        <v>137</v>
       </c>
       <c r="M120" t="s">
-        <v>369</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>244</v>
+        <v>368</v>
       </c>
       <c r="M121" t="s">
-        <v>246</v>
+        <v>369</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
+        <v>244</v>
+      </c>
+      <c r="M122" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
         <v>245</v>
       </c>
-      <c r="M122" t="s">
+      <c r="M123" t="s">
         <v>247</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A124" t="s">
-        <v>270</v>
-      </c>
-      <c r="M124" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M125" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>140</v>
+        <v>271</v>
       </c>
       <c r="M126" t="s">
-        <v>176</v>
+        <v>273</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M127" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M128" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M129" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M130" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M131" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M132" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M133" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M134" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>367</v>
+        <v>148</v>
       </c>
       <c r="M135" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
+        <v>367</v>
+      </c>
+      <c r="M136" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
         <v>150</v>
       </c>
-      <c r="M136" t="s">
+      <c r="M137" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A137" s="1" t="s">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="M137" t="s">
+      <c r="M138" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A138" t="s">
-        <v>152</v>
-      </c>
-      <c r="M138" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M139" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M140" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M141" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M142" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M143" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>331</v>
+        <v>161</v>
       </c>
       <c r="M144" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
+        <v>331</v>
+      </c>
+      <c r="M145" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
         <v>165</v>
       </c>
-      <c r="M145" t="s">
+      <c r="M146" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A146" s="1" t="s">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A147" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="M146" t="s">
+      <c r="M147" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A147" t="s">
-        <v>167</v>
-      </c>
-      <c r="M147" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="M148" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M149" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>248</v>
+        <v>175</v>
       </c>
       <c r="M150" t="s">
-        <v>253</v>
+        <v>173</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M151" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
+        <v>249</v>
+      </c>
+      <c r="M152" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
         <v>250</v>
       </c>
-      <c r="M152" t="s">
+      <c r="M153" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A154" t="s">
-        <v>274</v>
-      </c>
-      <c r="M154" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M155" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>177</v>
+        <v>275</v>
       </c>
       <c r="M156" t="s">
-        <v>178</v>
+        <v>276</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M157" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M158" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M159" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M160" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M161" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M162" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M163" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M164" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M165" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M166" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M167" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M168" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M169" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M170" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M171" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M172" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M173" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="M174" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M175" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M176" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
+        <v>257</v>
+      </c>
+      <c r="M177" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A178" t="s">
         <v>258</v>
       </c>
-      <c r="M177" t="s">
+      <c r="M178" t="s">
         <v>259</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A179" t="s">
-        <v>278</v>
-      </c>
-      <c r="M179" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="M180" t="s">
         <v>216</v>
@@ -3722,137 +3732,145 @@
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M181" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M182" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M183" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M184" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M185" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M186" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M187" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M188" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M189" t="s">
-        <v>227</v>
+        <v>113</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M190" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M191" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M192" t="s">
-        <v>125</v>
+        <v>235</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M193" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M194" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M195" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="M196" t="s">
-        <v>266</v>
+        <v>127</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
+        <v>261</v>
+      </c>
+      <c r="M197" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A198" t="s">
         <v>262</v>
       </c>
-      <c r="M197" t="s">
+      <c r="M198" t="s">
         <v>263</v>
       </c>
     </row>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AC960B-FEFD-4A47-B898-41003D23AB73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5B14F8-F7B6-4CEE-82F8-A9A57CD03B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="378">
   <si>
     <t>English</t>
   </si>
@@ -1971,6 +1971,31 @@
     <rPh sb="4" eb="6">
       <t>カンリョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>whoIsMarine</t>
+  </si>
+  <si>
+    <t>マーリンは誰だ？</t>
+    <rPh sb="5" eb="6">
+      <t>ダレ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>assassinateMarinFail</t>
+  </si>
+  <si>
+    <t>assassinateMarinSucsess</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はマーリンだった</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>はマーリンではなかった</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2299,10 +2324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q198"/>
+  <dimension ref="A1:Q201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C87" workbookViewId="0">
-      <selection activeCell="M99" sqref="M99"/>
+    <sheetView tabSelected="1" topLeftCell="B173" workbookViewId="0">
+      <selection activeCell="M182" sqref="M182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3722,155 +3747,179 @@
         <v>259</v>
       </c>
     </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A179" t="s">
+        <v>372</v>
+      </c>
+      <c r="M179" t="s">
+        <v>373</v>
+      </c>
+    </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>278</v>
+        <v>375</v>
       </c>
       <c r="M180" t="s">
-        <v>216</v>
+        <v>376</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>213</v>
+        <v>374</v>
       </c>
       <c r="M181" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A182" t="s">
-        <v>214</v>
-      </c>
-      <c r="M182" t="s">
-        <v>217</v>
+        <v>377</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="M183" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M184" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M185" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M186" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M187" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M188" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M189" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M190" t="s">
-        <v>227</v>
+        <v>111</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M191" t="s">
-        <v>229</v>
+        <v>112</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M192" t="s">
-        <v>235</v>
+        <v>113</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M193" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M194" t="s">
-        <v>124</v>
+        <v>229</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M195" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M196" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="M197" t="s">
-        <v>266</v>
+        <v>124</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
+        <v>233</v>
+      </c>
+      <c r="M198" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A199" t="s">
+        <v>234</v>
+      </c>
+      <c r="M199" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A200" t="s">
+        <v>261</v>
+      </c>
+      <c r="M200" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A201" t="s">
         <v>262</v>
       </c>
-      <c r="M198" t="s">
+      <c r="M201" t="s">
         <v>263</v>
       </c>
     </row>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5B14F8-F7B6-4CEE-82F8-A9A57CD03B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C3850A-03A6-4CF8-9F38-4A8BC34B3219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="384">
   <si>
     <t>English</t>
   </si>
@@ -1996,6 +1996,66 @@
   </si>
   <si>
     <t>はマーリンではなかった</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AliceRevartCommonTaskNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AliceRevartLongTaskNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AliceRevartNormalTaskNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破壊工作によって巻き戻るロングタクスの数</t>
+    <rPh sb="0" eb="4">
+      <t>ハカイコウサク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破壊工作によって巻き戻るコモンタクスの数</t>
+    <rPh sb="0" eb="4">
+      <t>ハカイコウサク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破壊工作によって巻き戻るショートタクスの数</t>
+    <rPh sb="0" eb="4">
+      <t>ハカイコウサク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カズ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2324,10 +2384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q201"/>
+  <dimension ref="A1:Q204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B173" workbookViewId="0">
-      <selection activeCell="M182" sqref="M182"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A125" sqref="A125:M126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3309,617 +3369,641 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>244</v>
+        <v>378</v>
       </c>
       <c r="M122" t="s">
-        <v>246</v>
+        <v>382</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>245</v>
+        <v>379</v>
       </c>
       <c r="M123" t="s">
-        <v>247</v>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>380</v>
+      </c>
+      <c r="M124" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="M125" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="M126" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A127" t="s">
-        <v>140</v>
-      </c>
-      <c r="M127" t="s">
-        <v>176</v>
+        <v>247</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>141</v>
+        <v>270</v>
       </c>
       <c r="M128" t="s">
-        <v>110</v>
+        <v>272</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>142</v>
+        <v>271</v>
       </c>
       <c r="M129" t="s">
-        <v>168</v>
+        <v>273</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M130" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M131" t="s">
-        <v>170</v>
+        <v>110</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M132" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M133" t="s">
-        <v>124</v>
+        <v>169</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M134" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="M135" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>367</v>
+        <v>146</v>
       </c>
       <c r="M136" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M137" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A138" s="1" t="s">
-        <v>329</v>
+      <c r="A138" t="s">
+        <v>148</v>
       </c>
       <c r="M138" t="s">
-        <v>330</v>
+        <v>127</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>152</v>
+        <v>367</v>
       </c>
       <c r="M139" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M140" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A141" t="s">
-        <v>154</v>
+      <c r="A141" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="M141" t="s">
-        <v>159</v>
+        <v>330</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M142" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="M143" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="M144" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>331</v>
+        <v>156</v>
       </c>
       <c r="M145" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="M146" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A147" s="1" t="s">
-        <v>332</v>
+      <c r="A147" t="s">
+        <v>161</v>
       </c>
       <c r="M147" t="s">
-        <v>333</v>
+        <v>163</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>167</v>
+        <v>331</v>
       </c>
       <c r="M148" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="M149" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A150" t="s">
-        <v>175</v>
+      <c r="A150" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="M150" t="s">
-        <v>173</v>
+        <v>333</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>248</v>
+        <v>167</v>
       </c>
       <c r="M151" t="s">
-        <v>253</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="M152" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="M153" t="s">
-        <v>251</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A154" t="s">
+        <v>248</v>
+      </c>
+      <c r="M154" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="M155" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="M156" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A157" t="s">
-        <v>177</v>
-      </c>
-      <c r="M157" t="s">
-        <v>178</v>
+        <v>251</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="M158" t="s">
-        <v>179</v>
+        <v>277</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>181</v>
+        <v>275</v>
       </c>
       <c r="M159" t="s">
-        <v>183</v>
+        <v>276</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M160" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M161" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="M162" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="M163" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M164" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="M165" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="M166" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="M167" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M168" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M169" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M170" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M171" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M172" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="M173" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M174" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="M175" t="s">
-        <v>265</v>
+        <v>210</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>255</v>
+        <v>208</v>
       </c>
       <c r="M176" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="M177" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="M178" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>372</v>
+        <v>255</v>
       </c>
       <c r="M179" t="s">
-        <v>373</v>
+        <v>256</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>375</v>
+        <v>257</v>
       </c>
       <c r="M180" t="s">
-        <v>376</v>
+        <v>260</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>374</v>
+        <v>258</v>
       </c>
       <c r="M181" t="s">
-        <v>377</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A182" t="s">
+        <v>372</v>
+      </c>
+      <c r="M182" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>278</v>
+        <v>375</v>
       </c>
       <c r="M183" t="s">
-        <v>216</v>
+        <v>376</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>213</v>
+        <v>374</v>
       </c>
       <c r="M184" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A185" t="s">
-        <v>214</v>
-      </c>
-      <c r="M185" t="s">
-        <v>217</v>
+        <v>377</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>215</v>
+        <v>278</v>
       </c>
       <c r="M186" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M187" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M188" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="M189" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="M190" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M191" t="s">
-        <v>112</v>
+        <v>222</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M192" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M193" t="s">
-        <v>227</v>
+        <v>111</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="M194" t="s">
-        <v>229</v>
+        <v>112</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M195" t="s">
-        <v>235</v>
+        <v>113</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M196" t="s">
-        <v>125</v>
+        <v>227</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M197" t="s">
-        <v>124</v>
+        <v>229</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M198" t="s">
-        <v>126</v>
+        <v>235</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M199" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="M200" t="s">
-        <v>266</v>
+        <v>124</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
+        <v>233</v>
+      </c>
+      <c r="M201" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A202" t="s">
+        <v>234</v>
+      </c>
+      <c r="M202" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A203" t="s">
+        <v>261</v>
+      </c>
+      <c r="M203" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A204" t="s">
         <v>262</v>
       </c>
-      <c r="M201" t="s">
+      <c r="M204" t="s">
         <v>263</v>
       </c>
     </row>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C3850A-03A6-4CF8-9F38-4A8BC34B3219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ABA8DB-0DB0-4010-BAD9-A797AF984F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="388">
   <si>
     <t>English</t>
   </si>
@@ -2055,6 +2055,28 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crewIntroText</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>impostorIntroText</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクも忘れずに</t>
+    <rPh sb="4" eb="5">
+      <t>ワス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クルやサボタージも忘れるな</t>
+    <rPh sb="9" eb="10">
+      <t>ワス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2384,10 +2406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q204"/>
+  <dimension ref="A1:Q206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A125" sqref="A125:M126"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3105,905 +3127,921 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="M86" t="s">
-        <v>371</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>384</v>
+      </c>
+      <c r="M87" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>267</v>
+        <v>370</v>
       </c>
       <c r="M88" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
-        <v>108</v>
-      </c>
-      <c r="M89" t="s">
-        <v>109</v>
+        <v>371</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>267</v>
       </c>
       <c r="M90" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M91" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M92" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M93" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>236</v>
+        <v>106</v>
       </c>
       <c r="M94" t="s">
-        <v>239</v>
+        <v>112</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>237</v>
+        <v>107</v>
       </c>
       <c r="M95" t="s">
-        <v>238</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>236</v>
+      </c>
+      <c r="M96" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="M97" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
-        <v>114</v>
-      </c>
-      <c r="M98" t="s">
-        <v>123</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>115</v>
+        <v>268</v>
       </c>
       <c r="M99" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M100" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M101" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M102" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M103" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M104" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M106" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>240</v>
+        <v>121</v>
       </c>
       <c r="M107" t="s">
-        <v>242</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>241</v>
+        <v>122</v>
       </c>
       <c r="M108" t="s">
-        <v>243</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>240</v>
+      </c>
+      <c r="M109" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="M110" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
-        <v>128</v>
-      </c>
-      <c r="M111" t="s">
-        <v>138</v>
+        <v>243</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="M112" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M113" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M114" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M115" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M116" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M117" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M118" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M119" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M120" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>368</v>
+        <v>136</v>
       </c>
       <c r="M121" t="s">
-        <v>369</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>378</v>
+        <v>137</v>
       </c>
       <c r="M122" t="s">
-        <v>382</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="M123" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M124" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>244</v>
+        <v>379</v>
       </c>
       <c r="M125" t="s">
-        <v>246</v>
+        <v>381</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>245</v>
+        <v>380</v>
       </c>
       <c r="M126" t="s">
-        <v>247</v>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>244</v>
+      </c>
+      <c r="M127" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="M128" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
-        <v>271</v>
-      </c>
-      <c r="M129" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="M130" t="s">
-        <v>176</v>
+        <v>272</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>141</v>
+        <v>271</v>
       </c>
       <c r="M131" t="s">
-        <v>110</v>
+        <v>273</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M132" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M133" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M134" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M135" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M136" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M137" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M138" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>367</v>
+        <v>147</v>
       </c>
       <c r="M139" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M140" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A141" s="1" t="s">
-        <v>329</v>
+      <c r="A141" t="s">
+        <v>367</v>
       </c>
       <c r="M141" t="s">
-        <v>330</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M142" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A143" t="s">
-        <v>153</v>
+      <c r="A143" s="1" t="s">
+        <v>329</v>
       </c>
       <c r="M143" t="s">
-        <v>157</v>
+        <v>330</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M144" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M145" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M146" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M147" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>331</v>
+        <v>158</v>
       </c>
       <c r="M148" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M149" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A150" s="1" t="s">
-        <v>332</v>
+      <c r="A150" t="s">
+        <v>331</v>
       </c>
       <c r="M150" t="s">
-        <v>333</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M151" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A152" t="s">
-        <v>174</v>
+      <c r="A152" s="1" t="s">
+        <v>332</v>
       </c>
       <c r="M152" t="s">
-        <v>172</v>
+        <v>333</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M153" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="M154" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="M155" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M156" t="s">
-        <v>251</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A157" t="s">
+        <v>249</v>
+      </c>
+      <c r="M157" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="M158" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A159" t="s">
-        <v>275</v>
-      </c>
-      <c r="M159" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
-        <v>177</v>
+        <v>274</v>
       </c>
       <c r="M160" t="s">
-        <v>178</v>
+        <v>277</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="M161" t="s">
-        <v>179</v>
+        <v>276</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M162" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M163" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M164" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M165" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M166" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M167" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M168" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M169" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M170" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M171" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M172" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M173" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M174" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M175" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M176" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M177" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="M178" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="M179" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M180" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M181" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>372</v>
+        <v>257</v>
       </c>
       <c r="M182" t="s">
-        <v>373</v>
+        <v>260</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>375</v>
+        <v>258</v>
       </c>
       <c r="M183" t="s">
-        <v>376</v>
+        <v>259</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M184" t="s">
-        <v>377</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A185" t="s">
+        <v>375</v>
+      </c>
+      <c r="M185" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>278</v>
+        <v>374</v>
       </c>
       <c r="M186" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A187" t="s">
-        <v>213</v>
-      </c>
-      <c r="M187" t="s">
-        <v>216</v>
+        <v>377</v>
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
-        <v>214</v>
+        <v>278</v>
       </c>
       <c r="M188" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M189" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M190" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M191" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M192" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M193" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M194" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M195" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M196" t="s">
-        <v>227</v>
+        <v>112</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M197" t="s">
-        <v>229</v>
+        <v>113</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M198" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M199" t="s">
-        <v>125</v>
+        <v>229</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M200" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M201" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M202" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="M203" t="s">
-        <v>266</v>
+        <v>126</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
+        <v>234</v>
+      </c>
+      <c r="M204" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A205" t="s">
+        <v>261</v>
+      </c>
+      <c r="M205" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A206" t="s">
         <v>262</v>
       </c>
-      <c r="M204" t="s">
+      <c r="M206" t="s">
         <v>263</v>
       </c>
     </row>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ABA8DB-0DB0-4010-BAD9-A797AF984F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FF34CA-2719-41D8-A890-4B941A926598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="390">
   <si>
     <t>English</t>
   </si>
@@ -2077,6 +2077,16 @@
     <t>クルやサボタージも忘れるな</t>
     <rPh sb="9" eb="10">
       <t>ワス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shipBroken</t>
+  </si>
+  <si>
+    <t>破壊工作</t>
+    <rPh sb="0" eb="4">
+      <t>ハカイコウサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2406,10 +2416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q206"/>
+  <dimension ref="A1:Q207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="M130" sqref="M130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3445,465 +3455,465 @@
         <v>247</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
-        <v>270</v>
-      </c>
-      <c r="M130" t="s">
-        <v>272</v>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>388</v>
+      </c>
+      <c r="M129" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M131" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>140</v>
+        <v>271</v>
       </c>
       <c r="M132" t="s">
-        <v>176</v>
+        <v>273</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M133" t="s">
-        <v>110</v>
+        <v>176</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M134" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M135" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M136" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M137" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M138" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M139" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M140" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>367</v>
+        <v>148</v>
       </c>
       <c r="M141" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
+        <v>367</v>
+      </c>
+      <c r="M142" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
         <v>150</v>
       </c>
-      <c r="M142" t="s">
+      <c r="M143" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A143" s="1" t="s">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A144" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="M143" t="s">
+      <c r="M144" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A144" t="s">
-        <v>152</v>
-      </c>
-      <c r="M144" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M145" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M146" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M147" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M148" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M149" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>331</v>
+        <v>161</v>
       </c>
       <c r="M150" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
+        <v>331</v>
+      </c>
+      <c r="M151" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
         <v>165</v>
       </c>
-      <c r="M151" t="s">
+      <c r="M152" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A152" s="1" t="s">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A153" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="M152" t="s">
+      <c r="M153" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A153" t="s">
-        <v>167</v>
-      </c>
-      <c r="M153" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="M154" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M155" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>248</v>
+        <v>175</v>
       </c>
       <c r="M156" t="s">
-        <v>253</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M157" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
+        <v>249</v>
+      </c>
+      <c r="M158" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A159" t="s">
         <v>250</v>
       </c>
-      <c r="M158" t="s">
+      <c r="M159" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A160" t="s">
-        <v>274</v>
-      </c>
-      <c r="M160" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M161" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>177</v>
+        <v>275</v>
       </c>
       <c r="M162" t="s">
-        <v>178</v>
+        <v>276</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M163" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M164" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M165" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M166" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M167" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M168" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M169" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M170" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M171" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="M172" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M173" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M174" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M175" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M176" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="M177" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M178" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M179" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="M180" t="s">
-        <v>265</v>
+        <v>212</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M181" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M182" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M183" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>372</v>
+        <v>258</v>
       </c>
       <c r="M184" t="s">
-        <v>373</v>
+        <v>259</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M185" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
+        <v>375</v>
+      </c>
+      <c r="M186" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A187" t="s">
         <v>374</v>
       </c>
-      <c r="M186" t="s">
+      <c r="M187" t="s">
         <v>377</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A188" t="s">
-        <v>278</v>
-      </c>
-      <c r="M188" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="M189" t="s">
         <v>216</v>
@@ -3911,137 +3921,145 @@
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M190" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M191" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M192" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M193" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M194" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M195" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M196" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M197" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M198" t="s">
-        <v>227</v>
+        <v>113</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M199" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M200" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M201" t="s">
-        <v>125</v>
+        <v>235</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M202" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M203" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M204" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="M205" t="s">
-        <v>266</v>
+        <v>127</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
+        <v>261</v>
+      </c>
+      <c r="M206" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A207" t="s">
         <v>262</v>
       </c>
-      <c r="M206" t="s">
+      <c r="M207" t="s">
         <v>263</v>
       </c>
     </row>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FF34CA-2719-41D8-A890-4B941A926598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC241A7-C8FB-4642-8E74-364F27FB56CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="392">
   <si>
     <t>English</t>
   </si>
@@ -1570,9 +1570,6 @@
     <t>unitScrews</t>
   </si>
   <si>
-    <t>unitMultiplier</t>
-  </si>
-  <si>
     <t>{0}x</t>
   </si>
   <si>
@@ -2088,6 +2085,17 @@
     <rPh sb="0" eb="4">
       <t>ハカイコウサク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unitMultiplier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unitPercentage</t>
+  </si>
+  <si>
+    <t>{0}％</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2416,10 +2424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q207"/>
+  <dimension ref="A1:Q209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="M130" sqref="M130"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2558,10 +2566,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="M10" t="s">
         <v>327</v>
-      </c>
-      <c r="M10" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
@@ -2632,7 +2640,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -2643,15 +2651,15 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="M19" t="s">
         <v>314</v>
-      </c>
-      <c r="M19" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
@@ -2668,7 +2676,7 @@
         <v>50</v>
       </c>
       <c r="M21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -2706,50 +2714,50 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="M25" t="s">
         <v>318</v>
-      </c>
-      <c r="M25" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
+        <v>322</v>
+      </c>
+      <c r="M30" t="s">
         <v>323</v>
-      </c>
-      <c r="M30" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
+        <v>324</v>
+      </c>
+      <c r="M31" t="s">
         <v>325</v>
-      </c>
-      <c r="M31" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -2760,7 +2768,7 @@
         <v>62</v>
       </c>
       <c r="M32" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
@@ -2771,7 +2779,7 @@
         <v>64</v>
       </c>
       <c r="M33" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
@@ -2782,7 +2790,7 @@
         <v>66</v>
       </c>
       <c r="M34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
@@ -2793,95 +2801,95 @@
         <v>68</v>
       </c>
       <c r="M35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M37" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
+        <v>335</v>
+      </c>
+      <c r="M38" t="s">
         <v>336</v>
-      </c>
-      <c r="M38" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
+        <v>337</v>
+      </c>
+      <c r="M39" t="s">
         <v>338</v>
-      </c>
-      <c r="M39" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M40" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
+        <v>342</v>
+      </c>
+      <c r="M44" t="s">
         <v>343</v>
-      </c>
-      <c r="M44" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
+        <v>344</v>
+      </c>
+      <c r="M45" t="s">
         <v>345</v>
-      </c>
-      <c r="M45" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
+        <v>353</v>
+      </c>
+      <c r="M47" t="s">
         <v>354</v>
-      </c>
-      <c r="M47" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
+        <v>355</v>
+      </c>
+      <c r="M48" t="s">
         <v>356</v>
-      </c>
-      <c r="M48" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
+        <v>357</v>
+      </c>
+      <c r="M49" t="s">
         <v>358</v>
-      </c>
-      <c r="M49" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
@@ -2991,7 +2999,7 @@
         <v>290</v>
       </c>
       <c r="M64" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
@@ -3002,7 +3010,7 @@
         <v>292</v>
       </c>
       <c r="M65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
@@ -3040,13 +3048,13 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B71" t="s">
         <v>302</v>
       </c>
       <c r="M71" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
@@ -3057,1009 +3065,1020 @@
         <v>302</v>
       </c>
       <c r="M72" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
+        <v>389</v>
+      </c>
+      <c r="B73" t="s">
         <v>304</v>
       </c>
-      <c r="B73" t="s">
+      <c r="M73" t="s">
         <v>305</v>
       </c>
-      <c r="M73" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
-        <v>365</v>
-      </c>
-      <c r="M75" t="s">
-        <v>366</v>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>390</v>
+      </c>
+      <c r="B74" t="s">
+        <v>391</v>
+      </c>
+      <c r="M74" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="M77" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>360</v>
+      </c>
+      <c r="M79" t="s">
         <v>362</v>
-      </c>
-      <c r="M78" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>282</v>
+        <v>361</v>
       </c>
       <c r="M80" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
-        <v>281</v>
-      </c>
-      <c r="M81" t="s">
-        <v>283</v>
+        <v>363</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M82" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M83" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M84" t="s">
-        <v>288</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>285</v>
+      </c>
+      <c r="M85" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>385</v>
+        <v>286</v>
       </c>
       <c r="M86" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
-        <v>384</v>
-      </c>
-      <c r="M87" t="s">
-        <v>386</v>
+        <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="M88" t="s">
-        <v>371</v>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>383</v>
+      </c>
+      <c r="M89" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>267</v>
+        <v>369</v>
       </c>
       <c r="M90" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
-        <v>108</v>
-      </c>
-      <c r="M91" t="s">
-        <v>109</v>
+        <v>370</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>267</v>
       </c>
       <c r="M92" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M93" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M94" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M95" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>236</v>
+        <v>106</v>
       </c>
       <c r="M96" t="s">
-        <v>239</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>237</v>
+        <v>107</v>
       </c>
       <c r="M97" t="s">
-        <v>238</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>236</v>
+      </c>
+      <c r="M98" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="M99" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
-        <v>114</v>
-      </c>
-      <c r="M100" t="s">
-        <v>123</v>
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>115</v>
+        <v>268</v>
       </c>
       <c r="M101" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M102" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M103" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M104" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M105" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M106" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M107" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M108" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>240</v>
+        <v>121</v>
       </c>
       <c r="M109" t="s">
-        <v>242</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>241</v>
+        <v>122</v>
       </c>
       <c r="M110" t="s">
-        <v>243</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>240</v>
+      </c>
+      <c r="M111" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="M112" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A113" t="s">
-        <v>128</v>
-      </c>
-      <c r="M113" t="s">
-        <v>138</v>
+        <v>243</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="M114" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M115" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M116" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M117" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M118" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M119" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M120" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M121" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M122" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>368</v>
+        <v>136</v>
       </c>
       <c r="M123" t="s">
-        <v>369</v>
+        <v>127</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>378</v>
+        <v>137</v>
       </c>
       <c r="M124" t="s">
-        <v>382</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="M125" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M126" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>244</v>
+        <v>378</v>
       </c>
       <c r="M127" t="s">
-        <v>246</v>
+        <v>380</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>245</v>
+        <v>379</v>
       </c>
       <c r="M128" t="s">
-        <v>247</v>
+        <v>382</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>388</v>
+        <v>244</v>
       </c>
       <c r="M129" t="s">
-        <v>389</v>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>245</v>
+      </c>
+      <c r="M130" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>270</v>
+        <v>387</v>
       </c>
       <c r="M131" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A132" t="s">
-        <v>271</v>
-      </c>
-      <c r="M132" t="s">
-        <v>273</v>
+        <v>388</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>140</v>
+        <v>270</v>
       </c>
       <c r="M133" t="s">
-        <v>176</v>
+        <v>272</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>141</v>
+        <v>271</v>
       </c>
       <c r="M134" t="s">
-        <v>110</v>
+        <v>273</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M135" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M136" t="s">
-        <v>169</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M137" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M138" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M139" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M140" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M141" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>367</v>
+        <v>147</v>
       </c>
       <c r="M142" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M143" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A144" s="1" t="s">
-        <v>329</v>
+      <c r="A144" t="s">
+        <v>366</v>
       </c>
       <c r="M144" t="s">
-        <v>330</v>
+        <v>149</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M145" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A146" t="s">
-        <v>153</v>
+      <c r="A146" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="M146" t="s">
-        <v>157</v>
+        <v>329</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M147" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M148" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M149" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="M150" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>331</v>
+        <v>158</v>
       </c>
       <c r="M151" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M152" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A153" s="1" t="s">
-        <v>332</v>
+      <c r="A153" t="s">
+        <v>330</v>
       </c>
       <c r="M153" t="s">
-        <v>333</v>
+        <v>164</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M154" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A155" t="s">
-        <v>174</v>
+      <c r="A155" s="1" t="s">
+        <v>331</v>
       </c>
       <c r="M155" t="s">
-        <v>172</v>
+        <v>332</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M156" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>248</v>
+        <v>174</v>
       </c>
       <c r="M157" t="s">
-        <v>253</v>
+        <v>172</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>249</v>
+        <v>175</v>
       </c>
       <c r="M158" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M159" t="s">
-        <v>251</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A160" t="s">
+        <v>249</v>
+      </c>
+      <c r="M160" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="M161" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A162" t="s">
-        <v>275</v>
-      </c>
-      <c r="M162" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
-        <v>177</v>
+        <v>274</v>
       </c>
       <c r="M163" t="s">
-        <v>178</v>
+        <v>277</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>180</v>
+        <v>275</v>
       </c>
       <c r="M164" t="s">
-        <v>179</v>
+        <v>276</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M165" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M166" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M167" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M168" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M169" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M170" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="M171" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="M172" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M173" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M174" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M175" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M176" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M177" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M178" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M179" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M180" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
       <c r="M181" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="M182" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M183" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M184" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
-        <v>372</v>
+        <v>257</v>
       </c>
       <c r="M185" t="s">
-        <v>373</v>
+        <v>260</v>
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
-        <v>375</v>
+        <v>258</v>
       </c>
       <c r="M186" t="s">
-        <v>376</v>
+        <v>259</v>
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
+        <v>371</v>
+      </c>
+      <c r="M187" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A188" t="s">
         <v>374</v>
       </c>
-      <c r="M187" t="s">
-        <v>377</v>
+      <c r="M188" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
-        <v>278</v>
+        <v>373</v>
       </c>
       <c r="M189" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A190" t="s">
-        <v>213</v>
-      </c>
-      <c r="M190" t="s">
-        <v>216</v>
+        <v>376</v>
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
-        <v>214</v>
+        <v>278</v>
       </c>
       <c r="M191" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M192" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M193" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="M194" t="s">
-        <v>222</v>
+        <v>179</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M195" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M196" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M197" t="s">
-        <v>112</v>
+        <v>183</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M198" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M199" t="s">
-        <v>227</v>
+        <v>112</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="M200" t="s">
-        <v>229</v>
+        <v>113</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M201" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M202" t="s">
-        <v>125</v>
+        <v>229</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M203" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="M204" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M205" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="M206" t="s">
-        <v>266</v>
+        <v>126</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
+        <v>234</v>
+      </c>
+      <c r="M207" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A208" t="s">
+        <v>261</v>
+      </c>
+      <c r="M208" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A209" t="s">
         <v>262</v>
       </c>
-      <c r="M207" t="s">
+      <c r="M209" t="s">
         <v>263</v>
       </c>
     </row>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC241A7-C8FB-4642-8E74-364F27FB56CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB3EA5C-B211-46E3-9C7C-EE74B1A0ECA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="429">
   <si>
     <t>English</t>
   </si>
@@ -2071,13 +2071,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>クルやサボタージも忘れるな</t>
-    <rPh sb="9" eb="10">
-      <t>ワス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>shipBroken</t>
   </si>
   <si>
@@ -2096,6 +2089,245 @@
   </si>
   <si>
     <t>{0}％</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キルやサボタージも忘れるな</t>
+    <rPh sb="9" eb="10">
+      <t>ワス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下コンビロール</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下ニュートラル</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下インポスター</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下クルー</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EvolverRoleNum</t>
+  </si>
+  <si>
+    <t>EvolverHasOtherVison</t>
+  </si>
+  <si>
+    <t>EvolverVison</t>
+  </si>
+  <si>
+    <t>EvolverApplyEnvironmentVisionEffect</t>
+  </si>
+  <si>
+    <t>EvolverHasOtherKillCool</t>
+  </si>
+  <si>
+    <t>EvolverKillCoolDown</t>
+  </si>
+  <si>
+    <t>EvolverHasOtherKillRange</t>
+  </si>
+  <si>
+    <t>EvolverKillRange</t>
+  </si>
+  <si>
+    <t>EvolverIsEatingEndCleanBody</t>
+  </si>
+  <si>
+    <t>EvolverEatingRange</t>
+  </si>
+  <si>
+    <t>EvolverKillCoolReduceRate</t>
+  </si>
+  <si>
+    <t>EvolverAbilityCoolTime</t>
+  </si>
+  <si>
+    <t>EvolverAbilityActiveTime</t>
+  </si>
+  <si>
+    <t>EvolverAbilityCount</t>
+  </si>
+  <si>
+    <t>EvolverSpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Evolver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エボルバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進化時、アニメーションを行うか</t>
+    <rPh sb="0" eb="2">
+      <t>シンカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EvolverIsEvolvedAnimation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>捕食を行える範囲</t>
+    <rPh sb="0" eb="2">
+      <t>ホショク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進化後、死体を消すか</t>
+    <rPh sb="0" eb="3">
+      <t>シンカゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進化後のキルクールの減少率</t>
+    <rPh sb="0" eb="3">
+      <t>シンカゴ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ゲンショウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>捕食を行う時間</t>
+    <rPh sb="0" eb="2">
+      <t>ホショク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終進化までの回数</t>
+    <rPh sb="0" eb="4">
+      <t>サイシュウシンカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進化のクールタイム</t>
+    <rPh sb="0" eb="2">
+      <t>シンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EvolverIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EvolverShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死体を喰らい、進化せよ</t>
+    <rPh sb="0" eb="2">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進化を行い、クルーを絶望の縁に追い込め</t>
+    <rPh sb="0" eb="2">
+      <t>シンカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゼツボウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>フチ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進化</t>
+    <rPh sb="0" eb="2">
+      <t>シンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Evolve</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eating</t>
+  </si>
+  <si>
+    <t>捕食中</t>
+    <rPh sb="0" eb="2">
+      <t>ホショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2424,10 +2656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q209"/>
+  <dimension ref="A1:Q285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3070,7 +3302,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B73" t="s">
         <v>304</v>
@@ -3081,13 +3313,13 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
+        <v>389</v>
+      </c>
+      <c r="B74" t="s">
         <v>390</v>
       </c>
-      <c r="B74" t="s">
-        <v>391</v>
-      </c>
       <c r="M74" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
@@ -3114,7 +3346,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>282</v>
       </c>
@@ -3122,7 +3354,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>281</v>
       </c>
@@ -3130,7 +3362,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>284</v>
       </c>
@@ -3138,7 +3370,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>285</v>
       </c>
@@ -3146,7 +3378,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>286</v>
       </c>
@@ -3154,15 +3386,15 @@
         <v>288</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>384</v>
       </c>
       <c r="M88" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>383</v>
       </c>
@@ -3170,7 +3402,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>369</v>
       </c>
@@ -3178,7 +3410,12 @@
         <v>370</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N91" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>267</v>
       </c>
@@ -3186,7 +3423,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>108</v>
       </c>
@@ -3194,7 +3431,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -3202,7 +3439,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -3210,7 +3447,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>106</v>
       </c>
@@ -3218,7 +3455,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>107</v>
       </c>
@@ -3226,7 +3463,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>236</v>
       </c>
@@ -3234,7 +3471,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>237</v>
       </c>
@@ -3242,843 +3479,1026 @@
         <v>238</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N104" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
         <v>268</v>
       </c>
-      <c r="M101" t="s">
+      <c r="M105" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
         <v>114</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M106" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A103" t="s">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
         <v>115</v>
       </c>
-      <c r="M103" t="s">
+      <c r="M107" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
         <v>116</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M108" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
         <v>117</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M109" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
         <v>118</v>
       </c>
-      <c r="M106" t="s">
+      <c r="M110" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
         <v>119</v>
       </c>
-      <c r="M107" t="s">
+      <c r="M111" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
         <v>120</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M112" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
         <v>121</v>
       </c>
-      <c r="M109" t="s">
+      <c r="M113" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
-        <v>122</v>
-      </c>
-      <c r="M110" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
-        <v>240</v>
-      </c>
-      <c r="M111" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
-        <v>241</v>
-      </c>
-      <c r="M112" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>269</v>
+        <v>122</v>
       </c>
       <c r="M114" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
       <c r="M115" t="s">
-        <v>138</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
       <c r="M116" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
-        <v>130</v>
-      </c>
-      <c r="M117" t="s">
-        <v>111</v>
+        <v>243</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>131</v>
+        <v>411</v>
       </c>
       <c r="M118" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="M119" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A120" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="M120" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A121" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="M121" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A122" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="M122" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A119" t="s">
-        <v>132</v>
-      </c>
-      <c r="M119" t="s">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A123" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M123" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A120" t="s">
-        <v>133</v>
-      </c>
-      <c r="M120" t="s">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="M124" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A121" t="s">
-        <v>134</v>
-      </c>
-      <c r="M121" t="s">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M125" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A122" t="s">
-        <v>135</v>
-      </c>
-      <c r="M122" t="s">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="M126" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
-        <v>136</v>
-      </c>
-      <c r="M123" t="s">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M127" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A124" t="s">
-        <v>137</v>
-      </c>
-      <c r="M124" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A125" t="s">
-        <v>367</v>
-      </c>
-      <c r="M125" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A126" t="s">
-        <v>377</v>
-      </c>
-      <c r="M126" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A127" t="s">
-        <v>378</v>
-      </c>
-      <c r="M127" t="s">
-        <v>380</v>
-      </c>
-    </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A128" t="s">
-        <v>379</v>
+      <c r="A128" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="M128" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
-        <v>244</v>
+      <c r="A129" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="M129" t="s">
-        <v>246</v>
+        <v>416</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
-        <v>245</v>
+      <c r="A130" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="M130" t="s">
-        <v>247</v>
+        <v>415</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
-        <v>387</v>
+      <c r="A131" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="M131" t="s">
-        <v>388</v>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A132" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="M132" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A133" t="s">
-        <v>270</v>
+      <c r="A133" s="1" t="s">
+        <v>408</v>
       </c>
       <c r="M133" t="s">
-        <v>272</v>
+        <v>418</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A134" t="s">
-        <v>271</v>
+      <c r="A134" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="M134" t="s">
-        <v>273</v>
+        <v>419</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>140</v>
+        <v>421</v>
       </c>
       <c r="M135" t="s">
-        <v>176</v>
+        <v>424</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>141</v>
+        <v>422</v>
       </c>
       <c r="M136" t="s">
-        <v>110</v>
+        <v>423</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>142</v>
+        <v>426</v>
       </c>
       <c r="M137" t="s">
-        <v>168</v>
+        <v>425</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>143</v>
+        <v>427</v>
       </c>
       <c r="M138" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A139" t="s">
-        <v>144</v>
-      </c>
-      <c r="M139" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A140" t="s">
-        <v>145</v>
-      </c>
-      <c r="M140" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N183" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A184" t="s">
+        <v>269</v>
+      </c>
+      <c r="M184" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A185" t="s">
+        <v>128</v>
+      </c>
+      <c r="M185" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A186" t="s">
+        <v>129</v>
+      </c>
+      <c r="M186" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A187" t="s">
+        <v>130</v>
+      </c>
+      <c r="M187" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A188" t="s">
+        <v>131</v>
+      </c>
+      <c r="M188" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A189" t="s">
+        <v>132</v>
+      </c>
+      <c r="M189" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A190" t="s">
+        <v>133</v>
+      </c>
+      <c r="M190" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A141" t="s">
-        <v>146</v>
-      </c>
-      <c r="M141" t="s">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A191" t="s">
+        <v>134</v>
+      </c>
+      <c r="M191" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A142" t="s">
-        <v>147</v>
-      </c>
-      <c r="M142" t="s">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A192" t="s">
+        <v>135</v>
+      </c>
+      <c r="M192" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A143" t="s">
-        <v>148</v>
-      </c>
-      <c r="M143" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A144" t="s">
-        <v>366</v>
-      </c>
-      <c r="M144" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A145" t="s">
-        <v>150</v>
-      </c>
-      <c r="M145" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A146" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="M146" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A147" t="s">
-        <v>152</v>
-      </c>
-      <c r="M147" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A148" t="s">
-        <v>153</v>
-      </c>
-      <c r="M148" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A149" t="s">
-        <v>154</v>
-      </c>
-      <c r="M149" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A150" t="s">
-        <v>156</v>
-      </c>
-      <c r="M150" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A151" t="s">
-        <v>158</v>
-      </c>
-      <c r="M151" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A152" t="s">
-        <v>161</v>
-      </c>
-      <c r="M152" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A153" t="s">
-        <v>330</v>
-      </c>
-      <c r="M153" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A154" t="s">
-        <v>165</v>
-      </c>
-      <c r="M154" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A155" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="M155" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A156" t="s">
-        <v>167</v>
-      </c>
-      <c r="M156" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A157" t="s">
-        <v>174</v>
-      </c>
-      <c r="M157" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A158" t="s">
-        <v>175</v>
-      </c>
-      <c r="M158" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A159" t="s">
-        <v>248</v>
-      </c>
-      <c r="M159" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A160" t="s">
-        <v>249</v>
-      </c>
-      <c r="M160" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A161" t="s">
-        <v>250</v>
-      </c>
-      <c r="M161" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A163" t="s">
-        <v>274</v>
-      </c>
-      <c r="M163" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A164" t="s">
-        <v>275</v>
-      </c>
-      <c r="M164" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A165" t="s">
-        <v>177</v>
-      </c>
-      <c r="M165" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A166" t="s">
-        <v>180</v>
-      </c>
-      <c r="M166" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A167" t="s">
-        <v>181</v>
-      </c>
-      <c r="M167" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A168" t="s">
-        <v>182</v>
-      </c>
-      <c r="M168" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A169" t="s">
-        <v>184</v>
-      </c>
-      <c r="M169" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A170" t="s">
-        <v>188</v>
-      </c>
-      <c r="M170" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A171" t="s">
-        <v>189</v>
-      </c>
-      <c r="M171" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A172" t="s">
-        <v>190</v>
-      </c>
-      <c r="M172" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A173" t="s">
-        <v>195</v>
-      </c>
-      <c r="M173" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A174" t="s">
-        <v>196</v>
-      </c>
-      <c r="M174" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A175" t="s">
-        <v>197</v>
-      </c>
-      <c r="M175" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A176" t="s">
-        <v>199</v>
-      </c>
-      <c r="M176" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A177" t="s">
-        <v>201</v>
-      </c>
-      <c r="M177" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A178" t="s">
-        <v>202</v>
-      </c>
-      <c r="M178" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A179" t="s">
-        <v>203</v>
-      </c>
-      <c r="M179" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A180" t="s">
-        <v>207</v>
-      </c>
-      <c r="M180" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A181" t="s">
-        <v>208</v>
-      </c>
-      <c r="M181" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A182" t="s">
-        <v>209</v>
-      </c>
-      <c r="M182" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A183" t="s">
-        <v>254</v>
-      </c>
-      <c r="M183" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A184" t="s">
-        <v>255</v>
-      </c>
-      <c r="M184" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A185" t="s">
-        <v>257</v>
-      </c>
-      <c r="M185" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A186" t="s">
-        <v>258</v>
-      </c>
-      <c r="M186" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A187" t="s">
-        <v>371</v>
-      </c>
-      <c r="M187" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A188" t="s">
-        <v>374</v>
-      </c>
-      <c r="M188" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A189" t="s">
-        <v>373</v>
-      </c>
-      <c r="M189" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A191" t="s">
-        <v>278</v>
-      </c>
-      <c r="M191" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A192" t="s">
-        <v>213</v>
-      </c>
-      <c r="M192" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="M193" t="s">
-        <v>217</v>
+        <v>127</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="M194" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>218</v>
+        <v>367</v>
       </c>
       <c r="M195" t="s">
-        <v>221</v>
+        <v>368</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>219</v>
+        <v>377</v>
       </c>
       <c r="M196" t="s">
-        <v>222</v>
+        <v>381</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>220</v>
+        <v>378</v>
       </c>
       <c r="M197" t="s">
-        <v>183</v>
+        <v>380</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>223</v>
+        <v>379</v>
       </c>
       <c r="M198" t="s">
-        <v>111</v>
+        <v>382</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="M199" t="s">
-        <v>112</v>
+        <v>246</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="M200" t="s">
-        <v>113</v>
+        <v>247</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>226</v>
+        <v>386</v>
       </c>
       <c r="M201" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A202" t="s">
-        <v>228</v>
-      </c>
-      <c r="M202" t="s">
-        <v>229</v>
+        <v>387</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="M203" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="M204" t="s">
-        <v>125</v>
+        <v>273</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>232</v>
+        <v>140</v>
       </c>
       <c r="M205" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>233</v>
+        <v>141</v>
       </c>
       <c r="M206" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>234</v>
+        <v>142</v>
       </c>
       <c r="M207" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>261</v>
+        <v>143</v>
       </c>
       <c r="M208" t="s">
-        <v>266</v>
+        <v>169</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
+        <v>144</v>
+      </c>
+      <c r="M209" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A210" t="s">
+        <v>145</v>
+      </c>
+      <c r="M210" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A211" t="s">
+        <v>146</v>
+      </c>
+      <c r="M211" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A212" t="s">
+        <v>147</v>
+      </c>
+      <c r="M212" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A213" t="s">
+        <v>148</v>
+      </c>
+      <c r="M213" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A214" t="s">
+        <v>366</v>
+      </c>
+      <c r="M214" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A215" t="s">
+        <v>150</v>
+      </c>
+      <c r="M215" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A216" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="M216" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A217" t="s">
+        <v>152</v>
+      </c>
+      <c r="M217" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A218" t="s">
+        <v>153</v>
+      </c>
+      <c r="M218" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A219" t="s">
+        <v>154</v>
+      </c>
+      <c r="M219" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A220" t="s">
+        <v>156</v>
+      </c>
+      <c r="M220" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A221" t="s">
+        <v>158</v>
+      </c>
+      <c r="M221" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A222" t="s">
+        <v>161</v>
+      </c>
+      <c r="M222" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A223" t="s">
+        <v>330</v>
+      </c>
+      <c r="M223" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A224" t="s">
+        <v>165</v>
+      </c>
+      <c r="M224" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A225" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="M225" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A226" t="s">
+        <v>167</v>
+      </c>
+      <c r="M226" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A227" t="s">
+        <v>174</v>
+      </c>
+      <c r="M227" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A228" t="s">
+        <v>175</v>
+      </c>
+      <c r="M228" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A229" t="s">
+        <v>248</v>
+      </c>
+      <c r="M229" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A230" t="s">
+        <v>249</v>
+      </c>
+      <c r="M230" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A231" t="s">
+        <v>250</v>
+      </c>
+      <c r="M231" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="N238" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A239" t="s">
+        <v>274</v>
+      </c>
+      <c r="M239" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A240" t="s">
+        <v>275</v>
+      </c>
+      <c r="M240" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A241" t="s">
+        <v>177</v>
+      </c>
+      <c r="M241" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A242" t="s">
+        <v>180</v>
+      </c>
+      <c r="M242" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A243" t="s">
+        <v>181</v>
+      </c>
+      <c r="M243" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A244" t="s">
+        <v>182</v>
+      </c>
+      <c r="M244" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A245" t="s">
+        <v>184</v>
+      </c>
+      <c r="M245" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A246" t="s">
+        <v>188</v>
+      </c>
+      <c r="M246" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A247" t="s">
+        <v>189</v>
+      </c>
+      <c r="M247" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A248" t="s">
+        <v>190</v>
+      </c>
+      <c r="M248" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A249" t="s">
+        <v>195</v>
+      </c>
+      <c r="M249" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A250" t="s">
+        <v>196</v>
+      </c>
+      <c r="M250" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A251" t="s">
+        <v>197</v>
+      </c>
+      <c r="M251" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A252" t="s">
+        <v>199</v>
+      </c>
+      <c r="M252" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A253" t="s">
+        <v>201</v>
+      </c>
+      <c r="M253" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A254" t="s">
+        <v>202</v>
+      </c>
+      <c r="M254" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A255" t="s">
+        <v>203</v>
+      </c>
+      <c r="M255" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A256" t="s">
+        <v>207</v>
+      </c>
+      <c r="M256" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A257" t="s">
+        <v>208</v>
+      </c>
+      <c r="M257" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A258" t="s">
+        <v>209</v>
+      </c>
+      <c r="M258" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A259" t="s">
+        <v>254</v>
+      </c>
+      <c r="M259" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A260" t="s">
+        <v>255</v>
+      </c>
+      <c r="M260" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A261" t="s">
+        <v>257</v>
+      </c>
+      <c r="M261" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A262" t="s">
+        <v>258</v>
+      </c>
+      <c r="M262" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A263" t="s">
+        <v>371</v>
+      </c>
+      <c r="M263" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A264" t="s">
+        <v>374</v>
+      </c>
+      <c r="M264" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A265" t="s">
+        <v>373</v>
+      </c>
+      <c r="M265" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A267" t="s">
+        <v>278</v>
+      </c>
+      <c r="M267" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A268" t="s">
+        <v>213</v>
+      </c>
+      <c r="M268" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A269" t="s">
+        <v>214</v>
+      </c>
+      <c r="M269" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A270" t="s">
+        <v>215</v>
+      </c>
+      <c r="M270" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A271" t="s">
+        <v>218</v>
+      </c>
+      <c r="M271" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A272" t="s">
+        <v>219</v>
+      </c>
+      <c r="M272" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A273" t="s">
+        <v>220</v>
+      </c>
+      <c r="M273" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A274" t="s">
+        <v>223</v>
+      </c>
+      <c r="M274" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A275" t="s">
+        <v>224</v>
+      </c>
+      <c r="M275" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A276" t="s">
+        <v>225</v>
+      </c>
+      <c r="M276" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A277" t="s">
+        <v>226</v>
+      </c>
+      <c r="M277" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A278" t="s">
+        <v>228</v>
+      </c>
+      <c r="M278" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A279" t="s">
+        <v>230</v>
+      </c>
+      <c r="M279" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A280" t="s">
+        <v>231</v>
+      </c>
+      <c r="M280" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A281" t="s">
+        <v>232</v>
+      </c>
+      <c r="M281" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A282" t="s">
+        <v>233</v>
+      </c>
+      <c r="M282" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A283" t="s">
+        <v>234</v>
+      </c>
+      <c r="M283" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A284" t="s">
+        <v>261</v>
+      </c>
+      <c r="M284" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A285" t="s">
         <v>262</v>
       </c>
-      <c r="M209" t="s">
+      <c r="M285" t="s">
         <v>263</v>
       </c>
     </row>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB3EA5C-B211-46E3-9C7C-EE74B1A0ECA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB54B411-4A83-41EC-A42D-37543CECB62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -818,10 +818,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アサシンとマーリン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スポーンセット数</t>
     <rPh sb="7" eb="8">
       <t>スウ</t>
@@ -2314,10 +2310,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Evolve</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>eating</t>
   </si>
   <si>
@@ -2328,6 +2320,13 @@
     <rPh sb="2" eb="3">
       <t>チュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>evolve</t>
+  </si>
+  <si>
+    <t>&lt;color=#FF1919FF&gt;アサシン&lt;/color&gt;と&lt;color=#00ffff&gt;マーリン&lt;/color&gt;</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2658,8 +2657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A118" sqref="A118"/>
+    <sheetView tabSelected="1" topLeftCell="C227" workbookViewId="0">
+      <selection activeCell="M241" sqref="M241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2798,10 +2797,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="M10" t="s">
         <v>326</v>
-      </c>
-      <c r="M10" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
@@ -2872,7 +2871,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -2883,15 +2882,15 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="M19" t="s">
         <v>313</v>
-      </c>
-      <c r="M19" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
@@ -2908,7 +2907,7 @@
         <v>50</v>
       </c>
       <c r="M21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -2941,55 +2940,55 @@
         <v>59</v>
       </c>
       <c r="M24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="M25" t="s">
         <v>317</v>
-      </c>
-      <c r="M25" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M26" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
+        <v>321</v>
+      </c>
+      <c r="M30" t="s">
         <v>322</v>
-      </c>
-      <c r="M30" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
+        <v>323</v>
+      </c>
+      <c r="M31" t="s">
         <v>324</v>
-      </c>
-      <c r="M31" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -3000,7 +2999,7 @@
         <v>62</v>
       </c>
       <c r="M32" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
@@ -3011,7 +3010,7 @@
         <v>64</v>
       </c>
       <c r="M33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
@@ -3022,7 +3021,7 @@
         <v>66</v>
       </c>
       <c r="M34" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
@@ -3033,95 +3032,95 @@
         <v>68</v>
       </c>
       <c r="M35" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M37" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
+        <v>334</v>
+      </c>
+      <c r="M38" t="s">
         <v>335</v>
-      </c>
-      <c r="M38" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
+        <v>336</v>
+      </c>
+      <c r="M39" t="s">
         <v>337</v>
-      </c>
-      <c r="M39" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M42" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M43" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
+        <v>341</v>
+      </c>
+      <c r="M44" t="s">
         <v>342</v>
-      </c>
-      <c r="M44" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
+        <v>343</v>
+      </c>
+      <c r="M45" t="s">
         <v>344</v>
-      </c>
-      <c r="M45" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
+        <v>352</v>
+      </c>
+      <c r="M47" t="s">
         <v>353</v>
-      </c>
-      <c r="M47" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
+        <v>354</v>
+      </c>
+      <c r="M48" t="s">
         <v>355</v>
-      </c>
-      <c r="M48" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
+        <v>356</v>
+      </c>
+      <c r="M49" t="s">
         <v>357</v>
-      </c>
-      <c r="M49" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
@@ -3225,199 +3224,199 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
+        <v>288</v>
+      </c>
+      <c r="B64" t="s">
         <v>289</v>
       </c>
-      <c r="B64" t="s">
-        <v>290</v>
-      </c>
       <c r="M64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
+        <v>290</v>
+      </c>
+      <c r="B65" t="s">
         <v>291</v>
       </c>
-      <c r="B65" t="s">
-        <v>292</v>
-      </c>
       <c r="M65" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
+        <v>292</v>
+      </c>
+      <c r="B67" t="s">
         <v>293</v>
       </c>
-      <c r="B67" t="s">
+      <c r="M67" t="s">
         <v>294</v>
-      </c>
-      <c r="M67" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
+        <v>295</v>
+      </c>
+      <c r="B69" t="s">
         <v>296</v>
       </c>
-      <c r="B69" t="s">
+      <c r="M69" t="s">
         <v>297</v>
-      </c>
-      <c r="M69" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
+        <v>298</v>
+      </c>
+      <c r="B70" t="s">
         <v>299</v>
       </c>
-      <c r="B70" t="s">
+      <c r="M70" t="s">
         <v>300</v>
-      </c>
-      <c r="M70" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B71" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M71" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B72" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M72" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B73" t="s">
+        <v>303</v>
+      </c>
+      <c r="M73" t="s">
         <v>304</v>
-      </c>
-      <c r="M73" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
+        <v>388</v>
+      </c>
+      <c r="B74" t="s">
         <v>389</v>
       </c>
-      <c r="B74" t="s">
-        <v>390</v>
-      </c>
       <c r="M74" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
+        <v>363</v>
+      </c>
+      <c r="M77" t="s">
         <v>364</v>
-      </c>
-      <c r="M77" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M79" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M80" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M82" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M83" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M84" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M85" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M86" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M88" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M89" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
+        <v>368</v>
+      </c>
+      <c r="M90" t="s">
         <v>369</v>
-      </c>
-      <c r="M90" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.4">
       <c r="N91" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M92" t="s">
         <v>109</v>
@@ -3465,28 +3464,28 @@
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M98" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
+        <v>236</v>
+      </c>
+      <c r="M99" t="s">
         <v>237</v>
-      </c>
-      <c r="M99" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.4">
       <c r="N104" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M105" t="s">
         <v>123</v>
@@ -3566,39 +3565,39 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M115" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M116" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
+        <v>410</v>
+      </c>
+      <c r="M118" t="s">
         <v>411</v>
-      </c>
-      <c r="M118" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M119" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M120" t="s">
         <v>110</v>
@@ -3606,7 +3605,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M121" t="s">
         <v>111</v>
@@ -3614,7 +3613,7 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M122" t="s">
         <v>112</v>
@@ -3622,7 +3621,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M123" t="s">
         <v>113</v>
@@ -3630,7 +3629,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M124" t="s">
         <v>125</v>
@@ -3638,7 +3637,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M125" t="s">
         <v>124</v>
@@ -3646,7 +3645,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M126" t="s">
         <v>126</v>
@@ -3654,7 +3653,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M127" t="s">
         <v>127</v>
@@ -3662,100 +3661,100 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="M128" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M129" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M130" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="M131" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M132" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M133" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M134" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M135" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
+        <v>421</v>
+      </c>
+      <c r="M136" t="s">
         <v>422</v>
-      </c>
-      <c r="M136" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M137" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M138" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.4">
       <c r="N183" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M184" t="s">
         <v>138</v>
@@ -3843,74 +3842,74 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
+        <v>366</v>
+      </c>
+      <c r="M195" t="s">
         <v>367</v>
-      </c>
-      <c r="M195" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M196" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M197" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M198" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M199" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M200" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
+        <v>385</v>
+      </c>
+      <c r="M201" t="s">
         <v>386</v>
-      </c>
-      <c r="M201" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M203" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M204" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.4">
@@ -3987,7 +3986,7 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M214" t="s">
         <v>149</v>
@@ -4003,10 +4002,10 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A216" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="M216" t="s">
         <v>328</v>
-      </c>
-      <c r="M216" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.4">
@@ -4059,7 +4058,7 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="M223" t="s">
         <v>164</v>
@@ -4075,10 +4074,10 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A225" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M225" t="s">
         <v>331</v>
-      </c>
-      <c r="M225" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.4">
@@ -4107,47 +4106,47 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="M229" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M230" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
+        <v>249</v>
+      </c>
+      <c r="M231" t="s">
         <v>250</v>
-      </c>
-      <c r="M231" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.4">
       <c r="N238" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="M239" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
+        <v>274</v>
+      </c>
+      <c r="M240" t="s">
         <v>275</v>
-      </c>
-      <c r="M240" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.4">
@@ -4155,260 +4154,260 @@
         <v>177</v>
       </c>
       <c r="M241" t="s">
-        <v>178</v>
+        <v>428</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M242" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M243" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M244" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="M245" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M246" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M247" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
+        <v>189</v>
+      </c>
+      <c r="M248" t="s">
         <v>190</v>
-      </c>
-      <c r="M248" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M249" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M250" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
+        <v>196</v>
+      </c>
+      <c r="M251" t="s">
         <v>197</v>
-      </c>
-      <c r="M251" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
+        <v>198</v>
+      </c>
+      <c r="M252" t="s">
         <v>199</v>
-      </c>
-      <c r="M252" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M253" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M254" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M255" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M256" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M257" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M258" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M259" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
+        <v>254</v>
+      </c>
+      <c r="M260" t="s">
         <v>255</v>
-      </c>
-      <c r="M260" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M261" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
+        <v>257</v>
+      </c>
+      <c r="M262" t="s">
         <v>258</v>
-      </c>
-      <c r="M262" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
+        <v>370</v>
+      </c>
+      <c r="M263" t="s">
         <v>371</v>
-      </c>
-      <c r="M263" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
+        <v>373</v>
+      </c>
+      <c r="M264" t="s">
         <v>374</v>
-      </c>
-      <c r="M264" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M265" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M267" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M268" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M269" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M270" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M271" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M272" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M273" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M274" t="s">
         <v>111</v>
@@ -4416,7 +4415,7 @@
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M275" t="s">
         <v>112</v>
@@ -4424,7 +4423,7 @@
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M276" t="s">
         <v>113</v>
@@ -4432,31 +4431,31 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
+        <v>225</v>
+      </c>
+      <c r="M277" t="s">
         <v>226</v>
-      </c>
-      <c r="M277" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
+        <v>227</v>
+      </c>
+      <c r="M278" t="s">
         <v>228</v>
-      </c>
-      <c r="M278" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M279" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M280" t="s">
         <v>125</v>
@@ -4464,7 +4463,7 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M281" t="s">
         <v>124</v>
@@ -4472,7 +4471,7 @@
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M282" t="s">
         <v>126</v>
@@ -4480,7 +4479,7 @@
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="M283" t="s">
         <v>127</v>
@@ -4488,18 +4487,18 @@
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M284" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
+        <v>261</v>
+      </c>
+      <c r="M285" t="s">
         <v>262</v>
-      </c>
-      <c r="M285" t="s">
-        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB54B411-4A83-41EC-A42D-37543CECB62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5157B4D3-4B21-4C96-9C53-37E9D151853D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="431">
   <si>
     <t>English</t>
   </si>
@@ -2153,9 +2153,6 @@
     <t>EvolverEatingRange</t>
   </si>
   <si>
-    <t>EvolverKillCoolReduceRate</t>
-  </si>
-  <si>
     <t>EvolverAbilityCoolTime</t>
   </si>
   <si>
@@ -2220,16 +2217,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>進化後のキルクールの減少率</t>
-    <rPh sb="0" eb="3">
-      <t>シンカゴ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ゲンショウリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>捕食を行う時間</t>
     <rPh sb="0" eb="2">
       <t>ホショク</t>
@@ -2327,6 +2314,40 @@
   </si>
   <si>
     <t>&lt;color=#FF1919FF&gt;アサシン&lt;/color&gt;と&lt;color=#00ffff&gt;マーリン&lt;/color&gt;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EvolverKillCoolReduceRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EvolverKillCoolResuceRateMulti</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進化後のキルクール減少率</t>
+    <rPh sb="0" eb="3">
+      <t>シンカゴ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ゲンショウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進化毎のキルクール減少率の倍率</t>
+    <rPh sb="0" eb="2">
+      <t>シンカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ゲンショウリツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バイリツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2657,8 +2678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C227" workbookViewId="0">
-      <selection activeCell="M241" sqref="M241"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3581,18 +3602,18 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
+        <v>409</v>
+      </c>
+      <c r="M118" t="s">
         <v>410</v>
-      </c>
-      <c r="M118" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M119" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
@@ -3661,10 +3682,10 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M128" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
@@ -3672,7 +3693,7 @@
         <v>403</v>
       </c>
       <c r="M129" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
@@ -3680,28 +3701,28 @@
         <v>404</v>
       </c>
       <c r="M130" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="M131" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="M132" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="M133" t="s">
         <v>417</v>
@@ -3709,34 +3730,34 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M134" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A135" t="s">
-        <v>420</v>
+      <c r="A135" s="1" t="s">
+        <v>407</v>
       </c>
       <c r="M135" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
+        <v>418</v>
+      </c>
+      <c r="M136" t="s">
         <v>421</v>
-      </c>
-      <c r="M136" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="M137" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
@@ -3744,7 +3765,15 @@
         <v>425</v>
       </c>
       <c r="M138" t="s">
-        <v>426</v>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>423</v>
+      </c>
+      <c r="M139" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.4">
@@ -4154,7 +4183,7 @@
         <v>177</v>
       </c>
       <c r="M241" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.4">

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5157B4D3-4B21-4C96-9C53-37E9D151853D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DE8A15-5547-488F-9D83-3E131F0BF936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="433">
   <si>
     <t>English</t>
   </si>
@@ -2347,6 +2347,20 @@
     </rPh>
     <rPh sb="13" eb="15">
       <t>バイリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoverIntoPlus</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>と恋に落ちた</t>
+    <rPh sb="1" eb="2">
+      <t>コイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2676,10 +2690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q285"/>
+  <dimension ref="A1:Q286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A132" sqref="A132"/>
+    <sheetView tabSelected="1" topLeftCell="B262" workbookViewId="0">
+      <selection activeCell="M287" sqref="M287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4530,6 +4544,14 @@
         <v>262</v>
       </c>
     </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A286" t="s">
+        <v>431</v>
+      </c>
+      <c r="M286" t="s">
+        <v>432</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DE8A15-5547-488F-9D83-3E131F0BF936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26885555-F2E3-4ADF-9AD7-110B8F685B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="435">
   <si>
     <t>English</t>
   </si>
@@ -2361,6 +2361,17 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MarlinCanUseVent</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーリンがベントを使えるか</t>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2690,10 +2701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q286"/>
+  <dimension ref="A1:Q287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B262" workbookViewId="0">
-      <selection activeCell="M287" sqref="M287"/>
+    <sheetView tabSelected="1" topLeftCell="B251" workbookViewId="0">
+      <selection activeCell="M260" sqref="M260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4338,71 +4349,71 @@
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
-        <v>253</v>
+        <v>433</v>
       </c>
       <c r="M259" t="s">
-        <v>264</v>
+        <v>434</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M260" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M261" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M262" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
-        <v>370</v>
+        <v>257</v>
       </c>
       <c r="M263" t="s">
-        <v>371</v>
+        <v>258</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M264" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
+        <v>373</v>
+      </c>
+      <c r="M265" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A266" t="s">
         <v>372</v>
       </c>
-      <c r="M265" t="s">
+      <c r="M266" t="s">
         <v>375</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A267" t="s">
-        <v>277</v>
-      </c>
-      <c r="M267" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="M268" t="s">
         <v>215</v>
@@ -4410,145 +4421,153 @@
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M269" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M270" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="M271" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M272" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M273" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M274" t="s">
-        <v>111</v>
+        <v>182</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M275" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M276" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M277" t="s">
-        <v>226</v>
+        <v>113</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M278" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M279" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M280" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M281" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M282" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M283" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="M284" t="s">
-        <v>265</v>
+        <v>127</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M285" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
+        <v>261</v>
+      </c>
+      <c r="M286" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A287" t="s">
         <v>431</v>
       </c>
-      <c r="M286" t="s">
+      <c r="M287" t="s">
         <v>432</v>
       </c>
     </row>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26885555-F2E3-4ADF-9AD7-110B8F685B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E170404-BEC9-4802-9F2F-EFF413A807D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="451">
   <si>
     <t>English</t>
   </si>
@@ -1916,19 +1916,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自分自身の勝利のために動け</t>
-    <rPh sb="0" eb="4">
-      <t>ジブンジシン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ショウリ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ウゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>buttonCountText</t>
   </si>
   <si>
@@ -2372,6 +2359,117 @@
     <t>マーリンがベントを使えるか</t>
     <rPh sb="9" eb="10">
       <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Alive</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exiled</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dead</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Killed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Suicide</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Disconnected</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>切断</t>
+    <rPh sb="0" eb="2">
+      <t>セツダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自決</t>
+    <rPh sb="0" eb="2">
+      <t>ジケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>殺害</t>
+    <rPh sb="0" eb="2">
+      <t>サツガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生存</t>
+    <rPh sb="0" eb="2">
+      <t>セイゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追放</t>
+    <rPh sb="0" eb="2">
+      <t>ツイホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他の誰でもない自分自身の勝利のために動け</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ジブンジシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>summaryText</t>
+  </si>
+  <si>
+    <t>最終結果:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>summaryInfo</t>
+  </si>
+  <si>
+    <t>プレイヤー名&lt;pos=15%&gt;タスク&lt;pos=25%&gt;最終状態&lt;pos=38%&gt;役職</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヤクショク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2701,17 +2799,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q287"/>
+  <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B251" workbookViewId="0">
-      <selection activeCell="M260" sqref="M260"/>
+    <sheetView tabSelected="1" topLeftCell="C71" workbookViewId="0">
+      <selection activeCell="M81" sqref="M81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="44.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="78.375" customWidth="1"/>
-    <col min="13" max="13" width="58.625" customWidth="1"/>
+    <col min="13" max="13" width="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
@@ -3347,7 +3445,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B73" t="s">
         <v>303</v>
@@ -3358,1217 +3456,1275 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
+        <v>387</v>
+      </c>
+      <c r="B74" t="s">
         <v>388</v>
       </c>
-      <c r="B74" t="s">
-        <v>389</v>
-      </c>
       <c r="M74" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
+        <v>362</v>
+      </c>
+      <c r="M77" t="s">
         <v>363</v>
-      </c>
-      <c r="M77" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>359</v>
+        <v>447</v>
       </c>
       <c r="M79" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
-        <v>360</v>
-      </c>
-      <c r="M80" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
-        <v>281</v>
-      </c>
-      <c r="M82" t="s">
-        <v>278</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>449</v>
+      </c>
+      <c r="M81" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>280</v>
+        <v>434</v>
       </c>
       <c r="M83" t="s">
-        <v>282</v>
+        <v>444</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>283</v>
+        <v>435</v>
       </c>
       <c r="M84" t="s">
-        <v>279</v>
+        <v>445</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>284</v>
+        <v>436</v>
       </c>
       <c r="M85" t="s">
-        <v>286</v>
+        <v>443</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>285</v>
+        <v>437</v>
       </c>
       <c r="M86" t="s">
-        <v>287</v>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>438</v>
+      </c>
+      <c r="M87" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
       <c r="M88" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
-        <v>382</v>
-      </c>
-      <c r="M89" t="s">
-        <v>384</v>
+        <v>440</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="M90" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>360</v>
+      </c>
+      <c r="M91" t="s">
+        <v>446</v>
+      </c>
       <c r="N91" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
-        <v>266</v>
-      </c>
-      <c r="M92" t="s">
-        <v>109</v>
+        <v>393</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>108</v>
+        <v>281</v>
       </c>
       <c r="M93" t="s">
-        <v>109</v>
+        <v>278</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>280</v>
       </c>
       <c r="M94" t="s">
-        <v>110</v>
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>283</v>
       </c>
       <c r="M95" t="s">
-        <v>111</v>
+        <v>279</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>106</v>
+        <v>284</v>
       </c>
       <c r="M96" t="s">
-        <v>112</v>
+        <v>286</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>107</v>
+        <v>285</v>
       </c>
       <c r="M97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
-        <v>235</v>
-      </c>
-      <c r="M98" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>236</v>
+        <v>382</v>
       </c>
       <c r="M99" t="s">
-        <v>237</v>
+        <v>389</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>381</v>
+      </c>
+      <c r="M100" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>367</v>
+      </c>
+      <c r="M101" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>266</v>
+      </c>
+      <c r="M103" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
+        <v>108</v>
+      </c>
+      <c r="M104" t="s">
+        <v>109</v>
+      </c>
       <c r="N104" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>267</v>
+        <v>104</v>
       </c>
       <c r="M105" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="M106" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="M107" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="M108" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>117</v>
+        <v>235</v>
       </c>
       <c r="M109" t="s">
-        <v>112</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>118</v>
+        <v>236</v>
       </c>
       <c r="M110" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
-        <v>119</v>
-      </c>
-      <c r="M111" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
-        <v>120</v>
-      </c>
-      <c r="M112" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A113" t="s">
-        <v>121</v>
-      </c>
-      <c r="M113" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A114" t="s">
-        <v>122</v>
-      </c>
-      <c r="M114" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A115" t="s">
-        <v>239</v>
-      </c>
-      <c r="M115" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="M116" t="s">
-        <v>242</v>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>114</v>
+      </c>
+      <c r="M117" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
+        <v>115</v>
+      </c>
+      <c r="M118" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>116</v>
+      </c>
+      <c r="M119" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>117</v>
+      </c>
+      <c r="M120" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
+        <v>118</v>
+      </c>
+      <c r="M121" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
+        <v>119</v>
+      </c>
+      <c r="M122" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>120</v>
+      </c>
+      <c r="M123" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>121</v>
+      </c>
+      <c r="M124" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
+        <v>122</v>
+      </c>
+      <c r="M125" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>239</v>
+      </c>
+      <c r="M126" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>240</v>
+      </c>
+      <c r="M127" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>408</v>
+      </c>
+      <c r="M129" t="s">
         <v>409</v>
-      </c>
-      <c r="M118" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A119" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="M119" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A120" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="M120" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A121" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="M121" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A122" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="M122" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A123" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="M123" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A124" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M124" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A125" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="M125" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A126" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="M126" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A127" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="M127" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A128" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="M128" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A129" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="M129" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M130" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="M131" t="s">
-        <v>429</v>
+        <v>110</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="M132" t="s">
-        <v>430</v>
+        <v>111</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="M133" t="s">
-        <v>417</v>
+        <v>112</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="M134" t="s">
-        <v>415</v>
+        <v>113</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="M135" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A136" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M136" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A137" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="M137" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M138" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A139" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="M139" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A140" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="M140" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A141" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M141" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A142" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="M142" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A143" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="M143" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A144" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="M144" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A136" t="s">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A145" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="M145" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A146" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="M146" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>417</v>
+      </c>
+      <c r="M147" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
         <v>418</v>
       </c>
-      <c r="M136" t="s">
+      <c r="M148" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>424</v>
+      </c>
+      <c r="M149" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A137" t="s">
-        <v>419</v>
-      </c>
-      <c r="M137" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A138" t="s">
-        <v>425</v>
-      </c>
-      <c r="M138" t="s">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A139" t="s">
+      <c r="M150" t="s">
         <v>423</v>
       </c>
-      <c r="M139" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="183" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N183" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A184" t="s">
-        <v>268</v>
-      </c>
-      <c r="M184" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A185" t="s">
-        <v>128</v>
-      </c>
-      <c r="M185" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A186" t="s">
-        <v>129</v>
-      </c>
-      <c r="M186" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A187" t="s">
-        <v>130</v>
-      </c>
-      <c r="M187" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A188" t="s">
-        <v>131</v>
-      </c>
-      <c r="M188" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A189" t="s">
-        <v>132</v>
-      </c>
-      <c r="M189" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A190" t="s">
-        <v>133</v>
-      </c>
-      <c r="M190" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A191" t="s">
-        <v>134</v>
-      </c>
-      <c r="M191" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A192" t="s">
-        <v>135</v>
-      </c>
-      <c r="M192" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A193" t="s">
-        <v>136</v>
-      </c>
-      <c r="M193" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A194" t="s">
-        <v>137</v>
-      </c>
-      <c r="M194" t="s">
-        <v>139</v>
+        <v>391</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
-        <v>366</v>
+        <v>268</v>
       </c>
       <c r="M195" t="s">
-        <v>367</v>
+        <v>138</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>376</v>
+        <v>128</v>
       </c>
       <c r="M196" t="s">
-        <v>380</v>
+        <v>138</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
-        <v>377</v>
+        <v>129</v>
       </c>
       <c r="M197" t="s">
-        <v>379</v>
+        <v>110</v>
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
-        <v>378</v>
+        <v>130</v>
       </c>
       <c r="M198" t="s">
-        <v>381</v>
+        <v>111</v>
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="M199" t="s">
-        <v>245</v>
+        <v>112</v>
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
-        <v>244</v>
+        <v>132</v>
       </c>
       <c r="M200" t="s">
-        <v>246</v>
+        <v>113</v>
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
-        <v>385</v>
+        <v>133</v>
       </c>
       <c r="M201" t="s">
-        <v>386</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A202" t="s">
+        <v>134</v>
+      </c>
+      <c r="M202" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
-        <v>269</v>
+        <v>135</v>
       </c>
       <c r="M203" t="s">
-        <v>271</v>
+        <v>126</v>
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
-        <v>270</v>
+        <v>136</v>
       </c>
       <c r="M204" t="s">
-        <v>272</v>
+        <v>127</v>
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M205" t="s">
-        <v>176</v>
+        <v>139</v>
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
-        <v>141</v>
+        <v>365</v>
       </c>
       <c r="M206" t="s">
-        <v>110</v>
+        <v>366</v>
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
-        <v>142</v>
+        <v>375</v>
       </c>
       <c r="M207" t="s">
-        <v>168</v>
+        <v>379</v>
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
       <c r="M208" t="s">
-        <v>169</v>
+        <v>378</v>
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
-        <v>144</v>
+        <v>377</v>
       </c>
       <c r="M209" t="s">
-        <v>170</v>
+        <v>380</v>
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="M210" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
       <c r="M211" t="s">
-        <v>124</v>
+        <v>246</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
-        <v>147</v>
+        <v>384</v>
       </c>
       <c r="M212" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A213" t="s">
-        <v>148</v>
-      </c>
-      <c r="M213" t="s">
-        <v>127</v>
+        <v>385</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>365</v>
+        <v>269</v>
       </c>
       <c r="M214" t="s">
-        <v>149</v>
+        <v>271</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>150</v>
+        <v>270</v>
       </c>
       <c r="M215" t="s">
-        <v>151</v>
+        <v>272</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A216" s="1" t="s">
-        <v>327</v>
+      <c r="A216" t="s">
+        <v>140</v>
       </c>
       <c r="M216" t="s">
-        <v>328</v>
+        <v>176</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="M217" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="M218" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="M219" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="M220" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="M221" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="M222" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
-        <v>329</v>
+        <v>147</v>
       </c>
       <c r="M223" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="M224" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A225" s="1" t="s">
-        <v>330</v>
+      <c r="A225" t="s">
+        <v>364</v>
       </c>
       <c r="M225" t="s">
-        <v>331</v>
+        <v>149</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="M226" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A227" t="s">
-        <v>174</v>
+      <c r="A227" s="1" t="s">
+        <v>327</v>
       </c>
       <c r="M227" t="s">
-        <v>172</v>
+        <v>328</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="M228" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
-        <v>247</v>
+        <v>153</v>
       </c>
       <c r="M229" t="s">
-        <v>252</v>
+        <v>157</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
-        <v>248</v>
+        <v>154</v>
       </c>
       <c r="M230" t="s">
-        <v>251</v>
+        <v>159</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
-        <v>249</v>
+        <v>156</v>
       </c>
       <c r="M231" t="s">
-        <v>250</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A232" t="s">
+        <v>158</v>
+      </c>
+      <c r="M232" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A233" t="s">
+        <v>161</v>
+      </c>
+      <c r="M233" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A234" t="s">
+        <v>329</v>
+      </c>
+      <c r="M234" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A235" t="s">
+        <v>165</v>
+      </c>
+      <c r="M235" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A236" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M236" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A237" t="s">
+        <v>167</v>
+      </c>
+      <c r="M237" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A238" t="s">
+        <v>174</v>
+      </c>
+      <c r="M238" t="s">
+        <v>172</v>
+      </c>
       <c r="N238" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
-        <v>273</v>
+        <v>175</v>
       </c>
       <c r="M239" t="s">
-        <v>276</v>
+        <v>173</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="M240" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
-        <v>177</v>
+        <v>248</v>
       </c>
       <c r="M241" t="s">
-        <v>426</v>
+        <v>251</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
-        <v>179</v>
+        <v>249</v>
       </c>
       <c r="M242" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A243" t="s">
-        <v>180</v>
-      </c>
-      <c r="M243" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A244" t="s">
-        <v>181</v>
-      </c>
-      <c r="M244" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A245" t="s">
-        <v>183</v>
-      </c>
-      <c r="M245" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A246" t="s">
-        <v>187</v>
-      </c>
-      <c r="M246" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A247" t="s">
-        <v>188</v>
-      </c>
-      <c r="M247" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A248" t="s">
-        <v>189</v>
-      </c>
-      <c r="M248" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A249" t="s">
-        <v>194</v>
-      </c>
-      <c r="M249" t="s">
-        <v>192</v>
+        <v>250</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
-        <v>195</v>
+        <v>273</v>
       </c>
       <c r="M250" t="s">
-        <v>193</v>
+        <v>276</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
-        <v>196</v>
+        <v>274</v>
       </c>
       <c r="M251" t="s">
-        <v>197</v>
+        <v>275</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="M252" t="s">
-        <v>199</v>
+        <v>425</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="M253" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="M254" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="M255" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="M256" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="M257" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="M258" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
-        <v>433</v>
+        <v>189</v>
       </c>
       <c r="M259" t="s">
-        <v>434</v>
+        <v>190</v>
       </c>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="M260" t="s">
-        <v>264</v>
+        <v>192</v>
       </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="M261" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
-        <v>256</v>
+        <v>196</v>
       </c>
       <c r="M262" t="s">
-        <v>259</v>
+        <v>197</v>
       </c>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
-        <v>257</v>
+        <v>198</v>
       </c>
       <c r="M263" t="s">
-        <v>258</v>
+        <v>199</v>
       </c>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
-        <v>370</v>
+        <v>200</v>
       </c>
       <c r="M264" t="s">
-        <v>371</v>
+        <v>203</v>
       </c>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
-        <v>373</v>
+        <v>201</v>
       </c>
       <c r="M265" t="s">
-        <v>374</v>
+        <v>204</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
-        <v>372</v>
+        <v>202</v>
       </c>
       <c r="M266" t="s">
-        <v>375</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A267" t="s">
+        <v>206</v>
+      </c>
+      <c r="M267" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
-        <v>277</v>
+        <v>207</v>
       </c>
       <c r="M268" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="M269" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>213</v>
+        <v>432</v>
       </c>
       <c r="M270" t="s">
-        <v>216</v>
+        <v>433</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="M271" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="M272" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="M273" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="M274" t="s">
-        <v>182</v>
+        <v>258</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="M275" t="s">
-        <v>111</v>
+        <v>370</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
-        <v>223</v>
+        <v>372</v>
       </c>
       <c r="M276" t="s">
-        <v>112</v>
+        <v>373</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>224</v>
+        <v>371</v>
       </c>
       <c r="M277" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A278" t="s">
-        <v>225</v>
-      </c>
-      <c r="M278" t="s">
-        <v>226</v>
+        <v>374</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
-        <v>227</v>
+        <v>277</v>
       </c>
       <c r="M279" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="M280" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="M281" t="s">
-        <v>125</v>
+        <v>216</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="M282" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="M283" t="s">
-        <v>126</v>
+        <v>220</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="M284" t="s">
-        <v>127</v>
+        <v>221</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="M285" t="s">
-        <v>265</v>
+        <v>182</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="M286" t="s">
-        <v>262</v>
+        <v>111</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
+        <v>223</v>
+      </c>
+      <c r="M287" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A288" t="s">
+        <v>224</v>
+      </c>
+      <c r="M288" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A289" t="s">
+        <v>225</v>
+      </c>
+      <c r="M289" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A290" t="s">
+        <v>227</v>
+      </c>
+      <c r="M290" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A291" t="s">
+        <v>229</v>
+      </c>
+      <c r="M291" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A292" t="s">
+        <v>230</v>
+      </c>
+      <c r="M292" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A293" t="s">
+        <v>231</v>
+      </c>
+      <c r="M293" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A294" t="s">
+        <v>232</v>
+      </c>
+      <c r="M294" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A295" t="s">
+        <v>233</v>
+      </c>
+      <c r="M295" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A296" t="s">
+        <v>260</v>
+      </c>
+      <c r="M296" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A297" t="s">
+        <v>261</v>
+      </c>
+      <c r="M297" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A298" t="s">
+        <v>430</v>
+      </c>
+      <c r="M298" t="s">
         <v>431</v>
-      </c>
-      <c r="M287" t="s">
-        <v>432</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E170404-BEC9-4802-9F2F-EFF413A807D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4575DEEE-B657-4700-9342-62A9A54D8B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="474">
   <si>
     <t>English</t>
   </si>
@@ -1872,9 +1872,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Win</t>
-  </si>
-  <si>
     <t>勝利</t>
     <rPh sb="0" eb="2">
       <t>ショウリ</t>
@@ -1882,10 +1879,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AndFirst</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>及び</t>
     <rPh sb="0" eb="1">
       <t>オヨ</t>
@@ -1893,9 +1886,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>And</t>
-  </si>
-  <si>
     <t>、</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2458,7 +2448,7 @@
     <t>summaryInfo</t>
   </si>
   <si>
-    <t>プレイヤー名&lt;pos=15%&gt;タスク&lt;pos=25%&gt;最終状態&lt;pos=38%&gt;役職</t>
+    <t>プレイヤー名&lt;pos=18%&gt;タスク&lt;pos=25%&gt;最終状態&lt;pos=38%&gt;役職</t>
     <rPh sb="5" eb="6">
       <t>メイ</t>
     </rPh>
@@ -2471,6 +2461,152 @@
     <rPh sb="40" eb="42">
       <t>ヤクショク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sheriff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SheriffSpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SheriffRoleNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SheriffHasOtherVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SheriffVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SheriffApplyEnvironmentVisionEffect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SheriffHasOtherKillCool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SheriffKillCoolDown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SheriffHasOtherKillRange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SheriffKillRange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SheriffIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SheriffShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SheriffShootNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SheriffCanShootNeutral</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シェリフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キルできる回数</t>
+    <rPh sb="5" eb="7">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三陣営をキルできるか</t>
+    <rPh sb="0" eb="4">
+      <t>ダイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>に正義の鉄槌を下せ</t>
+    <rPh sb="1" eb="3">
+      <t>セイギ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テッツイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この船を荒らす不届き者に正義の鉄槌を下せ</t>
+    <rPh sb="2" eb="3">
+      <t>フネ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フトド</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイギ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テッツイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自己中</t>
+    <rPh sb="0" eb="3">
+      <t>ジコチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>impostorShotCall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>neutralShotCall</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>殺人鬼</t>
+    <rPh sb="0" eb="3">
+      <t>サツジンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>andFirst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>and</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>win</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2799,10 +2935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q298"/>
+  <dimension ref="A1:Q314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C71" workbookViewId="0">
-      <selection activeCell="M81" sqref="M81"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="M83" sqref="M83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3245,26 +3381,26 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
+        <v>473</v>
+      </c>
+      <c r="M47" t="s">
         <v>352</v>
-      </c>
-      <c r="M47" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>354</v>
+        <v>471</v>
       </c>
       <c r="M48" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>356</v>
+        <v>472</v>
       </c>
       <c r="M49" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
@@ -3423,7 +3559,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B71" t="s">
         <v>301</v>
@@ -3445,7 +3581,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B73" t="s">
         <v>303</v>
@@ -3456,1275 +3592,1405 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B74" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M74" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M77" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
+        <v>444</v>
+      </c>
+      <c r="M79" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>446</v>
+      </c>
+      <c r="M81" t="s">
         <v>447</v>
       </c>
-      <c r="M79" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
-        <v>449</v>
-      </c>
-      <c r="M81" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.4">
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
+        <v>431</v>
+      </c>
+      <c r="M83" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>432</v>
+      </c>
+      <c r="M84" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>433</v>
+      </c>
+      <c r="M85" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
         <v>434</v>
       </c>
-      <c r="M83" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
+      <c r="M86" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
         <v>435</v>
       </c>
-      <c r="M84" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
+      <c r="M87" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
         <v>436</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M88" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>356</v>
+      </c>
+      <c r="M90" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>357</v>
+      </c>
+      <c r="M91" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>437</v>
-      </c>
-      <c r="M86" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
-        <v>438</v>
-      </c>
-      <c r="M87" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
-        <v>439</v>
-      </c>
-      <c r="M88" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
-        <v>359</v>
-      </c>
-      <c r="M90" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
-        <v>360</v>
-      </c>
-      <c r="M91" t="s">
-        <v>446</v>
-      </c>
-      <c r="N91" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
+        <v>469</v>
+      </c>
+      <c r="M93" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>468</v>
+      </c>
+      <c r="M94" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
         <v>281</v>
       </c>
-      <c r="M93" t="s">
+      <c r="M96" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
-        <v>280</v>
-      </c>
-      <c r="M94" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
-        <v>283</v>
-      </c>
-      <c r="M95" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
-        <v>284</v>
-      </c>
-      <c r="M96" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="M97" t="s">
-        <v>287</v>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>283</v>
+      </c>
+      <c r="M98" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>382</v>
+        <v>284</v>
       </c>
       <c r="M99" t="s">
-        <v>389</v>
+        <v>286</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>381</v>
+        <v>285</v>
       </c>
       <c r="M100" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
-        <v>367</v>
-      </c>
-      <c r="M101" t="s">
-        <v>368</v>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>379</v>
+      </c>
+      <c r="M102" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>266</v>
+        <v>378</v>
       </c>
       <c r="M103" t="s">
-        <v>109</v>
+        <v>380</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>364</v>
       </c>
       <c r="M104" t="s">
-        <v>109</v>
-      </c>
-      <c r="N104" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
-        <v>104</v>
-      </c>
-      <c r="M105" t="s">
-        <v>110</v>
+      <c r="N105" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>266</v>
       </c>
       <c r="M106" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M107" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M108" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>235</v>
+        <v>105</v>
       </c>
       <c r="M109" t="s">
-        <v>238</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
+        <v>106</v>
+      </c>
+      <c r="M110" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>107</v>
+      </c>
+      <c r="M111" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>235</v>
+      </c>
+      <c r="M112" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
         <v>236</v>
       </c>
-      <c r="M110" t="s">
+      <c r="M113" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>448</v>
+      </c>
+      <c r="M115" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>267</v>
+        <v>449</v>
       </c>
       <c r="M116" t="s">
-        <v>123</v>
+        <v>462</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>114</v>
+        <v>450</v>
       </c>
       <c r="M117" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>115</v>
+        <v>451</v>
       </c>
       <c r="M118" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>116</v>
+        <v>452</v>
       </c>
       <c r="M119" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>117</v>
+        <v>453</v>
       </c>
       <c r="M120" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>118</v>
+        <v>454</v>
       </c>
       <c r="M121" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>119</v>
+        <v>455</v>
       </c>
       <c r="M122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>456</v>
       </c>
       <c r="M123" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>457</v>
       </c>
       <c r="M124" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>122</v>
+        <v>460</v>
       </c>
       <c r="M125" t="s">
-        <v>127</v>
+        <v>463</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>239</v>
+        <v>461</v>
       </c>
       <c r="M126" t="s">
-        <v>241</v>
+        <v>464</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
+        <v>458</v>
+      </c>
+      <c r="M127" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>459</v>
+      </c>
+      <c r="M128" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>267</v>
+      </c>
+      <c r="M132" t="s">
+        <v>123</v>
+      </c>
+      <c r="N132" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>114</v>
+      </c>
+      <c r="M133" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>115</v>
+      </c>
+      <c r="M134" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
+        <v>116</v>
+      </c>
+      <c r="M135" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>117</v>
+      </c>
+      <c r="M136" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>118</v>
+      </c>
+      <c r="M137" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>119</v>
+      </c>
+      <c r="M138" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>120</v>
+      </c>
+      <c r="M139" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>121</v>
+      </c>
+      <c r="M140" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>122</v>
+      </c>
+      <c r="M141" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>239</v>
+      </c>
+      <c r="M142" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
         <v>240</v>
       </c>
-      <c r="M127" t="s">
+      <c r="M143" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
-        <v>408</v>
-      </c>
-      <c r="M129" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A130" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="M130" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A131" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="M131" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A132" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="M132" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A133" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="M133" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A134" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="M134" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A135" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="M135" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A136" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M136" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A137" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="M137" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A138" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="M138" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A139" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="M139" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A140" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="M140" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A141" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="M141" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A142" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="M142" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A143" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="M143" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A144" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="M144" t="s">
-        <v>416</v>
-      </c>
-    </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A145" s="1" t="s">
+      <c r="A145" t="s">
         <v>405</v>
       </c>
       <c r="M145" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="M146" t="s">
         <v>406</v>
       </c>
-      <c r="M146" t="s">
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A147" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="M147" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A148" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="M148" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A149" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="M149" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A150" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="M150" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A151" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="M151" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A152" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="M152" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A153" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="M153" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A154" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="M154" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A155" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="M155" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A156" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M156" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A157" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="M157" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A158" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="M158" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A159" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M159" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A160" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M160" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A161" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="M161" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A162" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="M162" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A163" t="s">
+        <v>414</v>
+      </c>
+      <c r="M163" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A147" t="s">
-        <v>417</v>
-      </c>
-      <c r="M147" t="s">
+      <c r="M164" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
+        <v>421</v>
+      </c>
+      <c r="M165" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A166" t="s">
+        <v>419</v>
+      </c>
+      <c r="M166" t="s">
         <v>420</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A148" t="s">
-        <v>418</v>
-      </c>
-      <c r="M148" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A149" t="s">
-        <v>424</v>
-      </c>
-      <c r="M149" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A150" t="s">
-        <v>422</v>
-      </c>
-      <c r="M150" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="183" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N183" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A195" t="s">
-        <v>268</v>
-      </c>
-      <c r="M195" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A196" t="s">
-        <v>128</v>
-      </c>
-      <c r="M196" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A197" t="s">
-        <v>129</v>
-      </c>
-      <c r="M197" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A198" t="s">
-        <v>130</v>
-      </c>
-      <c r="M198" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A199" t="s">
-        <v>131</v>
-      </c>
-      <c r="M199" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A200" t="s">
-        <v>132</v>
-      </c>
-      <c r="M200" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A201" t="s">
-        <v>133</v>
-      </c>
-      <c r="M201" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A202" t="s">
-        <v>134</v>
-      </c>
-      <c r="M202" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A203" t="s">
-        <v>135</v>
-      </c>
-      <c r="M203" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A204" t="s">
-        <v>136</v>
-      </c>
-      <c r="M204" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A205" t="s">
-        <v>137</v>
-      </c>
-      <c r="M205" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A206" t="s">
-        <v>365</v>
-      </c>
-      <c r="M206" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A207" t="s">
-        <v>375</v>
-      </c>
-      <c r="M207" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A208" t="s">
-        <v>376</v>
-      </c>
-      <c r="M208" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A209" t="s">
-        <v>377</v>
-      </c>
-      <c r="M209" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A210" t="s">
-        <v>243</v>
-      </c>
-      <c r="M210" t="s">
-        <v>245</v>
+        <v>388</v>
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="M211" t="s">
-        <v>246</v>
+        <v>138</v>
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
-        <v>384</v>
+        <v>128</v>
       </c>
       <c r="M212" t="s">
-        <v>385</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A213" t="s">
+        <v>129</v>
+      </c>
+      <c r="M213" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
-        <v>269</v>
+        <v>130</v>
       </c>
       <c r="M214" t="s">
-        <v>271</v>
+        <v>111</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>270</v>
+        <v>131</v>
       </c>
       <c r="M215" t="s">
-        <v>272</v>
+        <v>112</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="M216" t="s">
-        <v>176</v>
+        <v>113</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M217" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="M218" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="M219" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M220" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="M221" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
-        <v>146</v>
+        <v>362</v>
       </c>
       <c r="M222" t="s">
-        <v>124</v>
+        <v>363</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
-        <v>147</v>
+        <v>372</v>
       </c>
       <c r="M223" t="s">
-        <v>126</v>
+        <v>376</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
-        <v>148</v>
+        <v>373</v>
       </c>
       <c r="M224" t="s">
-        <v>127</v>
+        <v>375</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="M225" t="s">
-        <v>149</v>
+        <v>377</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
-        <v>150</v>
+        <v>243</v>
       </c>
       <c r="M226" t="s">
-        <v>151</v>
+        <v>245</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A227" s="1" t="s">
-        <v>327</v>
+      <c r="A227" t="s">
+        <v>244</v>
       </c>
       <c r="M227" t="s">
-        <v>328</v>
+        <v>246</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
-        <v>152</v>
+        <v>381</v>
       </c>
       <c r="M228" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A229" t="s">
-        <v>153</v>
-      </c>
-      <c r="M229" t="s">
-        <v>157</v>
+        <v>382</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
-        <v>154</v>
+        <v>269</v>
       </c>
       <c r="M230" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
-        <v>156</v>
+        <v>270</v>
       </c>
       <c r="M231" t="s">
-        <v>160</v>
+        <v>272</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="M232" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="M233" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
-        <v>329</v>
+        <v>142</v>
       </c>
       <c r="M234" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="M235" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A236" s="1" t="s">
-        <v>330</v>
+      <c r="A236" t="s">
+        <v>144</v>
       </c>
       <c r="M236" t="s">
-        <v>331</v>
+        <v>170</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="M237" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="M238" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="N238" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="M239" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
-        <v>247</v>
+        <v>148</v>
       </c>
       <c r="M240" t="s">
-        <v>252</v>
+        <v>127</v>
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
-        <v>248</v>
+        <v>361</v>
       </c>
       <c r="M241" t="s">
-        <v>251</v>
+        <v>149</v>
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="M242" t="s">
-        <v>250</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A243" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="M243" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A244" t="s">
+        <v>152</v>
+      </c>
+      <c r="M244" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A245" t="s">
+        <v>153</v>
+      </c>
+      <c r="M245" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A246" t="s">
+        <v>154</v>
+      </c>
+      <c r="M246" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A247" t="s">
+        <v>156</v>
+      </c>
+      <c r="M247" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A248" t="s">
+        <v>158</v>
+      </c>
+      <c r="M248" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A249" t="s">
+        <v>161</v>
+      </c>
+      <c r="M249" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="M250" t="s">
-        <v>276</v>
+        <v>164</v>
       </c>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
-        <v>274</v>
+        <v>165</v>
       </c>
       <c r="M251" t="s">
-        <v>275</v>
+        <v>166</v>
       </c>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A252" t="s">
-        <v>177</v>
+      <c r="A252" s="1" t="s">
+        <v>330</v>
       </c>
       <c r="M252" t="s">
-        <v>425</v>
+        <v>331</v>
       </c>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="M253" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M254" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M255" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
-        <v>183</v>
+        <v>247</v>
       </c>
       <c r="M256" t="s">
-        <v>185</v>
+        <v>252</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="M257" t="s">
-        <v>186</v>
+        <v>251</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="M258" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A259" t="s">
-        <v>189</v>
-      </c>
-      <c r="M259" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A260" t="s">
-        <v>194</v>
-      </c>
-      <c r="M260" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A261" t="s">
-        <v>195</v>
-      </c>
-      <c r="M261" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A262" t="s">
-        <v>196</v>
-      </c>
-      <c r="M262" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A263" t="s">
-        <v>198</v>
-      </c>
-      <c r="M263" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A264" t="s">
-        <v>200</v>
-      </c>
-      <c r="M264" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A265" t="s">
-        <v>201</v>
-      </c>
-      <c r="M265" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
-        <v>202</v>
+        <v>273</v>
       </c>
       <c r="M266" t="s">
-        <v>205</v>
+        <v>276</v>
       </c>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
-        <v>206</v>
+        <v>274</v>
       </c>
       <c r="M267" t="s">
-        <v>209</v>
+        <v>275</v>
       </c>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="M268" t="s">
-        <v>210</v>
+        <v>422</v>
       </c>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="M269" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>432</v>
+        <v>180</v>
       </c>
       <c r="M270" t="s">
-        <v>433</v>
+        <v>182</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>253</v>
+        <v>181</v>
       </c>
       <c r="M271" t="s">
-        <v>264</v>
+        <v>184</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>254</v>
+        <v>183</v>
       </c>
       <c r="M272" t="s">
-        <v>255</v>
+        <v>185</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>256</v>
+        <v>187</v>
       </c>
       <c r="M273" t="s">
-        <v>259</v>
+        <v>186</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>257</v>
+        <v>188</v>
       </c>
       <c r="M274" t="s">
-        <v>258</v>
+        <v>191</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>369</v>
+        <v>189</v>
       </c>
       <c r="M275" t="s">
-        <v>370</v>
+        <v>190</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
-        <v>372</v>
+        <v>194</v>
       </c>
       <c r="M276" t="s">
-        <v>373</v>
+        <v>192</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>371</v>
+        <v>195</v>
       </c>
       <c r="M277" t="s">
-        <v>374</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A278" t="s">
+        <v>196</v>
+      </c>
+      <c r="M278" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
-        <v>277</v>
+        <v>198</v>
       </c>
       <c r="M279" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="M280" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="M281" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="M282" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="M283" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="M284" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="M285" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>222</v>
+        <v>429</v>
       </c>
       <c r="M286" t="s">
-        <v>111</v>
+        <v>430</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="M287" t="s">
-        <v>112</v>
+        <v>264</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="M288" t="s">
-        <v>113</v>
+        <v>255</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
-        <v>225</v>
+        <v>256</v>
       </c>
       <c r="M289" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="M290" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
-        <v>229</v>
+        <v>366</v>
       </c>
       <c r="M291" t="s">
-        <v>234</v>
+        <v>367</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
-        <v>230</v>
+        <v>369</v>
       </c>
       <c r="M292" t="s">
-        <v>125</v>
+        <v>370</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
-        <v>231</v>
+        <v>368</v>
       </c>
       <c r="M293" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A294" t="s">
-        <v>232</v>
-      </c>
-      <c r="M294" t="s">
-        <v>126</v>
+        <v>371</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="M295" t="s">
-        <v>127</v>
+        <v>215</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="M296" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="M297" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
-        <v>430</v>
+        <v>214</v>
       </c>
       <c r="M298" t="s">
-        <v>431</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A299" t="s">
+        <v>217</v>
+      </c>
+      <c r="M299" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A300" t="s">
+        <v>218</v>
+      </c>
+      <c r="M300" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A301" t="s">
+        <v>219</v>
+      </c>
+      <c r="M301" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A302" t="s">
+        <v>222</v>
+      </c>
+      <c r="M302" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A303" t="s">
+        <v>223</v>
+      </c>
+      <c r="M303" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A304" t="s">
+        <v>224</v>
+      </c>
+      <c r="M304" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A305" t="s">
+        <v>225</v>
+      </c>
+      <c r="M305" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A306" t="s">
+        <v>227</v>
+      </c>
+      <c r="M306" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A307" t="s">
+        <v>229</v>
+      </c>
+      <c r="M307" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A308" t="s">
+        <v>230</v>
+      </c>
+      <c r="M308" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A309" t="s">
+        <v>231</v>
+      </c>
+      <c r="M309" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A310" t="s">
+        <v>232</v>
+      </c>
+      <c r="M310" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A311" t="s">
+        <v>233</v>
+      </c>
+      <c r="M311" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A312" t="s">
+        <v>260</v>
+      </c>
+      <c r="M312" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="313" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A313" t="s">
+        <v>261</v>
+      </c>
+      <c r="M313" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="314" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A314" t="s">
+        <v>427</v>
+      </c>
+      <c r="M314" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4575DEEE-B657-4700-9342-62A9A54D8B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1063BB8-55B8-4474-AEBE-BDCA645E20F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="476">
   <si>
     <t>English</t>
   </si>
@@ -2607,6 +2607,16 @@
   </si>
   <si>
     <t>win</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MissShot</t>
+  </si>
+  <si>
+    <t>暴発</t>
+    <rPh sb="0" eb="2">
+      <t>ボウハツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2935,10 +2945,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q314"/>
+  <dimension ref="A1:Q318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="M83" sqref="M83"/>
+    <sheetView tabSelected="1" topLeftCell="C77" workbookViewId="0">
+      <selection activeCell="M90" sqref="M90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3673,1323 +3683,1331 @@
         <v>437</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
-        <v>356</v>
-      </c>
-      <c r="M90" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
-        <v>357</v>
-      </c>
-      <c r="M91" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
-        <v>469</v>
-      </c>
-      <c r="M93" t="s">
-        <v>467</v>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>474</v>
+      </c>
+      <c r="M89" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>468</v>
+        <v>356</v>
       </c>
       <c r="M94" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
-        <v>281</v>
-      </c>
-      <c r="M96" t="s">
-        <v>278</v>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>357</v>
+      </c>
+      <c r="M95" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>280</v>
+        <v>469</v>
       </c>
       <c r="M97" t="s">
-        <v>282</v>
+        <v>467</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>283</v>
+        <v>468</v>
       </c>
       <c r="M98" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
-        <v>284</v>
-      </c>
-      <c r="M99" t="s">
-        <v>286</v>
+        <v>470</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="M100" t="s">
-        <v>287</v>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>280</v>
+      </c>
+      <c r="M101" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>379</v>
+        <v>283</v>
       </c>
       <c r="M102" t="s">
-        <v>386</v>
+        <v>279</v>
       </c>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>378</v>
+        <v>284</v>
       </c>
       <c r="M103" t="s">
-        <v>380</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>364</v>
+        <v>285</v>
       </c>
       <c r="M104" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="N105" t="s">
-        <v>390</v>
+        <v>287</v>
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="M106" t="s">
-        <v>109</v>
+        <v>386</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>378</v>
       </c>
       <c r="M107" t="s">
-        <v>109</v>
+        <v>380</v>
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>104</v>
+        <v>364</v>
       </c>
       <c r="M108" t="s">
-        <v>110</v>
+        <v>365</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
-        <v>105</v>
-      </c>
-      <c r="M109" t="s">
-        <v>111</v>
+      <c r="N109" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>106</v>
+        <v>266</v>
       </c>
       <c r="M110" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M111" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>235</v>
+        <v>104</v>
       </c>
       <c r="M112" t="s">
-        <v>238</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>236</v>
+        <v>105</v>
       </c>
       <c r="M113" t="s">
-        <v>237</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>106</v>
+      </c>
+      <c r="M114" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>448</v>
+        <v>107</v>
       </c>
       <c r="M115" t="s">
-        <v>462</v>
+        <v>113</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>449</v>
+        <v>235</v>
       </c>
       <c r="M116" t="s">
-        <v>462</v>
+        <v>238</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>450</v>
+        <v>236</v>
       </c>
       <c r="M117" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A118" t="s">
-        <v>451</v>
-      </c>
-      <c r="M118" t="s">
-        <v>111</v>
+        <v>237</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="M119" t="s">
-        <v>112</v>
+        <v>462</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="M120" t="s">
-        <v>113</v>
+        <v>462</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="M121" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="M122" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M123" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M124" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="M125" t="s">
-        <v>463</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="M126" t="s">
-        <v>464</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M127" t="s">
-        <v>466</v>
+        <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M128" t="s">
-        <v>465</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>460</v>
+      </c>
+      <c r="M129" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>461</v>
+      </c>
+      <c r="M130" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>458</v>
+      </c>
+      <c r="M131" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>267</v>
+        <v>459</v>
       </c>
       <c r="M132" t="s">
-        <v>123</v>
-      </c>
-      <c r="N132" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A133" t="s">
-        <v>114</v>
-      </c>
-      <c r="M133" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A134" t="s">
-        <v>115</v>
-      </c>
-      <c r="M134" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A135" t="s">
-        <v>116</v>
-      </c>
-      <c r="M135" t="s">
-        <v>111</v>
+        <v>465</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>117</v>
+        <v>267</v>
       </c>
       <c r="M136" t="s">
-        <v>112</v>
+        <v>123</v>
+      </c>
+      <c r="N136" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M137" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M138" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M139" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M140" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M141" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>239</v>
+        <v>119</v>
       </c>
       <c r="M142" t="s">
-        <v>241</v>
+        <v>125</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="M143" t="s">
-        <v>242</v>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
+        <v>121</v>
+      </c>
+      <c r="M144" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
+        <v>122</v>
+      </c>
+      <c r="M145" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>239</v>
+      </c>
+      <c r="M146" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
+        <v>240</v>
+      </c>
+      <c r="M147" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
         <v>405</v>
       </c>
-      <c r="M145" t="s">
+      <c r="M149" t="s">
         <v>406</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A146" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="M146" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A147" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="M147" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A148" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="M148" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A149" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="M149" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="M150" t="s">
-        <v>113</v>
+        <v>406</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M151" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M152" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="M153" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M154" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="M155" t="s">
-        <v>407</v>
+        <v>125</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M156" t="s">
-        <v>410</v>
+        <v>124</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M157" t="s">
-        <v>409</v>
+        <v>126</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="M158" t="s">
-        <v>425</v>
+        <v>127</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="M159" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M160" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M161" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="M162" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A163" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="M163" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A164" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M164" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A165" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="M165" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A166" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="M162" t="s">
+      <c r="M166" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A163" t="s">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
         <v>414</v>
       </c>
-      <c r="M163" t="s">
+      <c r="M167" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A164" t="s">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
         <v>415</v>
       </c>
-      <c r="M164" t="s">
+      <c r="M168" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A165" t="s">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
         <v>421</v>
       </c>
-      <c r="M165" t="s">
+      <c r="M169" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A166" t="s">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A170" t="s">
         <v>419</v>
       </c>
-      <c r="M166" t="s">
+      <c r="M170" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="183" spans="14:14" x14ac:dyDescent="0.4">
-      <c r="N183" t="s">
+    <row r="187" spans="14:14" x14ac:dyDescent="0.4">
+      <c r="N187" t="s">
         <v>388</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A211" t="s">
-        <v>268</v>
-      </c>
-      <c r="M211" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A212" t="s">
-        <v>128</v>
-      </c>
-      <c r="M212" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A213" t="s">
-        <v>129</v>
-      </c>
-      <c r="M213" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A214" t="s">
-        <v>130</v>
-      </c>
-      <c r="M214" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
-        <v>131</v>
+        <v>268</v>
       </c>
       <c r="M215" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M216" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M217" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M218" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M219" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M220" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M221" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
-        <v>362</v>
+        <v>134</v>
       </c>
       <c r="M222" t="s">
-        <v>363</v>
+        <v>124</v>
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
-        <v>372</v>
+        <v>135</v>
       </c>
       <c r="M223" t="s">
-        <v>376</v>
+        <v>126</v>
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
+        <v>136</v>
+      </c>
+      <c r="M224" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A225" t="s">
+        <v>137</v>
+      </c>
+      <c r="M225" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A226" t="s">
+        <v>362</v>
+      </c>
+      <c r="M226" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A227" t="s">
+        <v>372</v>
+      </c>
+      <c r="M227" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A228" t="s">
         <v>373</v>
       </c>
-      <c r="M224" t="s">
+      <c r="M228" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A225" t="s">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A229" t="s">
         <v>374</v>
       </c>
-      <c r="M225" t="s">
+      <c r="M229" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A226" t="s">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A230" t="s">
         <v>243</v>
       </c>
-      <c r="M226" t="s">
+      <c r="M230" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A227" t="s">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A231" t="s">
         <v>244</v>
       </c>
-      <c r="M227" t="s">
+      <c r="M231" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A228" t="s">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A232" t="s">
         <v>381</v>
       </c>
-      <c r="M228" t="s">
+      <c r="M232" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A230" t="s">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A234" t="s">
         <v>269</v>
       </c>
-      <c r="M230" t="s">
+      <c r="M234" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A231" t="s">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A235" t="s">
         <v>270</v>
       </c>
-      <c r="M231" t="s">
+      <c r="M235" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A232" t="s">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A236" t="s">
         <v>140</v>
       </c>
-      <c r="M232" t="s">
+      <c r="M236" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A233" t="s">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A237" t="s">
         <v>141</v>
       </c>
-      <c r="M233" t="s">
+      <c r="M237" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A234" t="s">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A238" t="s">
         <v>142</v>
       </c>
-      <c r="M234" t="s">
+      <c r="M238" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A235" t="s">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A239" t="s">
         <v>143</v>
       </c>
-      <c r="M235" t="s">
+      <c r="M239" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A236" t="s">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A240" t="s">
         <v>144</v>
       </c>
-      <c r="M236" t="s">
+      <c r="M240" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A237" t="s">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A241" t="s">
         <v>145</v>
       </c>
-      <c r="M237" t="s">
+      <c r="M241" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A238" t="s">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A242" t="s">
         <v>146</v>
       </c>
-      <c r="M238" t="s">
+      <c r="M242" t="s">
         <v>124</v>
       </c>
-      <c r="N238" t="s">
+      <c r="N242" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A239" t="s">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A243" t="s">
         <v>147</v>
       </c>
-      <c r="M239" t="s">
+      <c r="M243" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A240" t="s">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A244" t="s">
         <v>148</v>
       </c>
-      <c r="M240" t="s">
+      <c r="M244" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A241" t="s">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A245" t="s">
         <v>361</v>
       </c>
-      <c r="M241" t="s">
+      <c r="M245" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A242" t="s">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A246" t="s">
         <v>150</v>
       </c>
-      <c r="M242" t="s">
+      <c r="M246" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A243" s="1" t="s">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A247" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="M243" t="s">
+      <c r="M247" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A244" t="s">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A248" t="s">
         <v>152</v>
       </c>
-      <c r="M244" t="s">
+      <c r="M248" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A245" t="s">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A249" t="s">
         <v>153</v>
       </c>
-      <c r="M245" t="s">
+      <c r="M249" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A246" t="s">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A250" t="s">
         <v>154</v>
       </c>
-      <c r="M246" t="s">
+      <c r="M250" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A247" t="s">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A251" t="s">
         <v>156</v>
       </c>
-      <c r="M247" t="s">
+      <c r="M251" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A248" t="s">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A252" t="s">
         <v>158</v>
       </c>
-      <c r="M248" t="s">
+      <c r="M252" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A249" t="s">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A253" t="s">
         <v>161</v>
       </c>
-      <c r="M249" t="s">
+      <c r="M253" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A250" t="s">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A254" t="s">
         <v>329</v>
       </c>
-      <c r="M250" t="s">
+      <c r="M254" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A251" t="s">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A255" t="s">
         <v>165</v>
       </c>
-      <c r="M251" t="s">
+      <c r="M255" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A252" s="1" t="s">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A256" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="M252" t="s">
+      <c r="M256" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A253" t="s">
-        <v>167</v>
-      </c>
-      <c r="M253" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A254" t="s">
-        <v>174</v>
-      </c>
-      <c r="M254" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A255" t="s">
-        <v>175</v>
-      </c>
-      <c r="M255" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A256" t="s">
-        <v>247</v>
-      </c>
-      <c r="M256" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
-        <v>248</v>
+        <v>167</v>
       </c>
       <c r="M257" t="s">
-        <v>251</v>
+        <v>171</v>
       </c>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
+        <v>174</v>
+      </c>
+      <c r="M258" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A259" t="s">
+        <v>175</v>
+      </c>
+      <c r="M259" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A260" t="s">
+        <v>247</v>
+      </c>
+      <c r="M260" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A261" t="s">
+        <v>248</v>
+      </c>
+      <c r="M261" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A262" t="s">
         <v>249</v>
       </c>
-      <c r="M258" t="s">
+      <c r="M262" t="s">
         <v>250</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A266" t="s">
-        <v>273</v>
-      </c>
-      <c r="M266" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A267" t="s">
-        <v>274</v>
-      </c>
-      <c r="M267" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A268" t="s">
-        <v>177</v>
-      </c>
-      <c r="M268" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A269" t="s">
-        <v>179</v>
-      </c>
-      <c r="M269" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
-        <v>180</v>
+        <v>273</v>
       </c>
       <c r="M270" t="s">
-        <v>182</v>
+        <v>276</v>
       </c>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
-        <v>181</v>
+        <v>274</v>
       </c>
       <c r="M271" t="s">
-        <v>184</v>
+        <v>275</v>
       </c>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M272" t="s">
-        <v>185</v>
+        <v>422</v>
       </c>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="M273" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="M274" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="M275" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="M276" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="M277" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="M278" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="M279" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M280" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="M281" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M282" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="M283" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="M284" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="M285" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
-        <v>429</v>
+        <v>202</v>
       </c>
       <c r="M286" t="s">
-        <v>430</v>
+        <v>205</v>
       </c>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
-        <v>253</v>
+        <v>206</v>
       </c>
       <c r="M287" t="s">
-        <v>264</v>
+        <v>209</v>
       </c>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="M288" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="M289" t="s">
-        <v>259</v>
+        <v>211</v>
       </c>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
-        <v>257</v>
+        <v>429</v>
       </c>
       <c r="M290" t="s">
-        <v>258</v>
+        <v>430</v>
       </c>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
-        <v>366</v>
+        <v>253</v>
       </c>
       <c r="M291" t="s">
-        <v>367</v>
+        <v>264</v>
       </c>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="M292" t="s">
-        <v>370</v>
+        <v>255</v>
       </c>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
-        <v>368</v>
+        <v>256</v>
       </c>
       <c r="M293" t="s">
-        <v>371</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A294" t="s">
+        <v>257</v>
+      </c>
+      <c r="M294" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="M295" t="s">
-        <v>215</v>
+        <v>367</v>
       </c>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
-        <v>212</v>
+        <v>369</v>
       </c>
       <c r="M296" t="s">
-        <v>215</v>
+        <v>370</v>
       </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
-        <v>213</v>
+        <v>368</v>
       </c>
       <c r="M297" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A298" t="s">
-        <v>214</v>
-      </c>
-      <c r="M298" t="s">
-        <v>178</v>
+        <v>371</v>
       </c>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
-        <v>217</v>
+        <v>277</v>
       </c>
       <c r="M299" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M300" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M301" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M302" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M303" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="M304" t="s">
-        <v>113</v>
+        <v>221</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="M305" t="s">
-        <v>226</v>
+        <v>182</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M306" t="s">
-        <v>228</v>
+        <v>111</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M307" t="s">
-        <v>234</v>
+        <v>112</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M308" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="M309" t="s">
-        <v>124</v>
+        <v>226</v>
       </c>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M310" t="s">
-        <v>126</v>
+        <v>228</v>
       </c>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M311" t="s">
-        <v>127</v>
+        <v>234</v>
       </c>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="M312" t="s">
-        <v>265</v>
+        <v>125</v>
       </c>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="M313" t="s">
-        <v>262</v>
+        <v>124</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
+        <v>232</v>
+      </c>
+      <c r="M314" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="315" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A315" t="s">
+        <v>233</v>
+      </c>
+      <c r="M315" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="316" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A316" t="s">
+        <v>260</v>
+      </c>
+      <c r="M316" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="317" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A317" t="s">
+        <v>261</v>
+      </c>
+      <c r="M317" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="318" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A318" t="s">
         <v>427</v>
       </c>
-      <c r="M314" t="s">
+      <c r="M318" t="s">
         <v>428</v>
       </c>
     </row>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1063BB8-55B8-4474-AEBE-BDCA645E20F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52A1C42-FF2F-424D-9A10-E7358C661068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2448,22 +2448,6 @@
     <t>summaryInfo</t>
   </si>
   <si>
-    <t>プレイヤー名&lt;pos=18%&gt;タスク&lt;pos=25%&gt;最終状態&lt;pos=38%&gt;役職</t>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>サイシュウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ジョウタイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヤクショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Sheriff</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2616,6 +2600,22 @@
     <t>暴発</t>
     <rPh sb="0" eb="2">
       <t>ボウハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー名&lt;pos=16.5%&gt;タスク&lt;pos=25%&gt;最終状態&lt;pos=38%&gt;役職</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヤクショク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2947,8 +2947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C77" workbookViewId="0">
-      <selection activeCell="M90" sqref="M90"/>
+    <sheetView tabSelected="1" topLeftCell="C74" workbookViewId="0">
+      <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M47" t="s">
         <v>352</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M48" t="s">
         <v>353</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M49" t="s">
         <v>354</v>
@@ -3632,7 +3632,7 @@
         <v>446</v>
       </c>
       <c r="M81" t="s">
-        <v>447</v>
+        <v>475</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
@@ -3685,10 +3685,10 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
+        <v>473</v>
+      </c>
+      <c r="M89" t="s">
         <v>474</v>
-      </c>
-      <c r="M89" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
@@ -3709,18 +3709,18 @@
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M97" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M98" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.4">
@@ -3858,23 +3858,23 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M119" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M120" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M121" t="s">
         <v>110</v>
@@ -3882,7 +3882,7 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M122" t="s">
         <v>111</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M123" t="s">
         <v>112</v>
@@ -3898,7 +3898,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M124" t="s">
         <v>113</v>
@@ -3906,7 +3906,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M125" t="s">
         <v>125</v>
@@ -3914,7 +3914,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M126" t="s">
         <v>124</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M127" t="s">
         <v>126</v>
@@ -3930,7 +3930,7 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M128" t="s">
         <v>127</v>
@@ -3938,34 +3938,34 @@
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M129" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M130" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M131" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M132" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.4">

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52A1C42-FF2F-424D-9A10-E7358C661068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBFC5AA-7054-47B3-8DE1-170C9B94C97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
+    <sheet name="Crewmate" sheetId="3" r:id="rId2"/>
+    <sheet name="Impostor" sheetId="2" r:id="rId3"/>
+    <sheet name="Neutral" sheetId="4" r:id="rId4"/>
+    <sheet name="Combination" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="487">
   <si>
     <t>English</t>
   </si>
@@ -2072,34 +2076,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>以下コンビロール</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以下ニュートラル</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以下インポスター</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以下クルー</t>
-    <rPh sb="0" eb="2">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EvolverRoleNum</t>
   </si>
   <si>
@@ -2535,31 +2511,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>この船を荒らす不届き者に正義の鉄槌を下せ</t>
-    <rPh sb="2" eb="3">
-      <t>フネ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>フトド</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>セイギ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>テッツイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>クダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自己中</t>
     <rPh sb="0" eb="3">
       <t>ジコチュウ</t>
@@ -2616,6 +2567,120 @@
     </rPh>
     <rPh sb="42" eb="44">
       <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maintainer</t>
+  </si>
+  <si>
+    <t>MaintainerSpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaintainerRoleNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaintainerHasOtherVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaintainerVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaintainerApplyEnvironmentVisionEffect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaintainerAbilityCoolTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaintainerAbilityCount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaintainerIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaintainerShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緊急修理の回数</t>
+    <rPh sb="0" eb="2">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緊急修理のクールタイム</t>
+    <rPh sb="0" eb="2">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンテナー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この船を荒らす不届き者に正義の鉄槌を</t>
+    <rPh sb="2" eb="3">
+      <t>フネ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フトド</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイギ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テッツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船のお困りごとはお任せあれ</t>
+    <rPh sb="0" eb="1">
+      <t>フネ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緊急タスクは緊急修理で！！</t>
+    <rPh sb="0" eb="2">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2945,10 +3010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q318"/>
+  <dimension ref="A1:Q108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C74" workbookViewId="0">
-      <selection activeCell="M82" sqref="M82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3391,7 +3456,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="M47" t="s">
         <v>352</v>
@@ -3399,7 +3464,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="M48" t="s">
         <v>353</v>
@@ -3407,7 +3472,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="M49" t="s">
         <v>354</v>
@@ -3621,74 +3686,74 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M79" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="M81" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M83" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M84" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="M85" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="M86" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M87" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="M88" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="M89" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
@@ -3704,26 +3769,26 @@
         <v>357</v>
       </c>
       <c r="M95" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.4">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="M97" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.4">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="M98" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.4">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>281</v>
       </c>
@@ -3731,7 +3796,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>280</v>
       </c>
@@ -3739,7 +3804,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>283</v>
       </c>
@@ -3747,7 +3812,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>284</v>
       </c>
@@ -3755,7 +3820,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>285</v>
       </c>
@@ -3763,7 +3828,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>379</v>
       </c>
@@ -3771,7 +3836,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>378</v>
       </c>
@@ -3779,1236 +3844,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>364</v>
       </c>
       <c r="M108" t="s">
         <v>365</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="N109" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
-        <v>266</v>
-      </c>
-      <c r="M110" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
-        <v>108</v>
-      </c>
-      <c r="M111" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
-        <v>104</v>
-      </c>
-      <c r="M112" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A113" t="s">
-        <v>105</v>
-      </c>
-      <c r="M113" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A114" t="s">
-        <v>106</v>
-      </c>
-      <c r="M114" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A115" t="s">
-        <v>107</v>
-      </c>
-      <c r="M115" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A116" t="s">
-        <v>235</v>
-      </c>
-      <c r="M116" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
-        <v>236</v>
-      </c>
-      <c r="M117" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A119" t="s">
-        <v>447</v>
-      </c>
-      <c r="M119" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A120" t="s">
-        <v>448</v>
-      </c>
-      <c r="M120" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A121" t="s">
-        <v>449</v>
-      </c>
-      <c r="M121" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A122" t="s">
-        <v>450</v>
-      </c>
-      <c r="M122" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
-        <v>451</v>
-      </c>
-      <c r="M123" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A124" t="s">
-        <v>452</v>
-      </c>
-      <c r="M124" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A125" t="s">
-        <v>453</v>
-      </c>
-      <c r="M125" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A126" t="s">
-        <v>454</v>
-      </c>
-      <c r="M126" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A127" t="s">
-        <v>455</v>
-      </c>
-      <c r="M127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A128" t="s">
-        <v>456</v>
-      </c>
-      <c r="M128" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
-        <v>459</v>
-      </c>
-      <c r="M129" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
-        <v>460</v>
-      </c>
-      <c r="M130" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
-        <v>457</v>
-      </c>
-      <c r="M131" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A132" t="s">
-        <v>458</v>
-      </c>
-      <c r="M132" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A136" t="s">
-        <v>267</v>
-      </c>
-      <c r="M136" t="s">
-        <v>123</v>
-      </c>
-      <c r="N136" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A137" t="s">
-        <v>114</v>
-      </c>
-      <c r="M137" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A138" t="s">
-        <v>115</v>
-      </c>
-      <c r="M138" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A139" t="s">
-        <v>116</v>
-      </c>
-      <c r="M139" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A140" t="s">
-        <v>117</v>
-      </c>
-      <c r="M140" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A141" t="s">
-        <v>118</v>
-      </c>
-      <c r="M141" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A142" t="s">
-        <v>119</v>
-      </c>
-      <c r="M142" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A143" t="s">
-        <v>120</v>
-      </c>
-      <c r="M143" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A144" t="s">
-        <v>121</v>
-      </c>
-      <c r="M144" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A145" t="s">
-        <v>122</v>
-      </c>
-      <c r="M145" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A146" t="s">
-        <v>239</v>
-      </c>
-      <c r="M146" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A147" t="s">
-        <v>240</v>
-      </c>
-      <c r="M147" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A149" t="s">
-        <v>405</v>
-      </c>
-      <c r="M149" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A150" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="M150" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A151" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="M151" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A152" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="M152" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A153" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="M153" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A154" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="M154" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A155" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="M155" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A156" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="M156" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A157" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="M157" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A158" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="M158" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A159" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="M159" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A160" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="M160" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A161" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="M161" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A162" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="M162" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A163" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="M163" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A164" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="M164" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A165" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="M165" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A166" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="M166" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A167" t="s">
-        <v>414</v>
-      </c>
-      <c r="M167" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A168" t="s">
-        <v>415</v>
-      </c>
-      <c r="M168" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A169" t="s">
-        <v>421</v>
-      </c>
-      <c r="M169" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A170" t="s">
-        <v>419</v>
-      </c>
-      <c r="M170" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="187" spans="14:14" x14ac:dyDescent="0.4">
-      <c r="N187" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A215" t="s">
-        <v>268</v>
-      </c>
-      <c r="M215" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A216" t="s">
-        <v>128</v>
-      </c>
-      <c r="M216" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A217" t="s">
-        <v>129</v>
-      </c>
-      <c r="M217" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A218" t="s">
-        <v>130</v>
-      </c>
-      <c r="M218" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A219" t="s">
-        <v>131</v>
-      </c>
-      <c r="M219" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A220" t="s">
-        <v>132</v>
-      </c>
-      <c r="M220" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A221" t="s">
-        <v>133</v>
-      </c>
-      <c r="M221" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A222" t="s">
-        <v>134</v>
-      </c>
-      <c r="M222" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A223" t="s">
-        <v>135</v>
-      </c>
-      <c r="M223" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A224" t="s">
-        <v>136</v>
-      </c>
-      <c r="M224" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A225" t="s">
-        <v>137</v>
-      </c>
-      <c r="M225" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A226" t="s">
-        <v>362</v>
-      </c>
-      <c r="M226" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A227" t="s">
-        <v>372</v>
-      </c>
-      <c r="M227" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A228" t="s">
-        <v>373</v>
-      </c>
-      <c r="M228" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A229" t="s">
-        <v>374</v>
-      </c>
-      <c r="M229" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A230" t="s">
-        <v>243</v>
-      </c>
-      <c r="M230" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A231" t="s">
-        <v>244</v>
-      </c>
-      <c r="M231" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A232" t="s">
-        <v>381</v>
-      </c>
-      <c r="M232" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A234" t="s">
-        <v>269</v>
-      </c>
-      <c r="M234" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A235" t="s">
-        <v>270</v>
-      </c>
-      <c r="M235" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A236" t="s">
-        <v>140</v>
-      </c>
-      <c r="M236" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A237" t="s">
-        <v>141</v>
-      </c>
-      <c r="M237" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A238" t="s">
-        <v>142</v>
-      </c>
-      <c r="M238" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A239" t="s">
-        <v>143</v>
-      </c>
-      <c r="M239" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A240" t="s">
-        <v>144</v>
-      </c>
-      <c r="M240" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A241" t="s">
-        <v>145</v>
-      </c>
-      <c r="M241" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A242" t="s">
-        <v>146</v>
-      </c>
-      <c r="M242" t="s">
-        <v>124</v>
-      </c>
-      <c r="N242" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A243" t="s">
-        <v>147</v>
-      </c>
-      <c r="M243" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A244" t="s">
-        <v>148</v>
-      </c>
-      <c r="M244" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A245" t="s">
-        <v>361</v>
-      </c>
-      <c r="M245" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A246" t="s">
-        <v>150</v>
-      </c>
-      <c r="M246" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A247" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="M247" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A248" t="s">
-        <v>152</v>
-      </c>
-      <c r="M248" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A249" t="s">
-        <v>153</v>
-      </c>
-      <c r="M249" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A250" t="s">
-        <v>154</v>
-      </c>
-      <c r="M250" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A251" t="s">
-        <v>156</v>
-      </c>
-      <c r="M251" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A252" t="s">
-        <v>158</v>
-      </c>
-      <c r="M252" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A253" t="s">
-        <v>161</v>
-      </c>
-      <c r="M253" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A254" t="s">
-        <v>329</v>
-      </c>
-      <c r="M254" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A255" t="s">
-        <v>165</v>
-      </c>
-      <c r="M255" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A256" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="M256" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A257" t="s">
-        <v>167</v>
-      </c>
-      <c r="M257" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A258" t="s">
-        <v>174</v>
-      </c>
-      <c r="M258" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A259" t="s">
-        <v>175</v>
-      </c>
-      <c r="M259" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A260" t="s">
-        <v>247</v>
-      </c>
-      <c r="M260" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A261" t="s">
-        <v>248</v>
-      </c>
-      <c r="M261" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A262" t="s">
-        <v>249</v>
-      </c>
-      <c r="M262" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A270" t="s">
-        <v>273</v>
-      </c>
-      <c r="M270" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A271" t="s">
-        <v>274</v>
-      </c>
-      <c r="M271" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A272" t="s">
-        <v>177</v>
-      </c>
-      <c r="M272" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A273" t="s">
-        <v>179</v>
-      </c>
-      <c r="M273" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A274" t="s">
-        <v>180</v>
-      </c>
-      <c r="M274" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A275" t="s">
-        <v>181</v>
-      </c>
-      <c r="M275" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A276" t="s">
-        <v>183</v>
-      </c>
-      <c r="M276" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A277" t="s">
-        <v>187</v>
-      </c>
-      <c r="M277" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A278" t="s">
-        <v>188</v>
-      </c>
-      <c r="M278" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A279" t="s">
-        <v>189</v>
-      </c>
-      <c r="M279" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A280" t="s">
-        <v>194</v>
-      </c>
-      <c r="M280" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A281" t="s">
-        <v>195</v>
-      </c>
-      <c r="M281" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A282" t="s">
-        <v>196</v>
-      </c>
-      <c r="M282" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A283" t="s">
-        <v>198</v>
-      </c>
-      <c r="M283" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A284" t="s">
-        <v>200</v>
-      </c>
-      <c r="M284" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A285" t="s">
-        <v>201</v>
-      </c>
-      <c r="M285" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A286" t="s">
-        <v>202</v>
-      </c>
-      <c r="M286" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A287" t="s">
-        <v>206</v>
-      </c>
-      <c r="M287" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A288" t="s">
-        <v>207</v>
-      </c>
-      <c r="M288" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A289" t="s">
-        <v>208</v>
-      </c>
-      <c r="M289" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A290" t="s">
-        <v>429</v>
-      </c>
-      <c r="M290" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A291" t="s">
-        <v>253</v>
-      </c>
-      <c r="M291" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A292" t="s">
-        <v>254</v>
-      </c>
-      <c r="M292" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A293" t="s">
-        <v>256</v>
-      </c>
-      <c r="M293" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A294" t="s">
-        <v>257</v>
-      </c>
-      <c r="M294" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A295" t="s">
-        <v>366</v>
-      </c>
-      <c r="M295" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A296" t="s">
-        <v>369</v>
-      </c>
-      <c r="M296" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A297" t="s">
-        <v>368</v>
-      </c>
-      <c r="M297" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A299" t="s">
-        <v>277</v>
-      </c>
-      <c r="M299" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A300" t="s">
-        <v>212</v>
-      </c>
-      <c r="M300" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A301" t="s">
-        <v>213</v>
-      </c>
-      <c r="M301" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A302" t="s">
-        <v>214</v>
-      </c>
-      <c r="M302" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A303" t="s">
-        <v>217</v>
-      </c>
-      <c r="M303" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A304" t="s">
-        <v>218</v>
-      </c>
-      <c r="M304" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A305" t="s">
-        <v>219</v>
-      </c>
-      <c r="M305" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A306" t="s">
-        <v>222</v>
-      </c>
-      <c r="M306" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A307" t="s">
-        <v>223</v>
-      </c>
-      <c r="M307" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A308" t="s">
-        <v>224</v>
-      </c>
-      <c r="M308" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A309" t="s">
-        <v>225</v>
-      </c>
-      <c r="M309" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A310" t="s">
-        <v>227</v>
-      </c>
-      <c r="M310" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A311" t="s">
-        <v>229</v>
-      </c>
-      <c r="M311" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A312" t="s">
-        <v>230</v>
-      </c>
-      <c r="M312" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A313" t="s">
-        <v>231</v>
-      </c>
-      <c r="M313" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A314" t="s">
-        <v>232</v>
-      </c>
-      <c r="M314" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A315" t="s">
-        <v>233</v>
-      </c>
-      <c r="M315" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A316" t="s">
-        <v>260</v>
-      </c>
-      <c r="M316" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A317" t="s">
-        <v>261</v>
-      </c>
-      <c r="M317" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A318" t="s">
-        <v>427</v>
-      </c>
-      <c r="M318" t="s">
-        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -5016,4 +3857,1572 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
+  <dimension ref="A1:Q35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="13" max="13" width="44.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>266</v>
+      </c>
+      <c r="M2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="M5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="M6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>235</v>
+      </c>
+      <c r="M8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>236</v>
+      </c>
+      <c r="M9" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>443</v>
+      </c>
+      <c r="M11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>444</v>
+      </c>
+      <c r="M12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>445</v>
+      </c>
+      <c r="M13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>446</v>
+      </c>
+      <c r="M14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>447</v>
+      </c>
+      <c r="M15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>448</v>
+      </c>
+      <c r="M16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>449</v>
+      </c>
+      <c r="M17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>450</v>
+      </c>
+      <c r="M18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>451</v>
+      </c>
+      <c r="M19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>452</v>
+      </c>
+      <c r="M20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>455</v>
+      </c>
+      <c r="M21" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>456</v>
+      </c>
+      <c r="M22" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>453</v>
+      </c>
+      <c r="M23" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>454</v>
+      </c>
+      <c r="M24" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>471</v>
+      </c>
+      <c r="M26" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>472</v>
+      </c>
+      <c r="M27" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>473</v>
+      </c>
+      <c r="M28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>474</v>
+      </c>
+      <c r="M29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>475</v>
+      </c>
+      <c r="M30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>476</v>
+      </c>
+      <c r="M31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="M32" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="M33" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>479</v>
+      </c>
+      <c r="M34" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>480</v>
+      </c>
+      <c r="M35" t="s">
+        <v>486</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131ED9DB-7094-4FCA-8832-3F1005AB8270}">
+  <dimension ref="A1:Q36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M32" sqref="A32:M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="42" customWidth="1"/>
+    <col min="13" max="13" width="43.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>267</v>
+      </c>
+      <c r="M2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="M6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="M8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>239</v>
+      </c>
+      <c r="M12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>240</v>
+      </c>
+      <c r="M13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>401</v>
+      </c>
+      <c r="M15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="M16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="M17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="M18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="M19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="M20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="M21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="M22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="M23" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="M24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="M25" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="M26" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="M27" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="M28" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="M29" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="M30" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="M31" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="M32" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>410</v>
+      </c>
+      <c r="M33" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>411</v>
+      </c>
+      <c r="M34" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>417</v>
+      </c>
+      <c r="M35" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>415</v>
+      </c>
+      <c r="M36" t="s">
+        <v>416</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445F46B3-1A86-46EF-9440-E5378C8C2CDD}">
+  <dimension ref="A1:Q49"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="13" max="13" width="62.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>268</v>
+      </c>
+      <c r="M2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="M6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>132</v>
+      </c>
+      <c r="M7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="M8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="M9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="M10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="M11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>362</v>
+      </c>
+      <c r="M13" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>372</v>
+      </c>
+      <c r="M14" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>373</v>
+      </c>
+      <c r="M15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>374</v>
+      </c>
+      <c r="M16" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>243</v>
+      </c>
+      <c r="M17" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>244</v>
+      </c>
+      <c r="M18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>381</v>
+      </c>
+      <c r="M19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>269</v>
+      </c>
+      <c r="M21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>270</v>
+      </c>
+      <c r="M22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>140</v>
+      </c>
+      <c r="M23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>141</v>
+      </c>
+      <c r="M24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+      <c r="M25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>143</v>
+      </c>
+      <c r="M26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>144</v>
+      </c>
+      <c r="M27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>145</v>
+      </c>
+      <c r="M28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>146</v>
+      </c>
+      <c r="M29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>147</v>
+      </c>
+      <c r="M30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>148</v>
+      </c>
+      <c r="M31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>361</v>
+      </c>
+      <c r="M32" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
+      <c r="M33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="M34" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>152</v>
+      </c>
+      <c r="M35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>153</v>
+      </c>
+      <c r="M36" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>154</v>
+      </c>
+      <c r="M37" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>156</v>
+      </c>
+      <c r="M38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>158</v>
+      </c>
+      <c r="M39" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>161</v>
+      </c>
+      <c r="M40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>329</v>
+      </c>
+      <c r="M41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>165</v>
+      </c>
+      <c r="M42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="M43" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>167</v>
+      </c>
+      <c r="M44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>174</v>
+      </c>
+      <c r="M45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>175</v>
+      </c>
+      <c r="M46" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>247</v>
+      </c>
+      <c r="M47" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>248</v>
+      </c>
+      <c r="M48" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>249</v>
+      </c>
+      <c r="M49" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
+  <dimension ref="A1:Q50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="38.375" customWidth="1"/>
+    <col min="13" max="13" width="74.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>273</v>
+      </c>
+      <c r="M2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>274</v>
+      </c>
+      <c r="M3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="M4" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>179</v>
+      </c>
+      <c r="M5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="M6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>181</v>
+      </c>
+      <c r="M7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="M8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>187</v>
+      </c>
+      <c r="M9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="M10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>189</v>
+      </c>
+      <c r="M11" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>194</v>
+      </c>
+      <c r="M12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="M13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>196</v>
+      </c>
+      <c r="M14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>198</v>
+      </c>
+      <c r="M15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>200</v>
+      </c>
+      <c r="M16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>201</v>
+      </c>
+      <c r="M17" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>202</v>
+      </c>
+      <c r="M18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>206</v>
+      </c>
+      <c r="M19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>207</v>
+      </c>
+      <c r="M20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>208</v>
+      </c>
+      <c r="M21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>425</v>
+      </c>
+      <c r="M22" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>253</v>
+      </c>
+      <c r="M23" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>254</v>
+      </c>
+      <c r="M24" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>256</v>
+      </c>
+      <c r="M25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>257</v>
+      </c>
+      <c r="M26" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>366</v>
+      </c>
+      <c r="M27" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>369</v>
+      </c>
+      <c r="M28" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>368</v>
+      </c>
+      <c r="M29" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>277</v>
+      </c>
+      <c r="M31" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>212</v>
+      </c>
+      <c r="M32" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>213</v>
+      </c>
+      <c r="M33" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>214</v>
+      </c>
+      <c r="M34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>217</v>
+      </c>
+      <c r="M35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>218</v>
+      </c>
+      <c r="M36" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>219</v>
+      </c>
+      <c r="M37" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>222</v>
+      </c>
+      <c r="M38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>223</v>
+      </c>
+      <c r="M39" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>224</v>
+      </c>
+      <c r="M40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>225</v>
+      </c>
+      <c r="M41" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>227</v>
+      </c>
+      <c r="M42" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>229</v>
+      </c>
+      <c r="M43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>230</v>
+      </c>
+      <c r="M44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>231</v>
+      </c>
+      <c r="M45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>232</v>
+      </c>
+      <c r="M46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>233</v>
+      </c>
+      <c r="M47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>260</v>
+      </c>
+      <c r="M48" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>261</v>
+      </c>
+      <c r="M49" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>423</v>
+      </c>
+      <c r="M50" t="s">
+        <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBFC5AA-7054-47B3-8DE1-170C9B94C97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7836D8B7-3C54-425C-838D-26B8D071EBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -416,26 +416,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>別視界を持つか</t>
-    <rPh sb="0" eb="1">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>シカイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>視界</t>
-    <rPh sb="0" eb="2">
-      <t>シカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>視界効果を受けるか</t>
     <rPh sb="0" eb="2">
       <t>シカイ</t>
@@ -740,26 +720,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ジャッカルが別視界を持つか</t>
-    <rPh sb="6" eb="7">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シカイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジャッカルの視界</t>
-    <rPh sb="6" eb="8">
-      <t>シカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ジャッカルが視界効果を受けるか</t>
     <rPh sb="6" eb="8">
       <t>シカイ</t>
@@ -773,26 +733,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サイドキックが別視界を持つか</t>
-    <rPh sb="7" eb="8">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シカイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイドキックの視界</t>
-    <rPh sb="7" eb="9">
-      <t>シカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>サイドキックが視界効果を受けるか</t>
     <rPh sb="7" eb="9">
       <t>シカイ</t>
@@ -861,26 +801,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アサシンが別視界を持つか</t>
-    <rPh sb="5" eb="6">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シカイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アサシンの視界</t>
-    <rPh sb="5" eb="7">
-      <t>シカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アサシンが視界効果を受けるか</t>
     <rPh sb="5" eb="7">
       <t>シカイ</t>
@@ -997,26 +917,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マーリンが別視界を持つか</t>
-    <rPh sb="5" eb="6">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シカイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マーリンの視界</t>
-    <rPh sb="5" eb="7">
-      <t>シカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マーリンが視界効果を受けるか</t>
     <rPh sb="5" eb="7">
       <t>シカイ</t>
@@ -2681,6 +2581,106 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>シュウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別の視界設定を持つか</t>
+    <rPh sb="0" eb="1">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャッカルが別の視界設定を持つか</t>
+    <rPh sb="6" eb="7">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャッカルのビジョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドキックが別の視界設定を持つか</t>
+    <rPh sb="7" eb="8">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドキックのビジョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーリンのビジョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーリンが別の視界設定を持つか</t>
+    <rPh sb="5" eb="6">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アサシンのビジョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アサシンが別の視界設定を持つか</t>
+    <rPh sb="5" eb="6">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3152,10 +3152,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="M10" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
@@ -3226,7 +3226,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -3237,15 +3237,15 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="M19" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
@@ -3262,7 +3262,7 @@
         <v>50</v>
       </c>
       <c r="M21" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -3295,55 +3295,55 @@
         <v>59</v>
       </c>
       <c r="M24" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="M25" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="M26" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="M27" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="M29" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="M30" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="M31" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -3354,7 +3354,7 @@
         <v>62</v>
       </c>
       <c r="M32" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
@@ -3365,7 +3365,7 @@
         <v>64</v>
       </c>
       <c r="M33" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
@@ -3376,7 +3376,7 @@
         <v>66</v>
       </c>
       <c r="M34" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
@@ -3387,95 +3387,95 @@
         <v>68</v>
       </c>
       <c r="M35" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="M37" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="M38" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="M39" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="M40" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="M42" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="M43" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="M44" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="M45" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="M47" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="M48" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="M49" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
@@ -3579,277 +3579,277 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B64" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="M64" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B65" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="M65" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B67" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="M67" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B69" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="M69" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B70" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="M70" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B71" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="M71" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B72" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="M72" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B73" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="M73" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B74" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="M74" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="M77" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="M79" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="M81" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
+        <v>417</v>
+      </c>
+      <c r="M83" t="s">
         <v>427</v>
-      </c>
-      <c r="M83" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
+        <v>418</v>
+      </c>
+      <c r="M84" t="s">
         <v>428</v>
-      </c>
-      <c r="M84" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="M85" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="M86" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="M87" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="M88" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="M89" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="M94" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="M95" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="M97" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="M98" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="M100" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="M101" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="M102" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="M103" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="M104" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="M106" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="M107" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="M108" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -3863,8 +3863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M5" sqref="M5:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3925,7 +3925,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="M2" t="s">
         <v>109</v>
@@ -3952,7 +3952,7 @@
         <v>105</v>
       </c>
       <c r="M5" t="s">
-        <v>111</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -3960,7 +3960,7 @@
         <v>106</v>
       </c>
       <c r="M6" t="s">
-        <v>112</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
@@ -3968,44 +3968,44 @@
         <v>107</v>
       </c>
       <c r="M7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="M8" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="M9" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="M11" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="M12" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="M13" t="s">
         <v>110</v>
@@ -4013,111 +4013,111 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="M14" t="s">
-        <v>111</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="M15" t="s">
-        <v>112</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="M16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="M17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="M18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="M19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="M20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="M21" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="M22" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="M23" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="M24" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="M26" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="M27" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="M28" t="s">
         <v>110</v>
@@ -4125,63 +4125,64 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="M29" t="s">
-        <v>111</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="M30" t="s">
-        <v>112</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="M31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="M32" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="M33" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="M34" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="M35" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4189,8 +4190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131ED9DB-7094-4FCA-8832-3F1005AB8270}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M32" sqref="A32:M32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4251,23 +4252,23 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="M2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M4" t="s">
         <v>110</v>
@@ -4275,95 +4276,95 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M5" t="s">
-        <v>111</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s">
-        <v>112</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="M12" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="M13" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="M15" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="M16" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="M17" t="s">
         <v>110</v>
@@ -4371,154 +4372,154 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="M18" t="s">
-        <v>111</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="M19" t="s">
-        <v>112</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="M20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="M21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="M22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="M23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="M24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="M25" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="M26" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="M27" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="M28" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="M29" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="M30" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="M31" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="M32" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="M33" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="M34" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="M35" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="M36" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -4531,8 +4532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445F46B3-1A86-46EF-9440-E5378C8C2CDD}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+    <sheetView topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4593,23 +4594,23 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="M2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M4" t="s">
         <v>110</v>
@@ -4617,151 +4618,151 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M5" t="s">
-        <v>111</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M6" t="s">
-        <v>112</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="s">
         <v>137</v>
-      </c>
-      <c r="M12" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="M13" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="M14" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="M15" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="M16" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="M17" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="M18" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="M19" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="M21" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="M22" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M23" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M24" t="s">
         <v>110</v>
@@ -4769,202 +4770,202 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M25" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M26" t="s">
-        <v>169</v>
+        <v>480</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M27" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="M32" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="M34" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M36" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M39" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
+        <v>159</v>
+      </c>
+      <c r="M40" t="s">
         <v>161</v>
-      </c>
-      <c r="M40" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="M41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M42" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M43" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M44" t="s">
-        <v>171</v>
+        <v>481</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M45" t="s">
-        <v>172</v>
+        <v>482</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M46" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="M47" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="M48" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="M49" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -4977,8 +4978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5039,386 +5040,386 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="M2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="M3" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M4" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="M5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="M6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M7" t="s">
-        <v>184</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M8" t="s">
-        <v>185</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="M9" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="M10" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="M11" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M12" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="M13" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="M14" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="M15" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="M16" t="s">
-        <v>203</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="M17" t="s">
-        <v>204</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="M20" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="M21" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="M22" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="M23" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="M24" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="M27" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="M28" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="M29" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="M31" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="M32" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="M33" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="M34" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="M35" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="M36" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="M37" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="M38" t="s">
-        <v>111</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="M39" t="s">
-        <v>112</v>
+        <v>478</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="M40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="M41" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="M42" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="M43" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="M44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="M45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="M46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="M47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="M48" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="M49" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="M50" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7836D8B7-3C54-425C-838D-26B8D071EBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52EEE63-D6E1-4B03-996F-F143D7AB2A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="489">
   <si>
     <t>English</t>
   </si>
@@ -2681,6 +2681,20 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maintenance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緊急修理</t>
+    <rPh sb="0" eb="2">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3861,10 +3875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5:M6"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4177,6 +4191,14 @@
       </c>
       <c r="M35" t="s">
         <v>476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>487</v>
+      </c>
+      <c r="M36" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
@@ -4978,7 +5000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52EEE63-D6E1-4B03-996F-F143D7AB2A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD0E91D-0D3F-4B16-8425-284507191484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="491">
   <si>
     <t>English</t>
   </si>
@@ -1665,50 +1665,16 @@
     <t>importPleaseWait</t>
   </si>
   <si>
-    <t>インポート中、しばらくお待ち下さい・・・</t>
-    <rPh sb="5" eb="6">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>クダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>importSuccess</t>
   </si>
   <si>
-    <t>インポートに成功しました</t>
-    <rPh sb="6" eb="8">
-      <t>セイコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>exportPleaseWait</t>
   </si>
   <si>
     <t>importError</t>
   </si>
   <si>
-    <t>エクスポート中、しばらくお待ち下さい・・・</t>
-    <rPh sb="6" eb="7">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>exportSuccess</t>
-  </si>
-  <si>
-    <t>option.csvへのエクスポートに成功しました</t>
-    <rPh sb="19" eb="21">
-      <t>セイコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>exportError</t>
@@ -1740,20 +1706,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>オプション設定をエクスポート</t>
-    <rPh sb="5" eb="7">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オプション設定をインポート</t>
-    <rPh sb="5" eb="7">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>各プレイヤーの最終結果を表示する</t>
     <rPh sb="0" eb="1">
       <t>カク</t>
@@ -2695,6 +2647,56 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>シュウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>custom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カスタム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エクスポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプションをインポート中\nしばらくお待ち下さい・・・</t>
+    <rPh sb="11" eb="12">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オプションをエクスポート中\nしばらくお待ち下さい・・・</t>
+    <rPh sb="12" eb="13">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エクスポートに成功しました</t>
+    <rPh sb="7" eb="9">
+      <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポートに成功しました</t>
+    <rPh sb="14" eb="16">
+      <t>セイコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3024,10 +3026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q108"/>
+  <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3368,7 +3370,7 @@
         <v>62</v>
       </c>
       <c r="M32" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
@@ -3379,7 +3381,7 @@
         <v>64</v>
       </c>
       <c r="M33" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
@@ -3390,7 +3392,7 @@
         <v>66</v>
       </c>
       <c r="M34" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
@@ -3401,469 +3403,477 @@
         <v>68</v>
       </c>
       <c r="M35" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>322</v>
+        <v>483</v>
       </c>
       <c r="M37" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>324</v>
-      </c>
-      <c r="M38" t="s">
-        <v>325</v>
+        <v>484</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M39" t="s">
-        <v>327</v>
+        <v>486</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M40" t="s">
-        <v>335</v>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>325</v>
+      </c>
+      <c r="M41" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M42" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>328</v>
-      </c>
-      <c r="M43" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="M44" t="s">
-        <v>332</v>
+        <v>485</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="M45" t="s">
-        <v>334</v>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>328</v>
+      </c>
+      <c r="M46" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>457</v>
+        <v>329</v>
       </c>
       <c r="M47" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>455</v>
-      </c>
-      <c r="M48" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="M49" t="s">
-        <v>344</v>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>449</v>
+      </c>
+      <c r="M50" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
+        <v>450</v>
+      </c>
+      <c r="M51" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
         <v>69</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B53" t="s">
         <v>70</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M53" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" t="s">
-        <v>73</v>
-      </c>
-      <c r="M52" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="M54" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>95</v>
-      </c>
-      <c r="B55" t="s">
-        <v>99</v>
-      </c>
-      <c r="M55" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M56" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" t="s">
+        <v>99</v>
+      </c>
+      <c r="M57" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="M58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" t="s">
-        <v>79</v>
-      </c>
-      <c r="M59" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B60" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M60" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>78</v>
+      </c>
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+      <c r="M61" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M62" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+      <c r="M64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
         <v>278</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B66" t="s">
         <v>279</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M66" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>280</v>
-      </c>
-      <c r="B65" t="s">
-        <v>281</v>
-      </c>
-      <c r="M65" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B67" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="M67" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B69" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M69" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>288</v>
-      </c>
-      <c r="B70" t="s">
-        <v>289</v>
-      </c>
-      <c r="M70" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>345</v>
+        <v>285</v>
       </c>
       <c r="B71" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M71" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B72" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M72" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="B73" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="M73" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>374</v>
+        <v>292</v>
       </c>
       <c r="B74" t="s">
-        <v>375</v>
+        <v>291</v>
       </c>
       <c r="M74" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
-        <v>349</v>
-      </c>
-      <c r="M77" t="s">
-        <v>350</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>367</v>
+      </c>
+      <c r="B75" t="s">
+        <v>293</v>
+      </c>
+      <c r="M75" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>368</v>
+      </c>
+      <c r="B76" t="s">
+        <v>369</v>
+      </c>
+      <c r="M76" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>430</v>
+        <v>343</v>
       </c>
       <c r="M79" t="s">
-        <v>431</v>
+        <v>344</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="M81" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="M83" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
-        <v>418</v>
-      </c>
-      <c r="M84" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="M85" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="M86" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="M87" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="M88" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>458</v>
+        <v>415</v>
       </c>
       <c r="M89" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
-        <v>346</v>
-      </c>
-      <c r="M94" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A95" t="s">
-        <v>347</v>
-      </c>
-      <c r="M95" t="s">
-        <v>429</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>416</v>
+      </c>
+      <c r="M90" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>452</v>
+      </c>
+      <c r="M91" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>340</v>
+      </c>
+      <c r="M96" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>453</v>
+        <v>341</v>
       </c>
       <c r="M97" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
-        <v>452</v>
-      </c>
-      <c r="M98" t="s">
-        <v>454</v>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>447</v>
+      </c>
+      <c r="M99" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>271</v>
+        <v>446</v>
       </c>
       <c r="M100" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
-        <v>270</v>
-      </c>
-      <c r="M101" t="s">
-        <v>272</v>
+        <v>448</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M102" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M103" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M104" t="s">
-        <v>277</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>274</v>
+      </c>
+      <c r="M105" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>369</v>
+        <v>275</v>
       </c>
       <c r="M106" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
-        <v>368</v>
-      </c>
-      <c r="M107" t="s">
-        <v>370</v>
+        <v>277</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="M108" t="s">
-        <v>355</v>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>362</v>
+      </c>
+      <c r="M109" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>348</v>
+      </c>
+      <c r="M110" t="s">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3877,7 +3887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
@@ -3966,7 +3976,7 @@
         <v>105</v>
       </c>
       <c r="M5" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -3974,7 +3984,7 @@
         <v>106</v>
       </c>
       <c r="M6" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
@@ -4003,23 +4013,23 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="M11" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="M12" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="M13" t="s">
         <v>110</v>
@@ -4027,23 +4037,23 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="M14" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="M15" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M16" t="s">
         <v>111</v>
@@ -4051,7 +4061,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M17" t="s">
         <v>123</v>
@@ -4059,7 +4069,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="M18" t="s">
         <v>122</v>
@@ -4067,7 +4077,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="M19" t="s">
         <v>124</v>
@@ -4075,7 +4085,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="M20" t="s">
         <v>125</v>
@@ -4083,55 +4093,55 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="M21" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="M22" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="M23" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
+        <v>438</v>
+      </c>
+      <c r="M24" t="s">
         <v>444</v>
-      </c>
-      <c r="M24" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="M26" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="M27" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="M28" t="s">
         <v>110</v>
@@ -4139,23 +4149,23 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="M29" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="M30" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="M31" t="s">
         <v>111</v>
@@ -4163,42 +4173,42 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="M32" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="M33" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
+        <v>463</v>
+      </c>
+      <c r="M34" t="s">
         <v>469</v>
-      </c>
-      <c r="M34" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
+        <v>464</v>
+      </c>
+      <c r="M35" t="s">
         <v>470</v>
-      </c>
-      <c r="M35" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="M36" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -4301,7 +4311,7 @@
         <v>114</v>
       </c>
       <c r="M5" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -4309,7 +4319,7 @@
         <v>115</v>
       </c>
       <c r="M6" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
@@ -4370,23 +4380,23 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M15" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M16" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="M17" t="s">
         <v>110</v>
@@ -4394,23 +4404,23 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="M18" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="M19" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M20" t="s">
         <v>111</v>
@@ -4418,7 +4428,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="M21" t="s">
         <v>123</v>
@@ -4426,7 +4436,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="M22" t="s">
         <v>122</v>
@@ -4434,7 +4444,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M23" t="s">
         <v>124</v>
@@ -4442,7 +4452,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="M24" t="s">
         <v>125</v>
@@ -4450,98 +4460,98 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M25" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="M26" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M27" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M28" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M29" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M30" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="M31" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M32" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M33" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="M34" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M35" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="M36" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -4643,7 +4653,7 @@
         <v>128</v>
       </c>
       <c r="M5" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -4651,7 +4661,7 @@
         <v>129</v>
       </c>
       <c r="M6" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
@@ -4704,34 +4714,34 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="M13" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M14" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="M15" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="M16" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -4752,10 +4762,10 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="M19" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
@@ -4795,7 +4805,7 @@
         <v>140</v>
       </c>
       <c r="M25" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
@@ -4803,7 +4813,7 @@
         <v>141</v>
       </c>
       <c r="M26" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
@@ -4848,7 +4858,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M32" t="s">
         <v>147</v>
@@ -4947,7 +4957,7 @@
         <v>165</v>
       </c>
       <c r="M44" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
@@ -4955,7 +4965,7 @@
         <v>168</v>
       </c>
       <c r="M45" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
@@ -5081,7 +5091,7 @@
         <v>171</v>
       </c>
       <c r="M4" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -5105,7 +5115,7 @@
         <v>175</v>
       </c>
       <c r="M7" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
@@ -5113,7 +5123,7 @@
         <v>177</v>
       </c>
       <c r="M8" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
@@ -5177,7 +5187,7 @@
         <v>192</v>
       </c>
       <c r="M16" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -5185,7 +5195,7 @@
         <v>193</v>
       </c>
       <c r="M17" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
@@ -5222,10 +5232,10 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="M22" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
@@ -5262,26 +5272,26 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="M27" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M28" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M29" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
@@ -5345,7 +5355,7 @@
         <v>212</v>
       </c>
       <c r="M38" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
@@ -5353,7 +5363,7 @@
         <v>213</v>
       </c>
       <c r="M39" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
@@ -5438,10 +5448,10 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="M50" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD0E91D-0D3F-4B16-8425-284507191484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32E4687-3209-4DC9-8691-964DA5164637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="512">
   <si>
     <t>English</t>
   </si>
@@ -2695,8 +2695,110 @@
   </si>
   <si>
     <t>インポートに成功しました</t>
-    <rPh sb="14" eb="16">
+    <rPh sb="0" eb="12">
       <t>セイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Carrier</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CarrierSpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CarrierRoleNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CarrierHasOtherVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CarrierVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CarrierApplyEnvironmentVisionEffect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CarrierHasOtherKillCool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CarrierKillCoolDown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CarrierHasOtherKillRange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CarrierKillRange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャリヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CarrierAbilityCoolTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CarrierAbilityActiveTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CarrierIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CarrierShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>carry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キルして、その死体を隠せ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死体を運べる時間</t>
+    <rPh sb="0" eb="2">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャリーのクールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死体を運び、通報しにくい場所へ隠せ</t>
+    <rPh sb="3" eb="4">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バショ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3028,7 +3130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
@@ -4220,10 +4322,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131ED9DB-7094-4FCA-8832-3F1005AB8270}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18:M19"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4554,9 +4656,130 @@
         <v>400</v>
       </c>
     </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>491</v>
+      </c>
+      <c r="M38" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="M39" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="M40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="M41" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="M42" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="M43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="M44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="M45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="M46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="M47" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="M48" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="M49" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>504</v>
+      </c>
+      <c r="M50" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>505</v>
+      </c>
+      <c r="M51" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>506</v>
+      </c>
+      <c r="M52" t="s">
+        <v>507</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32E4687-3209-4DC9-8691-964DA5164637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B22BBB-0FD1-4D9B-BB70-0F8DCB575D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="514">
   <si>
     <t>English</t>
   </si>
@@ -2799,6 +2799,23 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>バショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CarrierCanReportOnCarry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死体運搬時、通報されるかどうか</t>
+    <rPh sb="0" eb="2">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ウンパンジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4322,10 +4339,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131ED9DB-7094-4FCA-8832-3F1005AB8270}">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4753,26 +4770,34 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>504</v>
+      <c r="A50" s="1" t="s">
+        <v>512</v>
       </c>
       <c r="M50" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M51" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
+        <v>505</v>
+      </c>
+      <c r="M52" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
         <v>506</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M53" t="s">
         <v>507</v>
       </c>
     </row>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B22BBB-0FD1-4D9B-BB70-0F8DCB575D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996BB0AA-B3EA-4620-8C4A-AF9389CC84E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="535">
   <si>
     <t>English</t>
   </si>
@@ -2816,6 +2816,102 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ツウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Supporter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サポーター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EvilSupporter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NiceSupporter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナイスサポーター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イビルサポーター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SupporterSpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SupporterRoleNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SupporterIsAssignImposter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SupporterImposterSelectedRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SupporterHasOtherVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SupporterVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SupporterApplyEnvironmentVisionEffect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SupporterHasOtherKillCool</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SupporterKillCoolDown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SupporterHasOtherKillRange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SupporterKillRange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SupporterIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SupporterShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}は{1}だ、全力でサポートしろ</t>
+    <rPh sb="9" eb="11">
+      <t>ゼンリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サポート対象を全力で手助けしよう</t>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゼンリョク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テダス</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4341,7 +4437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131ED9DB-7094-4FCA-8832-3F1005AB8270}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
@@ -5256,10 +5352,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5702,8 +5798,137 @@
         <v>408</v>
       </c>
     </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>514</v>
+      </c>
+      <c r="M52" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>516</v>
+      </c>
+      <c r="M53" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>517</v>
+      </c>
+      <c r="M54" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>520</v>
+      </c>
+      <c r="M55" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>521</v>
+      </c>
+      <c r="M56" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>522</v>
+      </c>
+      <c r="M57" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>523</v>
+      </c>
+      <c r="M58" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>524</v>
+      </c>
+      <c r="M59" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>525</v>
+      </c>
+      <c r="M60" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>526</v>
+      </c>
+      <c r="M61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>527</v>
+      </c>
+      <c r="M62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>528</v>
+      </c>
+      <c r="M63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>529</v>
+      </c>
+      <c r="M64" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>530</v>
+      </c>
+      <c r="M65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>531</v>
+      </c>
+      <c r="M66" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>532</v>
+      </c>
+      <c r="M67" t="s">
+        <v>534</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996BB0AA-B3EA-4620-8C4A-AF9389CC84E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693E71E0-C1B5-4C98-BCD4-46ABD2908CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2903,14 +2903,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サポート対象を全力で手助けしよう</t>
+    <t>サポート対象を手助けしよう</t>
     <rPh sb="4" eb="6">
       <t>タイショウ</t>
     </rPh>
     <rPh sb="7" eb="9">
-      <t>ゼンリョク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
       <t>テダス</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -5355,7 +5352,7 @@
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="M61" sqref="M61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693E71E0-C1B5-4C98-BCD4-46ABD2908CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4F42C3-02B2-44F4-91D6-316668DEBD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5351,8 +5351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="M61" sqref="M61"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4F42C3-02B2-44F4-91D6-316668DEBD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8687419B-52A2-44D1-89FB-1229B0A3D12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -4905,8 +4905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445F46B3-1A86-46EF-9440-E5378C8C2CDD}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5344,6 +5344,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5351,7 +5352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8687419B-52A2-44D1-89FB-1229B0A3D12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD007BF-DB10-40B0-892F-0ECF9D944D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21165" yWindow="1275" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -650,10 +650,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JackalCanSetImpostorToSideKick</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>昇格したジャッカルがサイドキックを作成できる再帰上限数</t>
     <rPh sb="0" eb="2">
       <t>ショウカク</t>
@@ -683,10 +679,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JackalCanSeeImpostorToSideKickImpostor</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>インポスターをサイドキックにできるか</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1361,10 +1353,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Sidekick </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ジャッカル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2910,6 +2898,18 @@
     <rPh sb="7" eb="9">
       <t>テダス</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalCanSeeImpostorToSidekickImpostor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalCanSetImpostorToSidekick</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sidekick</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3380,10 +3380,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M10" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
@@ -3454,7 +3454,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -3465,15 +3465,15 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="M19" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
@@ -3490,7 +3490,7 @@
         <v>50</v>
       </c>
       <c r="M21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -3523,55 +3523,55 @@
         <v>59</v>
       </c>
       <c r="M24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="M25" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="M26" t="s">
         <v>305</v>
-      </c>
-      <c r="M26" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="M27" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M29" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M30" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M31" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -3582,7 +3582,7 @@
         <v>62</v>
       </c>
       <c r="M32" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
@@ -3593,7 +3593,7 @@
         <v>64</v>
       </c>
       <c r="M33" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
@@ -3604,7 +3604,7 @@
         <v>66</v>
       </c>
       <c r="M34" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
@@ -3615,103 +3615,103 @@
         <v>68</v>
       </c>
       <c r="M35" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M37" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M39" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="M40" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M41" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M42" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M44" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="M45" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="M46" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M47" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="M49" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M50" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="M51" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
@@ -3815,277 +3815,277 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B66" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M66" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B67" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M67" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B69" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M69" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B71" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="M71" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B72" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M72" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B73" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M73" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B74" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M74" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B75" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M75" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B76" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="M76" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="M79" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="M81" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="M83" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="M85" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="M86" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="M87" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="M88" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
+        <v>412</v>
+      </c>
+      <c r="M89" t="s">
         <v>415</v>
-      </c>
-      <c r="M89" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M90" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M91" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M96" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M97" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M99" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="M100" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M102" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M103" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M104" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M105" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M106" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="M108" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M109" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M110" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -4161,7 +4161,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M2" t="s">
         <v>109</v>
@@ -4188,7 +4188,7 @@
         <v>105</v>
       </c>
       <c r="M5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -4196,7 +4196,7 @@
         <v>106</v>
       </c>
       <c r="M6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
@@ -4209,39 +4209,39 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M11" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="M12" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M13" t="s">
         <v>110</v>
@@ -4249,23 +4249,23 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M14" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="M15" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M16" t="s">
         <v>111</v>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M17" t="s">
         <v>123</v>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M18" t="s">
         <v>122</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="M19" t="s">
         <v>124</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M20" t="s">
         <v>125</v>
@@ -4305,55 +4305,55 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
+        <v>436</v>
+      </c>
+      <c r="M21" t="s">
         <v>439</v>
-      </c>
-      <c r="M21" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
+        <v>437</v>
+      </c>
+      <c r="M22" t="s">
         <v>440</v>
-      </c>
-      <c r="M22" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="M23" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M24" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M26" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M27" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M28" t="s">
         <v>110</v>
@@ -4361,23 +4361,23 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M29" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M30" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M31" t="s">
         <v>111</v>
@@ -4385,42 +4385,42 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M32" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="M33" t="s">
         <v>462</v>
-      </c>
-      <c r="M33" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="M34" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="M35" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M36" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M2" t="s">
         <v>121</v>
@@ -4523,7 +4523,7 @@
         <v>114</v>
       </c>
       <c r="M5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -4531,7 +4531,7 @@
         <v>115</v>
       </c>
       <c r="M6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
@@ -4576,39 +4576,39 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>227</v>
+      </c>
+      <c r="M12" t="s">
         <v>229</v>
-      </c>
-      <c r="M12" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>228</v>
+      </c>
+      <c r="M13" t="s">
         <v>230</v>
-      </c>
-      <c r="M13" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="M15" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M16" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M17" t="s">
         <v>110</v>
@@ -4616,23 +4616,23 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M18" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M19" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M20" t="s">
         <v>111</v>
@@ -4640,7 +4640,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M21" t="s">
         <v>123</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M22" t="s">
         <v>122</v>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="M23" t="s">
         <v>124</v>
@@ -4664,7 +4664,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M24" t="s">
         <v>125</v>
@@ -4672,119 +4672,119 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M25" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M26" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M27" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M28" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="M29" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M30" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="M31" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M32" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
+        <v>391</v>
+      </c>
+      <c r="M33" t="s">
         <v>394</v>
-      </c>
-      <c r="M33" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M34" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="M35" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M36" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M38" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="M39" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M40" t="s">
         <v>110</v>
@@ -4792,23 +4792,23 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="M41" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="M42" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M43" t="s">
         <v>111</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M44" t="s">
         <v>123</v>
@@ -4824,7 +4824,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M45" t="s">
         <v>122</v>
@@ -4832,7 +4832,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="M46" t="s">
         <v>124</v>
@@ -4840,7 +4840,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="M47" t="s">
         <v>125</v>
@@ -4848,50 +4848,50 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="M48" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="M49" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="M50" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M51" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
+        <v>502</v>
+      </c>
+      <c r="M52" t="s">
         <v>505</v>
-      </c>
-      <c r="M52" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M53" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -4906,7 +4906,7 @@
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M2" t="s">
         <v>136</v>
@@ -4994,7 +4994,7 @@
         <v>128</v>
       </c>
       <c r="M5" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -5002,7 +5002,7 @@
         <v>129</v>
       </c>
       <c r="M6" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
@@ -5055,74 +5055,74 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M13" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="M14" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>355</v>
+      </c>
+      <c r="M16" t="s">
         <v>358</v>
-      </c>
-      <c r="M16" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
+        <v>231</v>
+      </c>
+      <c r="M17" t="s">
         <v>233</v>
-      </c>
-      <c r="M17" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>232</v>
+      </c>
+      <c r="M18" t="s">
         <v>234</v>
-      </c>
-      <c r="M18" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="M19" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>260</v>
+        <v>534</v>
       </c>
       <c r="M22" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
@@ -5130,7 +5130,7 @@
         <v>138</v>
       </c>
       <c r="M23" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
@@ -5146,7 +5146,7 @@
         <v>140</v>
       </c>
       <c r="M25" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
@@ -5154,7 +5154,7 @@
         <v>141</v>
       </c>
       <c r="M26" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
@@ -5162,7 +5162,7 @@
         <v>142</v>
       </c>
       <c r="M27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
@@ -5199,7 +5199,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M32" t="s">
         <v>147</v>
@@ -5215,10 +5215,10 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
@@ -5242,7 +5242,7 @@
         <v>152</v>
       </c>
       <c r="M37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
@@ -5250,95 +5250,95 @@
         <v>154</v>
       </c>
       <c r="M38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>156</v>
+        <v>533</v>
       </c>
       <c r="M39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
+        <v>532</v>
+      </c>
+      <c r="M40" t="s">
         <v>159</v>
-      </c>
-      <c r="M40" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M41" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M42" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="M43" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M44" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M45" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M47" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M48" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M49" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -5414,303 +5414,303 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>260</v>
+      </c>
+      <c r="M2" t="s">
         <v>263</v>
-      </c>
-      <c r="M2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>172</v>
+      </c>
+      <c r="M6" t="s">
         <v>174</v>
-      </c>
-      <c r="M6" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M8" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M15" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M16" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M17" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M21" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M22" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="M26" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="M27" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M28" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
+        <v>349</v>
+      </c>
+      <c r="M29" t="s">
         <v>352</v>
-      </c>
-      <c r="M29" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M31" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M32" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M33" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M34" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M38" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M39" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M40" t="s">
         <v>111</v>
@@ -5718,31 +5718,31 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M41" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M42" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M43" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M44" t="s">
         <v>123</v>
@@ -5750,7 +5750,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M45" t="s">
         <v>122</v>
@@ -5758,7 +5758,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M46" t="s">
         <v>124</v>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="M47" t="s">
         <v>125</v>
@@ -5774,103 +5774,103 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M49" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M50" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M52" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
+        <v>513</v>
+      </c>
+      <c r="M53" t="s">
         <v>516</v>
-      </c>
-      <c r="M53" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M54" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="M55" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="M56" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M57" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="M58" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M59" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="M60" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="M61" t="s">
         <v>111</v>
@@ -5878,7 +5878,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="M62" t="s">
         <v>123</v>
@@ -5886,7 +5886,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="M63" t="s">
         <v>122</v>
@@ -5894,7 +5894,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="M64" t="s">
         <v>124</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="M65" t="s">
         <v>125</v>
@@ -5910,18 +5910,18 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="M66" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="M67" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD007BF-DB10-40B0-892F-0ECF9D944D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE6F23A-C57D-48B7-91DB-F79FB0824DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21165" yWindow="1275" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="537">
   <si>
     <t>English</t>
   </si>
@@ -2910,6 +2910,32 @@
   </si>
   <si>
     <t>Sidekick</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoverKillerShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>愛する人を殺した船員達に復讐せよ</t>
+    <rPh sb="0" eb="1">
+      <t>アイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>コロ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タチ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フクシュウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4905,7 +4931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445F46B3-1A86-46EF-9440-E5378C8C2CDD}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -5350,10 +5376,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5790,137 +5816,145 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
+        <v>535</v>
+      </c>
+      <c r="M50" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
         <v>404</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M51" t="s">
         <v>405</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>511</v>
-      </c>
-      <c r="M52" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="M53" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="M54" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M55" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M56" t="s">
-        <v>170</v>
+        <v>512</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M57" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M58" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M59" t="s">
-        <v>468</v>
+        <v>209</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M60" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M61" t="s">
-        <v>111</v>
+        <v>469</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M62" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M63" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M66" t="s">
-        <v>530</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
+        <v>528</v>
+      </c>
+      <c r="M67" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
         <v>529</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M68" t="s">
         <v>531</v>
       </c>
     </row>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE6F23A-C57D-48B7-91DB-F79FB0824DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21B02CD-4F69-4ECC-A124-CFBA064BA5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="554">
   <si>
     <t>English</t>
   </si>
@@ -2935,6 +2935,116 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>フクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Neet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeetSpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeetRoleNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeetHasOtherVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeetVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeetApplyEnvironmentVisionEffect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeetIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeetShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeetCanCallMeeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緊急会議を起こせるか</t>
+    <rPh sb="0" eb="4">
+      <t>キンキュウカイギ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeetCanRepairSabotage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeetIsNeutral</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ニュートラルか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サボタージを治せるか</t>
+    <rPh sb="6" eb="7">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全てを他の人に任せて、宇宙の旅を楽しもう</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソラ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タビ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優雅な宇宙の旅を楽しもう</t>
+    <rPh sb="0" eb="2">
+      <t>ユウガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウチュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タビ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タノ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4123,10 +4233,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4447,6 +4557,94 @@
       </c>
       <c r="M36" t="s">
         <v>479</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>537</v>
+      </c>
+      <c r="M38" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>539</v>
+      </c>
+      <c r="M39" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>540</v>
+      </c>
+      <c r="M40" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>541</v>
+      </c>
+      <c r="M41" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>542</v>
+      </c>
+      <c r="M42" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>543</v>
+      </c>
+      <c r="M43" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="M44" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="M45" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="M46" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>544</v>
+      </c>
+      <c r="M47" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>545</v>
+      </c>
+      <c r="M48" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>
@@ -5378,7 +5576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21B02CD-4F69-4ECC-A124-CFBA064BA5F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F8D14F-F6B7-41B1-BBD0-BC8993510FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="558">
   <si>
     <t>English</t>
   </si>
@@ -3046,6 +3046,20 @@
     <rPh sb="8" eb="9">
       <t>タノ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>customServerPort</t>
+  </si>
+  <si>
+    <t>customServerIp</t>
+  </si>
+  <si>
+    <t>カスタムサーバーのIP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カスタムサーバーのポート</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3376,8 +3390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="C82" workbookViewId="0">
+      <selection activeCell="M95" sqref="M95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4128,6 +4142,22 @@
         <v>450</v>
       </c>
     </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>555</v>
+      </c>
+      <c r="M93" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>554</v>
+      </c>
+      <c r="M94" t="s">
+        <v>557</v>
+      </c>
+    </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>337</v>
@@ -4235,7 +4265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F8D14F-F6B7-41B1-BBD0-BC8993510FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCB2B9F-8DF1-446B-87C9-1C322163D96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3390,8 +3390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C82" workbookViewId="0">
-      <selection activeCell="M95" sqref="M95"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4266,7 +4266,7 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4689,7 +4689,7 @@
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5159,7 +5159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445F46B3-1A86-46EF-9440-E5378C8C2CDD}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -5606,7 +5606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCB2B9F-8DF1-446B-87C9-1C322163D96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4077D51D-207C-4F91-A447-A032C5BB2C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="564">
   <si>
     <t>English</t>
   </si>
@@ -3060,6 +3060,36 @@
   </si>
   <si>
     <t>カスタムサーバーのポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gameOption</t>
+  </si>
+  <si>
+    <t>現在のゲーム設定</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yourRole</t>
+  </si>
+  <si>
+    <t>あなたのロール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roleOption</t>
+  </si>
+  <si>
+    <t>のロール設定</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3388,10 +3418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q110"/>
+  <dimension ref="A1:Q114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4254,6 +4284,30 @@
         <v>346</v>
       </c>
     </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>558</v>
+      </c>
+      <c r="M112" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>560</v>
+      </c>
+      <c r="M113" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>562</v>
+      </c>
+      <c r="M114" t="s">
+        <v>563</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4265,8 +4319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4077D51D-207C-4F91-A447-A032C5BB2C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50901E9C-F0D0-438C-95E4-22D34115FB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="614">
   <si>
     <t>English</t>
   </si>
@@ -2411,9 +2411,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Maintainer</t>
-  </si>
-  <si>
     <t>MaintainerSpawnRate</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3089,6 +3086,1199 @@
     <t>のロール設定</t>
     <rPh sb="4" eb="6">
       <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpecialCrewFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SheriffFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キルが可能なクルー役職。ただし、キル可能回数には上限がある
+キルを行おうとした相手がクルー役職であればキルは失敗して死亡する</t>
+    <rPh sb="3" eb="5">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maintainer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaintainerFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Extreme Rolesの各役職の共通設定が適用できるクルー役職
+設定内容は以下を確認</t>
+    <rPh sb="14" eb="17">
+      <t>カクヤクショク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="34" eb="38">
+      <t>セッテイナイヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緊急修理が行えるクルー役職
+緊急修理は緊急タスク(サボタージ)発生時、使用可能
+緊急修理が発動すると緊急タスクはすぐに完了し、マップ内のドアが全て開きます</t>
+    <rPh sb="0" eb="2">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ハッセイジ</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>シヨウカノウ</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeetFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何も出来ないクルー役職
+何もしなくていいので、監視役に向いているかも？</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>カンシヤク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SpecialImpostorFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Extreme Rolesの各役職の共通設定が適用できるインポスター役職
+設定内容は以下を確認</t>
+    <rPh sb="14" eb="17">
+      <t>カクヤクショク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="37" eb="41">
+      <t>セッテイナイヨウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EvolverFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CarrierFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死体を運ぶことができるインポスター役職
+「キャリー」の発動時間が切れると死体をその場に落とす</t>
+    <rPh sb="0" eb="2">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死体を喰うことで、キルクールタイムが短くなるインポスター役職
+捕食中は死体の近くに居なければならない
+捕食後は新しいキルクールタイムが適用される</t>
+    <rPh sb="0" eb="2">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ホショク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ホショク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AliceFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三陣営役職
+勝利条件1：インポスターにキルされる
+勝利条件2：自分以外の生存者が一人でクルー役職かインポスター役職
+会議で追放された場合、敗北
+「破壊工作」により完了しているタスクの一部がリセットされる
+強力な役職のためインポスター及びクルー両方狙われるため注意が必要</t>
+    <rPh sb="0" eb="4">
+      <t>ダイサンジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>ジブンイガイ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>セイゾンシャ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ツイホウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="74" eb="78">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>ネラ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeetNeutralFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何も出来ない第三陣営役職
+勝利条件：生き残っていること
+何もしなくていいので、監視役に向いているかも？</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ダイサンジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>カンシヤク</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三陣営役職
+勝利条件：インポスター及びキル能力を持つ第三陣営が全滅しており、
+生存者の半数以上が同じ陣営。
+「サイドキック」を使うことで任意の人を同じ陣営に引き込むことが可能
+「サイドキック」の対象になった人は「サイドキック」という役職になる</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ゼンメツ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>セイゾンシャ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ハンスウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MarlinFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AssassinFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポスター陣営に新しい勝利条件を追加するインポスター役職
+新しい勝利条件：アサシンの特殊能力でマーリンを当てる
+アサシンの特殊能力：マーリン指定の特殊会議
+マーリン指定の特殊会議：全員が参加するが能力を発動させたアサシン以外投票不可
+　　　　　　　　　　　　スキップ不可、チャット不可、死亡している人にも投票可
+　　　　　　　　　　　　投票先がマーリンであればインポスター勝利、それ以外の
+　　　　　　　　　　　　場合、ゲームが続行(マーリンの能力は継続)
+特殊能力発動条件：追放された場合、自身がキルされた場合の処理は設定可
+上記の能力以外は普通のインポスターのため、マーリンを探りつつ潜伏しキルを行う必要がある</t>
+    <rPh sb="6" eb="8">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>トクシュノウリョク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="62" eb="66">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="192" eb="194">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="208" eb="210">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>ゾッコウ</t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="226" eb="228">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="230" eb="234">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="234" eb="238">
+      <t>ハツドウジョウケン</t>
+    </rPh>
+    <rPh sb="239" eb="241">
+      <t>ツイホウ</t>
+    </rPh>
+    <rPh sb="244" eb="246">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="255" eb="257">
+      <t>バアイショリ</t>
+    </rPh>
+    <rPh sb="265" eb="267">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="268" eb="270">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="270" eb="272">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="273" eb="275">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="291" eb="292">
+      <t>サグ</t>
+    </rPh>
+    <rPh sb="295" eb="297">
+      <t>センプク</t>
+    </rPh>
+    <rPh sb="301" eb="302">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="303" eb="305">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポスターが誰か分かるクルー役職
+アサシンの特殊能力によって指定された場合、クルー全体の敗北
+インポスターが分かるので会議を主導しつつ、身を隠す必要がある
+インポスターに近い設定の役職のため、注意が必要</t>
+    <rPh sb="7" eb="8">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>トクシュノウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="91" eb="93">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoverFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoverNeutralFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoverImposterFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数人1組の第三陣営役職
+勝利条件1：生存者が同じ組以下になること
+勝利条件2：同じ組のタスクが全て終了すること
+同じ組の人が一定数以下になると自決する
+自決を行う人数は設定により変化する</t>
+    <rPh sb="0" eb="3">
+      <t>フクスウニン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>セイゾンシャ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数人1組のインポスター役職
+勝利条件1：インポスター勝利、ただし、同じ組は敗北
+勝利条件2：同じ組のタスクが全て終了すること
+勝利条件3：生存者が同じ組以下になること
+同じ組の人が一定数以下になると自決もしくは第三陣営に変化する
+自決を行う人数は設定により変化する</t>
+    <rPh sb="0" eb="3">
+      <t>フクスウニン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="41" eb="45">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="64" eb="68">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="91" eb="94">
+      <t>イッテイスウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ジケツ</t>
+    </rPh>
+    <rPh sb="106" eb="110">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ジケツ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数人1組のクルー役職
+勝利条件1：クルー勝利、ただし、同じ組で別陣営の人が居た場合その人は敗北
+勝利条件2：生存者が同じ組以下になること
+同じ組の人が一定数以下になると自決もしくは第三陣営に変化する
+自決を行う人数は設定により変化する</t>
+    <rPh sb="0" eb="3">
+      <t>フクスウニン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="76" eb="79">
+      <t>イッテイスウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>ジケツ</t>
+    </rPh>
+    <rPh sb="91" eb="95">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ジケツ</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoverNeutralKillerFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相方を殺された恨みで殺人鬼に変化した複数人1組の第三陣営役職
+勝利条件：生存者が同じ組以下になること</t>
+    <rPh sb="3" eb="4">
+      <t>コロ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウラ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>サツジンキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>フクスウニン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="36" eb="39">
+      <t>セイゾンシャ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SupporterFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム開始時、一人だけ役職を知っているクルー役職
+1人だけ役職が分かるためその人をサポートする必要がある
+誰かにマーリンがアサインされている場合、マーリンがサポート対象となる
+それ以外だと、クルー陣営からランダムにサポート対象が決定される</t>
+    <rPh sb="3" eb="6">
+      <t>カイシジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>^</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SupporterImposterFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム開始時、一人だけ役職を知っているインポスター役職
+1人だけ役職が分かるためその人をサポートする必要がある
+誰かにアサシンがアサインされている場合、アサシンがサポート対象となる
+それ以外だと、インポスター陣営からランダムにサポート対象が決定される</t>
+    <rPh sb="3" eb="6">
+      <t>カイシジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャッカルのアシストを行う第三陣営役職
+勝利条件：インポスター及びキル能力を持つ第三陣営が全滅しており、
+生存者の半数以上が同じ陣営。</t>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ゼンメツ</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>セイゾンシャ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ハンスウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ジンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SidekickFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curSidekick</t>
+  </si>
+  <si>
+    <t>現在のサイドキック</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curJackal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>curLover</t>
+  </si>
+  <si>
+    <t>curSupportTarget</t>
+  </si>
+  <si>
+    <t>現在のサポート対象</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のジャッカル</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>恋人</t>
+    <rPh sb="0" eb="2">
+      <t>コイビト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>playerName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roleName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役職</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3133,10 +4323,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3418,10 +4611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q114"/>
+  <dimension ref="A1:Q117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView tabSelected="1" topLeftCell="C100" workbookViewId="0">
+      <selection activeCell="M117" sqref="M117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3800,10 +4993,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
+        <v>479</v>
+      </c>
+      <c r="M37" t="s">
         <v>480</v>
-      </c>
-      <c r="M37" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
@@ -3811,7 +5004,7 @@
         <v>319</v>
       </c>
       <c r="M39" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
@@ -3819,7 +5012,7 @@
         <v>321</v>
       </c>
       <c r="M40" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
@@ -3827,7 +5020,7 @@
         <v>322</v>
       </c>
       <c r="M41" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
@@ -3843,7 +5036,7 @@
         <v>320</v>
       </c>
       <c r="M44" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
@@ -3851,7 +5044,7 @@
         <v>323</v>
       </c>
       <c r="M45" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
@@ -3859,7 +5052,7 @@
         <v>325</v>
       </c>
       <c r="M46" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
@@ -4174,18 +5367,18 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
+        <v>554</v>
+      </c>
+      <c r="M93" t="s">
         <v>555</v>
-      </c>
-      <c r="M93" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="M94" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
@@ -4286,26 +5479,42 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
+        <v>557</v>
+      </c>
+      <c r="M112" t="s">
         <v>558</v>
-      </c>
-      <c r="M112" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
+        <v>559</v>
+      </c>
+      <c r="M113" t="s">
         <v>560</v>
-      </c>
-      <c r="M113" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
+        <v>561</v>
+      </c>
+      <c r="M114" t="s">
         <v>562</v>
       </c>
-      <c r="M114" t="s">
-        <v>563</v>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>610</v>
+      </c>
+      <c r="M116" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>611</v>
+      </c>
+      <c r="M117" t="s">
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -4317,16 +5526,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="13" max="13" width="44.5" customWidth="1"/>
+    <col min="13" max="13" width="78.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
@@ -4408,7 +5617,7 @@
         <v>105</v>
       </c>
       <c r="M5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -4416,7 +5625,7 @@
         <v>106</v>
       </c>
       <c r="M6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
@@ -4443,17 +5652,17 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>424</v>
-      </c>
-      <c r="M11" t="s">
-        <v>438</v>
+    <row r="10" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>563</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M12" t="s">
         <v>438</v>
@@ -4461,274 +5670,314 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M13" t="s">
-        <v>110</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M14" t="s">
-        <v>468</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M15" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M16" t="s">
-        <v>111</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M17" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="M21" t="s">
-        <v>439</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M23" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
+        <v>434</v>
+      </c>
+      <c r="M24" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>435</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M25" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>452</v>
-      </c>
-      <c r="M26" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>453</v>
-      </c>
-      <c r="M27" t="s">
-        <v>464</v>
+        <v>564</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>454</v>
+        <v>566</v>
       </c>
       <c r="M28" t="s">
-        <v>110</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="M29" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="M30" t="s">
-        <v>469</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
+        <v>454</v>
+      </c>
+      <c r="M31" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>455</v>
+      </c>
+      <c r="M32" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>456</v>
+      </c>
+      <c r="M33" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="M31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
+      <c r="M34" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="M32" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="M33" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>460</v>
-      </c>
-      <c r="M34" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+      <c r="M35" t="s">
         <v>461</v>
-      </c>
-      <c r="M35" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="M36" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>460</v>
+      </c>
+      <c r="M37" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>537</v>
-      </c>
-      <c r="M38" t="s">
-        <v>538</v>
+        <v>567</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>539</v>
+        <v>477</v>
       </c>
       <c r="M39" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>540</v>
-      </c>
-      <c r="M40" t="s">
-        <v>110</v>
+        <v>478</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="M41" t="s">
-        <v>468</v>
+        <v>537</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="M42" t="s">
-        <v>469</v>
+        <v>537</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
+        <v>539</v>
+      </c>
+      <c r="M43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>540</v>
+      </c>
+      <c r="M44" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>541</v>
+      </c>
+      <c r="M45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>542</v>
+      </c>
+      <c r="M46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="M47" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="M48" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="M49" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
         <v>543</v>
       </c>
-      <c r="M43" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A44" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="M44" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A45" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="M45" t="s">
+      <c r="M50" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A46" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="M46" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
         <v>544</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M51" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>545</v>
-      </c>
-      <c r="M48" t="s">
-        <v>553</v>
+    <row r="52" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>570</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>581</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -4740,16 +5989,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131ED9DB-7094-4FCA-8832-3F1005AB8270}">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="13" max="13" width="43.875" customWidth="1"/>
+    <col min="13" max="13" width="65" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
@@ -4831,7 +6080,7 @@
         <v>114</v>
       </c>
       <c r="M5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -4839,7 +6088,7 @@
         <v>115</v>
       </c>
       <c r="M6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
@@ -4898,17 +6147,17 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+    <row r="14" spans="1:17" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>572</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>382</v>
-      </c>
-      <c r="M15" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="M16" t="s">
         <v>383</v>
@@ -4916,290 +6165,314 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="M17" t="s">
-        <v>110</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M18" t="s">
-        <v>468</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M19" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M20" t="s">
-        <v>111</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M21" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="M25" t="s">
-        <v>384</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="M26" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M27" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
       <c r="M28" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="M30" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M31" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M32" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M33" t="s">
         <v>389</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>391</v>
-      </c>
-      <c r="M33" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M34" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
+        <v>392</v>
+      </c>
+      <c r="M35" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>574</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
         <v>398</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M37" t="s">
         <v>395</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>396</v>
-      </c>
-      <c r="M36" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>488</v>
+        <v>396</v>
       </c>
       <c r="M38" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="M39" t="s">
-        <v>498</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
-        <v>490</v>
+      <c r="A40" t="s">
+        <v>487</v>
       </c>
       <c r="M40" t="s">
-        <v>110</v>
+        <v>497</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M41" t="s">
-        <v>468</v>
+        <v>497</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="M42" t="s">
-        <v>469</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M43" t="s">
-        <v>111</v>
+        <v>467</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="M44" t="s">
-        <v>123</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="M45" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="M48" t="s">
-        <v>507</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M49" t="s">
-        <v>506</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="M50" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="M51" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="M52" t="s">
         <v>509</v>
-      </c>
-      <c r="M50" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>501</v>
-      </c>
-      <c r="M51" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>502</v>
-      </c>
-      <c r="M52" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
+        <v>500</v>
+      </c>
+      <c r="M53" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>501</v>
+      </c>
+      <c r="M54" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>575</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>502</v>
+      </c>
+      <c r="M56" t="s">
         <v>503</v>
-      </c>
-      <c r="M53" t="s">
-        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -5211,16 +6484,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445F46B3-1A86-46EF-9440-E5378C8C2CDD}">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="13" max="13" width="62.25" customWidth="1"/>
+    <col min="13" max="13" width="66" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
@@ -5302,7 +6575,7 @@
         <v>128</v>
       </c>
       <c r="M5" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -5310,7 +6583,7 @@
         <v>129</v>
       </c>
       <c r="M6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
@@ -5409,164 +6682,164 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" ht="120.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>578</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>362</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M20" t="s">
         <v>363</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>257</v>
-      </c>
-      <c r="M21" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>534</v>
+        <v>257</v>
       </c>
       <c r="M22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>533</v>
       </c>
       <c r="M23" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M24" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M25" t="s">
-        <v>470</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M26" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M27" t="s">
-        <v>164</v>
+        <v>470</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M28" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M30" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>342</v>
+        <v>146</v>
       </c>
       <c r="M32" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
+        <v>342</v>
+      </c>
+      <c r="M33" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
         <v>148</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M34" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M35" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>150</v>
-      </c>
-      <c r="M35" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>533</v>
+        <v>154</v>
       </c>
       <c r="M39" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
@@ -5574,79 +6847,119 @@
         <v>532</v>
       </c>
       <c r="M40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>316</v>
+        <v>531</v>
       </c>
       <c r="M41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
+        <v>316</v>
+      </c>
+      <c r="M42" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
         <v>161</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M43" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M44" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>163</v>
-      </c>
-      <c r="M44" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M45" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M46" t="s">
-        <v>165</v>
+        <v>472</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="M47" t="s">
-        <v>240</v>
+        <v>165</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M48" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
+        <v>236</v>
+      </c>
+      <c r="M49" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>579</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>602</v>
+      </c>
+      <c r="M51" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
         <v>237</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M52" t="s">
         <v>238</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>601</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>604</v>
+      </c>
+      <c r="M54" t="s">
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -5658,16 +6971,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="D55" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="38.375" customWidth="1"/>
-    <col min="13" max="13" width="74.625" customWidth="1"/>
+    <col min="13" max="13" width="86.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
@@ -5765,7 +7078,7 @@
         <v>173</v>
       </c>
       <c r="M7" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
@@ -5773,7 +7086,7 @@
         <v>175</v>
       </c>
       <c r="M8" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
@@ -5837,7 +7150,7 @@
         <v>190</v>
       </c>
       <c r="M16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -5845,7 +7158,7 @@
         <v>191</v>
       </c>
       <c r="M17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
@@ -5904,340 +7217,420 @@
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>244</v>
-      </c>
-      <c r="M25" t="s">
-        <v>247</v>
+        <v>584</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>347</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="187.5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>350</v>
-      </c>
-      <c r="M28" t="s">
-        <v>351</v>
+        <v>585</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M29" t="s">
-        <v>352</v>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>350</v>
+      </c>
+      <c r="M30" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>264</v>
+        <v>349</v>
       </c>
       <c r="M31" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>200</v>
-      </c>
-      <c r="M32" t="s">
-        <v>203</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c r="M33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M34" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M35" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M36" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M37" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M38" t="s">
-        <v>468</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="M39" t="s">
-        <v>469</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M40" t="s">
-        <v>111</v>
+        <v>467</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M41" t="s">
-        <v>214</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M42" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M43" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M44" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M45" t="s">
-        <v>122</v>
+        <v>222</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="M48" t="s">
-        <v>253</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="M49" t="s">
-        <v>250</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>535</v>
+        <v>248</v>
       </c>
       <c r="M50" t="s">
-        <v>536</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>404</v>
+        <v>249</v>
       </c>
       <c r="M51" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>588</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>511</v>
-      </c>
-      <c r="M53" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+        <v>590</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>513</v>
-      </c>
-      <c r="M54" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+        <v>589</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>514</v>
-      </c>
-      <c r="M55" t="s">
-        <v>515</v>
+        <v>594</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="M56" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>518</v>
-      </c>
-      <c r="M57" t="s">
-        <v>170</v>
+        <v>605</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>519</v>
+        <v>404</v>
       </c>
       <c r="M58" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>520</v>
-      </c>
-      <c r="M59" t="s">
-        <v>209</v>
+        <v>405</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="M60" t="s">
-        <v>468</v>
+        <v>511</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="M61" t="s">
-        <v>469</v>
+        <v>515</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="M62" t="s">
-        <v>111</v>
+        <v>514</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="M63" t="s">
-        <v>123</v>
+        <v>511</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="M64" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="M65" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="M66" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="M67" t="s">
-        <v>530</v>
+        <v>467</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
+        <v>521</v>
+      </c>
+      <c r="M68" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>522</v>
+      </c>
+      <c r="M69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>523</v>
+      </c>
+      <c r="M70" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>524</v>
+      </c>
+      <c r="M71" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>525</v>
+      </c>
+      <c r="M72" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>526</v>
+      </c>
+      <c r="M73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>527</v>
+      </c>
+      <c r="M74" t="s">
         <v>529</v>
       </c>
-      <c r="M68" t="s">
-        <v>531</v>
+    </row>
+    <row r="75" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>528</v>
+      </c>
+      <c r="M75" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>596</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>598</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>606</v>
+      </c>
+      <c r="M78" t="s">
+        <v>607</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50901E9C-F0D0-438C-95E4-22D34115FB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE939211-5999-41D0-B98F-63F857D69FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -3486,92 +3486,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>第三陣営役職
-勝利条件：インポスター及びキル能力を持つ第三陣営が全滅しており、
-生存者の半数以上が同じ陣営。
-「サイドキック」を使うことで任意の人を同じ陣営に引き込むことが可能
-「サイドキック」の対象になった人は「サイドキック」という役職になる</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ショウリジョウケン</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ノウリョク</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="27" eb="31">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ゼンメツ</t>
-    </rPh>
-    <rPh sb="40" eb="43">
-      <t>セイゾンシャ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ハンスウ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ヤクショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MarlinFullDescription</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4048,168 +3962,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ゲーム開始時、一人だけ役職を知っているクルー役職
-1人だけ役職が分かるためその人をサポートする必要がある
-誰かにマーリンがアサインされている場合、マーリンがサポート対象となる
-それ以外だと、クルー陣営からランダムにサポート対象が決定される</t>
-    <rPh sb="3" eb="6">
-      <t>カイシジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒトリ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>^</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ダレ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ケッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SupporterImposterFullDescription</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム開始時、一人だけ役職を知っているインポスター役職
-1人だけ役職が分かるためその人をサポートする必要がある
-誰かにアサシンがアサインされている場合、アサシンがサポート対象となる
-それ以外だと、インポスター陣営からランダムにサポート対象が決定される</t>
-    <rPh sb="3" eb="6">
-      <t>カイシジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒトリ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ダレ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>ケッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジャッカルのアシストを行う第三陣営役職
-勝利条件：インポスター及びキル能力を持つ第三陣営が全滅しており、
-生存者の半数以上が同じ陣営。</t>
-    <rPh sb="11" eb="12">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="20" eb="24">
-      <t>ショウリジョウケン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ノウリョク</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="40" eb="44">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ゼンメツ</t>
-    </rPh>
-    <rPh sb="53" eb="56">
-      <t>セイゾンシャ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ハンスウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ジンエイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4279,6 +4032,268 @@
     <t>プレイヤー名</t>
     <rPh sb="5" eb="6">
       <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム開始時、一人だけ役職を知っているクルー役職
+1人だけ役職が分かるためその人をサポートする必要がある
+誰かにマーリンがアサインされている場合、マーリンが
+サポート対象となる(複数人マーリンがいる場合はランダム)
+それ以外だと、クルー陣営からランダムにサポート対象が
+決定される</t>
+    <rPh sb="3" eb="6">
+      <t>カイシジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>^</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム開始時、一人だけ役職を知っているインポスター役職
+1人だけ役職が分かるためその人をサポートする必要がある
+誰かにアサシンがアサインされている場合、アサシンが
+サポート対象となる
+それ以外だと、インポスター陣営からランダムにサポート対象が
+決定される</t>
+    <rPh sb="3" eb="6">
+      <t>カイシジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三陣営役職
+勝利条件：インポスター及びキル能力を持つ第三陣営が
+全滅しており、生存者の半数以上が同じ陣営。
+「サイドキック」を使うことで任意の人を同じ陣営に
+引き込むことが可能
+「サイドキック」の対象になった人は「サイドキック」
+という役職になる</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゼンメツ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>セイゾンシャ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ハンスウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ニンイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャッカルのアシストを行う第三陣営役職
+勝利条件：インポスター及びキル能力を持つ第三陣営が
+全滅しており、生存者の半数以上が同じ陣営。</t>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ゼンメツ</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>セイゾンシャ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ハンスウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ジンエイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4613,7 +4628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C100" workbookViewId="0">
+    <sheetView topLeftCell="C100" workbookViewId="0">
       <selection activeCell="M117" sqref="M117"/>
     </sheetView>
   </sheetViews>
@@ -5503,18 +5518,18 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="M116" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="M117" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -6147,7 +6162,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>572</v>
       </c>
@@ -6486,14 +6501,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445F46B3-1A86-46EF-9440-E5378C8C2CDD}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="13" max="13" width="66" customWidth="1"/>
+    <col min="13" max="13" width="56" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
@@ -6922,20 +6937,20 @@
         <v>239</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>579</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>583</v>
+        <v>612</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="M51" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -6948,18 +6963,18 @@
     </row>
     <row r="53" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>600</v>
+        <v>613</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
+        <v>600</v>
+      </c>
+      <c r="M54" t="s">
         <v>604</v>
-      </c>
-      <c r="M54" t="s">
-        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -6973,14 +6988,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView topLeftCell="D55" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView topLeftCell="D70" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="38.375" customWidth="1"/>
-    <col min="13" max="13" width="86.5" customWidth="1"/>
+    <col min="13" max="13" width="56" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
@@ -7219,10 +7234,10 @@
     </row>
     <row r="25" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
@@ -7241,12 +7256,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="187.5" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
+        <v>584</v>
+      </c>
+      <c r="M28" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -7427,34 +7442,34 @@
     </row>
     <row r="52" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
+        <v>593</v>
+      </c>
+      <c r="M55" s="2" t="s">
         <v>594</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
@@ -7467,10 +7482,10 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
+        <v>601</v>
+      </c>
+      <c r="M57" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
@@ -7609,28 +7624,28 @@
         <v>530</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
+        <v>595</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
         <v>596</v>
       </c>
-      <c r="M76" s="2" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="75" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
-        <v>598</v>
-      </c>
       <c r="M77" s="2" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="M78" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE939211-5999-41D0-B98F-63F857D69FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC5F7B2-016A-4986-ABFC-83F3ACD15E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="624">
   <si>
     <t>English</t>
   </si>
@@ -3095,38 +3095,6 @@
   </si>
   <si>
     <t>SheriffFullDescription</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キルが可能なクルー役職。ただし、キル可能回数には上限がある
-キルを行おうとした相手がクルー役職であればキルは失敗して死亡する</t>
-    <rPh sb="3" eb="5">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジョウゲン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>シボウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3167,54 +3135,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>緊急修理が行えるクルー役職
-緊急修理は緊急タスク(サボタージ)発生時、使用可能
-緊急修理が発動すると緊急タスクはすぐに完了し、マップ内のドアが全て開きます</t>
-    <rPh sb="0" eb="2">
-      <t>キンキュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウリ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>キンキュウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>キンキュウ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ハッセイジ</t>
-    </rPh>
-    <rPh sb="35" eb="39">
-      <t>シヨウカノウ</t>
-    </rPh>
-    <rPh sb="40" eb="44">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ハツドウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>キンキュウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NeetFullDescription</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3246,35 +3166,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Extreme Rolesの各役職の共通設定が適用できるインポスター役職
-設定内容は以下を確認</t>
-    <rPh sb="14" eb="17">
-      <t>カクヤクショク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>テキヨウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="37" eb="41">
-      <t>セッテイナイヨウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EvolverFullDescription</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3311,51 +3202,6 @@
     </rPh>
     <rPh sb="43" eb="44">
       <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>死体を喰うことで、キルクールタイムが短くなるインポスター役職
-捕食中は死体の近くに居なければならない
-捕食後は新しいキルクールタイムが適用される</t>
-    <rPh sb="0" eb="2">
-      <t>シタイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ミジカ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ホショク</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>シタイ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ホショク</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>テキヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3494,226 +3340,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>インポスター陣営に新しい勝利条件を追加するインポスター役職
-新しい勝利条件：アサシンの特殊能力でマーリンを当てる
-アサシンの特殊能力：マーリン指定の特殊会議
-マーリン指定の特殊会議：全員が参加するが能力を発動させたアサシン以外投票不可
-　　　　　　　　　　　　スキップ不可、チャット不可、死亡している人にも投票可
-　　　　　　　　　　　　投票先がマーリンであればインポスター勝利、それ以外の
-　　　　　　　　　　　　場合、ゲームが続行(マーリンの能力は継続)
-特殊能力発動条件：追放された場合、自身がキルされた場合の処理は設定可
-上記の能力以外は普通のインポスターのため、マーリンを探りつつ潜伏しキルを行う必要がある</t>
-    <rPh sb="6" eb="8">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>ショウリジョウケン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="43" eb="47">
-      <t>トクシュノウリョク</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="62" eb="66">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>トクシュ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>トクシュ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>ゼンイン</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>サンカ</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>ノウリョク</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>ハツドウ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>トウヒョウ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>シボウ</t>
-    </rPh>
-    <rPh sb="150" eb="151">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="153" eb="155">
-      <t>トウヒョウ</t>
-    </rPh>
-    <rPh sb="155" eb="156">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="169" eb="171">
-      <t>トウヒョウ</t>
-    </rPh>
-    <rPh sb="171" eb="172">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="187" eb="189">
-      <t>ショウリ</t>
-    </rPh>
-    <rPh sb="192" eb="194">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="208" eb="210">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="215" eb="217">
-      <t>ゾッコウ</t>
-    </rPh>
-    <rPh sb="223" eb="225">
-      <t>ノウリョク</t>
-    </rPh>
-    <rPh sb="226" eb="228">
-      <t>ケイゾク</t>
-    </rPh>
-    <rPh sb="230" eb="234">
-      <t>トクシュ</t>
-    </rPh>
-    <rPh sb="234" eb="238">
-      <t>ハツドウジョウケン</t>
-    </rPh>
-    <rPh sb="239" eb="241">
-      <t>ツイホウ</t>
-    </rPh>
-    <rPh sb="244" eb="246">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="255" eb="257">
-      <t>バアイショリ</t>
-    </rPh>
-    <rPh sb="265" eb="267">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="268" eb="270">
-      <t>ノウリョク</t>
-    </rPh>
-    <rPh sb="270" eb="272">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="273" eb="275">
-      <t>フツウ</t>
-    </rPh>
-    <rPh sb="291" eb="292">
-      <t>サグ</t>
-    </rPh>
-    <rPh sb="295" eb="297">
-      <t>センプク</t>
-    </rPh>
-    <rPh sb="301" eb="302">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="303" eb="305">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>インポスターが誰か分かるクルー役職
-アサシンの特殊能力によって指定された場合、クルー全体の敗北
-インポスターが分かるので会議を主導しつつ、身を隠す必要がある
-インポスターに近い設定の役職のため、注意が必要</t>
-    <rPh sb="7" eb="8">
-      <t>ダレ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>トクシュノウリョク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ハイボク</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>シュドウ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="91" eb="93">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="97" eb="99">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>LoverFullDescription</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3766,149 +3392,6 @@
     </rPh>
     <rPh sb="50" eb="52">
       <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>複数人1組のインポスター役職
-勝利条件1：インポスター勝利、ただし、同じ組は敗北
-勝利条件2：同じ組のタスクが全て終了すること
-勝利条件3：生存者が同じ組以下になること
-同じ組の人が一定数以下になると自決もしくは第三陣営に変化する
-自決を行う人数は設定により変化する</t>
-    <rPh sb="0" eb="3">
-      <t>フクスウニン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>クミ</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>ショウリジョウケン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ショウリ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ハイボク</t>
-    </rPh>
-    <rPh sb="41" eb="45">
-      <t>ショウリ</t>
-    </rPh>
-    <rPh sb="64" eb="68">
-      <t>ショウリ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>クミ</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="91" eb="94">
-      <t>イッテイスウ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ジケツ</t>
-    </rPh>
-    <rPh sb="106" eb="110">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>ジケツ</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>ニンズウ</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>ヘンカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>複数人1組のクルー役職
-勝利条件1：クルー勝利、ただし、同じ組で別陣営の人が居た場合その人は敗北
-勝利条件2：生存者が同じ組以下になること
-同じ組の人が一定数以下になると自決もしくは第三陣営に変化する
-自決を行う人数は設定により変化する</t>
-    <rPh sb="0" eb="3">
-      <t>フクスウニン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>クミ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>クミ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="76" eb="79">
-      <t>イッテイスウ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="85" eb="87">
-      <t>ジケツ</t>
-    </rPh>
-    <rPh sb="91" eb="95">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>ジケツ</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>ニンズウ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>ヘンカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4294,6 +3777,659 @@
     </rPh>
     <rPh sb="64" eb="66">
       <t>ジンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数人1組のクルー役職
+勝利条件1：クルー勝利、ただし、同じ組で別陣営の人が居た場合
+その人は敗北
+勝利条件2：生存者が同じ組以下になること
+同じ組の人が一定数以下になると自決もしくは第三陣営に
+変化する
+自決を行う人数は設定により変化する</t>
+    <rPh sb="0" eb="3">
+      <t>フクスウニン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="77" eb="80">
+      <t>イッテイスウ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ジケツ</t>
+    </rPh>
+    <rPh sb="92" eb="96">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ジケツ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数人1組のインポスター役職
+勝利条件1：インポスター勝利、ただし、同じ組は敗北
+勝利条件2：同じ組のタスクが全て終了すること
+勝利条件3：生存者が同じ組以下になること
+同じ組の人が一定数以下になると自決もしくは第三陣営に
+変化する
+自決を行う人数は設定により変化する</t>
+    <rPh sb="0" eb="3">
+      <t>フクスウニン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="41" eb="45">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="64" eb="68">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="91" eb="94">
+      <t>イッテイスウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ジケツ</t>
+    </rPh>
+    <rPh sb="106" eb="110">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ジケツ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="122" eb="124">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポスターが誰か分かるクルー役職
+アサシンの特殊能力によって指定された場合、クルー全体の敗北
+インポスターが分かるので会議を主導しつつ身を隠す必要がある
+インポスターに近い設定の役職のため、注意が必要</t>
+    <rPh sb="7" eb="8">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>トクシュノウリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポスター陣営に新しい勝利条件を追加するインポスター役職
+新しい勝利条件：アサシンの特殊能力でマーリンを当てる
+アサシンの特殊能力：マーリン指定の特殊会議
+マーリン指定の特殊会議：
+　全員が参加するが能力を発動させたアサシン以外投票不可
+　スキップ不可、チャット不可、死亡している人にも投票可
+　投票先がマーリンであればインポスター勝利、それ以外の
+　場合、ゲームが続行(マーリンの能力は継続)
+特殊能力発動条件：追放された場合、自身がキルされた場合の
+処理は設定可
+上記の能力以外は普通のインポスターのため、マーリンを
+探りつつ潜伏しキルを行う必要がある</t>
+    <rPh sb="6" eb="8">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="43" eb="47">
+      <t>トクシュノウリョク</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="62" eb="66">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="167" eb="169">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="184" eb="186">
+      <t>ゾッコウ</t>
+    </rPh>
+    <rPh sb="192" eb="194">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="199" eb="203">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="203" eb="207">
+      <t>ハツドウジョウケン</t>
+    </rPh>
+    <rPh sb="208" eb="210">
+      <t>ツイホウ</t>
+    </rPh>
+    <rPh sb="213" eb="215">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="224" eb="226">
+      <t>バアイショリ</t>
+    </rPh>
+    <rPh sb="235" eb="237">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="238" eb="240">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="240" eb="242">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="262" eb="263">
+      <t>サグ</t>
+    </rPh>
+    <rPh sb="266" eb="268">
+      <t>センプク</t>
+    </rPh>
+    <rPh sb="272" eb="273">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="274" eb="276">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポスター役職
+死体を捕食することで、キルクールタイムが短くなる
+捕食中は死体の近くに居なければならない
+捕食後は新しいキルクールタイムが適用される</t>
+    <rPh sb="9" eb="11">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホショク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ホショク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ホショク</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポスター役職
+Extreme Rolesの各役職の共通設定が適用できる
+設定内容は以下を確認</t>
+    <rPh sb="23" eb="26">
+      <t>カクヤクショク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>セッテイナイヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緊急修理が行えるクルー役職
+緊急修理は緊急タスク(サボタージ)発生時、使用可能
+緊急修理が発動すると緊急タスクはすぐに完了し、
+マップ内のドアが全て開きます</t>
+    <rPh sb="0" eb="2">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ハッセイジ</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>シヨウカノウ</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キルが可能なクルー役職。ただし、キル可能回数には上限がある
+キルを行おうとした相手がクルー役職であればキルは失敗して
+自身が死亡する</t>
+    <rPh sb="3" eb="5">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CrewmateFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EngineerFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScientistFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクを行うクルー役職</t>
+    <rPh sb="4" eb="5">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベントが使えるクルー役職</t>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どこでもバイタルが使えるクルー役職
+バイタルの使用時間は有限
+使用時間は時間経過かタスクを完了することで回復する</t>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ユウゲン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>ジカンケイカ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ImpostorFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポスター役職
+キルやサボタージを行える
+タスク偽造等でクルーのふりをしろ</t>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ギゾウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShapeshifterFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他人に変身できるインポスター役職
+返信できる相手はキルした相手でも可
+変身中はクルーに気付かれないようにする必要がある
+キルやサボタージを行える
+タスク偽造等でクルーのふりをしろ</t>
+    <rPh sb="0" eb="2">
+      <t>タニン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キヅ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ギゾウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>トウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4628,8 +4764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q117"/>
   <sheetViews>
-    <sheetView topLeftCell="C100" workbookViewId="0">
-      <selection activeCell="M117" sqref="M117"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5518,18 +5654,18 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="M116" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="M117" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -5541,16 +5677,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="13" max="13" width="78.375" customWidth="1"/>
+    <col min="13" max="13" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
@@ -5605,394 +5741,419 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>614</v>
       </c>
       <c r="M2" t="s">
-        <v>109</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>615</v>
       </c>
       <c r="M3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>104</v>
-      </c>
-      <c r="M4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>105</v>
-      </c>
-      <c r="M5" t="s">
-        <v>467</v>
-      </c>
-    </row>
+        <v>616</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>254</v>
       </c>
       <c r="M6" t="s">
-        <v>468</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>223</v>
+        <v>104</v>
       </c>
       <c r="M8" t="s">
-        <v>226</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>105</v>
       </c>
       <c r="M9" t="s">
-        <v>225</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>563</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>568</v>
+        <v>106</v>
+      </c>
+      <c r="M10" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>424</v>
+        <v>223</v>
       </c>
       <c r="M12" t="s">
-        <v>438</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>425</v>
+        <v>224</v>
       </c>
       <c r="M13" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>426</v>
-      </c>
-      <c r="M14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>427</v>
-      </c>
-      <c r="M15" t="s">
-        <v>467</v>
+        <v>563</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M16" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M17" t="s">
-        <v>111</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="M18" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="M19" t="s">
-        <v>122</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M20" t="s">
-        <v>124</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="M21" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="M22" t="s">
-        <v>439</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="M23" t="s">
-        <v>440</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M24" t="s">
-        <v>464</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M25" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>564</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>565</v>
+        <v>436</v>
+      </c>
+      <c r="M26" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>437</v>
+      </c>
+      <c r="M27" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>566</v>
+        <v>434</v>
       </c>
       <c r="M28" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="M29" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>453</v>
-      </c>
-      <c r="M30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>454</v>
-      </c>
-      <c r="M31" t="s">
-        <v>467</v>
+        <v>564</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>455</v>
+        <v>565</v>
       </c>
       <c r="M32" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M33" t="s">
-        <v>111</v>
+        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
-        <v>457</v>
+      <c r="A34" t="s">
+        <v>453</v>
       </c>
       <c r="M34" t="s">
-        <v>462</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
-        <v>458</v>
+      <c r="A35" t="s">
+        <v>454</v>
       </c>
       <c r="M35" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="M36" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="M37" t="s">
-        <v>466</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>567</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>569</v>
+      <c r="A38" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="M38" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>477</v>
+      <c r="A39" s="1" t="s">
+        <v>458</v>
       </c>
       <c r="M39" t="s">
-        <v>478</v>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>459</v>
+      </c>
+      <c r="M40" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>536</v>
+        <v>460</v>
       </c>
       <c r="M41" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>538</v>
-      </c>
-      <c r="M42" t="s">
-        <v>537</v>
+        <v>566</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>539</v>
+        <v>477</v>
       </c>
       <c r="M43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>540</v>
-      </c>
-      <c r="M44" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="M45" t="s">
-        <v>468</v>
+        <v>537</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="M46" t="s">
-        <v>111</v>
+        <v>537</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A47" s="1" t="s">
-        <v>545</v>
+      <c r="A47" t="s">
+        <v>539</v>
       </c>
       <c r="M47" t="s">
-        <v>546</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A48" s="1" t="s">
-        <v>547</v>
+      <c r="A48" t="s">
+        <v>540</v>
       </c>
       <c r="M48" t="s">
-        <v>550</v>
+        <v>467</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A49" s="1" t="s">
-        <v>548</v>
+      <c r="A49" t="s">
+        <v>541</v>
       </c>
       <c r="M49" t="s">
-        <v>549</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
+        <v>542</v>
+      </c>
+      <c r="M50" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="M51" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="M52" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="M53" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
         <v>543</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M54" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
         <v>544</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M55" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>570</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>581</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>582</v>
+    <row r="56" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>568</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>577</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -6004,16 +6165,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131ED9DB-7094-4FCA-8832-3F1005AB8270}">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="13" max="13" width="65" customWidth="1"/>
+    <col min="13" max="13" width="55.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
@@ -6066,427 +6227,443 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>255</v>
-      </c>
-      <c r="M2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+        <v>620</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>112</v>
-      </c>
-      <c r="M3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>113</v>
-      </c>
-      <c r="M4" t="s">
-        <v>110</v>
+        <v>622</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>255</v>
       </c>
       <c r="M5" t="s">
-        <v>467</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s">
-        <v>468</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M8" t="s">
-        <v>123</v>
+        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M9" t="s">
-        <v>122</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="M10" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>227</v>
+        <v>118</v>
       </c>
       <c r="M12" t="s">
-        <v>229</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>228</v>
+        <v>119</v>
       </c>
       <c r="M13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>572</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>573</v>
+        <v>120</v>
+      </c>
+      <c r="M14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>227</v>
+      </c>
+      <c r="M15" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>570</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>382</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M19" t="s">
         <v>383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="M17" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="M18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="M19" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="M20" t="s">
-        <v>468</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="M22" t="s">
-        <v>123</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M23" t="s">
-        <v>122</v>
+        <v>468</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M24" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="M26" t="s">
-        <v>384</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M27" t="s">
-        <v>387</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M28" t="s">
-        <v>386</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="M29" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="M30" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M31" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="M32" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="M33" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="M34" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="M35" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="83.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M36" t="s">
         <v>389</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>391</v>
-      </c>
-      <c r="M34" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>392</v>
-      </c>
-      <c r="M35" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>574</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="M37" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M38" t="s">
-        <v>397</v>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>571</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
+        <v>398</v>
+      </c>
+      <c r="M40" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>396</v>
+      </c>
+      <c r="M41" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
         <v>487</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M43" t="s">
         <v>497</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="M41" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A42" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="M42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A43" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="M43" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M44" t="s">
-        <v>468</v>
+        <v>497</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="M45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="M46" t="s">
-        <v>123</v>
+        <v>467</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="M47" t="s">
-        <v>122</v>
+        <v>468</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="M48" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="M50" t="s">
-        <v>506</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="M51" t="s">
-        <v>505</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="M52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="M53" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="M54" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M55" t="s">
         <v>509</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>500</v>
-      </c>
-      <c r="M53" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>501</v>
-      </c>
-      <c r="M54" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>575</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
+        <v>500</v>
+      </c>
+      <c r="M56" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>501</v>
+      </c>
+      <c r="M57" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>572</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
         <v>502</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M59" t="s">
         <v>503</v>
       </c>
     </row>
@@ -6501,8 +6678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445F46B3-1A86-46EF-9440-E5378C8C2CDD}">
   <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6699,10 +6876,10 @@
     </row>
     <row r="19" spans="1:13" ht="120.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
@@ -6939,18 +7116,18 @@
     </row>
     <row r="50" spans="1:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="M51" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -6963,18 +7140,18 @@
     </row>
     <row r="53" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="M54" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -6988,14 +7165,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView topLeftCell="D70" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
+    <sheetView topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="38.375" customWidth="1"/>
-    <col min="13" max="13" width="56" customWidth="1"/>
+    <col min="13" max="13" width="56.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.4">
@@ -7234,10 +7411,10 @@
     </row>
     <row r="25" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>586</v>
+        <v>608</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
@@ -7256,12 +7433,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" ht="225.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -7440,36 +7617,36 @@
         <v>250</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="98.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" ht="132" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.4">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
@@ -7482,10 +7659,10 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
@@ -7626,26 +7803,26 @@
     </row>
     <row r="76" spans="1:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="M78" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC5F7B2-016A-4986-ABFC-83F3ACD15E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A0880D-9B48-4A74-A269-8EC52B6729F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="674">
   <si>
     <t>English</t>
   </si>
@@ -4430,6 +4430,360 @@
     </rPh>
     <rPh sb="78" eb="79">
       <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PsychoKillerRoleNum</t>
+  </si>
+  <si>
+    <t>PsychoKillerHasOtherVison</t>
+  </si>
+  <si>
+    <t>PsychoKillerVison</t>
+  </si>
+  <si>
+    <t>PsychoKillerApplyEnvironmentVisionEffect</t>
+  </si>
+  <si>
+    <t>PsychoKillerHasOtherKillCool</t>
+  </si>
+  <si>
+    <t>PsychoKillerKillCoolDown</t>
+  </si>
+  <si>
+    <t>PsychoKillerHasOtherKillRange</t>
+  </si>
+  <si>
+    <t>PsychoKillerKillRange</t>
+  </si>
+  <si>
+    <t>PsychoKillerKillCoolReduceRate</t>
+  </si>
+  <si>
+    <t>PsychoKillerCombMax</t>
+  </si>
+  <si>
+    <t>PsychoKillerSpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PsychoKiller</t>
+  </si>
+  <si>
+    <t>サイコキラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キルクールの減少率</t>
+    <rPh sb="6" eb="9">
+      <t>ゲンショウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大キルコンボ数</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キルコンボを会議時にリセットするか</t>
+    <rPh sb="6" eb="8">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PsychoKillerCombResetWhenMeeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PsychoKillerIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PsychoKillerShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PsychoKillerFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キルでコンボを溜め、キルを楽しめ</t>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BountyHunterRoleNum</t>
+  </si>
+  <si>
+    <t>BountyHunterHasOtherVison</t>
+  </si>
+  <si>
+    <t>BountyHunterVison</t>
+  </si>
+  <si>
+    <t>BountyHunterApplyEnvironmentVisionEffect</t>
+  </si>
+  <si>
+    <t>BountyHunterHasOtherKillCool</t>
+  </si>
+  <si>
+    <t>BountyHunterKillCoolDown</t>
+  </si>
+  <si>
+    <t>BountyHunterHasOtherKillRange</t>
+  </si>
+  <si>
+    <t>BountyHunterKillRange</t>
+  </si>
+  <si>
+    <t>BountyHunterTargetUpdateTime</t>
+  </si>
+  <si>
+    <t>BountyHunterTargetKillCoolTime</t>
+  </si>
+  <si>
+    <t>BountyHunterNoneTargetKillCoolTime</t>
+  </si>
+  <si>
+    <t>BountyHunterIsShowArrow</t>
+  </si>
+  <si>
+    <t>バウンティーハンター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BountyHunterSpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BountyHunter</t>
+  </si>
+  <si>
+    <t>ターゲット更新時間</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターゲット以外キル時のキルクール</t>
+    <rPh sb="5" eb="7">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターゲットキル時のキルクール</t>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターゲットを指す矢印を表示するか</t>
+    <rPh sb="6" eb="7">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢印の更新時間</t>
+    <rPh sb="0" eb="2">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BountyHunterArrowUpdateCycle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BountyHunterIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BountyHunterShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BountyHunterFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今宵の獲物は、どの様な悲鳴を上げるのか</t>
+    <rPh sb="0" eb="2">
+      <t>コヨイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エモノ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒメイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標を探し出して、キルせよ</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キルした相手によってキルクールが変化するインポスター役職
+会議後はロールに設定されたキルクールになる
+ターゲットキル時：{0}
+非ターゲットキル時：{1}
+現在の目標：{2}</t>
+    <rPh sb="4" eb="6">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キルの返り血こそ最高の至福</t>
+    <rPh sb="3" eb="4">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連続でキルすることでキルクールが短くなるインポスター役職
+キルするごとに「コンボ」が加算され、キルクールの減少率に
+乗算される
+会議後はロールに設定されたキルクールになるが、キルをする
+ことで、またキルクールの減少が再開される
+コンボは会議時にリセットされる(オプションで設定可)
+現在のコンボ数：{0}</t>
+    <rPh sb="0" eb="2">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ジョウサン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ゲンショウ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>サイカイ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6165,10 +6519,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131ED9DB-7094-4FCA-8832-3F1005AB8270}">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6665,6 +7019,278 @@
       </c>
       <c r="M59" t="s">
         <v>503</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>635</v>
+      </c>
+      <c r="M61" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="M62" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="M63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="M64" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="M65" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="M66" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="M67" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="M68" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="M69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="M70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="M71" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="M72" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="M73" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>641</v>
+      </c>
+      <c r="M74" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>642</v>
+      </c>
+      <c r="M75" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>643</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>659</v>
+      </c>
+      <c r="M78" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="M79" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="M80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="M81" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="M82" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="M83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="M84" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="M85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="M86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="M87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="M88" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="M89" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="M90" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="M91" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="M92" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>666</v>
+      </c>
+      <c r="M93" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>667</v>
+      </c>
+      <c r="M94" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>668</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>671</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A0880D-9B48-4A74-A269-8EC52B6729F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06642D3-C993-416D-BBB2-A01E3EE9BAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="670">
   <si>
     <t>English</t>
   </si>
@@ -1789,13 +1789,6 @@
   </si>
   <si>
     <t>whoIsMarine</t>
-  </si>
-  <si>
-    <t>マーリンは誰だ？</t>
-    <rPh sb="5" eb="6">
-      <t>ダレ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>assassinateMarinFail</t>
@@ -3352,50 +3345,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>複数人1組の第三陣営役職
-勝利条件1：生存者が同じ組以下になること
-勝利条件2：同じ組のタスクが全て終了すること
-同じ組の人が一定数以下になると自決する
-自決を行う人数は設定により変化する</t>
-    <rPh sb="0" eb="3">
-      <t>フクスウニン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>クミ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>ショウリジョウケン</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>セイゾンシャ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>クミ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>クミ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>LoverNeutralKillerFullDescription</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3463,31 +3412,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>curJackal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>curLover</t>
-  </si>
-  <si>
-    <t>curSupportTarget</t>
-  </si>
-  <si>
-    <t>現在のサポート対象</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>現在のジャッカル</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>恋人</t>
@@ -3515,126 +3440,6 @@
     <t>プレイヤー名</t>
     <rPh sb="5" eb="6">
       <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム開始時、一人だけ役職を知っているクルー役職
-1人だけ役職が分かるためその人をサポートする必要がある
-誰かにマーリンがアサインされている場合、マーリンが
-サポート対象となる(複数人マーリンがいる場合はランダム)
-それ以外だと、クルー陣営からランダムにサポート対象が
-決定される</t>
-    <rPh sb="3" eb="6">
-      <t>カイシジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒトリ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>^</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ダレ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>ニン</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>ケッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム開始時、一人だけ役職を知っているインポスター役職
-1人だけ役職が分かるためその人をサポートする必要がある
-誰かにアサシンがアサインされている場合、アサシンが
-サポート対象となる
-それ以外だと、インポスター陣営からランダムにサポート対象が
-決定される</t>
-    <rPh sb="3" eb="6">
-      <t>カイシジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒトリ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ダレ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>ケッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3727,206 +3532,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ジャッカルのアシストを行う第三陣営役職
-勝利条件：インポスター及びキル能力を持つ第三陣営が
-全滅しており、生存者の半数以上が同じ陣営。</t>
-    <rPh sb="11" eb="12">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="20" eb="24">
-      <t>ショウリジョウケン</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ノウリョク</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="40" eb="44">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>ゼンメツ</t>
-    </rPh>
-    <rPh sb="53" eb="56">
-      <t>セイゾンシャ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>ハンスウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>ジンエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>複数人1組のクルー役職
-勝利条件1：クルー勝利、ただし、同じ組で別陣営の人が居た場合
-その人は敗北
-勝利条件2：生存者が同じ組以下になること
-同じ組の人が一定数以下になると自決もしくは第三陣営に
-変化する
-自決を行う人数は設定により変化する</t>
-    <rPh sb="0" eb="3">
-      <t>フクスウニン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>クミ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>クミ</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="77" eb="80">
-      <t>イッテイスウ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ジケツ</t>
-    </rPh>
-    <rPh sb="92" eb="96">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>ジケツ</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ニンズウ</t>
-    </rPh>
-    <rPh sb="111" eb="113">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>ヘンカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>複数人1組のインポスター役職
-勝利条件1：インポスター勝利、ただし、同じ組は敗北
-勝利条件2：同じ組のタスクが全て終了すること
-勝利条件3：生存者が同じ組以下になること
-同じ組の人が一定数以下になると自決もしくは第三陣営に
-変化する
-自決を行う人数は設定により変化する</t>
-    <rPh sb="0" eb="3">
-      <t>フクスウニン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>クミ</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>ショウリジョウケン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ショウリ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ハイボク</t>
-    </rPh>
-    <rPh sb="41" eb="45">
-      <t>ショウリ</t>
-    </rPh>
-    <rPh sb="64" eb="68">
-      <t>ショウリ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="87" eb="88">
-      <t>クミ</t>
-    </rPh>
-    <rPh sb="89" eb="90">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="91" eb="94">
-      <t>イッテイスウ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>ジケツ</t>
-    </rPh>
-    <rPh sb="106" eb="110">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>ジケツ</t>
-    </rPh>
-    <rPh sb="120" eb="121">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>ニンズウ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>ヘンカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>インポスターが誰か分かるクルー役職
 アサシンの特殊能力によって指定された場合、クルー全体の敗北
 インポスターが分かるので会議を主導しつつ身を隠す必要がある
@@ -3985,6 +3590,1009 @@
     <rPh sb="96" eb="98">
       <t>チュウイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポスター役職
+死体を捕食することで、キルクールタイムが短くなる
+捕食中は死体の近くに居なければならない
+捕食後は新しいキルクールタイムが適用される</t>
+    <rPh sb="9" eb="11">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホショク</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ホショク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ホショク</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポスター役職
+Extreme Rolesの各役職の共通設定が適用できる
+設定内容は以下を確認</t>
+    <rPh sb="23" eb="26">
+      <t>カクヤクショク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>セッテイナイヨウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緊急修理が行えるクルー役職
+緊急修理は緊急タスク(サボタージ)発生時、使用可能
+緊急修理が発動すると緊急タスクはすぐに完了し、
+マップ内のドアが全て開きます</t>
+    <rPh sb="0" eb="2">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュウリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ハッセイジ</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>シヨウカノウ</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キルが可能なクルー役職。ただし、キル可能回数には上限がある
+キルを行おうとした相手がクルー役職であればキルは失敗して
+自身が死亡する</t>
+    <rPh sb="3" eb="5">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CrewmateFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EngineerFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ScientistFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクを行うクルー役職</t>
+    <rPh sb="4" eb="5">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベントが使えるクルー役職</t>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どこでもバイタルが使えるクルー役職
+バイタルの使用時間は有限
+使用時間は時間経過かタスクを完了することで回復する</t>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ユウゲン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>ジカンケイカ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ImpostorFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポスター役職
+キルやサボタージを行える
+タスク偽造等でクルーのふりをしろ</t>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ギゾウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShapeshifterFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>他人に変身できるインポスター役職
+返信できる相手はキルした相手でも可
+変身中はクルーに気付かれないようにする必要がある
+キルやサボタージを行える
+タスク偽造等でクルーのふりをしろ</t>
+    <rPh sb="0" eb="2">
+      <t>タニン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>キヅ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ギゾウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PsychoKillerRoleNum</t>
+  </si>
+  <si>
+    <t>PsychoKillerHasOtherVison</t>
+  </si>
+  <si>
+    <t>PsychoKillerVison</t>
+  </si>
+  <si>
+    <t>PsychoKillerApplyEnvironmentVisionEffect</t>
+  </si>
+  <si>
+    <t>PsychoKillerHasOtherKillCool</t>
+  </si>
+  <si>
+    <t>PsychoKillerKillCoolDown</t>
+  </si>
+  <si>
+    <t>PsychoKillerHasOtherKillRange</t>
+  </si>
+  <si>
+    <t>PsychoKillerKillRange</t>
+  </si>
+  <si>
+    <t>PsychoKillerKillCoolReduceRate</t>
+  </si>
+  <si>
+    <t>PsychoKillerCombMax</t>
+  </si>
+  <si>
+    <t>PsychoKillerSpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PsychoKiller</t>
+  </si>
+  <si>
+    <t>サイコキラー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キルクールの減少率</t>
+    <rPh sb="6" eb="9">
+      <t>ゲンショウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大キルコンボ数</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キルコンボを会議時にリセットするか</t>
+    <rPh sb="6" eb="8">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PsychoKillerCombResetWhenMeeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PsychoKillerIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PsychoKillerShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PsychoKillerFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キルでコンボを溜め、キルを楽しめ</t>
+    <rPh sb="7" eb="8">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BountyHunterRoleNum</t>
+  </si>
+  <si>
+    <t>BountyHunterHasOtherVison</t>
+  </si>
+  <si>
+    <t>BountyHunterVison</t>
+  </si>
+  <si>
+    <t>BountyHunterApplyEnvironmentVisionEffect</t>
+  </si>
+  <si>
+    <t>BountyHunterHasOtherKillCool</t>
+  </si>
+  <si>
+    <t>BountyHunterKillCoolDown</t>
+  </si>
+  <si>
+    <t>BountyHunterHasOtherKillRange</t>
+  </si>
+  <si>
+    <t>BountyHunterKillRange</t>
+  </si>
+  <si>
+    <t>BountyHunterTargetUpdateTime</t>
+  </si>
+  <si>
+    <t>BountyHunterTargetKillCoolTime</t>
+  </si>
+  <si>
+    <t>BountyHunterNoneTargetKillCoolTime</t>
+  </si>
+  <si>
+    <t>BountyHunterIsShowArrow</t>
+  </si>
+  <si>
+    <t>バウンティーハンター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BountyHunterSpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BountyHunter</t>
+  </si>
+  <si>
+    <t>ターゲット更新時間</t>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターゲット以外キル時のキルクール</t>
+    <rPh sb="5" eb="7">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターゲットキル時のキルクール</t>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターゲットを指す矢印を表示するか</t>
+    <rPh sb="6" eb="7">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>矢印の更新時間</t>
+    <rPh sb="0" eb="2">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BountyHunterArrowUpdateCycle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BountyHunterIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BountyHunterShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BountyHunterFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今宵の獲物は、どの様な悲鳴を上げるのか</t>
+    <rPh sb="0" eb="2">
+      <t>コヨイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>エモノ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒメイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目標を探し出して、キルせよ</t>
+    <rPh sb="0" eb="2">
+      <t>モクヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サガ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キルした相手によってキルクールが変化するインポスター役職
+会議後はロールに設定されたキルクールになる
+ターゲットキル時：{0}
+非ターゲットキル時：{1}
+現在の目標：{2}</t>
+    <rPh sb="4" eb="6">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キルの返り血こそ最高の至福</t>
+    <rPh sb="3" eb="4">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サイコウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>連続でキルすることでキルクールが短くなるインポスター役職
+キルするごとに「コンボ」が加算され、キルクールの減少率に
+乗算される
+会議後はロールに設定されたキルクールになるが、キルをする
+ことで、またキルクールの減少が再開される
+コンボは会議時にリセットされる(オプションで設定可)
+現在のコンボ数：{0}</t>
+    <rPh sb="0" eb="2">
+      <t>レンゾク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>ゲン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ジョウサン</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ゲンショウ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>サイカイ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数人1組のインポスター役職
+勝利条件1：インポスター勝利、ただし、同じ組は敗北
+勝利条件2：生存者が同じ組以下になり、同じ組の
+タスクが全て終了すること
+同じ組の人が一定数以下になると自決もしくは第三陣営に
+変化する
+自決を行う人数は設定により変化する</t>
+    <rPh sb="0" eb="3">
+      <t>フクスウニン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="41" eb="45">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="84" eb="87">
+      <t>イッテイスウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ジケツ</t>
+    </rPh>
+    <rPh sb="99" eb="103">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ジケツ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数人1組の第三陣営役職
+勝利条件1：生存者が同じ組以下になること
+勝利条件2：生存者が同じ組以下になり、同じ組の
+タスクが全て終了すること
+同じ組の人が一定数以下になると自決する
+自決を行う人数は設定により変化する</t>
+    <rPh sb="0" eb="3">
+      <t>フクスウニン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>セイゾンシャ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数人1組のクルー役職
+勝利条件1：クルー勝利、ただし、同じ組で別陣営の人が居た場合
+その人は敗北
+勝利条件2：勝利条件2：生存者が同じ組以下になり、同じ組の
+タスクが全て終了すること
+同じ組の人が一定数以下になると自決もしくは第三陣営に
+変化する
+自決を行う人数は設定により変化する</t>
+    <rPh sb="0" eb="3">
+      <t>フクスウニン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="99" eb="102">
+      <t>イッテイスウ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ジケツ</t>
+    </rPh>
+    <rPh sb="114" eb="118">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ジケツ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャッカルのアシストを行う第三陣営役職
+勝利条件：インポスター及びキル能力を持つ第三陣営が
+全滅しており、生存者の半数以上が同じ陣営。
+現在のジャッカル:{0}</t>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="40" eb="44">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ゼンメツ</t>
+    </rPh>
+    <rPh sb="53" eb="56">
+      <t>セイゾンシャ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ハンスウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ジンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム開始時、一人だけ役職を知っているインポスター役職
+1人だけ役職が分かるためその人をサポートする必要がある
+誰かにアサシンがアサインされている場合、アサシンが
+サポート対象となる(複数人アサシンがいる場合はランダム)
+それ以外だと、インポスター陣営からランダムにサポート対象が
+決定される
+現在のサポート対象:
+　　　　プレイヤー名:{0}
+　　　　役職:{1}</t>
+    <rPh sb="3" eb="6">
+      <t>カイシジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム開始時、一人だけ役職を知っているクルー役職
+1人だけ役職が分かるためその人をサポートする必要がある
+誰かにマーリンがアサインされている場合、マーリンが
+サポート対象となる(複数人マーリンがいる場合はランダム)
+それ以外だと、クルー陣営からランダムにサポート対象が
+決定される
+現在のサポート対象:
+　　　　プレイヤー名:{0}
+　　　　役職:{1}</t>
+    <rPh sb="3" eb="6">
+      <t>カイシジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>^</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーリンは誰だ？</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3999,7 +4607,7 @@
 特殊能力発動条件：追放された場合、自身がキルされた場合の
 処理は設定可
 上記の能力以外は普通のインポスターのため、マーリンを
-探りつつ潜伏しキルを行う必要がある</t>
+探りつつ潜伏し、キルを行う必要がある</t>
     <rPh sb="6" eb="8">
       <t>ジンエイ</t>
     </rPh>
@@ -4141,649 +4749,11 @@
     <rPh sb="266" eb="268">
       <t>センプク</t>
     </rPh>
-    <rPh sb="272" eb="273">
+    <rPh sb="273" eb="274">
       <t>オコナ</t>
     </rPh>
-    <rPh sb="274" eb="276">
+    <rPh sb="275" eb="277">
       <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>インポスター役職
-死体を捕食することで、キルクールタイムが短くなる
-捕食中は死体の近くに居なければならない
-捕食後は新しいキルクールタイムが適用される</t>
-    <rPh sb="9" eb="11">
-      <t>シタイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ホショク</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ミジカ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ホショク</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>シタイ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ホショク</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>テキヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>インポスター役職
-Extreme Rolesの各役職の共通設定が適用できる
-設定内容は以下を確認</t>
-    <rPh sb="23" eb="26">
-      <t>カクヤクショク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>テキヨウ</t>
-    </rPh>
-    <rPh sb="38" eb="42">
-      <t>セッテイナイヨウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>緊急修理が行えるクルー役職
-緊急修理は緊急タスク(サボタージ)発生時、使用可能
-緊急修理が発動すると緊急タスクはすぐに完了し、
-マップ内のドアが全て開きます</t>
-    <rPh sb="0" eb="2">
-      <t>キンキュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウリ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>キンキュウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>キンキュウ</t>
-    </rPh>
-    <rPh sb="31" eb="34">
-      <t>ハッセイジ</t>
-    </rPh>
-    <rPh sb="35" eb="39">
-      <t>シヨウカノウ</t>
-    </rPh>
-    <rPh sb="40" eb="44">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ハツドウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>キンキュウ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キルが可能なクルー役職。ただし、キル可能回数には上限がある
-キルを行おうとした相手がクルー役職であればキルは失敗して
-自身が死亡する</t>
-    <rPh sb="3" eb="5">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジョウゲン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>シボウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CrewmateFullDescription</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EngineerFullDescription</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ScientistFullDescription</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タスクを行うクルー役職</t>
-    <rPh sb="4" eb="5">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ベントが使えるクルー役職</t>
-    <rPh sb="4" eb="5">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>どこでもバイタルが使えるクルー役職
-バイタルの使用時間は有限
-使用時間は時間経過かタスクを完了することで回復する</t>
-    <rPh sb="9" eb="10">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ユウゲン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="36" eb="40">
-      <t>ジカンケイカ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>カイフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ImpostorFullDescription</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>インポスター役職
-キルやサボタージを行える
-タスク偽造等でクルーのふりをしろ</t>
-    <rPh sb="18" eb="19">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ギゾウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>トウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ShapeshifterFullDescription</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>他人に変身できるインポスター役職
-返信できる相手はキルした相手でも可
-変身中はクルーに気付かれないようにする必要がある
-キルやサボタージを行える
-タスク偽造等でクルーのふりをしろ</t>
-    <rPh sb="0" eb="2">
-      <t>タニン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヘンシン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヘンシン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヘンシン</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>キヅ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="69" eb="70">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>ギゾウ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>トウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PsychoKillerRoleNum</t>
-  </si>
-  <si>
-    <t>PsychoKillerHasOtherVison</t>
-  </si>
-  <si>
-    <t>PsychoKillerVison</t>
-  </si>
-  <si>
-    <t>PsychoKillerApplyEnvironmentVisionEffect</t>
-  </si>
-  <si>
-    <t>PsychoKillerHasOtherKillCool</t>
-  </si>
-  <si>
-    <t>PsychoKillerKillCoolDown</t>
-  </si>
-  <si>
-    <t>PsychoKillerHasOtherKillRange</t>
-  </si>
-  <si>
-    <t>PsychoKillerKillRange</t>
-  </si>
-  <si>
-    <t>PsychoKillerKillCoolReduceRate</t>
-  </si>
-  <si>
-    <t>PsychoKillerCombMax</t>
-  </si>
-  <si>
-    <t>PsychoKillerSpawnRate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PsychoKiller</t>
-  </si>
-  <si>
-    <t>サイコキラー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キルクールの減少率</t>
-    <rPh sb="6" eb="9">
-      <t>ゲンショウリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最大キルコンボ数</t>
-    <rPh sb="0" eb="2">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キルコンボを会議時にリセットするか</t>
-    <rPh sb="6" eb="8">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PsychoKillerCombResetWhenMeeting</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PsychoKillerIntroDescription</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PsychoKillerShortDescription</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PsychoKillerFullDescription</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キルでコンボを溜め、キルを楽しめ</t>
-    <rPh sb="7" eb="8">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タノ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BountyHunterRoleNum</t>
-  </si>
-  <si>
-    <t>BountyHunterHasOtherVison</t>
-  </si>
-  <si>
-    <t>BountyHunterVison</t>
-  </si>
-  <si>
-    <t>BountyHunterApplyEnvironmentVisionEffect</t>
-  </si>
-  <si>
-    <t>BountyHunterHasOtherKillCool</t>
-  </si>
-  <si>
-    <t>BountyHunterKillCoolDown</t>
-  </si>
-  <si>
-    <t>BountyHunterHasOtherKillRange</t>
-  </si>
-  <si>
-    <t>BountyHunterKillRange</t>
-  </si>
-  <si>
-    <t>BountyHunterTargetUpdateTime</t>
-  </si>
-  <si>
-    <t>BountyHunterTargetKillCoolTime</t>
-  </si>
-  <si>
-    <t>BountyHunterNoneTargetKillCoolTime</t>
-  </si>
-  <si>
-    <t>BountyHunterIsShowArrow</t>
-  </si>
-  <si>
-    <t>バウンティーハンター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BountyHunterSpawnRate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BountyHunter</t>
-  </si>
-  <si>
-    <t>ターゲット更新時間</t>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ターゲット以外キル時のキルクール</t>
-    <rPh sb="5" eb="7">
-      <t>イガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ターゲットキル時のキルクール</t>
-    <rPh sb="7" eb="8">
-      <t>ジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ターゲットを指す矢印を表示するか</t>
-    <rPh sb="6" eb="7">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヤジルシ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>矢印の更新時間</t>
-    <rPh sb="0" eb="2">
-      <t>ヤジルシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BountyHunterArrowUpdateCycle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BountyHunterIntroDescription</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BountyHunterShortDescription</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>BountyHunterFullDescription</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>今宵の獲物は、どの様な悲鳴を上げるのか</t>
-    <rPh sb="0" eb="2">
-      <t>コヨイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>エモノ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒメイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目標を探し出して、キルせよ</t>
-    <rPh sb="0" eb="2">
-      <t>モクヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>サガ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キルした相手によってキルクールが変化するインポスター役職
-会議後はロールに設定されたキルクールになる
-ターゲットキル時：{0}
-非ターゲットキル時：{1}
-現在の目標：{2}</t>
-    <rPh sb="4" eb="6">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="78" eb="80">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>モクヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キルの返り血こそ最高の至福</t>
-    <rPh sb="3" eb="4">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サイコウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>連続でキルすることでキルクールが短くなるインポスター役職
-キルするごとに「コンボ」が加算され、キルクールの減少率に
-乗算される
-会議後はロールに設定されたキルクールになるが、キルをする
-ことで、またキルクールの減少が再開される
-コンボは会議時にリセットされる(オプションで設定可)
-現在のコンボ数：{0}</t>
-    <rPh sb="0" eb="2">
-      <t>レンゾク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ミジカ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>カサン</t>
-    </rPh>
-    <rPh sb="53" eb="56">
-      <t>ゲン</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>ジョウサン</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>ゲンショウ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>サイカイ</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="120" eb="121">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="136" eb="138">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="147" eb="148">
-      <t>スウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5498,10 +5468,10 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
+        <v>478</v>
+      </c>
+      <c r="M37" t="s">
         <v>479</v>
-      </c>
-      <c r="M37" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
@@ -5509,7 +5479,7 @@
         <v>319</v>
       </c>
       <c r="M39" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
@@ -5517,7 +5487,7 @@
         <v>321</v>
       </c>
       <c r="M40" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
@@ -5525,7 +5495,7 @@
         <v>322</v>
       </c>
       <c r="M41" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
@@ -5541,7 +5511,7 @@
         <v>320</v>
       </c>
       <c r="M44" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
@@ -5549,7 +5519,7 @@
         <v>323</v>
       </c>
       <c r="M45" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
@@ -5557,7 +5527,7 @@
         <v>325</v>
       </c>
       <c r="M46" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
@@ -5570,7 +5540,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M49" t="s">
         <v>333</v>
@@ -5578,7 +5548,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M50" t="s">
         <v>334</v>
@@ -5586,7 +5556,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M51" t="s">
         <v>335</v>
@@ -5770,7 +5740,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B75" t="s">
         <v>290</v>
@@ -5781,13 +5751,13 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
+        <v>364</v>
+      </c>
+      <c r="B76" t="s">
         <v>365</v>
       </c>
-      <c r="B76" t="s">
-        <v>366</v>
-      </c>
       <c r="M76" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
@@ -5800,90 +5770,90 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
+        <v>420</v>
+      </c>
+      <c r="M81" t="s">
         <v>421</v>
-      </c>
-      <c r="M81" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M83" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M85" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M86" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M87" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M88" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M89" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
+        <v>412</v>
+      </c>
+      <c r="M90" t="s">
         <v>413</v>
-      </c>
-      <c r="M90" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
+        <v>448</v>
+      </c>
+      <c r="M91" t="s">
         <v>449</v>
-      </c>
-      <c r="M91" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
+        <v>553</v>
+      </c>
+      <c r="M93" t="s">
         <v>554</v>
-      </c>
-      <c r="M93" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M94" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
@@ -5899,23 +5869,23 @@
         <v>338</v>
       </c>
       <c r="M97" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M99" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M100" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
@@ -5960,18 +5930,18 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M108" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M109" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
@@ -5984,42 +5954,42 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
+        <v>556</v>
+      </c>
+      <c r="M112" t="s">
         <v>557</v>
-      </c>
-      <c r="M112" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
+        <v>558</v>
+      </c>
+      <c r="M113" t="s">
         <v>559</v>
-      </c>
-      <c r="M113" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
+        <v>560</v>
+      </c>
+      <c r="M114" t="s">
         <v>561</v>
-      </c>
-      <c r="M114" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="M116" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="M117" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -6033,7 +6003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -6095,26 +6065,26 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="M2" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="M3" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6147,7 +6117,7 @@
         <v>105</v>
       </c>
       <c r="M9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.4">
@@ -6155,7 +6125,7 @@
         <v>106</v>
       </c>
       <c r="M10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
@@ -6184,31 +6154,31 @@
     </row>
     <row r="14" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="M18" t="s">
         <v>110</v>
@@ -6216,23 +6186,23 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M19" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M20" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="M21" t="s">
         <v>111</v>
@@ -6240,7 +6210,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="M22" t="s">
         <v>123</v>
@@ -6248,7 +6218,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M23" t="s">
         <v>122</v>
@@ -6256,7 +6226,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M24" t="s">
         <v>124</v>
@@ -6264,7 +6234,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="M25" t="s">
         <v>125</v>
@@ -6272,63 +6242,63 @@
     </row>
     <row r="26" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M26" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="M28" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M29" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M32" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M33" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M34" t="s">
         <v>110</v>
@@ -6336,23 +6306,23 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M36" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M37" t="s">
         <v>111</v>
@@ -6360,71 +6330,71 @@
     </row>
     <row r="38" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M38" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M39" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M41" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
+        <v>476</v>
+      </c>
+      <c r="M43" t="s">
         <v>477</v>
-      </c>
-      <c r="M43" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
+        <v>535</v>
+      </c>
+      <c r="M45" t="s">
         <v>536</v>
-      </c>
-      <c r="M45" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M46" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M47" t="s">
         <v>110</v>
@@ -6432,23 +6402,23 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M48" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M49" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M50" t="s">
         <v>111</v>
@@ -6456,58 +6426,58 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="M51" t="s">
         <v>545</v>
-      </c>
-      <c r="M51" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="M52" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="M53" t="s">
         <v>548</v>
-      </c>
-      <c r="M53" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M54" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M55" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
+        <v>567</v>
+      </c>
+      <c r="M56" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
+        <v>576</v>
+      </c>
+      <c r="M57" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>578</v>
       </c>
     </row>
   </sheetData>
@@ -6521,7 +6491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131ED9DB-7094-4FCA-8832-3F1005AB8270}">
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+    <sheetView topLeftCell="A83" workbookViewId="0">
       <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
@@ -6583,18 +6553,18 @@
     </row>
     <row r="2" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -6626,7 +6596,7 @@
         <v>114</v>
       </c>
       <c r="M8" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
@@ -6634,7 +6604,7 @@
         <v>115</v>
       </c>
       <c r="M9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
@@ -6695,31 +6665,31 @@
     </row>
     <row r="17" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>381</v>
+      </c>
+      <c r="M19" t="s">
         <v>382</v>
-      </c>
-      <c r="M19" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M20" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="M21" t="s">
         <v>110</v>
@@ -6727,23 +6697,23 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M24" t="s">
         <v>111</v>
@@ -6751,7 +6721,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M25" t="s">
         <v>123</v>
@@ -6759,7 +6729,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M26" t="s">
         <v>122</v>
@@ -6767,7 +6737,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M27" t="s">
         <v>124</v>
@@ -6775,7 +6745,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M28" t="s">
         <v>125</v>
@@ -6783,127 +6753,127 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M29" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M30" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M33" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M34" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="83.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M37" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
+        <v>391</v>
+      </c>
+      <c r="M38" t="s">
         <v>392</v>
-      </c>
-      <c r="M38" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M40" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
+        <v>395</v>
+      </c>
+      <c r="M41" t="s">
         <v>396</v>
-      </c>
-      <c r="M41" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M43" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M44" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M45" t="s">
         <v>110</v>
@@ -6911,23 +6881,23 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M46" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M47" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M48" t="s">
         <v>111</v>
@@ -6935,7 +6905,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M49" t="s">
         <v>123</v>
@@ -6943,7 +6913,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M50" t="s">
         <v>122</v>
@@ -6951,7 +6921,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M51" t="s">
         <v>124</v>
@@ -6959,7 +6929,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M52" t="s">
         <v>125</v>
@@ -6967,79 +6937,79 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M53" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M54" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="M55" t="s">
         <v>508</v>
-      </c>
-      <c r="M55" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M56" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M57" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
+        <v>571</v>
+      </c>
+      <c r="M58" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
+        <v>501</v>
+      </c>
+      <c r="M59" t="s">
         <v>502</v>
-      </c>
-      <c r="M59" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
       <c r="M61" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
       <c r="M62" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
       <c r="M63" t="s">
         <v>110</v>
@@ -7047,23 +7017,23 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
       <c r="M64" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
       <c r="M65" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="M66" t="s">
         <v>111</v>
@@ -7071,7 +7041,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
       <c r="M67" t="s">
         <v>123</v>
@@ -7079,7 +7049,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
       <c r="M68" t="s">
         <v>122</v>
@@ -7087,7 +7057,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="M69" t="s">
         <v>124</v>
@@ -7095,7 +7065,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
       <c r="M70" t="s">
         <v>125</v>
@@ -7103,71 +7073,71 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
       <c r="M71" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="M72" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="M73" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
       <c r="M74" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
       <c r="M75" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
       <c r="M78" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="M79" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="M80" t="s">
         <v>110</v>
@@ -7175,23 +7145,23 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="M81" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="M82" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
       <c r="M83" t="s">
         <v>111</v>
@@ -7199,7 +7169,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
       <c r="M84" t="s">
         <v>123</v>
@@ -7207,7 +7177,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
       <c r="M85" t="s">
         <v>122</v>
@@ -7215,7 +7185,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="M86" t="s">
         <v>124</v>
@@ -7223,7 +7193,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
       <c r="M87" t="s">
         <v>125</v>
@@ -7231,66 +7201,66 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="M88" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="M89" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="M90" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="M91" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="M92" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="M93" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
       <c r="M94" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -7302,10 +7272,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445F46B3-1A86-46EF-9440-E5378C8C2CDD}">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M53" sqref="M53"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7393,7 +7363,7 @@
         <v>128</v>
       </c>
       <c r="M5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -7401,7 +7371,7 @@
         <v>129</v>
       </c>
       <c r="M6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
@@ -7462,26 +7432,26 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="M14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -7500,20 +7470,20 @@
         <v>234</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="120.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" ht="156.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>361</v>
+      </c>
+      <c r="M20" t="s">
         <v>362</v>
-      </c>
-      <c r="M20" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -7526,7 +7496,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M23" t="s">
         <v>259</v>
@@ -7553,7 +7523,7 @@
         <v>140</v>
       </c>
       <c r="M26" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
@@ -7561,7 +7531,7 @@
         <v>141</v>
       </c>
       <c r="M27" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
@@ -7662,7 +7632,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M40" t="s">
         <v>158</v>
@@ -7670,7 +7640,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M41" t="s">
         <v>159</v>
@@ -7705,7 +7675,7 @@
         <v>163</v>
       </c>
       <c r="M45" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
@@ -7713,7 +7683,7 @@
         <v>166</v>
       </c>
       <c r="M46" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
@@ -7742,18 +7712,18 @@
     </row>
     <row r="50" spans="1:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M51" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -7764,20 +7734,12 @@
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>592</v>
-      </c>
-      <c r="M54" t="s">
-        <v>596</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -7789,10 +7751,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7872,7 +7834,7 @@
         <v>169</v>
       </c>
       <c r="M4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -7896,7 +7858,7 @@
         <v>173</v>
       </c>
       <c r="M7" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
@@ -7904,7 +7866,7 @@
         <v>175</v>
       </c>
       <c r="M8" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
@@ -7968,7 +7930,7 @@
         <v>190</v>
       </c>
       <c r="M16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -7976,7 +7938,7 @@
         <v>191</v>
       </c>
       <c r="M17" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
@@ -8013,10 +7975,10 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
+        <v>405</v>
+      </c>
+      <c r="M22" t="s">
         <v>406</v>
-      </c>
-      <c r="M22" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
@@ -8037,10 +7999,10 @@
     </row>
     <row r="25" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
@@ -8061,10 +8023,10 @@
     </row>
     <row r="28" spans="1:13" ht="225.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>609</v>
+        <v>669</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -8072,23 +8034,23 @@
         <v>347</v>
       </c>
       <c r="M29" t="s">
-        <v>348</v>
+        <v>668</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
+        <v>349</v>
+      </c>
+      <c r="M30" t="s">
         <v>350</v>
-      </c>
-      <c r="M30" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M31" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
@@ -8152,7 +8114,7 @@
         <v>210</v>
       </c>
       <c r="M40" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
@@ -8160,7 +8122,7 @@
         <v>211</v>
       </c>
       <c r="M41" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
@@ -8243,97 +8205,97 @@
         <v>250</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="132" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" ht="132.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
+        <v>580</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>582</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
         <v>581</v>
       </c>
-      <c r="M52" s="2" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="150.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>583</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>582</v>
-      </c>
       <c r="M54" s="2" t="s">
-        <v>584</v>
+        <v>663</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
+        <v>533</v>
+      </c>
+      <c r="M56" t="s">
         <v>534</v>
-      </c>
-      <c r="M56" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
+        <v>403</v>
+      </c>
+      <c r="M58" t="s">
         <v>404</v>
-      </c>
-      <c r="M58" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
+        <v>509</v>
+      </c>
+      <c r="M60" t="s">
         <v>510</v>
-      </c>
-      <c r="M60" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M61" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
+        <v>512</v>
+      </c>
+      <c r="M62" t="s">
         <v>513</v>
-      </c>
-      <c r="M62" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M63" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M64" t="s">
         <v>170</v>
@@ -8341,7 +8303,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M65" t="s">
         <v>208</v>
@@ -8349,7 +8311,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M66" t="s">
         <v>209</v>
@@ -8357,23 +8319,23 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M67" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M68" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M69" t="s">
         <v>111</v>
@@ -8381,7 +8343,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M70" t="s">
         <v>123</v>
@@ -8389,7 +8351,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M71" t="s">
         <v>122</v>
@@ -8397,7 +8359,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M72" t="s">
         <v>124</v>
@@ -8405,7 +8367,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="M73" t="s">
         <v>125</v>
@@ -8413,42 +8375,34 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
+        <v>526</v>
+      </c>
+      <c r="M74" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
         <v>527</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M75" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="81" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
-        <v>528</v>
-      </c>
-      <c r="M75" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" ht="115.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" ht="177.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" ht="112.5" x14ac:dyDescent="0.4">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
-        <v>594</v>
-      </c>
-      <c r="M78" t="s">
-        <v>595</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06642D3-C993-416D-BBB2-A01E3EE9BAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B65426-6729-4060-89BD-3BDC2F3029F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -4231,76 +4231,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>複数人1組のインポスター役職
-勝利条件1：インポスター勝利、ただし、同じ組は敗北
-勝利条件2：生存者が同じ組以下になり、同じ組の
-タスクが全て終了すること
-同じ組の人が一定数以下になると自決もしくは第三陣営に
-変化する
-自決を行う人数は設定により変化する</t>
-    <rPh sb="0" eb="3">
-      <t>フクスウニン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>クミ</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>ショウリジョウケン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ショウリ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ハイボク</t>
-    </rPh>
-    <rPh sb="41" eb="45">
-      <t>ショウリ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>クミ</t>
-    </rPh>
-    <rPh sb="82" eb="83">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="84" eb="87">
-      <t>イッテイスウ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>ジケツ</t>
-    </rPh>
-    <rPh sb="99" eb="103">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>ジケツ</t>
-    </rPh>
-    <rPh sb="113" eb="114">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>ニンズウ</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="123" eb="125">
-      <t>ヘンカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>複数人1組の第三陣営役職
 勝利条件1：生存者が同じ組以下になること
 勝利条件2：生存者が同じ組以下になり、同じ組の
@@ -4754,6 +4684,71 @@
     </rPh>
     <rPh sb="275" eb="277">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数人1組のインポスター役職
+勝利条件1：インポスター勝利、ただし、同じ組で別陣営の人が
+居た場合、その人は敗北
+勝利条件2：生存者が同じ組以下になり、同じ組の
+タスクが全て終了すること
+同じ組の人が一定数以下になると自決もしくは第三陣営に
+変化する
+自決を行う人数は設定により変化する</t>
+    <rPh sb="0" eb="3">
+      <t>フクスウニン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="57" eb="61">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="100" eb="103">
+      <t>イッテイスウ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>ジケツ</t>
+    </rPh>
+    <rPh sb="115" eb="119">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ジケツ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>ヘンカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7739,7 +7734,7 @@
         <v>587</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>
@@ -7753,8 +7748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8026,7 +8021,7 @@
         <v>579</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -8034,7 +8029,7 @@
         <v>347</v>
       </c>
       <c r="M29" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
@@ -8210,15 +8205,15 @@
         <v>580</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="141" customHeight="1" x14ac:dyDescent="0.4">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="160.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>582</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="112.5" x14ac:dyDescent="0.4">
@@ -8226,7 +8221,7 @@
         <v>581</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8394,7 +8389,7 @@
         <v>585</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
@@ -8402,7 +8397,7 @@
         <v>586</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B65426-6729-4060-89BD-3BDC2F3029F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB604F30-19E2-4572-BA4A-168C6AF9006D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4231,113 +4231,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>複数人1組の第三陣営役職
-勝利条件1：生存者が同じ組以下になること
-勝利条件2：生存者が同じ組以下になり、同じ組の
-タスクが全て終了すること
-同じ組の人が一定数以下になると自決する
-自決を行う人数は設定により変化する</t>
-    <rPh sb="0" eb="3">
-      <t>フクスウニン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>クミ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="13" eb="17">
-      <t>ショウリジョウケン</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>セイゾンシャ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>クミ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>複数人1組のクルー役職
-勝利条件1：クルー勝利、ただし、同じ組で別陣営の人が居た場合
-その人は敗北
-勝利条件2：勝利条件2：生存者が同じ組以下になり、同じ組の
-タスクが全て終了すること
-同じ組の人が一定数以下になると自決もしくは第三陣営に
-変化する
-自決を行う人数は設定により変化する</t>
-    <rPh sb="0" eb="3">
-      <t>フクスウニン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>クミ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="93" eb="94">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="95" eb="96">
-      <t>クミ</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="99" eb="102">
-      <t>イッテイスウ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="108" eb="110">
-      <t>ジケツ</t>
-    </rPh>
-    <rPh sb="114" eb="118">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="120" eb="122">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>ジケツ</t>
-    </rPh>
-    <rPh sb="128" eb="129">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>ニンズウ</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>ヘンカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ジャッカルのアシストを行う第三陣営役職
 勝利条件：インポスター及びキル能力を持つ第三陣営が
 全滅しており、生存者の半数以上が同じ陣営。
@@ -4688,11 +4581,73 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>複数人1組の第三陣営役職
+勝利条件1：生存者が同じ組以下になること、ただし、
+インポスターや第三陣営でキル能力を持っている人が
+生き残っている場合ゲームは続行する
+勝利条件2：生存者が同じ組以下になり、同じ組の
+タスクが全て終了すること
+同じ組の人が一定数以下になると自決する
+自決を行う人数は設定により変化する</t>
+    <rPh sb="0" eb="3">
+      <t>フクスウニン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>セイゾンシャ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ダイサン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ゾッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>複数人1組のインポスター役職
 勝利条件1：インポスター勝利、ただし、同じ組で別陣営の人が
 居た場合、その人は敗北
-勝利条件2：生存者が同じ組以下になり、同じ組の
-タスクが全て終了すること
+勝利条件2：生存者が同じ組以下になり、同じ組のタスクが全て
+終了すること(この勝利条件は同じ組で別陣営の人がいる場合のみ有効になる)
 同じ組の人が一定数以下になると自決もしくは第三陣営に
 変化する
 自決を行う人数は設定により変化する</t>
@@ -4711,43 +4666,139 @@
     <rPh sb="57" eb="61">
       <t>ショウリ</t>
     </rPh>
-    <rPh sb="94" eb="95">
+    <rPh sb="96" eb="100">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="101" eb="102">
       <t>オナ</t>
     </rPh>
-    <rPh sb="96" eb="97">
+    <rPh sb="103" eb="104">
       <t>クミ</t>
     </rPh>
-    <rPh sb="98" eb="99">
+    <rPh sb="105" eb="108">
+      <t>ベツジンエイ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
       <t>ヒト</t>
     </rPh>
-    <rPh sb="100" eb="103">
+    <rPh sb="113" eb="115">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="128" eb="129">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="130" eb="133">
       <t>イッテイスウ</t>
     </rPh>
-    <rPh sb="103" eb="105">
+    <rPh sb="133" eb="135">
       <t>イカ</t>
     </rPh>
-    <rPh sb="109" eb="111">
+    <rPh sb="139" eb="141">
       <t>ジケツ</t>
     </rPh>
-    <rPh sb="115" eb="119">
+    <rPh sb="145" eb="149">
       <t>ダイ</t>
     </rPh>
-    <rPh sb="121" eb="123">
+    <rPh sb="151" eb="153">
       <t>ヘンカ</t>
     </rPh>
-    <rPh sb="126" eb="128">
+    <rPh sb="156" eb="158">
       <t>ジケツ</t>
     </rPh>
-    <rPh sb="129" eb="130">
+    <rPh sb="159" eb="160">
       <t>オコナ</t>
     </rPh>
-    <rPh sb="131" eb="133">
+    <rPh sb="161" eb="163">
       <t>ニンズウ</t>
     </rPh>
-    <rPh sb="134" eb="136">
+    <rPh sb="164" eb="166">
       <t>セッテイ</t>
     </rPh>
-    <rPh sb="139" eb="141">
+    <rPh sb="169" eb="171">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数人1組のクルー役職
+勝利条件1：クルー勝利、ただし、同じ組で別陣営の人が居た場合
+その人は敗北
+勝利条件2：生存者が同じ組以下になり、同じ組のタスクが
+全て終了すること(この勝利条件は同じ組で別陣営の人がいる場合
+のみ有効になる)
+同じ組の人が一定数以下になると自決もしくは第三陣営に
+変化する
+自決を行う人数は設定により変化する</t>
+    <rPh sb="0" eb="3">
+      <t>フクスウニン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="124" eb="127">
+      <t>イッテイスウ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ジケツ</t>
+    </rPh>
+    <rPh sb="139" eb="143">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="145" eb="147">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>ジケツ</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>ニンズウ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
       <t>ヘンカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -7734,7 +7785,7 @@
         <v>587</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>
@@ -7748,8 +7799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C49" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+    <sheetView tabSelected="1" topLeftCell="C50" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8021,7 +8072,7 @@
         <v>579</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -8029,7 +8080,7 @@
         <v>347</v>
       </c>
       <c r="M29" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
@@ -8205,23 +8256,23 @@
         <v>580</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="160.5" customHeight="1" x14ac:dyDescent="0.4">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="177.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>582</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" ht="112.5" x14ac:dyDescent="0.4">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="154.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>581</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8389,7 +8440,7 @@
         <v>585</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
@@ -8397,7 +8448,7 @@
         <v>586</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB604F30-19E2-4572-BA4A-168C6AF9006D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BDAC21-7F53-4F7A-836E-A91B7EE49999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9495" yWindow="2985" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="672">
   <si>
     <t>English</t>
   </si>
@@ -2984,10 +2984,6 @@
   </si>
   <si>
     <t>NeetIsNeutral</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ニュートラルか</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4800,6 +4796,27 @@
     </rPh>
     <rPh sb="163" eb="165">
       <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NeetHasTask</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクを持つか</t>
+    <rPh sb="4" eb="5">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三陣営か</t>
+    <rPh sb="0" eb="2">
+      <t>ダイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジンエイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5888,18 +5905,18 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
+        <v>552</v>
+      </c>
+      <c r="M93" t="s">
         <v>553</v>
-      </c>
-      <c r="M93" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M94" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
@@ -6000,42 +6017,42 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
+        <v>555</v>
+      </c>
+      <c r="M112" t="s">
         <v>556</v>
-      </c>
-      <c r="M112" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
+        <v>557</v>
+      </c>
+      <c r="M113" t="s">
         <v>558</v>
-      </c>
-      <c r="M113" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
+        <v>559</v>
+      </c>
+      <c r="M114" t="s">
         <v>560</v>
-      </c>
-      <c r="M114" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M116" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
+        <v>592</v>
+      </c>
+      <c r="M117" t="s">
         <v>593</v>
-      </c>
-      <c r="M117" t="s">
-        <v>594</v>
       </c>
     </row>
   </sheetData>
@@ -6047,10 +6064,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6111,26 +6128,26 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6200,10 +6217,10 @@
     </row>
     <row r="14" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
@@ -6286,7 +6303,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>435</v>
       </c>
@@ -6320,15 +6337,15 @@
     </row>
     <row r="30" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M32" t="s">
         <v>462</v>
@@ -6408,10 +6425,10 @@
     </row>
     <row r="42" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
@@ -6478,52 +6495,60 @@
         <v>545</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>546</v>
       </c>
       <c r="M52" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A53" s="1" t="s">
+      <c r="A53" t="s">
+        <v>669</v>
+      </c>
+      <c r="M53" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="M53" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>542</v>
-      </c>
       <c r="M54" t="s">
-        <v>550</v>
+        <v>671</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
+        <v>542</v>
+      </c>
+      <c r="M55" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
         <v>543</v>
       </c>
-      <c r="M55" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+      <c r="M56" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>566</v>
+      </c>
+      <c r="M57" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="M56" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
+    </row>
+    <row r="58" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>575</v>
+      </c>
+      <c r="M58" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -6537,8 +6562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131ED9DB-7094-4FCA-8832-3F1005AB8270}">
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6599,18 +6624,18 @@
     </row>
     <row r="2" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>607</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>609</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>610</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -6711,10 +6736,10 @@
     </row>
     <row r="17" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
@@ -6879,10 +6904,10 @@
     </row>
     <row r="39" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
@@ -7023,10 +7048,10 @@
     </row>
     <row r="58" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
+        <v>570</v>
+      </c>
+      <c r="M58" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
@@ -7039,23 +7064,23 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
+        <v>622</v>
+      </c>
+      <c r="M61" t="s">
         <v>623</v>
-      </c>
-      <c r="M61" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M62" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M63" t="s">
         <v>110</v>
@@ -7063,7 +7088,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M64" t="s">
         <v>466</v>
@@ -7071,7 +7096,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M65" t="s">
         <v>467</v>
@@ -7079,7 +7104,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M66" t="s">
         <v>111</v>
@@ -7087,7 +7112,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M67" t="s">
         <v>123</v>
@@ -7095,7 +7120,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M68" t="s">
         <v>122</v>
@@ -7103,7 +7128,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="M69" t="s">
         <v>124</v>
@@ -7111,7 +7136,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M70" t="s">
         <v>125</v>
@@ -7119,71 +7144,71 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="M71" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M72" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M73" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M74" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M75" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M78" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M79" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M80" t="s">
         <v>110</v>
@@ -7191,7 +7216,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M81" t="s">
         <v>466</v>
@@ -7199,7 +7224,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M82" t="s">
         <v>467</v>
@@ -7207,7 +7232,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M83" t="s">
         <v>111</v>
@@ -7215,7 +7240,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M84" t="s">
         <v>123</v>
@@ -7223,7 +7248,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="M85" t="s">
         <v>122</v>
@@ -7231,7 +7256,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M86" t="s">
         <v>124</v>
@@ -7239,7 +7264,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="M87" t="s">
         <v>125</v>
@@ -7247,66 +7272,66 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M88" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M89" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M90" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M91" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M92" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M93" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M94" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
@@ -7320,8 +7345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445F46B3-1A86-46EF-9440-E5378C8C2CDD}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7518,10 +7543,10 @@
     </row>
     <row r="19" spans="1:13" ht="156.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
@@ -7758,18 +7783,18 @@
     </row>
     <row r="50" spans="1:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
+        <v>587</v>
+      </c>
+      <c r="M51" t="s">
         <v>588</v>
-      </c>
-      <c r="M51" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -7782,10 +7807,10 @@
     </row>
     <row r="53" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
@@ -7799,8 +7824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C50" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView topLeftCell="C74" workbookViewId="0">
+      <selection activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8045,10 +8070,10 @@
     </row>
     <row r="25" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
@@ -8069,10 +8094,10 @@
     </row>
     <row r="28" spans="1:13" ht="225.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -8080,7 +8105,7 @@
         <v>347</v>
       </c>
       <c r="M29" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
@@ -8253,34 +8278,34 @@
     </row>
     <row r="52" spans="1:13" ht="132.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="177.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="154.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
+        <v>582</v>
+      </c>
+      <c r="M55" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
@@ -8293,10 +8318,10 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
+        <v>589</v>
+      </c>
+      <c r="M57" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
@@ -8437,18 +8462,18 @@
     </row>
     <row r="76" spans="1:13" ht="177.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BDAC21-7F53-4F7A-836E-A91B7EE49999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9EB704-5200-4D32-9291-292880A67F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9495" yWindow="2985" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3315" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="676">
   <si>
     <t>English</t>
   </si>
@@ -4817,6 +4817,36 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roleDesc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役職の詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>changeRoleMore</t>
+  </si>
+  <si>
+    <t>ページアップ、ページダウンキーで役職切り替え</t>
+    <rPh sb="16" eb="18">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5149,10 +5179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q117"/>
+  <dimension ref="A1:Q120"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="C109" workbookViewId="0">
+      <selection activeCell="M115" sqref="M115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6055,6 +6085,22 @@
         <v>593</v>
       </c>
     </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
+        <v>672</v>
+      </c>
+      <c r="M119" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>674</v>
+      </c>
+      <c r="M120" t="s">
+        <v>675</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6066,8 +6112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9EB704-5200-4D32-9291-292880A67F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D23858-207D-4F40-9B81-FA54CD4F9B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3315" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="678">
   <si>
     <t>English</t>
   </si>
@@ -4838,14 +4838,33 @@
     <t>changeRoleMore</t>
   </si>
   <si>
-    <t>ページアップ、ページダウンキーで役職切り替え</t>
-    <rPh sb="16" eb="18">
+    <t>gameReplace</t>
+  </si>
+  <si>
+    <t>※ゲーム開始時、もしくはゲーム中に判明</t>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PgUpキー、PgDnキーで役職切り替え</t>
+    <rPh sb="14" eb="16">
       <t>ヤクショク</t>
     </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
     <rPh sb="18" eb="19">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
       <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -5179,10 +5198,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q120"/>
+  <dimension ref="A1:Q122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C109" workbookViewId="0">
-      <selection activeCell="M115" sqref="M115"/>
+      <selection activeCell="M118" sqref="M118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6098,7 +6117,15 @@
         <v>674</v>
       </c>
       <c r="M120" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
         <v>675</v>
+      </c>
+      <c r="M122" t="s">
+        <v>676</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D23858-207D-4F40-9B81-FA54CD4F9B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB71A39-7DF1-4138-AFFC-AB1468B9D359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="682">
   <si>
     <t>English</t>
   </si>
@@ -4866,6 +4866,27 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assassinate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeadAssassinate</t>
+  </si>
+  <si>
+    <t>暗殺</t>
+    <rPh sb="0" eb="2">
+      <t>アンサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>除外</t>
+    <rPh sb="0" eb="2">
+      <t>ジョガイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5198,10 +5219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q122"/>
+  <dimension ref="A1:Q124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C109" workbookViewId="0">
-      <selection activeCell="M118" sqref="M118"/>
+    <sheetView tabSelected="1" topLeftCell="C78" workbookViewId="0">
+      <selection activeCell="M95" sqref="M95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5952,179 +5973,195 @@
         <v>449</v>
       </c>
     </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>678</v>
+      </c>
+      <c r="M92" t="s">
+        <v>680</v>
+      </c>
+    </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
+        <v>679</v>
+      </c>
+      <c r="M93" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
         <v>552</v>
       </c>
-      <c r="M93" t="s">
+      <c r="M95" t="s">
         <v>553</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
-        <v>551</v>
-      </c>
-      <c r="M94" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
+        <v>551</v>
+      </c>
+      <c r="M96" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
         <v>337</v>
       </c>
-      <c r="M96" t="s">
+      <c r="M98" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A97" t="s">
-        <v>338</v>
-      </c>
-      <c r="M97" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
+        <v>338</v>
+      </c>
+      <c r="M99" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
         <v>443</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M101" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
-        <v>442</v>
-      </c>
-      <c r="M100" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>268</v>
+        <v>442</v>
       </c>
       <c r="M102" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A103" t="s">
-        <v>267</v>
-      </c>
-      <c r="M103" t="s">
-        <v>269</v>
+        <v>444</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M104" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M105" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M106" t="s">
-        <v>274</v>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>271</v>
+      </c>
+      <c r="M107" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>359</v>
+        <v>272</v>
       </c>
       <c r="M108" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
-        <v>358</v>
-      </c>
-      <c r="M109" t="s">
-        <v>360</v>
+        <v>274</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="M110" t="s">
-        <v>346</v>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>358</v>
+      </c>
+      <c r="M111" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>555</v>
+        <v>345</v>
       </c>
       <c r="M112" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A113" t="s">
-        <v>557</v>
-      </c>
-      <c r="M113" t="s">
-        <v>558</v>
+        <v>346</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="M114" t="s">
-        <v>560</v>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>557</v>
+      </c>
+      <c r="M115" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
+        <v>559</v>
+      </c>
+      <c r="M116" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
         <v>591</v>
       </c>
-      <c r="M116" t="s">
+      <c r="M118" t="s">
         <v>594</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
-        <v>592</v>
-      </c>
-      <c r="M117" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
+        <v>592</v>
+      </c>
+      <c r="M119" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
         <v>672</v>
       </c>
-      <c r="M119" t="s">
+      <c r="M121" t="s">
         <v>673</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A120" t="s">
-        <v>674</v>
-      </c>
-      <c r="M120" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
+        <v>674</v>
+      </c>
+      <c r="M122" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
         <v>675</v>
       </c>
-      <c r="M122" t="s">
+      <c r="M124" t="s">
         <v>676</v>
       </c>
     </row>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB71A39-7DF1-4138-AFFC-AB1468B9D359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19274E1C-FC6A-4F76-9395-E02DE7F8E9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4485" yWindow="2430" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="690">
   <si>
     <t>English</t>
   </si>
@@ -4888,6 +4888,44 @@
     <rPh sb="0" eb="2">
       <t>ジョガイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>developer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Developed by </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>debugThunk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバッグ協力：</t>
+    <rPh sb="4" eb="6">
+      <t>キョウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOD開発：</t>
+    <rPh sb="3" eb="5">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ver.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Version:</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5219,10 +5257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q124"/>
+  <dimension ref="A1:Q132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C78" workbookViewId="0">
-      <selection activeCell="M95" sqref="M95"/>
+    <sheetView tabSelected="1" topLeftCell="E34" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5673,495 +5711,525 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>447</v>
+        <v>682</v>
+      </c>
+      <c r="B49" t="s">
+        <v>689</v>
       </c>
       <c r="M49" t="s">
-        <v>333</v>
+        <v>688</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>445</v>
+        <v>683</v>
+      </c>
+      <c r="B50" t="s">
+        <v>684</v>
       </c>
       <c r="M50" t="s">
-        <v>334</v>
+        <v>687</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>446</v>
+        <v>685</v>
       </c>
       <c r="M51" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" t="s">
-        <v>70</v>
-      </c>
-      <c r="M53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" t="s">
-        <v>73</v>
-      </c>
-      <c r="M54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>97</v>
-      </c>
-      <c r="B56" t="s">
-        <v>98</v>
-      </c>
-      <c r="M56" t="s">
-        <v>101</v>
+        <v>686</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>95</v>
-      </c>
-      <c r="B57" t="s">
-        <v>99</v>
+        <v>447</v>
       </c>
       <c r="M57" t="s">
-        <v>102</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>96</v>
-      </c>
-      <c r="B58" t="s">
-        <v>100</v>
+        <v>445</v>
       </c>
       <c r="M58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" t="s">
-        <v>77</v>
-      </c>
-      <c r="M60" t="s">
-        <v>86</v>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>446</v>
+      </c>
+      <c r="M59" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M61" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="M62" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="M64" t="s">
-        <v>84</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" t="s">
+        <v>99</v>
+      </c>
+      <c r="M65" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>275</v>
+        <v>96</v>
       </c>
       <c r="B66" t="s">
-        <v>276</v>
+        <v>100</v>
       </c>
       <c r="M66" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
-        <v>277</v>
-      </c>
-      <c r="B67" t="s">
-        <v>278</v>
-      </c>
-      <c r="M67" t="s">
-        <v>292</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" t="s">
+        <v>77</v>
+      </c>
+      <c r="M68" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="B69" t="s">
-        <v>280</v>
+        <v>79</v>
       </c>
       <c r="M69" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>282</v>
-      </c>
-      <c r="B71" t="s">
-        <v>283</v>
-      </c>
-      <c r="M71" t="s">
-        <v>284</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>80</v>
+      </c>
+      <c r="B70" t="s">
+        <v>81</v>
+      </c>
+      <c r="M70" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>285</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>286</v>
+        <v>83</v>
       </c>
       <c r="M72" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
-        <v>336</v>
-      </c>
-      <c r="B73" t="s">
-        <v>288</v>
-      </c>
-      <c r="M73" t="s">
-        <v>294</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B74" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="M74" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>363</v>
+        <v>277</v>
       </c>
       <c r="B75" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="M75" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
-        <v>364</v>
-      </c>
-      <c r="B76" t="s">
-        <v>365</v>
-      </c>
-      <c r="M76" t="s">
-        <v>365</v>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>279</v>
+      </c>
+      <c r="B77" t="s">
+        <v>280</v>
+      </c>
+      <c r="M77" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>340</v>
+        <v>282</v>
+      </c>
+      <c r="B79" t="s">
+        <v>283</v>
       </c>
       <c r="M79" t="s">
-        <v>341</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>285</v>
+      </c>
+      <c r="B80" t="s">
+        <v>286</v>
+      </c>
+      <c r="M80" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>420</v>
+        <v>336</v>
+      </c>
+      <c r="B81" t="s">
+        <v>288</v>
       </c>
       <c r="M81" t="s">
-        <v>421</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>289</v>
+      </c>
+      <c r="B82" t="s">
+        <v>288</v>
+      </c>
+      <c r="M82" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>422</v>
+        <v>363</v>
+      </c>
+      <c r="B83" t="s">
+        <v>290</v>
       </c>
       <c r="M83" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
-        <v>407</v>
-      </c>
-      <c r="M85" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>408</v>
-      </c>
-      <c r="M86" t="s">
-        <v>418</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>364</v>
+      </c>
+      <c r="B84" t="s">
+        <v>365</v>
+      </c>
+      <c r="M84" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>409</v>
+        <v>340</v>
       </c>
       <c r="M87" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
-        <v>410</v>
-      </c>
-      <c r="M88" t="s">
-        <v>415</v>
+        <v>341</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="M89" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
-        <v>412</v>
-      </c>
-      <c r="M90" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
       <c r="M91" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
-        <v>678</v>
-      </c>
-      <c r="M92" t="s">
-        <v>680</v>
+        <v>450</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>679</v>
+        <v>407</v>
       </c>
       <c r="M93" t="s">
-        <v>681</v>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>408</v>
+      </c>
+      <c r="M94" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>552</v>
+        <v>409</v>
       </c>
       <c r="M95" t="s">
-        <v>553</v>
+        <v>416</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>551</v>
+        <v>410</v>
       </c>
       <c r="M96" t="s">
-        <v>554</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>411</v>
+      </c>
+      <c r="M97" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>337</v>
+        <v>412</v>
       </c>
       <c r="M98" t="s">
-        <v>339</v>
+        <v>413</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>338</v>
+        <v>448</v>
       </c>
       <c r="M99" t="s">
-        <v>419</v>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>678</v>
+      </c>
+      <c r="M100" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>443</v>
+        <v>679</v>
       </c>
       <c r="M101" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A102" t="s">
-        <v>442</v>
-      </c>
-      <c r="M102" t="s">
-        <v>444</v>
+        <v>681</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>552</v>
+      </c>
+      <c r="M103" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>268</v>
+        <v>551</v>
       </c>
       <c r="M104" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
-        <v>267</v>
-      </c>
-      <c r="M105" t="s">
-        <v>269</v>
+        <v>554</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="M106" t="s">
-        <v>266</v>
+        <v>339</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>271</v>
+        <v>338</v>
       </c>
       <c r="M107" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
-        <v>272</v>
-      </c>
-      <c r="M108" t="s">
-        <v>274</v>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
+        <v>443</v>
+      </c>
+      <c r="M109" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>359</v>
+        <v>442</v>
       </c>
       <c r="M110" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
-        <v>358</v>
-      </c>
-      <c r="M111" t="s">
-        <v>360</v>
+        <v>444</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>345</v>
+        <v>268</v>
       </c>
       <c r="M112" t="s">
-        <v>346</v>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>267</v>
+      </c>
+      <c r="M113" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>555</v>
+        <v>270</v>
       </c>
       <c r="M114" t="s">
-        <v>556</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>557</v>
+        <v>271</v>
       </c>
       <c r="M115" t="s">
-        <v>558</v>
+        <v>273</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>559</v>
+        <v>272</v>
       </c>
       <c r="M116" t="s">
-        <v>560</v>
+        <v>274</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>591</v>
+        <v>359</v>
       </c>
       <c r="M118" t="s">
-        <v>594</v>
+        <v>366</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>592</v>
+        <v>358</v>
       </c>
       <c r="M119" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A121" t="s">
-        <v>672</v>
-      </c>
-      <c r="M121" t="s">
-        <v>673</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>345</v>
+      </c>
+      <c r="M120" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>674</v>
+        <v>555</v>
       </c>
       <c r="M122" t="s">
-        <v>677</v>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
+        <v>557</v>
+      </c>
+      <c r="M123" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
+        <v>559</v>
+      </c>
+      <c r="M124" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
+        <v>591</v>
+      </c>
+      <c r="M126" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>592</v>
+      </c>
+      <c r="M127" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>672</v>
+      </c>
+      <c r="M129" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>674</v>
+      </c>
+      <c r="M130" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
         <v>675</v>
       </c>
-      <c r="M124" t="s">
+      <c r="M132" t="s">
         <v>676</v>
       </c>
     </row>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19274E1C-FC6A-4F76-9395-E02DE7F8E9D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87852D7A-70A7-4C92-B422-D3CFD1587E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="2430" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -3345,47 +3345,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>相方を殺された恨みで殺人鬼に変化した複数人1組の第三陣営役職
-勝利条件：生存者が同じ組以下になること</t>
-    <rPh sb="3" eb="4">
-      <t>コロ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ウラ</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>サツジンキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>フクスウニン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>クミ</t>
-    </rPh>
-    <rPh sb="24" eb="28">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="31" eb="35">
-      <t>ショウリジョウケン</t>
-    </rPh>
-    <rPh sb="36" eb="39">
-      <t>セイゾンシャ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>クミ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>イカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SupporterFullDescription</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3524,67 +3483,6 @@
     </rPh>
     <rPh sb="119" eb="121">
       <t>ヤクショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>インポスターが誰か分かるクルー役職
-アサシンの特殊能力によって指定された場合、クルー全体の敗北
-インポスターが分かるので会議を主導しつつ身を隠す必要がある
-インポスターに近い設定の役職のため、注意が必要</t>
-    <rPh sb="7" eb="8">
-      <t>ダレ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>トクシュノウリョク</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ハイボク</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>シュドウ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>チュウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4415,168 +4313,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>インポスター陣営に新しい勝利条件を追加するインポスター役職
-新しい勝利条件：アサシンの特殊能力でマーリンを当てる
-アサシンの特殊能力：マーリン指定の特殊会議
-マーリン指定の特殊会議：
-　全員が参加するが能力を発動させたアサシン以外投票不可
-　スキップ不可、チャット不可、死亡している人にも投票可
-　投票先がマーリンであればインポスター勝利、それ以外の
-　場合、ゲームが続行(マーリンの能力は継続)
-特殊能力発動条件：追放された場合、自身がキルされた場合の
-処理は設定可
-上記の能力以外は普通のインポスターのため、マーリンを
-探りつつ潜伏し、キルを行う必要がある</t>
-    <rPh sb="6" eb="8">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>ショウリジョウケン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="43" eb="47">
-      <t>トクシュノウリョク</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="62" eb="66">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>トクシュ</t>
-    </rPh>
-    <rPh sb="76" eb="78">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>トクシュ</t>
-    </rPh>
-    <rPh sb="88" eb="90">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>ゼンイン</t>
-    </rPh>
-    <rPh sb="96" eb="98">
-      <t>サンカ</t>
-    </rPh>
-    <rPh sb="101" eb="103">
-      <t>ノウリョク</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>ハツドウ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>トウヒョウ</t>
-    </rPh>
-    <rPh sb="117" eb="119">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="132" eb="134">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>シボウ</t>
-    </rPh>
-    <rPh sb="141" eb="142">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>トウヒョウ</t>
-    </rPh>
-    <rPh sb="146" eb="147">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="149" eb="151">
-      <t>トウヒョウ</t>
-    </rPh>
-    <rPh sb="151" eb="152">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="167" eb="169">
-      <t>ショウリ</t>
-    </rPh>
-    <rPh sb="172" eb="174">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="177" eb="179">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="184" eb="186">
-      <t>ゾッコウ</t>
-    </rPh>
-    <rPh sb="192" eb="194">
-      <t>ノウリョク</t>
-    </rPh>
-    <rPh sb="195" eb="197">
-      <t>ケイゾク</t>
-    </rPh>
-    <rPh sb="199" eb="203">
-      <t>トクシュ</t>
-    </rPh>
-    <rPh sb="203" eb="207">
-      <t>ハツドウジョウケン</t>
-    </rPh>
-    <rPh sb="208" eb="210">
-      <t>ツイホウ</t>
-    </rPh>
-    <rPh sb="213" eb="215">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="224" eb="226">
-      <t>バアイショリ</t>
-    </rPh>
-    <rPh sb="235" eb="237">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="238" eb="240">
-      <t>ノウリョク</t>
-    </rPh>
-    <rPh sb="240" eb="242">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="243" eb="245">
-      <t>フツウ</t>
-    </rPh>
-    <rPh sb="262" eb="263">
-      <t>サグ</t>
-    </rPh>
-    <rPh sb="266" eb="268">
-      <t>センプク</t>
-    </rPh>
-    <rPh sb="273" eb="274">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="275" eb="277">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>複数人1組の第三陣営役職
 勝利条件1：生存者が同じ組以下になること、ただし、
 インポスターや第三陣営でキル能力を持っている人が
@@ -4639,11 +4375,243 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>NeetHasTask</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクを持つか</t>
+    <rPh sb="4" eb="5">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三陣営か</t>
+    <rPh sb="0" eb="2">
+      <t>ダイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>roleDesc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役職の詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>changeRoleMore</t>
+  </si>
+  <si>
+    <t>gameReplace</t>
+  </si>
+  <si>
+    <t>※ゲーム開始時、もしくはゲーム中に判明</t>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ハンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PgUpキー、PgDnキーで役職切り替え</t>
+    <rPh sb="14" eb="16">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assassinate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DeadAssassinate</t>
+  </si>
+  <si>
+    <t>暗殺</t>
+    <rPh sb="0" eb="2">
+      <t>アンサツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>除外</t>
+    <rPh sb="0" eb="2">
+      <t>ジョガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>developer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Developed by </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>debugThunk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバッグ協力：</t>
+    <rPh sb="4" eb="6">
+      <t>キョウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOD開発：</t>
+    <rPh sb="3" eb="5">
+      <t>カイハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ver.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Version:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数人1組のクルー役職
+勝利条件1：クルー勝利、ただし、同じ組で別陣営の人が居た場合
+その人は敗北
+勝利条件2：他の生存者が同じ組以下になり、同じ組のタスクが
+全て終了すること(この勝利条件は同じ組で別陣営の人がいる場合
+のみ有効になる)
+勝利条件3：以下条件の全てを満たした場合
+　①：他の生存者が同じ組以下
+　②：インポスターの生存者が0
+　③：同じ組の中に別陣営の人が居る
+　④：他の生存者全てがクルーもしくは
+　　　③の別陣営の人と同じ組である
+同じ組の人が一定数以下になると自決もしくは第三陣営に
+変化する
+自決を行う人数は設定により変化する</t>
+    <rPh sb="0" eb="3">
+      <t>フクスウニン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="120" eb="124">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="128" eb="130">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="146" eb="149">
+      <t>セイゾンシャ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="166" eb="169">
+      <t>セイゾンシャ</t>
+    </rPh>
+    <rPh sb="193" eb="194">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="198" eb="199">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="214" eb="217">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="218" eb="219">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="220" eb="221">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="222" eb="223">
+      <t>クミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>複数人1組のインポスター役職
 勝利条件1：インポスター勝利、ただし、同じ組で別陣営の人が
 居た場合、その人は敗北
 勝利条件2：生存者が同じ組以下になり、同じ組のタスクが全て
 終了すること(この勝利条件は同じ組で別陣営の人がいる場合のみ有効になる)
+勝利条件3：以下の全てを満たした場合
+　①：他の生存者が同じ組以下
+　②：同じ組の中に別陣営の人が居る
+　③：他の全ての生存者がクルーもしくはインポスターである
 同じ組の人が一定数以下になると自決もしくは第三陣営に
 変化する
 自決を行う人数は設定により変化する</t>
@@ -4683,249 +4651,316 @@
     <rPh sb="117" eb="119">
       <t>ユウコウ</t>
     </rPh>
-    <rPh sb="124" eb="125">
+    <rPh sb="181" eb="182">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="205" eb="206">
       <t>オナ</t>
     </rPh>
-    <rPh sb="126" eb="127">
+    <rPh sb="207" eb="208">
       <t>クミ</t>
     </rPh>
-    <rPh sb="128" eb="129">
+    <rPh sb="209" eb="210">
       <t>ヒト</t>
     </rPh>
-    <rPh sb="130" eb="133">
+    <rPh sb="211" eb="214">
       <t>イッテイスウ</t>
     </rPh>
-    <rPh sb="133" eb="135">
+    <rPh sb="214" eb="216">
       <t>イカ</t>
     </rPh>
-    <rPh sb="139" eb="141">
+    <rPh sb="220" eb="222">
       <t>ジケツ</t>
     </rPh>
-    <rPh sb="145" eb="149">
+    <rPh sb="226" eb="230">
       <t>ダイ</t>
     </rPh>
-    <rPh sb="151" eb="153">
+    <rPh sb="232" eb="234">
       <t>ヘンカ</t>
     </rPh>
-    <rPh sb="156" eb="158">
+    <rPh sb="237" eb="239">
       <t>ジケツ</t>
     </rPh>
-    <rPh sb="159" eb="160">
+    <rPh sb="240" eb="241">
       <t>オコナ</t>
     </rPh>
-    <rPh sb="161" eb="163">
+    <rPh sb="242" eb="244">
       <t>ニンズウ</t>
     </rPh>
+    <rPh sb="245" eb="247">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="250" eb="252">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相方を殺された恨みで殺人鬼に変化した複数人1組の第三陣営役職
+勝利条件：自分以外を皆殺しにする</t>
+    <rPh sb="3" eb="4">
+      <t>コロ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウラ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>サツジンキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>フクスウニン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>クミ</t>
+    </rPh>
+    <rPh sb="24" eb="28">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="31" eb="35">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="36" eb="40">
+      <t>ジブンイガイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ミナゴロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポスターが誰か分かるクルー役職
+アサシンと一対の関係である。
+アサシンがアサインされない場合、この役職もアサインされない
+アサシンの特殊能力によって指定された場合、クルー全体の敗北
+インポスターが分かるので会議を主導しつつ身を隠す必要がある
+インポスターに近い設定の役職のため、注意が必要</t>
+    <rPh sb="7" eb="8">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>イッツイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="68" eb="72">
+      <t>トクシュノウリョク</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="117" eb="119">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>チュウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポスター陣営に新しい勝利条件を追加するインポスター役職
+マーリンと一対の関係である。
+マーリンがアサインされない場合、この役職もアサインされない
+新しい勝利条件：アサシンの特殊能力でマーリンを当てる
+アサシンの特殊能力：特殊会議「マーリンは誰だ？」
+特殊会議「マーリンは誰だ？」：
+　全員が参加するが能力を発動させたアサシン以外投票不可
+　スキップ不可、チャット不可、死亡している人にも投票可
+　投票先がマーリンであればインポスター勝利、それ以外の
+　場合、ゲームが続行(マーリンの能力は継続)
+特殊能力発動条件：追放された場合、自身がキルされた場合の
+処理は設定により変化する
+上記の能力以外は普通のインポスターのため、マーリンを
+探りつつ潜伏し、キルを行う必要がある</t>
+    <rPh sb="6" eb="8">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="88" eb="92">
+      <t>トクシュノウリョク</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="107" eb="111">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>ハツドウ</t>
+    </rPh>
     <rPh sb="164" eb="166">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="169" eb="171">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="183" eb="185">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="186" eb="188">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="192" eb="193">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="195" eb="197">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="197" eb="198">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="200" eb="202">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="202" eb="203">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="218" eb="220">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="228" eb="230">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="235" eb="237">
+      <t>ゾッコウ</t>
+    </rPh>
+    <rPh sb="243" eb="245">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="246" eb="248">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="250" eb="254">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="254" eb="258">
+      <t>ハツドウジョウケン</t>
+    </rPh>
+    <rPh sb="259" eb="261">
+      <t>ツイホウ</t>
+    </rPh>
+    <rPh sb="264" eb="266">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="275" eb="277">
+      <t>バアイショリ</t>
+    </rPh>
+    <rPh sb="287" eb="289">
       <t>ヘンカ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>複数人1組のクルー役職
-勝利条件1：クルー勝利、ただし、同じ組で別陣営の人が居た場合
-その人は敗北
-勝利条件2：生存者が同じ組以下になり、同じ組のタスクが
-全て終了すること(この勝利条件は同じ組で別陣営の人がいる場合
-のみ有効になる)
-同じ組の人が一定数以下になると自決もしくは第三陣営に
-変化する
-自決を行う人数は設定により変化する</t>
-    <rPh sb="0" eb="3">
-      <t>フクスウニン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>クミ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="120" eb="121">
-      <t>クミ</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="124" eb="127">
-      <t>イッテイスウ</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>ジケツ</t>
-    </rPh>
-    <rPh sb="139" eb="143">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="145" eb="147">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="150" eb="152">
-      <t>ジケツ</t>
-    </rPh>
-    <rPh sb="153" eb="154">
+    <rPh sb="292" eb="294">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="295" eb="297">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="297" eb="299">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="300" eb="302">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="319" eb="320">
+      <t>サグ</t>
+    </rPh>
+    <rPh sb="323" eb="325">
+      <t>センプク</t>
+    </rPh>
+    <rPh sb="330" eb="331">
       <t>オコナ</t>
     </rPh>
-    <rPh sb="155" eb="157">
-      <t>ニンズウ</t>
-    </rPh>
-    <rPh sb="158" eb="160">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="163" eb="165">
-      <t>ヘンカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NeetHasTask</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タスクを持つか</t>
-    <rPh sb="4" eb="5">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>第三陣営か</t>
-    <rPh sb="0" eb="2">
-      <t>ダイサン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジンエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>roleDesc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>役職の詳細</t>
-    <rPh sb="0" eb="2">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>changeRoleMore</t>
-  </si>
-  <si>
-    <t>gameReplace</t>
-  </si>
-  <si>
-    <t>※ゲーム開始時、もしくはゲーム中に判明</t>
-    <rPh sb="4" eb="6">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>チュウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ハンメイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PgUpキー、PgDnキーで役職切り替え</t>
-    <rPh sb="14" eb="16">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Assassinate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DeadAssassinate</t>
-  </si>
-  <si>
-    <t>暗殺</t>
-    <rPh sb="0" eb="2">
-      <t>アンサツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>除外</t>
-    <rPh sb="0" eb="2">
-      <t>ジョガイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>version</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>developer</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Developed by </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>debugThunk</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デバッグ協力：</t>
-    <rPh sb="4" eb="6">
-      <t>キョウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MOD開発：</t>
-    <rPh sb="3" eb="5">
-      <t>カイハツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ver.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Version:</t>
+    <rPh sb="332" eb="334">
+      <t>ヒツヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5259,7 +5294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E34" workbookViewId="0">
+    <sheetView topLeftCell="E109" workbookViewId="0">
       <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
@@ -5711,32 +5746,32 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B49" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="M49" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="B50" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="M50" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="M51" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
@@ -6043,18 +6078,18 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="M100" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="M101" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
@@ -6195,42 +6230,42 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M126" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
+        <v>591</v>
+      </c>
+      <c r="M127" t="s">
         <v>592</v>
-      </c>
-      <c r="M127" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="M129" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="M130" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="M132" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
     </row>
   </sheetData>
@@ -6244,8 +6279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6306,26 +6341,26 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="M2" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="M3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6361,7 +6396,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -6393,7 +6428,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>561</v>
       </c>
@@ -6518,7 +6553,7 @@
         <v>562</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -6569,7 +6604,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>456</v>
       </c>
@@ -6606,7 +6641,7 @@
         <v>564</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
@@ -6683,10 +6718,10 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M53" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
@@ -6694,7 +6729,7 @@
         <v>547</v>
       </c>
       <c r="M54" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
@@ -6802,18 +6837,18 @@
     </row>
     <row r="2" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -6917,7 +6952,7 @@
         <v>568</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
@@ -7085,7 +7120,7 @@
         <v>569</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
@@ -7242,23 +7277,23 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="M61" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="M62" t="s">
         <v>621</v>
-      </c>
-      <c r="M62" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="M63" t="s">
         <v>110</v>
@@ -7266,7 +7301,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="M64" t="s">
         <v>466</v>
@@ -7274,7 +7309,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="M65" t="s">
         <v>467</v>
@@ -7282,7 +7317,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="M66" t="s">
         <v>111</v>
@@ -7290,7 +7325,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="M67" t="s">
         <v>123</v>
@@ -7298,7 +7333,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="M68" t="s">
         <v>122</v>
@@ -7306,7 +7341,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="M69" t="s">
         <v>124</v>
@@ -7314,7 +7349,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="M70" t="s">
         <v>125</v>
@@ -7322,71 +7357,71 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="M71" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="M72" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="M73" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="M74" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
+        <v>627</v>
+      </c>
+      <c r="M75" t="s">
         <v>629</v>
-      </c>
-      <c r="M75" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M78" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="M79" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="M80" t="s">
         <v>110</v>
@@ -7394,7 +7429,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="M81" t="s">
         <v>466</v>
@@ -7402,7 +7437,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="M82" t="s">
         <v>467</v>
@@ -7410,7 +7445,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="M83" t="s">
         <v>111</v>
@@ -7418,7 +7453,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="M84" t="s">
         <v>123</v>
@@ -7426,7 +7461,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="M85" t="s">
         <v>122</v>
@@ -7434,7 +7469,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="M86" t="s">
         <v>124</v>
@@ -7442,7 +7477,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="M87" t="s">
         <v>125</v>
@@ -7450,66 +7485,66 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="M88" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="M89" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="M90" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="M91" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="M92" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="M93" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="M94" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -7964,15 +7999,15 @@
         <v>573</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
+        <v>586</v>
+      </c>
+      <c r="M51" t="s">
         <v>587</v>
-      </c>
-      <c r="M51" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -7985,10 +8020,10 @@
     </row>
     <row r="53" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -8002,8 +8037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView topLeftCell="C74" workbookViewId="0">
-      <selection activeCell="M76" sqref="M76"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8246,12 +8281,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="75" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" ht="111.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>577</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>596</v>
+        <v>688</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
@@ -8270,12 +8305,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="225.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" ht="273.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>578</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>665</v>
+        <v>689</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -8283,7 +8318,7 @@
         <v>347</v>
       </c>
       <c r="M29" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
@@ -8454,20 +8489,20 @@
         <v>250</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="132.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" ht="280.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>579</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="177.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="243.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>581</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="154.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -8475,7 +8510,7 @@
         <v>580</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -8483,7 +8518,7 @@
         <v>582</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>583</v>
+        <v>687</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
@@ -8496,10 +8531,10 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
+        <v>588</v>
+      </c>
+      <c r="M57" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
@@ -8638,20 +8673,20 @@
         <v>529</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="177.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" ht="170.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87852D7A-70A7-4C92-B422-D3CFD1587E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ABF5E4-38B9-4261-8C6B-D5A800041B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="692">
   <si>
     <t>English</t>
   </si>
@@ -4960,6 +4960,17 @@
     </rPh>
     <rPh sb="332" eb="334">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Surrender</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>降伏</t>
+    <rPh sb="0" eb="2">
+      <t>コウフク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5292,10 +5303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q132"/>
+  <dimension ref="A1:Q133"/>
   <sheetViews>
-    <sheetView topLeftCell="E109" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" topLeftCell="C86" workbookViewId="0">
+      <selection activeCell="M99" sqref="M99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6092,179 +6103,187 @@
         <v>676</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A103" t="s">
-        <v>552</v>
-      </c>
-      <c r="M103" t="s">
-        <v>553</v>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>690</v>
+      </c>
+      <c r="M102" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
+        <v>552</v>
+      </c>
+      <c r="M104" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
         <v>551</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M105" t="s">
         <v>554</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
-        <v>337</v>
-      </c>
-      <c r="M106" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
+        <v>337</v>
+      </c>
+      <c r="M107" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
         <v>338</v>
       </c>
-      <c r="M107" t="s">
+      <c r="M108" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
-        <v>443</v>
-      </c>
-      <c r="M109" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
+        <v>443</v>
+      </c>
+      <c r="M110" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
         <v>442</v>
       </c>
-      <c r="M110" t="s">
+      <c r="M111" t="s">
         <v>444</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
-        <v>268</v>
-      </c>
-      <c r="M112" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M113" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M114" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M115" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
+        <v>271</v>
+      </c>
+      <c r="M116" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
         <v>272</v>
       </c>
-      <c r="M116" t="s">
+      <c r="M117" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A118" t="s">
-        <v>359</v>
-      </c>
-      <c r="M118" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M119" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
+        <v>358</v>
+      </c>
+      <c r="M120" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
         <v>345</v>
       </c>
-      <c r="M120" t="s">
+      <c r="M121" t="s">
         <v>346</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A122" t="s">
-        <v>555</v>
-      </c>
-      <c r="M122" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="M123" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
+        <v>557</v>
+      </c>
+      <c r="M124" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
         <v>559</v>
       </c>
-      <c r="M124" t="s">
+      <c r="M125" t="s">
         <v>560</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A126" t="s">
-        <v>590</v>
-      </c>
-      <c r="M126" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
+        <v>590</v>
+      </c>
+      <c r="M127" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
         <v>591</v>
       </c>
-      <c r="M127" t="s">
+      <c r="M128" t="s">
         <v>592</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
-        <v>667</v>
-      </c>
-      <c r="M129" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
+        <v>667</v>
+      </c>
+      <c r="M130" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
         <v>669</v>
       </c>
-      <c r="M130" t="s">
+      <c r="M131" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A132" t="s">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
         <v>670</v>
       </c>
-      <c r="M132" t="s">
+      <c r="M133" t="s">
         <v>671</v>
       </c>
     </row>
@@ -8037,7 +8056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+    <sheetView topLeftCell="A89" workbookViewId="0">
       <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ABF5E4-38B9-4261-8C6B-D5A800041B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4F39DE-E5F5-46A0-B973-7FD78C6DD7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="705">
   <si>
     <t>English</t>
   </si>
@@ -552,200 +552,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JackalRoleNum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JackalHasOtherVison</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JackalVison</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JackalApplyEnvironmentVisionEffect</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JackalHasOtherKillCool</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JackalKillCoolDown</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JackalHasOtherKillRange</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JackalKillRange</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイドキック作成数</t>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JackalRangeSidekickTarget</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイドキック作成能力の範囲</t>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ノウリョク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ハンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JackalUpgradeSidekickNum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JackalSidekickJackalCanMakeSidekick</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JackalSidekickLimitNum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジャッカル死亡時、昇格するサイドキック数</t>
-    <rPh sb="5" eb="8">
-      <t>シボウジ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ショウカク</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JackalAbilityCoolTime</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>昇格したジャッカルがサイドキックを作成できるか</t>
-    <rPh sb="0" eb="2">
-      <t>ショウカク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>昇格したジャッカルがサイドキックを作成できる再帰上限数</t>
-    <rPh sb="0" eb="2">
-      <t>ショウカク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>サイキ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジョウゲン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイドキック作成能力のクールタイム</t>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ノウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>インポスターをサイドキックにできるか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイドキックされたインポスターの表示をインポスターにするか</t>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイドキックがサボタージを使えるか</t>
-    <rPh sb="13" eb="14">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JackalSidekickUseVent</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイドキックがベントを使えるか</t>
-    <rPh sb="11" eb="12">
-      <t>ツカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JackalSidekickHasOtherVison</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジャッカルが視界効果を受けるか</t>
-    <rPh sb="6" eb="8">
-      <t>シカイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイドキックが視界効果を受けるか</t>
-    <rPh sb="7" eb="9">
-      <t>シカイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コウカ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JackalSidekickVison</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JackalSidekickApplyEnvironmentVisionEffect</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ジャッカル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1621,27 +1427,6 @@
     <t>JackalForceReplaceLover</t>
   </si>
   <si>
-    <t>ラバーズ+サイドキックを無効化する</t>
-    <rPh sb="12" eb="15">
-      <t>ムコウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JackalSidekickUseSabotage</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JackalSideKickCanKill</t>
-  </si>
-  <si>
-    <t>サイドキックがキルを行えるか</t>
-    <rPh sb="10" eb="11">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>csvImport</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1760,10 +1545,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>JackalAbilityCount</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AliceAbilityCount</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2535,46 +2316,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ジャッカルが別の視界設定を持つか</t>
-    <rPh sb="6" eb="7">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シカイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ジャッカルのビジョン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイドキックが別の視界設定を持つか</t>
-    <rPh sb="7" eb="8">
-      <t>ベツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シカイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サイドキックのビジョン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マーリンのビジョン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2888,14 +2629,6 @@
     <rPh sb="7" eb="9">
       <t>テダス</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JackalCanSeeImpostorToSidekickImpostor</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JackalCanSetImpostorToSidekick</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4971,6 +4704,217 @@
     <t>降伏</t>
     <rPh sb="0" eb="2">
       <t>コウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JackalRoleNum</t>
+  </si>
+  <si>
+    <t>JackalHasOtherVison</t>
+  </si>
+  <si>
+    <t>JackalVison</t>
+  </si>
+  <si>
+    <t>JackalApplyEnvironmentVisionEffect</t>
+  </si>
+  <si>
+    <t>JackalHasOtherKillCool</t>
+  </si>
+  <si>
+    <t>JackalKillCoolDown</t>
+  </si>
+  <si>
+    <t>JackalHasOtherKillRange</t>
+  </si>
+  <si>
+    <t>JackalKillRange</t>
+  </si>
+  <si>
+    <t>JackalAbilityCoolTime</t>
+  </si>
+  <si>
+    <t>JackalAbilityCount</t>
+  </si>
+  <si>
+    <t>JackalRangeSidekickTarget</t>
+  </si>
+  <si>
+    <t>JackalUpgradeSidekickNum</t>
+  </si>
+  <si>
+    <t>JackalSidekickJackalCanMakeSidekick</t>
+  </si>
+  <si>
+    <t>JackalSidekickLimitNum</t>
+  </si>
+  <si>
+    <t>JackalCanSetImpostorToSidekick</t>
+  </si>
+  <si>
+    <t>JackalCanSeeImpostorToSidekickImpostor</t>
+  </si>
+  <si>
+    <t>SidekickUseSabotage</t>
+  </si>
+  <si>
+    <t>SidekickUseVent</t>
+  </si>
+  <si>
+    <t>SidekickCanKill</t>
+  </si>
+  <si>
+    <t>SidekickHasOtherKillCool</t>
+  </si>
+  <si>
+    <t>SidekickKillCoolDown</t>
+  </si>
+  <si>
+    <t>SidekickHasOtherKillRange</t>
+  </si>
+  <si>
+    <t>SidekickKillRange</t>
+  </si>
+  <si>
+    <t>SidekickHasOtherVison</t>
+  </si>
+  <si>
+    <t>SidekickVison</t>
+  </si>
+  <si>
+    <t>SidekickApplyEnvironmentVisionEffect</t>
+  </si>
+  <si>
+    <t>スポーン数</t>
+  </si>
+  <si>
+    <t>ジャッカルが別の視界設定を持つか</t>
+  </si>
+  <si>
+    <t>ジャッカルのビジョン</t>
+  </si>
+  <si>
+    <t>ジャッカルが視界効果を受けるか</t>
+  </si>
+  <si>
+    <t>別のキルクールタイムを持つか</t>
+  </si>
+  <si>
+    <t>キルクールタイム</t>
+  </si>
+  <si>
+    <t>別のキルレンジを持つか</t>
+  </si>
+  <si>
+    <t>キルレンジ</t>
+  </si>
+  <si>
+    <t>サイドキック作成能力のクールタイム</t>
+  </si>
+  <si>
+    <t>サイドキック作成数</t>
+  </si>
+  <si>
+    <t>サイドキック作成能力の範囲</t>
+  </si>
+  <si>
+    <t>ラバーズ+サイドキックを無効化する</t>
+  </si>
+  <si>
+    <t>ジャッカル死亡時、昇格するサイドキック数</t>
+  </si>
+  <si>
+    <t>昇格したジャッカルがサイドキックを作成できるか</t>
+  </si>
+  <si>
+    <t>昇格したジャッカルがサイドキックを作成できる再帰上限数</t>
+  </si>
+  <si>
+    <t>インポスターをサイドキックにできるか</t>
+  </si>
+  <si>
+    <t>サイドキックされたインポスターの表示をインポスターにするか</t>
+  </si>
+  <si>
+    <t>サイドキックがベントを使えるか</t>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドキックがサボタージを使えるか</t>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドキックがキルできるか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドキックが別のキルクールを持つか</t>
+    <rPh sb="7" eb="8">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドキックのキルクールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドキックが別のキルレンジを持つか</t>
+    <rPh sb="7" eb="8">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドキックのキルレンジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドキックが別の視界設定を持つか</t>
+    <rPh sb="7" eb="8">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドキックの視界</t>
+    <rPh sb="7" eb="9">
+      <t>シカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイドキックが視界効果を受けるか</t>
+    <rPh sb="7" eb="9">
+      <t>シカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5305,7 +5249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C86" workbookViewId="0">
+    <sheetView topLeftCell="C86" workbookViewId="0">
       <selection activeCell="M99" sqref="M99"/>
     </sheetView>
   </sheetViews>
@@ -5445,10 +5389,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
       <c r="M10" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
@@ -5519,7 +5463,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -5530,15 +5474,15 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="M19" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
@@ -5555,7 +5499,7 @@
         <v>50</v>
       </c>
       <c r="M21" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -5588,55 +5532,55 @@
         <v>59</v>
       </c>
       <c r="M24" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
       <c r="M25" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="M26" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="M27" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="M29" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="M30" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -5647,7 +5591,7 @@
         <v>62</v>
       </c>
       <c r="M32" t="s">
-        <v>332</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
@@ -5658,7 +5602,7 @@
         <v>64</v>
       </c>
       <c r="M33" t="s">
-        <v>331</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
@@ -5669,7 +5613,7 @@
         <v>66</v>
       </c>
       <c r="M34" t="s">
-        <v>330</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
@@ -5680,133 +5624,133 @@
         <v>68</v>
       </c>
       <c r="M35" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>478</v>
+        <v>440</v>
       </c>
       <c r="M37" t="s">
-        <v>479</v>
+        <v>441</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="M39" t="s">
-        <v>481</v>
+        <v>443</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>321</v>
+        <v>288</v>
       </c>
       <c r="M40" t="s">
-        <v>482</v>
+        <v>444</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="M41" t="s">
-        <v>485</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
       <c r="M42" t="s">
-        <v>328</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="M44" t="s">
-        <v>480</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="M45" t="s">
-        <v>483</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="M46" t="s">
-        <v>484</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="M47" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>677</v>
+        <v>637</v>
       </c>
       <c r="B49" t="s">
-        <v>684</v>
+        <v>644</v>
       </c>
       <c r="M49" t="s">
-        <v>683</v>
+        <v>643</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>678</v>
+        <v>638</v>
       </c>
       <c r="B50" t="s">
-        <v>679</v>
+        <v>639</v>
       </c>
       <c r="M50" t="s">
-        <v>682</v>
+        <v>642</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="M51" t="s">
-        <v>681</v>
+        <v>641</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
       <c r="M57" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="M58" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="M59" t="s">
-        <v>335</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
@@ -5910,381 +5854,381 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="B74" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="M74" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="B75" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="M75" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="B77" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="M77" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="B79" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="M79" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="B80" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="M80" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>336</v>
+        <v>303</v>
       </c>
       <c r="B81" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="M81" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="B82" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="M82" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="B83" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="M83" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="B84" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="M84" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="M87" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
       <c r="M89" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="M91" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="M93" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="M94" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="M95" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="M96" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="M97" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="M98" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="M99" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>673</v>
+        <v>633</v>
       </c>
       <c r="M100" t="s">
-        <v>675</v>
+        <v>635</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>674</v>
+        <v>634</v>
       </c>
       <c r="M101" t="s">
-        <v>676</v>
+        <v>636</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>690</v>
+        <v>650</v>
       </c>
       <c r="M102" t="s">
-        <v>691</v>
+        <v>651</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>552</v>
+        <v>512</v>
       </c>
       <c r="M104" t="s">
-        <v>553</v>
+        <v>513</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>551</v>
+        <v>511</v>
       </c>
       <c r="M105" t="s">
-        <v>554</v>
+        <v>514</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>337</v>
+        <v>304</v>
       </c>
       <c r="M107" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="M108" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="M110" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="M111" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="M113" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="M114" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="M115" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="M116" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="M117" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
       <c r="M119" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="M120" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="M121" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>555</v>
+        <v>515</v>
       </c>
       <c r="M123" t="s">
-        <v>556</v>
+        <v>516</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>557</v>
+        <v>517</v>
       </c>
       <c r="M124" t="s">
-        <v>558</v>
+        <v>518</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>559</v>
+        <v>519</v>
       </c>
       <c r="M125" t="s">
-        <v>560</v>
+        <v>520</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="M127" t="s">
-        <v>593</v>
+        <v>553</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>591</v>
+        <v>551</v>
       </c>
       <c r="M128" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>667</v>
+        <v>627</v>
       </c>
       <c r="M130" t="s">
-        <v>668</v>
+        <v>628</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>669</v>
+        <v>629</v>
       </c>
       <c r="M131" t="s">
-        <v>672</v>
+        <v>632</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>670</v>
+        <v>630</v>
       </c>
       <c r="M133" t="s">
-        <v>671</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -6360,32 +6304,32 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>599</v>
+        <v>559</v>
       </c>
       <c r="M2" t="s">
-        <v>602</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="M3" t="s">
-        <v>603</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>601</v>
+        <v>561</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>604</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="M6" t="s">
         <v>109</v>
@@ -6412,7 +6356,7 @@
         <v>105</v>
       </c>
       <c r="M9" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -6420,7 +6364,7 @@
         <v>106</v>
       </c>
       <c r="M10" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
@@ -6433,47 +6377,47 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="M12" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="M13" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>565</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="M16" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
       <c r="M17" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="M18" t="s">
         <v>110</v>
@@ -6481,23 +6425,23 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
       <c r="M19" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="M20" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
       <c r="M21" t="s">
         <v>111</v>
@@ -6505,7 +6449,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="M22" t="s">
         <v>123</v>
@@ -6513,7 +6457,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
       <c r="M23" t="s">
         <v>122</v>
@@ -6521,7 +6465,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="M24" t="s">
         <v>124</v>
@@ -6529,7 +6473,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="M25" t="s">
         <v>125</v>
@@ -6537,63 +6481,63 @@
     </row>
     <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="M26" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="M27" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="M28" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="M29" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>562</v>
+        <v>522</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>598</v>
+        <v>558</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>563</v>
+        <v>523</v>
       </c>
       <c r="M32" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="M33" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="M34" t="s">
         <v>110</v>
@@ -6601,23 +6545,23 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="M35" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="M36" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="M37" t="s">
         <v>111</v>
@@ -6625,71 +6569,71 @@
     </row>
     <row r="38" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="M38" t="s">
-        <v>461</v>
+        <v>427</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
       <c r="M39" t="s">
-        <v>460</v>
+        <v>426</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>458</v>
+        <v>424</v>
       </c>
       <c r="M40" t="s">
-        <v>464</v>
+        <v>430</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="M41" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>564</v>
+        <v>524</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>597</v>
+        <v>557</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>476</v>
+        <v>438</v>
       </c>
       <c r="M43" t="s">
-        <v>477</v>
+        <v>439</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
       <c r="M45" t="s">
-        <v>536</v>
+        <v>496</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>537</v>
+        <v>497</v>
       </c>
       <c r="M46" t="s">
-        <v>536</v>
+        <v>496</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>538</v>
+        <v>498</v>
       </c>
       <c r="M47" t="s">
         <v>110</v>
@@ -6697,23 +6641,23 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>539</v>
+        <v>499</v>
       </c>
       <c r="M48" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>540</v>
+        <v>500</v>
       </c>
       <c r="M49" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>541</v>
+        <v>501</v>
       </c>
       <c r="M50" t="s">
         <v>111</v>
@@ -6721,66 +6665,66 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
       <c r="M51" t="s">
-        <v>545</v>
+        <v>505</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>546</v>
+        <v>506</v>
       </c>
       <c r="M52" t="s">
-        <v>548</v>
+        <v>508</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>664</v>
+        <v>624</v>
       </c>
       <c r="M53" t="s">
-        <v>665</v>
+        <v>625</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>547</v>
+        <v>507</v>
       </c>
       <c r="M54" t="s">
-        <v>666</v>
+        <v>626</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>542</v>
+        <v>502</v>
       </c>
       <c r="M55" t="s">
-        <v>549</v>
+        <v>509</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>543</v>
+        <v>503</v>
       </c>
       <c r="M56" t="s">
-        <v>550</v>
+        <v>510</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>566</v>
+        <v>526</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>567</v>
+        <v>527</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>575</v>
+        <v>535</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>576</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -6856,23 +6800,23 @@
     </row>
     <row r="2" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>605</v>
+        <v>565</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>606</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>607</v>
+        <v>567</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>608</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="M5" t="s">
         <v>121</v>
@@ -6899,7 +6843,7 @@
         <v>114</v>
       </c>
       <c r="M8" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
@@ -6907,7 +6851,7 @@
         <v>115</v>
       </c>
       <c r="M9" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
@@ -6952,47 +6896,47 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="M15" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="M16" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>596</v>
+        <v>556</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="M19" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
       <c r="M20" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
       <c r="M21" t="s">
         <v>110</v>
@@ -7000,23 +6944,23 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
       <c r="M22" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="M23" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="M24" t="s">
         <v>111</v>
@@ -7024,7 +6968,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="M25" t="s">
         <v>123</v>
@@ -7032,7 +6976,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="M26" t="s">
         <v>122</v>
@@ -7040,7 +6984,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="M27" t="s">
         <v>124</v>
@@ -7048,7 +6992,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="M28" t="s">
         <v>125</v>
@@ -7056,127 +7000,127 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="M29" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="M30" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="M31" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="M32" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="M33" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="M34" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="M35" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="83.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="M36" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
       <c r="M37" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="M38" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>569</v>
+        <v>529</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>595</v>
+        <v>555</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="M40" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="M41" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>486</v>
+        <v>448</v>
       </c>
       <c r="M43" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>487</v>
+        <v>449</v>
       </c>
       <c r="M44" t="s">
-        <v>496</v>
+        <v>458</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>488</v>
+        <v>450</v>
       </c>
       <c r="M45" t="s">
         <v>110</v>
@@ -7184,23 +7128,23 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>489</v>
+        <v>451</v>
       </c>
       <c r="M46" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>490</v>
+        <v>452</v>
       </c>
       <c r="M47" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>491</v>
+        <v>453</v>
       </c>
       <c r="M48" t="s">
         <v>111</v>
@@ -7208,7 +7152,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>492</v>
+        <v>454</v>
       </c>
       <c r="M49" t="s">
         <v>123</v>
@@ -7216,7 +7160,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>493</v>
+        <v>455</v>
       </c>
       <c r="M50" t="s">
         <v>122</v>
@@ -7224,7 +7168,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>494</v>
+        <v>456</v>
       </c>
       <c r="M51" t="s">
         <v>124</v>
@@ -7232,7 +7176,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>495</v>
+        <v>457</v>
       </c>
       <c r="M52" t="s">
         <v>125</v>
@@ -7240,79 +7184,79 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>497</v>
+        <v>459</v>
       </c>
       <c r="M53" t="s">
-        <v>505</v>
+        <v>467</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>498</v>
+        <v>460</v>
       </c>
       <c r="M54" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>507</v>
+        <v>469</v>
       </c>
       <c r="M55" t="s">
-        <v>508</v>
+        <v>470</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>499</v>
+        <v>461</v>
       </c>
       <c r="M56" t="s">
-        <v>506</v>
+        <v>468</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>500</v>
+        <v>462</v>
       </c>
       <c r="M57" t="s">
-        <v>503</v>
+        <v>465</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>571</v>
+        <v>531</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="M59" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="M61" t="s">
-        <v>621</v>
+        <v>581</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>619</v>
+        <v>579</v>
       </c>
       <c r="M62" t="s">
-        <v>621</v>
+        <v>581</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>609</v>
+        <v>569</v>
       </c>
       <c r="M63" t="s">
         <v>110</v>
@@ -7320,23 +7264,23 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>610</v>
+        <v>570</v>
       </c>
       <c r="M64" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>611</v>
+        <v>571</v>
       </c>
       <c r="M65" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>612</v>
+        <v>572</v>
       </c>
       <c r="M66" t="s">
         <v>111</v>
@@ -7344,7 +7288,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>613</v>
+        <v>573</v>
       </c>
       <c r="M67" t="s">
         <v>123</v>
@@ -7352,7 +7296,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>614</v>
+        <v>574</v>
       </c>
       <c r="M68" t="s">
         <v>122</v>
@@ -7360,7 +7304,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>615</v>
+        <v>575</v>
       </c>
       <c r="M69" t="s">
         <v>124</v>
@@ -7368,7 +7312,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>616</v>
+        <v>576</v>
       </c>
       <c r="M70" t="s">
         <v>125</v>
@@ -7376,71 +7320,71 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>617</v>
+        <v>577</v>
       </c>
       <c r="M71" t="s">
-        <v>622</v>
+        <v>582</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>618</v>
+        <v>578</v>
       </c>
       <c r="M72" t="s">
-        <v>623</v>
+        <v>583</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>625</v>
+        <v>585</v>
       </c>
       <c r="M73" t="s">
-        <v>624</v>
+        <v>584</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>626</v>
+        <v>586</v>
       </c>
       <c r="M74" t="s">
-        <v>657</v>
+        <v>617</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="M75" t="s">
-        <v>629</v>
+        <v>589</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>658</v>
+        <v>618</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>644</v>
+        <v>604</v>
       </c>
       <c r="M78" t="s">
-        <v>642</v>
+        <v>602</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>643</v>
+        <v>603</v>
       </c>
       <c r="M79" t="s">
-        <v>642</v>
+        <v>602</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>630</v>
+        <v>590</v>
       </c>
       <c r="M80" t="s">
         <v>110</v>
@@ -7448,23 +7392,23 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>631</v>
+        <v>591</v>
       </c>
       <c r="M81" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>632</v>
+        <v>592</v>
       </c>
       <c r="M82" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>633</v>
+        <v>593</v>
       </c>
       <c r="M83" t="s">
         <v>111</v>
@@ -7472,7 +7416,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>634</v>
+        <v>594</v>
       </c>
       <c r="M84" t="s">
         <v>123</v>
@@ -7480,7 +7424,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>635</v>
+        <v>595</v>
       </c>
       <c r="M85" t="s">
         <v>122</v>
@@ -7488,7 +7432,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
       <c r="M86" t="s">
         <v>124</v>
@@ -7496,7 +7440,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>637</v>
+        <v>597</v>
       </c>
       <c r="M87" t="s">
         <v>125</v>
@@ -7504,66 +7448,66 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>638</v>
+        <v>598</v>
       </c>
       <c r="M88" t="s">
-        <v>645</v>
+        <v>605</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>639</v>
+        <v>599</v>
       </c>
       <c r="M89" t="s">
-        <v>647</v>
+        <v>607</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="M90" t="s">
-        <v>646</v>
+        <v>606</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>641</v>
+        <v>601</v>
       </c>
       <c r="M91" t="s">
-        <v>648</v>
+        <v>608</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="M92" t="s">
-        <v>649</v>
+        <v>609</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>651</v>
+        <v>611</v>
       </c>
       <c r="M93" t="s">
-        <v>654</v>
+        <v>614</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="M94" t="s">
-        <v>655</v>
+        <v>615</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>653</v>
+        <v>613</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>656</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -7575,10 +7519,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445F46B3-1A86-46EF-9440-E5378C8C2CDD}">
-  <dimension ref="A1:Q53"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7639,7 +7583,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
       <c r="M2" t="s">
         <v>136</v>
@@ -7666,7 +7610,7 @@
         <v>128</v>
       </c>
       <c r="M5" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -7674,7 +7618,7 @@
         <v>129</v>
       </c>
       <c r="M6" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
@@ -7727,82 +7671,82 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="M13" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="M14" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="M15" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="M16" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
       <c r="M18" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="156.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>574</v>
+        <v>534</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="M20" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>532</v>
+        <v>492</v>
       </c>
       <c r="M23" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
@@ -7810,239 +7754,271 @@
         <v>138</v>
       </c>
       <c r="M24" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>139</v>
-      </c>
-      <c r="M25" t="s">
-        <v>110</v>
+      <c r="A25" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>140</v>
-      </c>
-      <c r="M26" t="s">
-        <v>468</v>
+      <c r="A26" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>141</v>
-      </c>
-      <c r="M27" t="s">
-        <v>469</v>
+      <c r="A27" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>142</v>
-      </c>
-      <c r="M28" t="s">
-        <v>164</v>
+      <c r="A28" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>143</v>
-      </c>
-      <c r="M29" t="s">
-        <v>123</v>
+      <c r="A29" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>144</v>
-      </c>
-      <c r="M30" t="s">
-        <v>122</v>
+      <c r="A30" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>145</v>
-      </c>
-      <c r="M31" t="s">
-        <v>124</v>
+      <c r="A31" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>146</v>
-      </c>
-      <c r="M32" t="s">
-        <v>125</v>
+      <c r="A32" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>342</v>
-      </c>
-      <c r="M33" t="s">
-        <v>147</v>
+      <c r="A33" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>148</v>
-      </c>
-      <c r="M34" t="s">
-        <v>149</v>
+      <c r="A34" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="M35" t="s">
-        <v>315</v>
+        <v>662</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>150</v>
-      </c>
-      <c r="M36" t="s">
-        <v>153</v>
+      <c r="A36" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>151</v>
-      </c>
-      <c r="M37" t="s">
-        <v>155</v>
+      <c r="A37" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>152</v>
-      </c>
-      <c r="M38" t="s">
-        <v>156</v>
+      <c r="A38" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>154</v>
-      </c>
-      <c r="M39" t="s">
-        <v>157</v>
+      <c r="A39" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>531</v>
-      </c>
-      <c r="M40" t="s">
-        <v>158</v>
+      <c r="A40" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>530</v>
-      </c>
-      <c r="M41" t="s">
-        <v>159</v>
+      <c r="A41" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>694</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>316</v>
-      </c>
-      <c r="M42" t="s">
-        <v>160</v>
+      <c r="A42" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>161</v>
-      </c>
-      <c r="M43" t="s">
-        <v>162</v>
+      <c r="A43" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="M44" t="s">
-        <v>318</v>
+        <v>670</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>163</v>
-      </c>
-      <c r="M45" t="s">
-        <v>470</v>
+      <c r="A45" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>166</v>
-      </c>
-      <c r="M46" t="s">
-        <v>471</v>
+      <c r="A46" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>167</v>
-      </c>
-      <c r="M47" t="s">
-        <v>165</v>
+      <c r="A47" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>235</v>
-      </c>
-      <c r="M48" t="s">
-        <v>240</v>
+      <c r="A48" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>236</v>
-      </c>
-      <c r="M49" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" ht="130.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>573</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>586</v>
-      </c>
-      <c r="M51" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="M52" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="75" x14ac:dyDescent="0.4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>585</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>659</v>
+        <v>207</v>
+      </c>
+      <c r="M53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>533</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>546</v>
+      </c>
+      <c r="M55" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>208</v>
+      </c>
+      <c r="M56" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>545</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>619</v>
       </c>
     </row>
   </sheetData>
@@ -8118,319 +8094,319 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="M2" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="M3" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="M4" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="M5" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="M6" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="M7" t="s">
-        <v>475</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="M8" t="s">
-        <v>474</v>
+        <v>436</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="M9" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="M10" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="M14" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="M15" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s">
-        <v>473</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="M17" t="s">
-        <v>472</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="M18" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="M19" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="M20" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="M21" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="M22" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="M23" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="111.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>577</v>
+        <v>537</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>688</v>
+        <v>648</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="M26" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="M27" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="273.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>578</v>
+        <v>538</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>689</v>
+        <v>649</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="M29" t="s">
-        <v>662</v>
+        <v>622</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="M30" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="M31" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="M33" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="M34" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="M35" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="M36" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="M37" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="M38" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="M39" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="M40" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="M41" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="M42" t="s">
         <v>111</v>
@@ -8438,31 +8414,31 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="M43" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="M44" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="M45" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="M46" t="s">
         <v>123</v>
@@ -8470,7 +8446,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="M47" t="s">
         <v>122</v>
@@ -8478,7 +8454,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="M48" t="s">
         <v>124</v>
@@ -8486,7 +8462,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="M49" t="s">
         <v>125</v>
@@ -8494,151 +8470,151 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="M50" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="M51" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="280.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>685</v>
+        <v>645</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="243.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>686</v>
+        <v>646</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="154.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>663</v>
+        <v>623</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>582</v>
+        <v>542</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>687</v>
+        <v>647</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
       <c r="M56" t="s">
-        <v>534</v>
+        <v>494</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>589</v>
+        <v>549</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="M58" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>509</v>
+        <v>471</v>
       </c>
       <c r="M60" t="s">
-        <v>510</v>
+        <v>472</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>511</v>
+        <v>473</v>
       </c>
       <c r="M61" t="s">
-        <v>514</v>
+        <v>476</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>512</v>
+        <v>474</v>
       </c>
       <c r="M62" t="s">
-        <v>513</v>
+        <v>475</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>515</v>
+        <v>477</v>
       </c>
       <c r="M63" t="s">
-        <v>510</v>
+        <v>472</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>516</v>
+        <v>478</v>
       </c>
       <c r="M64" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>517</v>
+        <v>479</v>
       </c>
       <c r="M65" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>518</v>
+        <v>480</v>
       </c>
       <c r="M66" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>519</v>
+        <v>481</v>
       </c>
       <c r="M67" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>520</v>
+        <v>482</v>
       </c>
       <c r="M68" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>521</v>
+        <v>483</v>
       </c>
       <c r="M69" t="s">
         <v>111</v>
@@ -8646,7 +8622,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>522</v>
+        <v>484</v>
       </c>
       <c r="M70" t="s">
         <v>123</v>
@@ -8654,7 +8630,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>523</v>
+        <v>485</v>
       </c>
       <c r="M71" t="s">
         <v>122</v>
@@ -8662,7 +8638,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>524</v>
+        <v>486</v>
       </c>
       <c r="M72" t="s">
         <v>124</v>
@@ -8670,7 +8646,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>525</v>
+        <v>487</v>
       </c>
       <c r="M73" t="s">
         <v>125</v>
@@ -8678,34 +8654,34 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>526</v>
+        <v>488</v>
       </c>
       <c r="M74" t="s">
-        <v>528</v>
+        <v>490</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>527</v>
+        <v>489</v>
       </c>
       <c r="M75" t="s">
-        <v>529</v>
+        <v>491</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="170.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>583</v>
+        <v>543</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>661</v>
+        <v>621</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>584</v>
+        <v>544</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>660</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4F39DE-E5F5-46A0-B973-7FD78C6DD7AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6B1ED7-CD90-4970-9C08-19B176DDE4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="708">
   <si>
     <t>English</t>
   </si>
@@ -4915,6 +4915,20 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hideNamePlateButton</t>
+  </si>
+  <si>
+    <t>Hide Nameplate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネームプレートを非表示にする</t>
+    <rPh sb="8" eb="11">
+      <t>ヒヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5247,10 +5261,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q133"/>
+  <dimension ref="A1:Q134"/>
   <sheetViews>
-    <sheetView topLeftCell="C86" workbookViewId="0">
-      <selection activeCell="M99" sqref="M99"/>
+    <sheetView tabSelected="1" topLeftCell="C118" workbookViewId="0">
+      <selection activeCell="M127" sqref="M127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5627,343 +5641,354 @@
         <v>296</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>705</v>
+      </c>
+      <c r="B36" t="s">
+        <v>706</v>
+      </c>
+      <c r="M36" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>440</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M38" t="s">
         <v>441</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>286</v>
-      </c>
-      <c r="M39" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M41" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
+        <v>289</v>
+      </c>
+      <c r="M42" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
         <v>291</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M43" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>287</v>
-      </c>
-      <c r="M44" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M45" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M46" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
+        <v>292</v>
+      </c>
+      <c r="M47" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
         <v>293</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M48" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>637</v>
-      </c>
-      <c r="B49" t="s">
-        <v>644</v>
-      </c>
-      <c r="M49" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B50" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="M50" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
+        <v>638</v>
+      </c>
+      <c r="B51" t="s">
+        <v>639</v>
+      </c>
+      <c r="M51" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
         <v>640</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M52" t="s">
         <v>641</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>413</v>
-      </c>
-      <c r="M57" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M58" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
+        <v>411</v>
+      </c>
+      <c r="M59" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
         <v>412</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M60" t="s">
         <v>302</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61" t="s">
-        <v>70</v>
-      </c>
-      <c r="M61" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" t="s">
+        <v>70</v>
+      </c>
+      <c r="M62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
         <v>72</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>73</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M63" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>97</v>
-      </c>
-      <c r="B64" t="s">
-        <v>98</v>
-      </c>
-      <c r="M64" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
+        <v>95</v>
+      </c>
+      <c r="B66" t="s">
+        <v>99</v>
+      </c>
+      <c r="M66" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
         <v>96</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>100</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M67" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" t="s">
-        <v>77</v>
-      </c>
-      <c r="M68" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M69" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="M70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
         <v>80</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>81</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M71" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
         <v>82</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>83</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M73" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
-        <v>246</v>
-      </c>
-      <c r="B74" t="s">
-        <v>247</v>
-      </c>
-      <c r="M74" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
+        <v>246</v>
+      </c>
+      <c r="B75" t="s">
+        <v>247</v>
+      </c>
+      <c r="M75" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
         <v>248</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>249</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M76" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
         <v>250</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>251</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M78" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
-        <v>253</v>
-      </c>
-      <c r="B79" t="s">
-        <v>254</v>
-      </c>
-      <c r="M79" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B80" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M80" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="B81" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M81" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="B82" t="s">
         <v>259</v>
       </c>
       <c r="M82" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>329</v>
+        <v>260</v>
       </c>
       <c r="B83" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M83" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
+        <v>329</v>
+      </c>
+      <c r="B84" t="s">
+        <v>261</v>
+      </c>
+      <c r="M84" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
         <v>330</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>331</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M85" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
         <v>307</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M88" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
         <v>386</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M90" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5975,259 +6000,259 @@
         <v>416</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
-        <v>373</v>
-      </c>
-      <c r="M93" t="s">
-        <v>383</v>
-      </c>
-    </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M94" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M95" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M96" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M97" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M98" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="M99" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>633</v>
+        <v>414</v>
       </c>
       <c r="M100" t="s">
-        <v>635</v>
+        <v>415</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M101" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
+        <v>634</v>
+      </c>
+      <c r="M102" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
         <v>650</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M103" t="s">
         <v>651</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A104" t="s">
-        <v>512</v>
-      </c>
-      <c r="M104" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
+        <v>512</v>
+      </c>
+      <c r="M105" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
         <v>511</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M106" t="s">
         <v>514</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
-        <v>304</v>
-      </c>
-      <c r="M107" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
+        <v>304</v>
+      </c>
+      <c r="M108" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
         <v>305</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M109" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
-        <v>409</v>
-      </c>
-      <c r="M110" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
+        <v>409</v>
+      </c>
+      <c r="M111" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
         <v>408</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M112" t="s">
         <v>410</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A113" t="s">
-        <v>239</v>
-      </c>
-      <c r="M113" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M114" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M115" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M116" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
+        <v>242</v>
+      </c>
+      <c r="M117" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A118" t="s">
         <v>243</v>
       </c>
-      <c r="M117" t="s">
+      <c r="M118" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A119" t="s">
-        <v>325</v>
-      </c>
-      <c r="M119" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M120" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
+        <v>324</v>
+      </c>
+      <c r="M121" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
         <v>311</v>
       </c>
-      <c r="M121" t="s">
+      <c r="M122" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
-        <v>515</v>
-      </c>
-      <c r="M123" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="M124" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
+        <v>517</v>
+      </c>
+      <c r="M125" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
         <v>519</v>
       </c>
-      <c r="M125" t="s">
+      <c r="M126" t="s">
         <v>520</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A127" t="s">
-        <v>550</v>
-      </c>
-      <c r="M127" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
+        <v>550</v>
+      </c>
+      <c r="M128" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
         <v>551</v>
       </c>
-      <c r="M128" t="s">
+      <c r="M129" t="s">
         <v>552</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
-        <v>627</v>
-      </c>
-      <c r="M130" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
+        <v>627</v>
+      </c>
+      <c r="M131" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
         <v>629</v>
       </c>
-      <c r="M131" t="s">
+      <c r="M132" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A133" t="s">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
         <v>630</v>
       </c>
-      <c r="M133" t="s">
+      <c r="M134" t="s">
         <v>631</v>
       </c>
     </row>
@@ -7521,7 +7546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445F46B3-1A86-46EF-9440-E5378C8C2CDD}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+    <sheetView topLeftCell="A47" workbookViewId="0">
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6B1ED7-CD90-4970-9C08-19B176DDE4D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA37C3CA-C57B-4C11-A388-5AED5AA354FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21600" yWindow="1740" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="718">
   <si>
     <t>English</t>
   </si>
@@ -4930,6 +4930,63 @@
     <rPh sb="8" eb="11">
       <t>ヒヒョウジ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AssassinCanKilled</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AssassinCanKilledFromCrew</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AssassinCanKilledFromNeutral</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アサシンがキルされるか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キル能力を持つクルー役職がアサシンをキルできるか</t>
+    <rPh sb="2" eb="4">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キル能力を持つ第三陣営がアサシンをキルできるか</t>
+    <rPh sb="5" eb="6">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ダイサンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Retaliate</t>
+  </si>
+  <si>
+    <t>返り討ち</t>
+    <rPh sb="0" eb="4">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SheriffCanShootAssassin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アサシンをキルできるか</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5261,10 +5318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q134"/>
+  <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C118" workbookViewId="0">
-      <selection activeCell="M127" sqref="M127"/>
+    <sheetView topLeftCell="C97" workbookViewId="0">
+      <selection activeCell="M102" sqref="M102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6058,201 +6115,209 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>633</v>
+        <v>714</v>
       </c>
       <c r="M101" t="s">
-        <v>635</v>
+        <v>715</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M102" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
+        <v>634</v>
+      </c>
+      <c r="M103" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A104" t="s">
         <v>650</v>
       </c>
-      <c r="M103" t="s">
+      <c r="M104" t="s">
         <v>651</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A105" t="s">
-        <v>512</v>
-      </c>
-      <c r="M105" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
+        <v>512</v>
+      </c>
+      <c r="M106" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
         <v>511</v>
       </c>
-      <c r="M106" t="s">
+      <c r="M107" t="s">
         <v>514</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
-        <v>304</v>
-      </c>
-      <c r="M108" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
+        <v>304</v>
+      </c>
+      <c r="M109" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
         <v>305</v>
       </c>
-      <c r="M109" t="s">
+      <c r="M110" t="s">
         <v>385</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
-        <v>409</v>
-      </c>
-      <c r="M111" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
+        <v>409</v>
+      </c>
+      <c r="M112" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
         <v>408</v>
       </c>
-      <c r="M112" t="s">
+      <c r="M113" t="s">
         <v>410</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A114" t="s">
-        <v>239</v>
-      </c>
-      <c r="M114" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M115" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M116" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M117" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
+        <v>242</v>
+      </c>
+      <c r="M118" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A119" t="s">
         <v>243</v>
       </c>
-      <c r="M118" t="s">
+      <c r="M119" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A120" t="s">
-        <v>325</v>
-      </c>
-      <c r="M120" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M121" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
+        <v>324</v>
+      </c>
+      <c r="M122" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A123" t="s">
         <v>311</v>
       </c>
-      <c r="M122" t="s">
+      <c r="M123" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A124" t="s">
-        <v>515</v>
-      </c>
-      <c r="M124" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="M125" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
+        <v>517</v>
+      </c>
+      <c r="M126" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
         <v>519</v>
       </c>
-      <c r="M126" t="s">
+      <c r="M127" t="s">
         <v>520</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A128" t="s">
-        <v>550</v>
-      </c>
-      <c r="M128" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
+        <v>550</v>
+      </c>
+      <c r="M129" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
         <v>551</v>
       </c>
-      <c r="M129" t="s">
+      <c r="M130" t="s">
         <v>552</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
-        <v>627</v>
-      </c>
-      <c r="M131" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
+        <v>627</v>
+      </c>
+      <c r="M132" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
         <v>629</v>
       </c>
-      <c r="M132" t="s">
+      <c r="M133" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A134" t="s">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
         <v>630</v>
       </c>
-      <c r="M134" t="s">
+      <c r="M135" t="s">
         <v>631</v>
       </c>
     </row>
@@ -6265,10 +6330,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6522,39 +6587,39 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>399</v>
+        <v>716</v>
       </c>
       <c r="M28" t="s">
-        <v>429</v>
+        <v>717</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
+        <v>399</v>
+      </c>
+      <c r="M29" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>400</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M30" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+    <row r="31" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>522</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>558</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>523</v>
-      </c>
-      <c r="M32" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>417</v>
+        <v>523</v>
       </c>
       <c r="M33" t="s">
         <v>428</v>
@@ -6562,95 +6627,95 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M34" t="s">
-        <v>110</v>
+        <v>428</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M35" t="s">
-        <v>432</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M36" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
+        <v>420</v>
+      </c>
+      <c r="M37" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
         <v>421</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M38" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="M38" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="M39" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M40" t="s">
         <v>426</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>424</v>
-      </c>
-      <c r="M40" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
+        <v>424</v>
+      </c>
+      <c r="M41" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
         <v>425</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M42" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="75" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
+    <row r="43" spans="1:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
         <v>524</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
         <v>438</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M44" t="s">
         <v>439</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>495</v>
-      </c>
-      <c r="M45" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="M46" t="s">
         <v>496</v>
@@ -6658,97 +6723,105 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M47" t="s">
-        <v>110</v>
+        <v>496</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M48" t="s">
-        <v>432</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M49" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
+        <v>500</v>
+      </c>
+      <c r="M50" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
         <v>501</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M51" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A51" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="M51" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="M52" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M53" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
         <v>624</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M54" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A54" s="1" t="s">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M55" t="s">
         <v>626</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>502</v>
-      </c>
-      <c r="M55" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
+        <v>502</v>
+      </c>
+      <c r="M56" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
         <v>503</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M57" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
+    <row r="58" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
         <v>526</v>
       </c>
-      <c r="M57" s="2" t="s">
+      <c r="M58" s="2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
+    <row r="59" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
         <v>535</v>
       </c>
-      <c r="M58" s="2" t="s">
+      <c r="M59" s="2" t="s">
         <v>536</v>
       </c>
     </row>
@@ -7546,7 +7619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445F46B3-1A86-46EF-9440-E5378C8C2CDD}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
@@ -8055,10 +8128,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8215,383 +8288,383 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>708</v>
       </c>
       <c r="M14" t="s">
-        <v>158</v>
+        <v>711</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>709</v>
       </c>
       <c r="M15" t="s">
-        <v>160</v>
+        <v>712</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>710</v>
       </c>
       <c r="M16" t="s">
-        <v>435</v>
+        <v>713</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="M17" t="s">
-        <v>434</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M19" t="s">
-        <v>168</v>
+        <v>435</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M20" t="s">
-        <v>169</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M21" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>371</v>
+        <v>165</v>
       </c>
       <c r="M22" t="s">
-        <v>372</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
       <c r="M23" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="M24" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="111.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>537</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>648</v>
+        <v>371</v>
+      </c>
+      <c r="M25" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M26" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M27" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="273.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="111.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>313</v>
+        <v>215</v>
       </c>
       <c r="M29" t="s">
-        <v>622</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>315</v>
+        <v>216</v>
       </c>
       <c r="M30" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>314</v>
-      </c>
-      <c r="M31" t="s">
-        <v>317</v>
+        <v>538</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>313</v>
+      </c>
+      <c r="M32" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>235</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s">
-        <v>174</v>
+        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>171</v>
+        <v>314</v>
       </c>
       <c r="M34" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>172</v>
-      </c>
-      <c r="M35" t="s">
-        <v>175</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="M36" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M37" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="M38" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M39" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M40" t="s">
-        <v>432</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="M41" t="s">
-        <v>433</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="M42" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M43" t="s">
-        <v>185</v>
+        <v>432</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M44" t="s">
-        <v>187</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="M45" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M46" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M47" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M48" t="s">
-        <v>124</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="M50" t="s">
-        <v>224</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
+        <v>191</v>
+      </c>
+      <c r="M51" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>192</v>
+      </c>
+      <c r="M52" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>219</v>
+      </c>
+      <c r="M53" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
         <v>220</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M54" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="280.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+    <row r="55" spans="1:13" ht="284.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
         <v>539</v>
       </c>
-      <c r="M52" s="2" t="s">
+      <c r="M55" s="2" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="243.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
+    <row r="56" spans="1:13" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
         <v>541</v>
       </c>
-      <c r="M53" s="2" t="s">
+      <c r="M56" s="2" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="154.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
+    <row r="57" spans="1:13" ht="150" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
         <v>540</v>
       </c>
-      <c r="M54" s="2" t="s">
+      <c r="M57" s="2" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
+    <row r="58" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
         <v>542</v>
       </c>
-      <c r="M55" s="2" t="s">
+      <c r="M58" s="2" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
         <v>493</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M59" t="s">
         <v>494</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>548</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>369</v>
-      </c>
-      <c r="M58" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>471</v>
-      </c>
-      <c r="M60" t="s">
-        <v>472</v>
+        <v>548</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>473</v>
+        <v>369</v>
       </c>
       <c r="M61" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>474</v>
-      </c>
-      <c r="M62" t="s">
-        <v>475</v>
+        <v>370</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="M63" t="s">
         <v>472</v>
@@ -8599,113 +8672,137 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="M64" t="s">
-        <v>141</v>
+        <v>476</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="M65" t="s">
-        <v>179</v>
+        <v>475</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="M66" t="s">
-        <v>180</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M67" t="s">
-        <v>432</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M68" t="s">
-        <v>433</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M69" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="M70" t="s">
-        <v>123</v>
+        <v>432</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="M71" t="s">
-        <v>122</v>
+        <v>433</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="M72" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="M73" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M74" t="s">
-        <v>490</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
+        <v>486</v>
+      </c>
+      <c r="M75" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>487</v>
+      </c>
+      <c r="M76" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>488</v>
+      </c>
+      <c r="M77" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
         <v>489</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M78" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="170.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
+    <row r="79" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
         <v>543</v>
       </c>
-      <c r="M76" s="2" t="s">
+      <c r="M79" s="2" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
+    <row r="80" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
         <v>544</v>
       </c>
-      <c r="M77" s="2" t="s">
+      <c r="M80" s="2" t="s">
         <v>620</v>
       </c>
     </row>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA37C3CA-C57B-4C11-A388-5AED5AA354FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3940879-60D9-4AF5-9AB5-5575A87F5787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="1740" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="740">
   <si>
     <t>English</t>
   </si>
@@ -1600,22 +1600,6 @@
   </si>
   <si>
     <t>破壊工作によって巻き戻るロングタクスの数</t>
-    <rPh sb="0" eb="4">
-      <t>ハカイコウサク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>破壊工作によって巻き戻るコモンタクスの数</t>
     <rPh sb="0" eb="4">
       <t>ハカイコウサク</t>
     </rPh>
@@ -4987,6 +4971,184 @@
   </si>
   <si>
     <t>アサシンをキルできるか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskMasterSpawnRate</t>
+  </si>
+  <si>
+    <t>TaskMasterRoleNum</t>
+  </si>
+  <si>
+    <t>TaskMasterHasOtherVison</t>
+  </si>
+  <si>
+    <t>TaskMasterVison</t>
+  </si>
+  <si>
+    <t>TaskMasterApplyEnvironmentVisionEffect</t>
+  </si>
+  <si>
+    <t>TaskMasterAddCommonTaskNum</t>
+  </si>
+  <si>
+    <t>TaskMasterAddLongTaskNum</t>
+  </si>
+  <si>
+    <t>TaskMaster</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクマスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>別の視界設定を持つか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビジョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視界効果を受けるか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加のショートタスク数</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加のロングタスク数</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加の通常タスク数</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破壊工作によって巻き戻る通常タクスの数</t>
+    <rPh sb="0" eb="4">
+      <t>ハカイコウサク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskMasterAddNormalTaskNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskMasterIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskMasterShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskMasterFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクを完了させて、船から脱出せよ</t>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フネ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ダッシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生き残って、タスクを完了させろ</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三陣営役職
+勝利条件：生存している状態で、すべてのタスクを
+完了させること
+死亡した場合は勝利条件は達成されない</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイゾン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="46" eb="50">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>タッセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5700,21 +5862,21 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
+        <v>704</v>
+      </c>
+      <c r="B36" t="s">
         <v>705</v>
       </c>
-      <c r="B36" t="s">
+      <c r="M36" t="s">
         <v>706</v>
-      </c>
-      <c r="M36" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
+        <v>439</v>
+      </c>
+      <c r="M38" t="s">
         <v>440</v>
-      </c>
-      <c r="M38" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
@@ -5722,7 +5884,7 @@
         <v>286</v>
       </c>
       <c r="M40" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
@@ -5730,7 +5892,7 @@
         <v>288</v>
       </c>
       <c r="M41" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
@@ -5738,7 +5900,7 @@
         <v>289</v>
       </c>
       <c r="M42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
@@ -5754,7 +5916,7 @@
         <v>287</v>
       </c>
       <c r="M45" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
@@ -5762,7 +5924,7 @@
         <v>290</v>
       </c>
       <c r="M46" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
@@ -5770,7 +5932,7 @@
         <v>292</v>
       </c>
       <c r="M47" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
@@ -5783,37 +5945,37 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B50" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M50" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
+        <v>637</v>
+      </c>
+      <c r="B51" t="s">
         <v>638</v>
       </c>
-      <c r="B51" t="s">
-        <v>639</v>
-      </c>
       <c r="M51" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
+        <v>639</v>
+      </c>
+      <c r="M52" t="s">
         <v>640</v>
-      </c>
-      <c r="M52" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M58" t="s">
         <v>300</v>
@@ -5821,7 +5983,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M59" t="s">
         <v>301</v>
@@ -5829,7 +5991,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="M60" t="s">
         <v>302</v>
@@ -6013,7 +6175,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B84" t="s">
         <v>261</v>
@@ -6024,13 +6186,13 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
+        <v>329</v>
+      </c>
+      <c r="B85" t="s">
         <v>330</v>
       </c>
-      <c r="B85" t="s">
-        <v>331</v>
-      </c>
       <c r="M85" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
@@ -6043,122 +6205,122 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
+        <v>385</v>
+      </c>
+      <c r="M90" t="s">
         <v>386</v>
-      </c>
-      <c r="M90" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M91" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M94" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M95" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M96" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M97" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M98" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
+        <v>377</v>
+      </c>
+      <c r="M99" t="s">
         <v>378</v>
-      </c>
-      <c r="M99" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
+        <v>413</v>
+      </c>
+      <c r="M100" t="s">
         <v>414</v>
-      </c>
-      <c r="M100" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
+        <v>713</v>
+      </c>
+      <c r="M101" t="s">
         <v>714</v>
-      </c>
-      <c r="M101" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M102" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M103" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
+        <v>649</v>
+      </c>
+      <c r="M104" t="s">
         <v>650</v>
-      </c>
-      <c r="M104" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
+        <v>511</v>
+      </c>
+      <c r="M106" t="s">
         <v>512</v>
-      </c>
-      <c r="M106" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M107" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
@@ -6174,23 +6336,23 @@
         <v>305</v>
       </c>
       <c r="M110" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M112" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M113" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
@@ -6235,18 +6397,18 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M121" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="M122" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
@@ -6259,66 +6421,66 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
+        <v>514</v>
+      </c>
+      <c r="M125" t="s">
         <v>515</v>
-      </c>
-      <c r="M125" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
+        <v>516</v>
+      </c>
+      <c r="M126" t="s">
         <v>517</v>
-      </c>
-      <c r="M126" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
+        <v>518</v>
+      </c>
+      <c r="M127" t="s">
         <v>519</v>
-      </c>
-      <c r="M127" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M129" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
+        <v>550</v>
+      </c>
+      <c r="M130" t="s">
         <v>551</v>
-      </c>
-      <c r="M130" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
+        <v>626</v>
+      </c>
+      <c r="M132" t="s">
         <v>627</v>
-      </c>
-      <c r="M132" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M133" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
+        <v>629</v>
+      </c>
+      <c r="M135" t="s">
         <v>630</v>
-      </c>
-      <c r="M135" t="s">
-        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -6394,26 +6556,26 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="M2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6446,7 +6608,7 @@
         <v>105</v>
       </c>
       <c r="M9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -6454,7 +6616,7 @@
         <v>106</v>
       </c>
       <c r="M10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
@@ -6483,31 +6645,31 @@
     </row>
     <row r="14" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M18" t="s">
         <v>110</v>
@@ -6515,23 +6677,23 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M19" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M21" t="s">
         <v>111</v>
@@ -6539,7 +6701,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M22" t="s">
         <v>123</v>
@@ -6547,7 +6709,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M23" t="s">
         <v>122</v>
@@ -6555,7 +6717,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M24" t="s">
         <v>124</v>
@@ -6563,7 +6725,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M25" t="s">
         <v>125</v>
@@ -6571,71 +6733,71 @@
     </row>
     <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M27" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
+        <v>715</v>
+      </c>
+      <c r="M28" t="s">
         <v>716</v>
-      </c>
-      <c r="M28" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M33" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M34" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M35" t="s">
         <v>110</v>
@@ -6643,23 +6805,23 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M36" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M37" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M38" t="s">
         <v>111</v>
@@ -6667,71 +6829,71 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M39" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M40" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M41" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M42" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
+        <v>437</v>
+      </c>
+      <c r="M44" t="s">
         <v>438</v>
-      </c>
-      <c r="M44" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
+        <v>494</v>
+      </c>
+      <c r="M46" t="s">
         <v>495</v>
-      </c>
-      <c r="M46" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M47" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M48" t="s">
         <v>110</v>
@@ -6739,23 +6901,23 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M49" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M50" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M51" t="s">
         <v>111</v>
@@ -6763,66 +6925,66 @@
     </row>
     <row r="52" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="M52" t="s">
         <v>504</v>
-      </c>
-      <c r="M52" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M53" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
+        <v>623</v>
+      </c>
+      <c r="M54" t="s">
         <v>624</v>
-      </c>
-      <c r="M54" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M55" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M56" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M57" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
+        <v>525</v>
+      </c>
+      <c r="M58" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
+        <v>534</v>
+      </c>
+      <c r="M59" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -6898,18 +7060,18 @@
     </row>
     <row r="2" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>564</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>565</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>566</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>567</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -6941,7 +7103,7 @@
         <v>114</v>
       </c>
       <c r="M8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
@@ -6949,7 +7111,7 @@
         <v>115</v>
       </c>
       <c r="M9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
@@ -7010,31 +7172,31 @@
     </row>
     <row r="17" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>346</v>
+      </c>
+      <c r="M19" t="s">
         <v>347</v>
-      </c>
-      <c r="M19" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M21" t="s">
         <v>110</v>
@@ -7042,23 +7204,23 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M22" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M23" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M24" t="s">
         <v>111</v>
@@ -7066,7 +7228,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M25" t="s">
         <v>123</v>
@@ -7074,7 +7236,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M26" t="s">
         <v>122</v>
@@ -7082,7 +7244,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M27" t="s">
         <v>124</v>
@@ -7090,7 +7252,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M28" t="s">
         <v>125</v>
@@ -7098,127 +7260,127 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="M29" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M30" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M31" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M32" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M33" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="83.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
+        <v>356</v>
+      </c>
+      <c r="M38" t="s">
         <v>357</v>
-      </c>
-      <c r="M38" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M40" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
+        <v>360</v>
+      </c>
+      <c r="M41" t="s">
         <v>361</v>
-      </c>
-      <c r="M41" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M43" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M45" t="s">
         <v>110</v>
@@ -7226,23 +7388,23 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M46" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M47" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M48" t="s">
         <v>111</v>
@@ -7250,7 +7412,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M49" t="s">
         <v>123</v>
@@ -7258,7 +7420,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M50" t="s">
         <v>122</v>
@@ -7266,7 +7428,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M51" t="s">
         <v>124</v>
@@ -7274,7 +7436,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M52" t="s">
         <v>125</v>
@@ -7282,79 +7444,79 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M53" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M54" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="M55" t="s">
         <v>469</v>
-      </c>
-      <c r="M55" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M56" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M57" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
+        <v>529</v>
+      </c>
+      <c r="M58" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
+        <v>462</v>
+      </c>
+      <c r="M59" t="s">
         <v>463</v>
-      </c>
-      <c r="M59" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
+        <v>579</v>
+      </c>
+      <c r="M61" t="s">
         <v>580</v>
-      </c>
-      <c r="M61" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M62" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M63" t="s">
         <v>110</v>
@@ -7362,23 +7524,23 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M64" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M65" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M66" t="s">
         <v>111</v>
@@ -7386,7 +7548,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M67" t="s">
         <v>123</v>
@@ -7394,7 +7556,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M68" t="s">
         <v>122</v>
@@ -7402,7 +7564,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M69" t="s">
         <v>124</v>
@@ -7410,7 +7572,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M70" t="s">
         <v>125</v>
@@ -7418,71 +7580,71 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M71" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M72" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M73" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M74" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M75" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M78" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M79" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M80" t="s">
         <v>110</v>
@@ -7490,23 +7652,23 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M81" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M82" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M83" t="s">
         <v>111</v>
@@ -7514,7 +7676,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M84" t="s">
         <v>123</v>
@@ -7522,7 +7684,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M85" t="s">
         <v>122</v>
@@ -7530,7 +7692,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M86" t="s">
         <v>124</v>
@@ -7538,7 +7700,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M87" t="s">
         <v>125</v>
@@ -7546,66 +7708,66 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M88" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M89" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M90" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M91" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M92" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M93" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M94" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -7617,15 +7779,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445F46B3-1A86-46EF-9440-E5378C8C2CDD}">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="1" max="1" width="37.875" customWidth="1"/>
     <col min="13" max="13" width="56" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7708,7 +7870,7 @@
         <v>128</v>
       </c>
       <c r="M5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -7716,7 +7878,7 @@
         <v>129</v>
       </c>
       <c r="M6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
@@ -7796,7 +7958,7 @@
         <v>320</v>
       </c>
       <c r="M16" t="s">
-        <v>323</v>
+        <v>732</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -7817,18 +7979,18 @@
     </row>
     <row r="19" spans="1:13" ht="156.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>326</v>
+      </c>
+      <c r="M20" t="s">
         <v>327</v>
-      </c>
-      <c r="M20" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -7841,7 +8003,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M23" t="s">
         <v>230</v>
@@ -7857,90 +8019,90 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
@@ -7948,127 +8110,127 @@
         <v>285</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -8089,18 +8251,18 @@
     </row>
     <row r="54" spans="1:13" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
+        <v>545</v>
+      </c>
+      <c r="M55" t="s">
         <v>546</v>
-      </c>
-      <c r="M55" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
@@ -8113,10 +8275,106 @@
     </row>
     <row r="57" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="M59" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="M60" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>734</v>
+      </c>
+      <c r="M68" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>735</v>
+      </c>
+      <c r="M69" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>736</v>
+      </c>
+      <c r="M70" s="2" t="s">
+        <v>739</v>
       </c>
     </row>
   </sheetData>
@@ -8130,7 +8388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -8211,7 +8469,7 @@
         <v>140</v>
       </c>
       <c r="M4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -8235,7 +8493,7 @@
         <v>144</v>
       </c>
       <c r="M7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
@@ -8243,7 +8501,7 @@
         <v>146</v>
       </c>
       <c r="M8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
@@ -8288,26 +8546,26 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="M14" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="M15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="M16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -8331,7 +8589,7 @@
         <v>161</v>
       </c>
       <c r="M19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
@@ -8339,7 +8597,7 @@
         <v>162</v>
       </c>
       <c r="M20" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
@@ -8376,10 +8634,10 @@
     </row>
     <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
+        <v>370</v>
+      </c>
+      <c r="M25" t="s">
         <v>371</v>
-      </c>
-      <c r="M25" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
@@ -8400,10 +8658,10 @@
     </row>
     <row r="28" spans="1:13" ht="111.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -8424,10 +8682,10 @@
     </row>
     <row r="31" spans="1:13" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -8435,7 +8693,7 @@
         <v>313</v>
       </c>
       <c r="M32" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
@@ -8515,7 +8773,7 @@
         <v>181</v>
       </c>
       <c r="M43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
@@ -8523,7 +8781,7 @@
         <v>182</v>
       </c>
       <c r="M44" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
@@ -8608,95 +8866,95 @@
     </row>
     <row r="55" spans="1:13" ht="284.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="243.75" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="150" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
+        <v>492</v>
+      </c>
+      <c r="M59" t="s">
         <v>493</v>
-      </c>
-      <c r="M59" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
+        <v>547</v>
+      </c>
+      <c r="M60" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
+        <v>368</v>
+      </c>
+      <c r="M61" t="s">
         <v>369</v>
-      </c>
-      <c r="M61" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
+        <v>470</v>
+      </c>
+      <c r="M63" t="s">
         <v>471</v>
-      </c>
-      <c r="M63" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M64" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
+        <v>473</v>
+      </c>
+      <c r="M65" t="s">
         <v>474</v>
-      </c>
-      <c r="M65" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M66" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M67" t="s">
         <v>141</v>
@@ -8704,7 +8962,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M68" t="s">
         <v>179</v>
@@ -8712,7 +8970,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M69" t="s">
         <v>180</v>
@@ -8720,23 +8978,23 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M70" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M71" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M72" t="s">
         <v>111</v>
@@ -8744,7 +9002,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M73" t="s">
         <v>123</v>
@@ -8752,7 +9010,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M74" t="s">
         <v>122</v>
@@ -8760,7 +9018,7 @@
     </row>
     <row r="75" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M75" t="s">
         <v>124</v>
@@ -8768,7 +9026,7 @@
     </row>
     <row r="76" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M76" t="s">
         <v>125</v>
@@ -8776,34 +9034,34 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M77" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M78" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3940879-60D9-4AF5-9AB5-5575A87F5787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85236101-ADED-4C61-81D0-4B92B889CC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -2920,84 +2920,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>第三陣営役職
-勝利条件1：インポスターにキルされる
-勝利条件2：自分以外の生存者が一人でクルー役職かインポスター役職
-会議で追放された場合、敗北
-「破壊工作」により完了しているタスクの一部がリセットされる
-強力な役職のためインポスター及びクルー両方狙われるため注意が必要</t>
-    <rPh sb="0" eb="4">
-      <t>ダイサンジ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>ショウリジョウケン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ショウリ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="32" eb="36">
-      <t>ジブンイガイ</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>セイゾンシャ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヒトリ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ツイホウ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ハイボク</t>
-    </rPh>
-    <rPh sb="74" eb="78">
-      <t>ハカイ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="92" eb="94">
-      <t>イチブ</t>
-    </rPh>
-    <rPh sb="103" eb="105">
-      <t>キョウリョク</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>オヨ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="124" eb="125">
-      <t>ネラ</t>
-    </rPh>
-    <rPh sb="130" eb="132">
-      <t>チュウイ</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NeetNeutralFullDescription</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3323,42 +3245,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>キルが可能なクルー役職。ただし、キル可能回数には上限がある
-キルを行おうとした相手がクルー役職であればキルは失敗して
-自身が死亡する</t>
-    <rPh sb="3" eb="5">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジョウゲン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>シッパイ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ジシン</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>シボウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CrewmateFullDescription</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3368,13 +3254,6 @@
   </si>
   <si>
     <t>ScientistFullDescription</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タスクを行うクルー役職</t>
-    <rPh sb="4" eb="5">
-      <t>オコナ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3893,135 +3772,6 @@
     </rPh>
     <rPh sb="64" eb="66">
       <t>ジンエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム開始時、一人だけ役職を知っているインポスター役職
-1人だけ役職が分かるためその人をサポートする必要がある
-誰かにアサシンがアサインされている場合、アサシンが
-サポート対象となる(複数人アサシンがいる場合はランダム)
-それ以外だと、インポスター陣営からランダムにサポート対象が
-決定される
-現在のサポート対象:
-　　　　プレイヤー名:{0}
-　　　　役職:{1}</t>
-    <rPh sb="3" eb="6">
-      <t>カイシジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒトリ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ダレ</t>
-    </rPh>
-    <rPh sb="73" eb="75">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="124" eb="126">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="141" eb="143">
-      <t>ケッテイ</t>
-    </rPh>
-    <rPh sb="177" eb="179">
-      <t>ヤクショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーム開始時、一人だけ役職を知っているクルー役職
-1人だけ役職が分かるためその人をサポートする必要がある
-誰かにマーリンがアサインされている場合、マーリンが
-サポート対象となる(複数人マーリンがいる場合はランダム)
-それ以外だと、クルー陣営からランダムにサポート対象が
-決定される
-現在のサポート対象:
-　　　　プレイヤー名:{0}
-　　　　役職:{1}</t>
-    <rPh sb="3" eb="6">
-      <t>カイシジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒトリ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>^</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ダレ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="91" eb="92">
-      <t>ニン</t>
-    </rPh>
-    <rPh sb="99" eb="101">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="110" eb="112">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="118" eb="120">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="135" eb="137">
-      <t>ケッテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5112,6 +4862,7 @@
     <t>第三陣営役職
 勝利条件：生存している状態で、すべてのタスクを
 完了させること
+オプションの追加タスクはタスクを完了すると追加される。
 死亡した場合は勝利条件は達成されない</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
@@ -5137,17 +4888,314 @@
     <rPh sb="31" eb="33">
       <t>カンリョウ</t>
     </rPh>
+    <rPh sb="45" eb="47">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="74" eb="78">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>タッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三陣営役職
+勝利条件1：インポスターにキルされる
+勝利条件2：自分以外の生存者が一人でクルー役職かインポスター役職
+会議で追放された場合は敗北
+能力「破壊工作」は全てのプレイヤーの完了しているタスクが
+オプションで指定されたタスクに置き換わる
+強力な役職のためインポスター及びクルー両方狙われるため注意が必要</t>
+    <rPh sb="0" eb="4">
+      <t>ダイサンジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="32" eb="36">
+      <t>ジブンイガイ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>セイゾンシャ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ツイホウ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ハイボク</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="76" eb="80">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>キョウリョク</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="137" eb="138">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>ネラ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="153" eb="155">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クルー役職
+タスクを行いつつ、インポスターをこの船から追放しよう</t>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>フネ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ツイホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キルが可能なクルー役職。ただし、キル可能回数には上限がある
+キルを行おうとした相手がクルー役職であればキルは失敗して
+自身が死亡する
+オプションでアサシンをキル出来ないように設定されていて、
+アサシンをキルした場合、クルー役職をキルした時と同じく
+自身が死亡する</t>
+    <rPh sb="3" eb="5">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オコナ</t>
+    </rPh>
     <rPh sb="39" eb="41">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="62" eb="64">
       <t>シボウ</t>
     </rPh>
-    <rPh sb="43" eb="45">
+    <rPh sb="80" eb="82">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="46" eb="50">
-      <t>ショウリジョウケン</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>タッセイ</t>
+    <rPh sb="111" eb="113">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム開始時、一人だけ役職を知っているクルー役職
+1人だけ役職が分かるためその人をサポートできる
+誰かにマーリンがアサインされている場合、マーリンが
+サポート対象となる(複数人マーリンがいる場合はランダム)
+それ以外だと、クルー陣営からランダムにサポート対象が
+決定される
+現在のサポート対象:
+　　　　プレイヤー名:{0}
+　　　　役職:{1}</t>
+    <rPh sb="3" eb="6">
+      <t>カイシジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>^</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="85" eb="87">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="131" eb="133">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム開始時、一人だけ役職を知っているインポスター役職
+1人だけ役職が分かるためその人をサポートできる
+誰かにアサシンがアサインされている場合、アサシンが
+サポート対象となる(複数人アサシンがいる場合はランダム)
+それ以外だと、インポスター陣営からランダムにサポート対象が
+決定される
+現在のサポート対象:
+　　　　プレイヤー名:{0}
+　　　　役職:{1}</t>
+    <rPh sb="3" eb="6">
+      <t>カイシジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>ヤクショク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5482,7 +5530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView topLeftCell="C97" workbookViewId="0">
+    <sheetView topLeftCell="C94" workbookViewId="0">
       <selection activeCell="M102" sqref="M102"/>
     </sheetView>
   </sheetViews>
@@ -5862,13 +5910,13 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="B36" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="M36" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
@@ -5945,32 +5993,32 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B50" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="M50" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B51" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="M51" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="M52" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
@@ -6277,34 +6325,34 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="M101" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="M102" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="M103" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="M104" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
@@ -6445,42 +6493,42 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M129" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
+        <v>549</v>
+      </c>
+      <c r="M130" t="s">
         <v>550</v>
-      </c>
-      <c r="M130" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="M132" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="M133" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="M135" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -6494,8 +6542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6554,28 +6602,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>558</v>
-      </c>
-      <c r="M2" t="s">
-        <v>561</v>
+        <v>556</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>557</v>
+      </c>
+      <c r="M3" t="s">
         <v>559</v>
-      </c>
-      <c r="M3" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>558</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6749,10 +6797,10 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="M28" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -6771,14 +6819,15 @@
         <v>405</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" ht="111" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>521</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
+        <v>737</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>522</v>
@@ -6864,7 +6913,7 @@
         <v>523</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
@@ -6941,10 +6990,10 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="M54" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
@@ -6952,7 +7001,7 @@
         <v>506</v>
       </c>
       <c r="M55" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
@@ -6981,10 +7030,10 @@
     </row>
     <row r="59" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
+        <v>533</v>
+      </c>
+      <c r="M59" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -7060,18 +7109,18 @@
     </row>
     <row r="2" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -7175,7 +7224,7 @@
         <v>527</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
@@ -7343,7 +7392,7 @@
         <v>528</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
@@ -7500,23 +7549,23 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="M61" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="M62" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="M63" t="s">
         <v>110</v>
@@ -7524,7 +7573,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="M64" t="s">
         <v>431</v>
@@ -7532,7 +7581,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M65" t="s">
         <v>432</v>
@@ -7540,7 +7589,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="M66" t="s">
         <v>111</v>
@@ -7548,7 +7597,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="M67" t="s">
         <v>123</v>
@@ -7556,7 +7605,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="M68" t="s">
         <v>122</v>
@@ -7564,7 +7613,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M69" t="s">
         <v>124</v>
@@ -7572,7 +7621,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="M70" t="s">
         <v>125</v>
@@ -7580,71 +7629,71 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="M71" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="M72" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="M73" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="M74" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="M75" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="M78" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="M79" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="M80" t="s">
         <v>110</v>
@@ -7652,7 +7701,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M81" t="s">
         <v>431</v>
@@ -7660,7 +7709,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="M82" t="s">
         <v>432</v>
@@ -7668,7 +7717,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="M83" t="s">
         <v>111</v>
@@ -7676,7 +7725,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="M84" t="s">
         <v>123</v>
@@ -7684,7 +7733,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="M85" t="s">
         <v>122</v>
@@ -7692,7 +7741,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="M86" t="s">
         <v>124</v>
@@ -7700,7 +7749,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="M87" t="s">
         <v>125</v>
@@ -7708,66 +7757,66 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="M88" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="M89" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="M90" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="M91" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="M92" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
+        <v>607</v>
+      </c>
+      <c r="M93" t="s">
         <v>610</v>
-      </c>
-      <c r="M93" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
+        <v>608</v>
+      </c>
+      <c r="M94" t="s">
         <v>611</v>
-      </c>
-      <c r="M94" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
+        <v>609</v>
+      </c>
+      <c r="M95" s="2" t="s">
         <v>612</v>
-      </c>
-      <c r="M95" s="2" t="s">
-        <v>615</v>
       </c>
     </row>
   </sheetData>
@@ -7781,8 +7830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445F46B3-1A86-46EF-9440-E5378C8C2CDD}">
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7958,7 +8007,7 @@
         <v>320</v>
       </c>
       <c r="M16" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -7977,12 +8026,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="156.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" ht="177" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>531</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>533</v>
+        <v>735</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
@@ -8019,90 +8068,90 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
@@ -8110,127 +8159,127 @@
         <v>285</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -8254,15 +8303,15 @@
         <v>532</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
+        <v>544</v>
+      </c>
+      <c r="M55" t="s">
         <v>545</v>
-      </c>
-      <c r="M55" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
@@ -8275,106 +8324,106 @@
     </row>
     <row r="57" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="M59" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="M60" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="M68" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="M69" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" ht="72.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -8388,8 +8437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8546,26 +8595,26 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="M14" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="M15" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="M16" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -8658,10 +8707,10 @@
     </row>
     <row r="28" spans="1:13" ht="111.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -8682,10 +8731,10 @@
     </row>
     <row r="31" spans="1:13" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -8693,7 +8742,7 @@
         <v>313</v>
       </c>
       <c r="M32" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
@@ -8866,34 +8915,34 @@
     </row>
     <row r="55" spans="1:13" ht="284.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="243.75" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="150" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
@@ -8906,10 +8955,10 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
+        <v>546</v>
+      </c>
+      <c r="M60" s="2" t="s">
         <v>547</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
@@ -9050,18 +9099,18 @@
     </row>
     <row r="79" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>620</v>
+        <v>738</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>619</v>
+        <v>739</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85236101-ADED-4C61-81D0-4B92B889CC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FAD6DC-C31E-4229-AA95-8B5EFDBBE094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="752">
   <si>
     <t>English</t>
   </si>
@@ -5196,6 +5196,78 @@
     </rPh>
     <rPh sb="173" eb="175">
       <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updateButton</t>
+  </si>
+  <si>
+    <t>chekUpdateWait</t>
+  </si>
+  <si>
+    <t>アップデートを確認中・・・</t>
+    <rPh sb="7" eb="10">
+      <t>カクニンチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updateNow</t>
+  </si>
+  <si>
+    <t>updateManually</t>
+  </si>
+  <si>
+    <t>アップデートを開始します</t>
+    <rPh sb="7" eb="9">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップデートに失敗しました\n手動で更新してください</t>
+    <rPh sb="7" eb="9">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュドウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップデートに成功しました\nゲームを再起動してください</t>
+    <rPh sb="7" eb="9">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>サイキドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updateRestart</t>
+  </si>
+  <si>
+    <t>latestNow</t>
+  </si>
+  <si>
+    <t>最新バージョンのMODを使用しています。</t>
+    <rPh sb="0" eb="2">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップデートを確認</t>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5528,10 +5600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q135"/>
+  <dimension ref="A1:Q142"/>
   <sheetViews>
-    <sheetView topLeftCell="C94" workbookViewId="0">
-      <selection activeCell="M102" sqref="M102"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6529,6 +6601,54 @@
       </c>
       <c r="M135" t="s">
         <v>625</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>740</v>
+      </c>
+      <c r="M137" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>741</v>
+      </c>
+      <c r="M138" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>743</v>
+      </c>
+      <c r="M139" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A140" t="s">
+        <v>744</v>
+      </c>
+      <c r="M140" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A141" t="s">
+        <v>748</v>
+      </c>
+      <c r="M141" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A142" t="s">
+        <v>749</v>
+      </c>
+      <c r="M142" t="s">
+        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -8437,7 +8557,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FAD6DC-C31E-4229-AA95-8B5EFDBBE094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54857D93-8459-4635-B22A-A5AED55DF3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="752">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="754">
   <si>
     <t>English</t>
   </si>
@@ -199,9 +199,6 @@
   </si>
   <si>
     <t>Allow Parallel MedBay Scans</t>
-  </si>
-  <si>
-    <t>メッドベイスキャン同時使用可</t>
   </si>
   <si>
     <t>Total Meetings</t>
@@ -5269,6 +5266,20 @@
     <rPh sb="7" eb="9">
       <t>カクニン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CanKillVentInPlayer</t>
+  </si>
+  <si>
+    <t>ベント内のプレイヤーをキルできるか</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッドベイのスキャンを同時使用できるか</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5600,10 +5611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q142"/>
+  <dimension ref="A1:Q143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5665,7 +5676,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
@@ -5742,10 +5753,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="M10" t="s">
         <v>283</v>
-      </c>
-      <c r="M10" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
@@ -5756,7 +5767,7 @@
         <v>33</v>
       </c>
       <c r="M11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
@@ -5767,7 +5778,7 @@
         <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
@@ -5778,7 +5789,7 @@
         <v>35</v>
       </c>
       <c r="M13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
@@ -5789,7 +5800,7 @@
         <v>36</v>
       </c>
       <c r="M14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
@@ -5800,7 +5811,7 @@
         <v>37</v>
       </c>
       <c r="M15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
@@ -5811,31 +5822,31 @@
         <v>38</v>
       </c>
       <c r="M16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M19" t="s">
         <v>270</v>
-      </c>
-      <c r="M19" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B20" t="s">
         <v>48</v>
@@ -5846,18 +5857,18 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
         <v>50</v>
       </c>
       <c r="M21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
@@ -5868,40 +5879,40 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
       </c>
       <c r="M23" t="s">
-        <v>54</v>
+        <v>753</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="M25" t="s">
         <v>274</v>
       </c>
-      <c r="M25" t="s">
-        <v>275</v>
-      </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>273</v>
+      <c r="A26" t="s">
+        <v>751</v>
       </c>
       <c r="M26" t="s">
-        <v>276</v>
+        <v>752</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
@@ -5909,50 +5920,47 @@
         <v>272</v>
       </c>
       <c r="M27" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>278</v>
-      </c>
-      <c r="M29" t="s">
-        <v>280</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="M28" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
+        <v>277</v>
+      </c>
+      <c r="M30" t="s">
         <v>279</v>
-      </c>
-      <c r="M30" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="M31" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" t="s">
-        <v>62</v>
+        <v>280</v>
       </c>
       <c r="M32" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M33" t="s">
         <v>298</v>
@@ -5960,10 +5968,10 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M34" t="s">
         <v>297</v>
@@ -5971,10 +5979,10 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M35" t="s">
         <v>296</v>
@@ -5982,104 +5990,104 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="M36" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>698</v>
+      </c>
+      <c r="B37" t="s">
         <v>699</v>
       </c>
-      <c r="B36" t="s">
+      <c r="M37" t="s">
         <v>700</v>
       </c>
-      <c r="M36" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>438</v>
+      </c>
+      <c r="M39" t="s">
         <v>439</v>
-      </c>
-      <c r="M38" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>286</v>
-      </c>
-      <c r="M40" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="M41" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M42" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M43" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>287</v>
-      </c>
-      <c r="M45" t="s">
-        <v>441</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>290</v>
+      </c>
+      <c r="M44" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M46" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M47" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
+        <v>291</v>
+      </c>
+      <c r="M48" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>292</v>
+      </c>
+      <c r="M49" t="s">
         <v>293</v>
-      </c>
-      <c r="M48" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>631</v>
-      </c>
-      <c r="B50" t="s">
-        <v>638</v>
-      </c>
-      <c r="M50" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B51" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="M51" t="s">
         <v>636</v>
@@ -6087,108 +6095,108 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>634</v>
+        <v>631</v>
+      </c>
+      <c r="B52" t="s">
+        <v>632</v>
       </c>
       <c r="M52" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>412</v>
-      </c>
-      <c r="M58" t="s">
-        <v>300</v>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>633</v>
+      </c>
+      <c r="M53" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M59" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M60" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" t="s">
-        <v>70</v>
-      </c>
-      <c r="M62" t="s">
-        <v>71</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>410</v>
+      </c>
+      <c r="M61" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" t="s">
+        <v>69</v>
+      </c>
+      <c r="M63" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
         <v>72</v>
       </c>
-      <c r="B63" t="s">
+      <c r="M64" t="s">
         <v>73</v>
-      </c>
-      <c r="M63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>97</v>
-      </c>
-      <c r="B65" t="s">
-        <v>98</v>
-      </c>
-      <c r="M65" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M66" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M67" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>76</v>
-      </c>
-      <c r="B69" t="s">
-        <v>77</v>
-      </c>
-      <c r="M69" t="s">
-        <v>86</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>95</v>
+      </c>
+      <c r="B68" t="s">
+        <v>99</v>
+      </c>
+      <c r="M68" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M70" t="s">
         <v>85</v>
@@ -6196,98 +6204,98 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>78</v>
+      </c>
+      <c r="M71" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" t="s">
         <v>80</v>
       </c>
-      <c r="B71" t="s">
+      <c r="M72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
         <v>81</v>
       </c>
-      <c r="M71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
+      <c r="B74" t="s">
         <v>82</v>
       </c>
-      <c r="B73" t="s">
+      <c r="M74" t="s">
         <v>83</v>
-      </c>
-      <c r="M73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
-        <v>246</v>
-      </c>
-      <c r="B75" t="s">
-        <v>247</v>
-      </c>
-      <c r="M75" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
+        <v>245</v>
+      </c>
+      <c r="B76" t="s">
+        <v>246</v>
+      </c>
+      <c r="M76" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>247</v>
+      </c>
+      <c r="B77" t="s">
         <v>248</v>
       </c>
-      <c r="B76" t="s">
+      <c r="M77" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
         <v>249</v>
       </c>
-      <c r="M76" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
+      <c r="B79" t="s">
         <v>250</v>
       </c>
-      <c r="B78" t="s">
+      <c r="M79" t="s">
         <v>251</v>
-      </c>
-      <c r="M78" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
-        <v>253</v>
-      </c>
-      <c r="B80" t="s">
-        <v>254</v>
-      </c>
-      <c r="M80" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B81" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M81" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="B82" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M82" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="B83" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M83" t="s">
         <v>264</v>
@@ -6295,77 +6303,80 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>328</v>
+        <v>259</v>
       </c>
       <c r="B84" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M84" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
+        <v>327</v>
+      </c>
+      <c r="B85" t="s">
+        <v>260</v>
+      </c>
+      <c r="M85" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>328</v>
+      </c>
+      <c r="B86" t="s">
         <v>329</v>
       </c>
-      <c r="B85" t="s">
-        <v>330</v>
-      </c>
-      <c r="M85" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
+      <c r="M86" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>306</v>
+      </c>
+      <c r="M89" t="s">
         <v>307</v>
-      </c>
-      <c r="M88" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
-        <v>385</v>
-      </c>
-      <c r="M90" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M91" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
-        <v>372</v>
-      </c>
-      <c r="M94" t="s">
-        <v>382</v>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>386</v>
+      </c>
+      <c r="M92" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M95" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M96" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M97" t="s">
         <v>380</v>
@@ -6373,7 +6384,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M98" t="s">
         <v>379</v>
@@ -6381,7 +6392,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M99" t="s">
         <v>378</v>
@@ -6389,50 +6400,50 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>413</v>
+        <v>376</v>
       </c>
       <c r="M100" t="s">
-        <v>414</v>
+        <v>377</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>708</v>
+        <v>412</v>
       </c>
       <c r="M101" t="s">
-        <v>709</v>
+        <v>413</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>627</v>
+        <v>707</v>
       </c>
       <c r="M102" t="s">
-        <v>629</v>
+        <v>708</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
+        <v>626</v>
+      </c>
+      <c r="M103" t="s">
         <v>628</v>
-      </c>
-      <c r="M103" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
+        <v>627</v>
+      </c>
+      <c r="M104" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>643</v>
+      </c>
+      <c r="M105" t="s">
         <v>644</v>
-      </c>
-      <c r="M104" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A106" t="s">
-        <v>511</v>
-      </c>
-      <c r="M106" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
@@ -6440,31 +6451,31 @@
         <v>510</v>
       </c>
       <c r="M107" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A109" t="s">
-        <v>304</v>
-      </c>
-      <c r="M109" t="s">
-        <v>306</v>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>509</v>
+      </c>
+      <c r="M108" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
+        <v>303</v>
+      </c>
+      <c r="M110" t="s">
         <v>305</v>
       </c>
-      <c r="M110" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
-        <v>408</v>
-      </c>
-      <c r="M112" t="s">
-        <v>406</v>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>304</v>
+      </c>
+      <c r="M111" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
@@ -6472,15 +6483,15 @@
         <v>407</v>
       </c>
       <c r="M113" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A115" t="s">
-        <v>239</v>
-      </c>
-      <c r="M115" t="s">
-        <v>236</v>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>406</v>
+      </c>
+      <c r="M114" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
@@ -6488,39 +6499,39 @@
         <v>238</v>
       </c>
       <c r="M116" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M117" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M118" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
+        <v>241</v>
+      </c>
+      <c r="M119" t="s">
         <v>243</v>
       </c>
-      <c r="M119" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A121" t="s">
-        <v>324</v>
-      </c>
-      <c r="M121" t="s">
-        <v>331</v>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A120" t="s">
+        <v>242</v>
+      </c>
+      <c r="M120" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
@@ -6528,127 +6539,135 @@
         <v>323</v>
       </c>
       <c r="M122" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
+        <v>322</v>
+      </c>
+      <c r="M123" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A124" t="s">
+        <v>310</v>
+      </c>
+      <c r="M124" t="s">
         <v>311</v>
-      </c>
-      <c r="M123" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A125" t="s">
-        <v>514</v>
-      </c>
-      <c r="M125" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="M126" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
+        <v>515</v>
+      </c>
+      <c r="M127" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A128" t="s">
+        <v>517</v>
+      </c>
+      <c r="M128" t="s">
         <v>518</v>
-      </c>
-      <c r="M127" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
-        <v>548</v>
-      </c>
-      <c r="M129" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="M130" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A132" t="s">
-        <v>621</v>
-      </c>
-      <c r="M132" t="s">
-        <v>622</v>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>548</v>
+      </c>
+      <c r="M131" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
+        <v>620</v>
+      </c>
+      <c r="M133" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>622</v>
+      </c>
+      <c r="M134" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
         <v>623</v>
       </c>
-      <c r="M133" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A135" t="s">
+      <c r="M136" t="s">
         <v>624</v>
-      </c>
-      <c r="M135" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A137" t="s">
-        <v>740</v>
-      </c>
-      <c r="M137" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="M138" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="M139" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
+        <v>742</v>
+      </c>
+      <c r="M140" t="s">
         <v>744</v>
-      </c>
-      <c r="M140" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="M141" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
+        <v>747</v>
+      </c>
+      <c r="M142" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A143" t="s">
+        <v>748</v>
+      </c>
+      <c r="M143" t="s">
         <v>749</v>
-      </c>
-      <c r="M142" t="s">
-        <v>750</v>
       </c>
     </row>
   </sheetData>
@@ -6724,436 +6743,436 @@
     </row>
     <row r="2" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" t="s">
         <v>108</v>
-      </c>
-      <c r="M7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>194</v>
+      </c>
+      <c r="M13" t="s">
         <v>195</v>
-      </c>
-      <c r="M13" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M17" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M27" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
+        <v>709</v>
+      </c>
+      <c r="M28" t="s">
         <v>710</v>
-      </c>
-      <c r="M28" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M29" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="111" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M33" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="M34" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="M36" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M37" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M39" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="M40" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M41" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="M42" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
+        <v>436</v>
+      </c>
+      <c r="M44" t="s">
         <v>437</v>
-      </c>
-      <c r="M44" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
+        <v>493</v>
+      </c>
+      <c r="M46" t="s">
         <v>494</v>
-      </c>
-      <c r="M46" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M47" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M49" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M50" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="M52" t="s">
         <v>503</v>
-      </c>
-      <c r="M52" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M53" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
+        <v>617</v>
+      </c>
+      <c r="M54" t="s">
         <v>618</v>
-      </c>
-      <c r="M54" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M56" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="M57" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
+        <v>524</v>
+      </c>
+      <c r="M58" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
+        <v>532</v>
+      </c>
+      <c r="M59" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -7229,714 +7248,714 @@
     </row>
     <row r="2" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>560</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>562</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>345</v>
+      </c>
+      <c r="M19" t="s">
         <v>346</v>
-      </c>
-      <c r="M19" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="M21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="M22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="M27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="M29" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="M30" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="M31" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M34" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="M35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="83.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M37" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
+        <v>355</v>
+      </c>
+      <c r="M38" t="s">
         <v>356</v>
-      </c>
-      <c r="M38" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M40" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
+        <v>359</v>
+      </c>
+      <c r="M41" t="s">
         <v>360</v>
-      </c>
-      <c r="M41" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M43" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="M44" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="M45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="M46" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M47" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="M49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M53" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M54" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="M55" t="s">
         <v>468</v>
-      </c>
-      <c r="M55" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M56" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M57" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
+        <v>528</v>
+      </c>
+      <c r="M58" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
+        <v>461</v>
+      </c>
+      <c r="M59" t="s">
         <v>462</v>
-      </c>
-      <c r="M59" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
+        <v>575</v>
+      </c>
+      <c r="M61" t="s">
         <v>576</v>
-      </c>
-      <c r="M61" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M62" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M64" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M65" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M71" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M72" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M73" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M74" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M75" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M78" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M79" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M81" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M82" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M83" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M84" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M86" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M87" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M88" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M89" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M90" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M91" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M92" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M93" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M94" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
@@ -8012,538 +8031,538 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="M2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>308</v>
+      </c>
+      <c r="M13" t="s">
         <v>309</v>
-      </c>
-      <c r="M13" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M16" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="M18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="177" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>325</v>
+      </c>
+      <c r="M20" t="s">
         <v>326</v>
-      </c>
-      <c r="M20" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
+        <v>227</v>
+      </c>
+      <c r="M22" t="s">
         <v>228</v>
-      </c>
-      <c r="M22" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M23" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
+        <v>137</v>
+      </c>
+      <c r="M24" t="s">
         <v>138</v>
-      </c>
-      <c r="M24" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M52" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
+        <v>543</v>
+      </c>
+      <c r="M55" t="s">
         <v>544</v>
-      </c>
-      <c r="M55" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
+        <v>207</v>
+      </c>
+      <c r="M56" t="s">
         <v>208</v>
-      </c>
-      <c r="M56" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="M59" t="s">
         <v>719</v>
-      </c>
-      <c r="M59" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="M60" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M68" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="M69" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>
@@ -8619,618 +8638,618 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>231</v>
+      </c>
+      <c r="M3" t="s">
         <v>232</v>
-      </c>
-      <c r="M3" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M8" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="M11" t="s">
         <v>150</v>
-      </c>
-      <c r="M11" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="M14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M15" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="M16" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" t="s">
         <v>157</v>
-      </c>
-      <c r="M17" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>158</v>
+      </c>
+      <c r="M18" t="s">
         <v>159</v>
-      </c>
-      <c r="M18" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M20" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
+        <v>162</v>
+      </c>
+      <c r="M21" t="s">
         <v>163</v>
-      </c>
-      <c r="M21" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M23" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
+        <v>369</v>
+      </c>
+      <c r="M25" t="s">
         <v>370</v>
-      </c>
-      <c r="M25" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" t="s">
         <v>213</v>
-      </c>
-      <c r="M27" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="111.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M29" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
+        <v>215</v>
+      </c>
+      <c r="M30" t="s">
         <v>216</v>
-      </c>
-      <c r="M30" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M32" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
+        <v>314</v>
+      </c>
+      <c r="M33" t="s">
         <v>315</v>
-      </c>
-      <c r="M33" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="M42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M44" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
+        <v>183</v>
+      </c>
+      <c r="M46" t="s">
         <v>184</v>
-      </c>
-      <c r="M46" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
+        <v>185</v>
+      </c>
+      <c r="M47" t="s">
         <v>186</v>
-      </c>
-      <c r="M47" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
+        <v>219</v>
+      </c>
+      <c r="M54" t="s">
         <v>220</v>
-      </c>
-      <c r="M54" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="284.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="243.75" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="150" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
+        <v>491</v>
+      </c>
+      <c r="M59" t="s">
         <v>492</v>
-      </c>
-      <c r="M59" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
+        <v>545</v>
+      </c>
+      <c r="M60" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
+        <v>367</v>
+      </c>
+      <c r="M61" t="s">
         <v>368</v>
-      </c>
-      <c r="M61" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
+        <v>469</v>
+      </c>
+      <c r="M63" t="s">
         <v>470</v>
-      </c>
-      <c r="M63" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M64" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
+        <v>472</v>
+      </c>
+      <c r="M65" t="s">
         <v>473</v>
-      </c>
-      <c r="M65" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M66" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M68" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M69" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M70" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M71" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M75" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M76" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M77" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M78" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54857D93-8459-4635-B22A-A5AED55DF3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DBC279-4997-49C3-AEC3-84678B17BFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3540" yWindow="3705" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -5613,7 +5613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+    <sheetView topLeftCell="D15" workbookViewId="0">
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
@@ -8576,8 +8576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="M80" sqref="M80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DBC279-4997-49C3-AEC3-84678B17BFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB12154-E30D-463A-AC84-489FC4BC3AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3705" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="756">
   <si>
     <t>English</t>
   </si>
@@ -5280,6 +5280,23 @@
   </si>
   <si>
     <t>メッドベイのスキャンを同時使用できるか</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CarrierCarryDistance</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャリーが発動できる死体からの距離</t>
+    <rPh sb="5" eb="7">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キョリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7184,10 +7201,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131ED9DB-7094-4FCA-8832-3F1005AB8270}">
-  <dimension ref="A1:Q95"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="M76" sqref="M76"/>
+    <sheetView tabSelected="1" topLeftCell="B48" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7647,56 +7664,56 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A55" s="1" t="s">
+      <c r="A55" t="s">
+        <v>754</v>
+      </c>
+      <c r="M55" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M56" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>459</v>
-      </c>
-      <c r="M56" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
+        <v>459</v>
+      </c>
+      <c r="M57" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
         <v>460</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M58" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
+    <row r="59" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
         <v>528</v>
       </c>
-      <c r="M58" s="2" t="s">
+      <c r="M59" s="2" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
         <v>461</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M60" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
         <v>575</v>
-      </c>
-      <c r="M61" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A62" s="1" t="s">
-        <v>574</v>
       </c>
       <c r="M62" t="s">
         <v>576</v>
@@ -7704,127 +7721,127 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="M63" t="s">
-        <v>109</v>
+        <v>576</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M64" t="s">
-        <v>430</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="M65" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M66" t="s">
-        <v>110</v>
+        <v>431</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M67" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M68" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M69" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M70" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M71" t="s">
-        <v>577</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M72" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="M73" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M74" t="s">
         <v>579</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
-        <v>581</v>
-      </c>
-      <c r="M74" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M75" t="s">
-        <v>584</v>
+        <v>612</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
+        <v>582</v>
+      </c>
+      <c r="M76" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="131.25" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
         <v>583</v>
       </c>
-      <c r="M76" s="2" t="s">
+      <c r="M77" s="2" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
         <v>599</v>
-      </c>
-      <c r="M78" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A79" s="1" t="s">
-        <v>598</v>
       </c>
       <c r="M79" t="s">
         <v>597</v>
@@ -7832,129 +7849,137 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="M80" t="s">
-        <v>109</v>
+        <v>597</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M81" t="s">
-        <v>430</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M82" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M83" t="s">
-        <v>110</v>
+        <v>431</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M84" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M85" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M86" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M87" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M88" t="s">
-        <v>600</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M89" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M90" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M91" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="M92" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M93" t="s">
         <v>604</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
-        <v>606</v>
-      </c>
-      <c r="M93" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M94" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
+        <v>607</v>
+      </c>
+      <c r="M95" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
         <v>608</v>
       </c>
-      <c r="M95" s="2" t="s">
+      <c r="M96" s="2" t="s">
         <v>611</v>
       </c>
     </row>
@@ -8576,7 +8601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="M80" sqref="M80"/>
     </sheetView>
   </sheetViews>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB12154-E30D-463A-AC84-489FC4BC3AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8535A722-FCE6-4AF2-B14F-AE2443A77D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="758">
   <si>
     <t>English</t>
   </si>
@@ -1593,38 +1593,6 @@
   </si>
   <si>
     <t>AliceRevartNormalTaskNum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>破壊工作によって巻き戻るロングタクスの数</t>
-    <rPh sb="0" eb="4">
-      <t>ハカイコウサク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>破壊工作によって巻き戻るショートタクスの数</t>
-    <rPh sb="0" eb="4">
-      <t>ハカイコウサク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カズ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4795,25 +4763,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>破壊工作によって巻き戻る通常タクスの数</t>
-    <rPh sb="0" eb="4">
-      <t>ハカイコウサク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TaskMasterAddNormalTaskNum</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5296,6 +5245,68 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破壊工作によって巻き戻る通常タスクの数</t>
+    <rPh sb="0" eb="4">
+      <t>ハカイコウサク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破壊工作によって巻き戻るロングタスクの数</t>
+    <rPh sb="0" eb="4">
+      <t>ハカイコウサク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破壊工作によって巻き戻るショートタスクの数</t>
+    <rPh sb="0" eb="4">
+      <t>ハカイコウサク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>youDonotUse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あなたにはアクセス権限がありません</t>
+    <rPh sb="9" eb="11">
+      <t>ケンゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5628,10 +5639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q143"/>
+  <dimension ref="A1:Q145"/>
   <sheetViews>
-    <sheetView topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="C126" workbookViewId="0">
+      <selection activeCell="M145" sqref="M145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5902,7 +5913,7 @@
         <v>53</v>
       </c>
       <c r="M23" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
@@ -5926,10 +5937,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="M26" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
@@ -6018,21 +6029,21 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
+        <v>696</v>
+      </c>
+      <c r="B37" t="s">
+        <v>697</v>
+      </c>
+      <c r="M37" t="s">
         <v>698</v>
-      </c>
-      <c r="B37" t="s">
-        <v>699</v>
-      </c>
-      <c r="M37" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M39" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
@@ -6040,7 +6051,7 @@
         <v>285</v>
       </c>
       <c r="M41" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
@@ -6048,7 +6059,7 @@
         <v>287</v>
       </c>
       <c r="M42" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
@@ -6056,7 +6067,7 @@
         <v>288</v>
       </c>
       <c r="M43" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
@@ -6072,7 +6083,7 @@
         <v>286</v>
       </c>
       <c r="M46" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
@@ -6080,7 +6091,7 @@
         <v>289</v>
       </c>
       <c r="M47" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
@@ -6088,7 +6099,7 @@
         <v>291</v>
       </c>
       <c r="M48" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
@@ -6101,37 +6112,37 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B51" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="M51" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B52" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="M52" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="M53" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M59" t="s">
         <v>299</v>
@@ -6139,7 +6150,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M60" t="s">
         <v>300</v>
@@ -6147,7 +6158,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M61" t="s">
         <v>301</v>
@@ -6331,7 +6342,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B85" t="s">
         <v>260</v>
@@ -6342,13 +6353,13 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B86" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M86" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
@@ -6361,122 +6372,122 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M91" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M92" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M95" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M96" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M97" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M98" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M99" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M100" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="M101" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="M102" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
+        <v>624</v>
+      </c>
+      <c r="M103" t="s">
         <v>626</v>
-      </c>
-      <c r="M103" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
+        <v>625</v>
+      </c>
+      <c r="M104" t="s">
         <v>627</v>
-      </c>
-      <c r="M104" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="M105" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M107" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="M108" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
@@ -6492,23 +6503,23 @@
         <v>304</v>
       </c>
       <c r="M111" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="M113" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
+        <v>404</v>
+      </c>
+      <c r="M114" t="s">
         <v>406</v>
-      </c>
-      <c r="M114" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
@@ -6553,18 +6564,18 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M122" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
+        <v>320</v>
+      </c>
+      <c r="M123" t="s">
         <v>322</v>
-      </c>
-      <c r="M123" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
@@ -6577,114 +6588,122 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="M126" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M127" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="M128" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="M130" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="M131" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="M133" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="M134" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="M136" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="M138" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="M139" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="M140" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="M141" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="M142" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="M143" t="s">
-        <v>749</v>
+        <v>746</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
+        <v>756</v>
+      </c>
+      <c r="M145" t="s">
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -6760,26 +6779,26 @@
     </row>
     <row r="2" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>554</v>
+      </c>
+      <c r="M3" t="s">
         <v>556</v>
-      </c>
-      <c r="M3" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>555</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>557</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6812,7 +6831,7 @@
         <v>104</v>
       </c>
       <c r="M9" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -6820,7 +6839,7 @@
         <v>105</v>
       </c>
       <c r="M10" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
@@ -6849,31 +6868,31 @@
     </row>
     <row r="14" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M16" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M18" t="s">
         <v>109</v>
@@ -6881,23 +6900,23 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M19" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M20" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M21" t="s">
         <v>110</v>
@@ -6905,7 +6924,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M22" t="s">
         <v>122</v>
@@ -6913,7 +6932,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M23" t="s">
         <v>121</v>
@@ -6921,7 +6940,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M24" t="s">
         <v>123</v>
@@ -6929,7 +6948,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M25" t="s">
         <v>124</v>
@@ -6937,72 +6956,72 @@
     </row>
     <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M26" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M27" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M28" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M29" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M30" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="111" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="M33" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M34" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M35" t="s">
         <v>109</v>
@@ -7010,23 +7029,23 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M36" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M37" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M38" t="s">
         <v>110</v>
@@ -7034,71 +7053,71 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M39" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="M40" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M41" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="M42" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M44" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M46" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="M47" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="M48" t="s">
         <v>109</v>
@@ -7106,23 +7125,23 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="M49" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M50" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M51" t="s">
         <v>110</v>
@@ -7130,66 +7149,66 @@
     </row>
     <row r="52" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M52" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="M53" t="s">
         <v>504</v>
-      </c>
-      <c r="M53" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="M54" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="M55" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M56" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="M57" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -7203,7 +7222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131ED9DB-7094-4FCA-8832-3F1005AB8270}">
   <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B48" workbookViewId="0">
+    <sheetView topLeftCell="B48" workbookViewId="0">
       <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
@@ -7265,18 +7284,18 @@
     </row>
     <row r="2" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -7308,7 +7327,7 @@
         <v>113</v>
       </c>
       <c r="M8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
@@ -7316,7 +7335,7 @@
         <v>114</v>
       </c>
       <c r="M9" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
@@ -7377,31 +7396,31 @@
     </row>
     <row r="17" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M19" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="M20" t="s">
         <v>344</v>
-      </c>
-      <c r="M20" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M21" t="s">
         <v>109</v>
@@ -7409,23 +7428,23 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M22" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M23" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M24" t="s">
         <v>110</v>
@@ -7433,7 +7452,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M25" t="s">
         <v>122</v>
@@ -7441,7 +7460,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M26" t="s">
         <v>121</v>
@@ -7449,7 +7468,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M27" t="s">
         <v>123</v>
@@ -7457,7 +7476,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M28" t="s">
         <v>124</v>
@@ -7465,127 +7484,127 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M29" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M30" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="M31" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="M32" t="s">
         <v>363</v>
-      </c>
-      <c r="M32" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="M33" t="s">
         <v>364</v>
-      </c>
-      <c r="M33" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M34" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M35" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="83.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M36" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="M37" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M38" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="M40" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="M41" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M43" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M44" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M45" t="s">
         <v>109</v>
@@ -7593,23 +7612,23 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M46" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M47" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="M48" t="s">
         <v>110</v>
@@ -7617,7 +7636,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="M49" t="s">
         <v>122</v>
@@ -7625,7 +7644,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M50" t="s">
         <v>121</v>
@@ -7633,7 +7652,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M51" t="s">
         <v>123</v>
@@ -7641,7 +7660,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M52" t="s">
         <v>124</v>
@@ -7649,87 +7668,87 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M53" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M54" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="M55" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M56" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M57" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M58" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="M60" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="M62" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="M63" t="s">
         <v>574</v>
-      </c>
-      <c r="M63" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M64" t="s">
         <v>109</v>
@@ -7737,23 +7756,23 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M65" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M66" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M67" t="s">
         <v>110</v>
@@ -7761,7 +7780,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M68" t="s">
         <v>122</v>
@@ -7769,7 +7788,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M69" t="s">
         <v>121</v>
@@ -7777,7 +7796,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="M70" t="s">
         <v>123</v>
@@ -7785,7 +7804,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="M71" t="s">
         <v>124</v>
@@ -7793,71 +7812,71 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="M72" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="M73" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="M74" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M75" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
+        <v>580</v>
+      </c>
+      <c r="M76" t="s">
         <v>582</v>
-      </c>
-      <c r="M76" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="M79" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="M80" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M81" t="s">
         <v>109</v>
@@ -7865,23 +7884,23 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="M82" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M83" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="M84" t="s">
         <v>110</v>
@@ -7889,7 +7908,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M85" t="s">
         <v>122</v>
@@ -7897,7 +7916,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M86" t="s">
         <v>121</v>
@@ -7905,7 +7924,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="M87" t="s">
         <v>123</v>
@@ -7913,7 +7932,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="M88" t="s">
         <v>124</v>
@@ -7921,66 +7940,66 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="M89" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M90" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="M91" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="M92" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="M93" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="M94" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="M95" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
@@ -7994,8 +8013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445F46B3-1A86-46EF-9440-E5378C8C2CDD}">
   <dimension ref="A1:Q70"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8083,7 +8102,7 @@
         <v>127</v>
       </c>
       <c r="M5" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -8091,7 +8110,7 @@
         <v>128</v>
       </c>
       <c r="M6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
@@ -8155,7 +8174,7 @@
         <v>317</v>
       </c>
       <c r="M14" t="s">
-        <v>321</v>
+        <v>755</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
@@ -8163,7 +8182,7 @@
         <v>318</v>
       </c>
       <c r="M15" t="s">
-        <v>320</v>
+        <v>754</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
@@ -8171,7 +8190,7 @@
         <v>319</v>
       </c>
       <c r="M16" t="s">
-        <v>726</v>
+        <v>753</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -8192,18 +8211,18 @@
     </row>
     <row r="19" spans="1:13" ht="177" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M20" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
@@ -8216,7 +8235,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M23" t="s">
         <v>229</v>
@@ -8232,90 +8251,90 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
@@ -8323,127 +8342,127 @@
         <v>284</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -8464,18 +8483,18 @@
     </row>
     <row r="54" spans="1:13" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M55" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
@@ -8488,106 +8507,106 @@
     </row>
     <row r="57" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="M59" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="M60" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
+        <v>725</v>
+      </c>
+      <c r="M68" t="s">
         <v>728</v>
-      </c>
-      <c r="M68" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
+        <v>726</v>
+      </c>
+      <c r="M69" t="s">
         <v>729</v>
-      </c>
-      <c r="M69" t="s">
-        <v>732</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
+        <v>727</v>
+      </c>
+      <c r="M70" s="2" t="s">
         <v>730</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>733</v>
       </c>
     </row>
   </sheetData>
@@ -8682,7 +8701,7 @@
         <v>139</v>
       </c>
       <c r="M4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
@@ -8706,7 +8725,7 @@
         <v>143</v>
       </c>
       <c r="M7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
@@ -8714,7 +8733,7 @@
         <v>145</v>
       </c>
       <c r="M8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
@@ -8759,26 +8778,26 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="M14" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="M15" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="M16" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -8802,7 +8821,7 @@
         <v>160</v>
       </c>
       <c r="M19" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
@@ -8810,7 +8829,7 @@
         <v>161</v>
       </c>
       <c r="M20" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
@@ -8847,10 +8866,10 @@
     </row>
     <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
@@ -8871,10 +8890,10 @@
     </row>
     <row r="28" spans="1:13" ht="111.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -8895,10 +8914,10 @@
     </row>
     <row r="31" spans="1:13" ht="262.5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -8906,7 +8925,7 @@
         <v>312</v>
       </c>
       <c r="M32" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
@@ -8986,7 +9005,7 @@
         <v>180</v>
       </c>
       <c r="M43" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
@@ -8994,7 +9013,7 @@
         <v>181</v>
       </c>
       <c r="M44" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
@@ -9079,95 +9098,95 @@
     </row>
     <row r="55" spans="1:13" ht="284.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="243.75" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="150" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="M59" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M61" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="M63" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="M64" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M65" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M66" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M67" t="s">
         <v>140</v>
@@ -9175,7 +9194,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M68" t="s">
         <v>178</v>
@@ -9183,7 +9202,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M69" t="s">
         <v>179</v>
@@ -9191,23 +9210,23 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M70" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M71" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M72" t="s">
         <v>110</v>
@@ -9215,7 +9234,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M73" t="s">
         <v>122</v>
@@ -9223,7 +9242,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="M74" t="s">
         <v>121</v>
@@ -9231,7 +9250,7 @@
     </row>
     <row r="75" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M75" t="s">
         <v>123</v>
@@ -9239,7 +9258,7 @@
     </row>
     <row r="76" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="M76" t="s">
         <v>124</v>
@@ -9247,34 +9266,34 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
+        <v>484</v>
+      </c>
+      <c r="M77" t="s">
         <v>486</v>
-      </c>
-      <c r="M77" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
+        <v>485</v>
+      </c>
+      <c r="M78" t="s">
         <v>487</v>
-      </c>
-      <c r="M78" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8535A722-FCE6-4AF2-B14F-AE2443A77D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAEAF77-F38E-4139-8BE7-A24D7B6421B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -4238,164 +4238,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>インポスター陣営に新しい勝利条件を追加するインポスター役職
-マーリンと一対の関係である。
-マーリンがアサインされない場合、この役職もアサインされない
-新しい勝利条件：アサシンの特殊能力でマーリンを当てる
-アサシンの特殊能力：特殊会議「マーリンは誰だ？」
-特殊会議「マーリンは誰だ？」：
-　全員が参加するが能力を発動させたアサシン以外投票不可
-　スキップ不可、チャット不可、死亡している人にも投票可
-　投票先がマーリンであればインポスター勝利、それ以外の
-　場合、ゲームが続行(マーリンの能力は継続)
-特殊能力発動条件：追放された場合、自身がキルされた場合の
-処理は設定により変化する
-上記の能力以外は普通のインポスターのため、マーリンを
-探りつつ潜伏し、キルを行う必要がある</t>
-    <rPh sb="6" eb="8">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>ショウリジョウケン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="88" eb="92">
-      <t>トクシュノウリョク</t>
-    </rPh>
-    <rPh sb="98" eb="99">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="107" eb="111">
-      <t>トク</t>
-    </rPh>
-    <rPh sb="112" eb="114">
-      <t>トクシュ</t>
-    </rPh>
-    <rPh sb="114" eb="116">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="122" eb="123">
-      <t>ダレ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>ゼンイン</t>
-    </rPh>
-    <rPh sb="147" eb="149">
-      <t>サンカ</t>
-    </rPh>
-    <rPh sb="152" eb="154">
-      <t>ノウリョク</t>
-    </rPh>
-    <rPh sb="155" eb="157">
-      <t>ハツドウ</t>
-    </rPh>
-    <rPh sb="164" eb="166">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="166" eb="168">
-      <t>トウヒョウ</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="176" eb="178">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="183" eb="185">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="186" eb="188">
-      <t>シボウ</t>
-    </rPh>
-    <rPh sb="192" eb="193">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="195" eb="197">
-      <t>トウヒョウ</t>
-    </rPh>
-    <rPh sb="197" eb="198">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="200" eb="202">
-      <t>トウヒョウ</t>
-    </rPh>
-    <rPh sb="202" eb="203">
-      <t>サキ</t>
-    </rPh>
-    <rPh sb="218" eb="220">
-      <t>ショウリ</t>
-    </rPh>
-    <rPh sb="223" eb="225">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="228" eb="230">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="235" eb="237">
-      <t>ゾッコウ</t>
-    </rPh>
-    <rPh sb="243" eb="245">
-      <t>ノウリョク</t>
-    </rPh>
-    <rPh sb="246" eb="248">
-      <t>ケイゾク</t>
-    </rPh>
-    <rPh sb="250" eb="254">
-      <t>トクシュ</t>
-    </rPh>
-    <rPh sb="254" eb="258">
-      <t>ハツドウジョウケン</t>
-    </rPh>
-    <rPh sb="259" eb="261">
-      <t>ツイホウ</t>
-    </rPh>
-    <rPh sb="264" eb="266">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="275" eb="277">
-      <t>バアイショリ</t>
-    </rPh>
-    <rPh sb="287" eb="289">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="292" eb="294">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="295" eb="297">
-      <t>ノウリョク</t>
-    </rPh>
-    <rPh sb="297" eb="299">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="300" eb="302">
-      <t>フツウ</t>
-    </rPh>
-    <rPh sb="319" eb="320">
-      <t>サグ</t>
-    </rPh>
-    <rPh sb="323" eb="325">
-      <t>センプク</t>
-    </rPh>
-    <rPh sb="330" eb="331">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="332" eb="334">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Surrender</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5307,6 +5149,172 @@
     <t>あなたにはアクセス権限がありません</t>
     <rPh sb="9" eb="11">
       <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インポスター陣営に新しい勝利条件を追加するインポスター役職
+マーリンと一対の関係である。
+マーリンがアサインされない場合、この役職もアサインされない
+新しい勝利条件：アサシンの特殊能力でマーリンを当てる
+アサシンの特殊能力：特殊会議「マーリンは誰だ？」
+特殊会議「マーリンは誰だ？」：
+　全員が参加するが能力を発動させたアサシン以外投票不可
+　スキップ不可、死亡している人にも投票可
+　チャットはインポスターだけ使用可能で死亡しているインポ
+　スターのチャットも見ることが可能です
+　投票先がマーリンであればインポスター勝利、それ以外の
+　場合、ゲームが続行(マーリンの能力は継続)
+特殊能力発動条件：追放された場合、自身がキルされた場合の
+処理は設定により変化する
+上記の能力以外は普通のインポスターのため、マーリンを
+探りつつ潜伏し、キルを行う必要がある</t>
+    <rPh sb="6" eb="8">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ショウリジョウケン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="88" eb="92">
+      <t>トクシュノウリョク</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="107" eb="111">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="122" eb="123">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>サンカ</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="179" eb="181">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="185" eb="186">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="188" eb="190">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="190" eb="191">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="206" eb="210">
+      <t>シヨウカノウ</t>
+    </rPh>
+    <rPh sb="211" eb="213">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="231" eb="232">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="236" eb="238">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="242" eb="244">
+      <t>トウヒョウ</t>
+    </rPh>
+    <rPh sb="244" eb="245">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="260" eb="262">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="265" eb="267">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="275" eb="277">
+      <t>ゾッコウ</t>
+    </rPh>
+    <rPh sb="283" eb="285">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="286" eb="288">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="290" eb="294">
+      <t>トクシュ</t>
+    </rPh>
+    <rPh sb="294" eb="298">
+      <t>ハツドウジョウケン</t>
+    </rPh>
+    <rPh sb="299" eb="301">
+      <t>ツイホウ</t>
+    </rPh>
+    <rPh sb="304" eb="306">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="315" eb="317">
+      <t>バアイショリ</t>
+    </rPh>
+    <rPh sb="327" eb="329">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="332" eb="334">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="335" eb="337">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="337" eb="339">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="340" eb="342">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="359" eb="360">
+      <t>サグ</t>
+    </rPh>
+    <rPh sb="363" eb="365">
+      <t>センプク</t>
+    </rPh>
+    <rPh sb="370" eb="371">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="372" eb="374">
+      <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5641,7 +5649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C126" workbookViewId="0">
+    <sheetView topLeftCell="C126" workbookViewId="0">
       <selection activeCell="M145" sqref="M145"/>
     </sheetView>
   </sheetViews>
@@ -5913,7 +5921,7 @@
         <v>53</v>
       </c>
       <c r="M23" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
@@ -5937,10 +5945,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
+        <v>747</v>
+      </c>
+      <c r="M26" t="s">
         <v>748</v>
-      </c>
-      <c r="M26" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
@@ -6029,13 +6037,13 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
+        <v>695</v>
+      </c>
+      <c r="B37" t="s">
         <v>696</v>
       </c>
-      <c r="B37" t="s">
+      <c r="M37" t="s">
         <v>697</v>
-      </c>
-      <c r="M37" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
@@ -6444,10 +6452,10 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
+        <v>704</v>
+      </c>
+      <c r="M102" t="s">
         <v>705</v>
-      </c>
-      <c r="M102" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
@@ -6468,10 +6476,10 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
+        <v>640</v>
+      </c>
+      <c r="M105" t="s">
         <v>641</v>
-      </c>
-      <c r="M105" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
@@ -6652,58 +6660,58 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="M138" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
+        <v>736</v>
+      </c>
+      <c r="M139" t="s">
         <v>737</v>
-      </c>
-      <c r="M139" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="M140" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="M141" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="M142" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
+        <v>744</v>
+      </c>
+      <c r="M143" t="s">
         <v>745</v>
-      </c>
-      <c r="M143" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
+        <v>755</v>
+      </c>
+      <c r="M145" t="s">
         <v>756</v>
-      </c>
-      <c r="M145" t="s">
-        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -6782,7 +6790,7 @@
         <v>553</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
@@ -6972,10 +6980,10 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
+        <v>706</v>
+      </c>
+      <c r="M28" t="s">
         <v>707</v>
-      </c>
-      <c r="M28" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
@@ -6999,7 +7007,7 @@
         <v>518</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7222,7 +7230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131ED9DB-7094-4FCA-8832-3F1005AB8270}">
   <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView topLeftCell="B48" workbookViewId="0">
+    <sheetView topLeftCell="B78" workbookViewId="0">
       <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
@@ -7684,10 +7692,10 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
+        <v>750</v>
+      </c>
+      <c r="M55" t="s">
         <v>751</v>
-      </c>
-      <c r="M55" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
@@ -7986,7 +7994,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="96" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>605</v>
       </c>
@@ -8174,7 +8182,7 @@
         <v>317</v>
       </c>
       <c r="M14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
@@ -8182,7 +8190,7 @@
         <v>318</v>
       </c>
       <c r="M15" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
@@ -8190,7 +8198,7 @@
         <v>319</v>
       </c>
       <c r="M16" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -8214,7 +8222,7 @@
         <v>528</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
@@ -8251,90 +8259,90 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
@@ -8342,127 +8350,127 @@
         <v>284</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
@@ -8515,98 +8523,98 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="M59" t="s">
         <v>716</v>
-      </c>
-      <c r="M59" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="M60" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="M68" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M69" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
   </sheetData>
@@ -8620,8 +8628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="M80" sqref="M80"/>
+    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8778,26 +8786,26 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="M14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M15" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M16" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -8912,12 +8920,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="262.5" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" ht="309" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>533</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>640</v>
+        <v>757</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -9285,7 +9293,7 @@
         <v>538</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
@@ -9293,7 +9301,7 @@
         <v>539</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAEAF77-F38E-4139-8BE7-A24D7B6421B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD64883D-0316-4203-AFBB-4DEF92B5D7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1680" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -5161,8 +5161,8 @@
 特殊会議「マーリンは誰だ？」：
 　全員が参加するが能力を発動させたアサシン以外投票不可
 　スキップ不可、死亡している人にも投票可
-　チャットはインポスターだけ使用可能で死亡しているインポ
-　スターのチャットも見ることが可能です
+　チャットは生存しているインポスターと会議を起こした
+　アサシンのみ間で可能です
 　投票先がマーリンであればインポスター勝利、それ以外の
 　場合、ゲームが続行(マーリンの能力は継続)
 特殊能力発動条件：追放された場合、自身がキルされた場合の
@@ -5241,79 +5241,82 @@
     <rPh sb="190" eb="191">
       <t>カ</t>
     </rPh>
-    <rPh sb="206" eb="210">
-      <t>シヨウカノウ</t>
+    <rPh sb="198" eb="200">
+      <t>セイゾン</t>
     </rPh>
     <rPh sb="211" eb="213">
-      <t>シボウ</t>
-    </rPh>
-    <rPh sb="231" eb="232">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="236" eb="238">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="214" eb="215">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="226" eb="227">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="228" eb="230">
       <t>カノウ</t>
     </rPh>
-    <rPh sb="242" eb="244">
+    <rPh sb="234" eb="236">
       <t>トウヒョウ</t>
     </rPh>
-    <rPh sb="244" eb="245">
+    <rPh sb="236" eb="237">
       <t>サキ</t>
     </rPh>
-    <rPh sb="260" eb="262">
+    <rPh sb="252" eb="254">
       <t>ショウリ</t>
     </rPh>
-    <rPh sb="265" eb="267">
+    <rPh sb="257" eb="259">
       <t>イガイ</t>
     </rPh>
+    <rPh sb="267" eb="269">
+      <t>ゾッコウ</t>
+    </rPh>
     <rPh sb="275" eb="277">
-      <t>ゾッコウ</t>
-    </rPh>
-    <rPh sb="283" eb="285">
       <t>ノウリョク</t>
     </rPh>
-    <rPh sb="286" eb="288">
+    <rPh sb="278" eb="280">
       <t>ケイゾク</t>
     </rPh>
-    <rPh sb="290" eb="294">
+    <rPh sb="282" eb="286">
       <t>トクシュ</t>
     </rPh>
-    <rPh sb="294" eb="298">
+    <rPh sb="286" eb="290">
       <t>ハツドウジョウケン</t>
     </rPh>
-    <rPh sb="299" eb="301">
+    <rPh sb="291" eb="293">
       <t>ツイホウ</t>
     </rPh>
-    <rPh sb="304" eb="306">
+    <rPh sb="296" eb="298">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="315" eb="317">
+    <rPh sb="307" eb="309">
       <t>バアイショリ</t>
     </rPh>
+    <rPh sb="319" eb="321">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="324" eb="326">
+      <t>ジョウキ</t>
+    </rPh>
     <rPh sb="327" eb="329">
-      <t>ヘンカ</t>
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="329" eb="331">
+      <t>イガイ</t>
     </rPh>
     <rPh sb="332" eb="334">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="335" eb="337">
-      <t>ノウリョク</t>
-    </rPh>
-    <rPh sb="337" eb="339">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="340" eb="342">
       <t>フツウ</t>
     </rPh>
-    <rPh sb="359" eb="360">
+    <rPh sb="351" eb="352">
       <t>サグ</t>
     </rPh>
-    <rPh sb="363" eb="365">
+    <rPh sb="355" eb="357">
       <t>センプク</t>
     </rPh>
-    <rPh sb="370" eb="371">
+    <rPh sb="362" eb="363">
       <t>オコナ</t>
     </rPh>
-    <rPh sb="372" eb="374">
+    <rPh sb="364" eb="366">
       <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -8628,8 +8631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD64883D-0316-4203-AFBB-4DEF92B5D7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDCAD9E-004B-44DB-B583-DC08A1611F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="779">
   <si>
     <t>English</t>
   </si>
@@ -5320,6 +5320,161 @@
       <t>ヒツヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WatchdogRoleNum</t>
+  </si>
+  <si>
+    <t>WatchdogHasOtherVison</t>
+  </si>
+  <si>
+    <t>WatchdogVison</t>
+  </si>
+  <si>
+    <t>WatchdogApplyEnvironmentVisionEffect</t>
+  </si>
+  <si>
+    <t>WatchdogAbilityCoolTime</t>
+  </si>
+  <si>
+    <t>WatchdogSpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Watchdog</t>
+  </si>
+  <si>
+    <t>ウォッチドッグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティとログのクールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>充電の持続時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウデン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ジゾクジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WatchdogAbilityActiveTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WatchdogIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WatchdogShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WatchdogFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティカメラやドアログがいつでも使えるクルー役職
+Mira HQの場合はドアログ、それ以外はセキュリティカメラになる
+使用には時間制限があり、使用する毎に時間制限は短くなる
+時間制限はクールタイムが終了するか、タスクを終了させる
+ことで役職に設定された充電の持続時間まで回復する</t>
+    <rPh sb="19" eb="20">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="80" eb="84">
+      <t>ジカンセイ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="90" eb="94">
+      <t>ジカンセイゲン</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="129" eb="131">
+      <t>ジュウデン</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ジゾク</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>doorLog</t>
+  </si>
+  <si>
+    <t>securityCamera</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティカメラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドアのログ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリティカメラやドアログで、船員達を監視せよ</t>
+    <rPh sb="16" eb="18">
+      <t>センイン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タチ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船員達を監視して、怪しい奴を見つけ出せ</t>
   </si>
 </sst>
 </file>
@@ -6726,10 +6881,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
-  <dimension ref="A1:Q59"/>
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7220,6 +7375,110 @@
       </c>
       <c r="M59" s="2" t="s">
         <v>531</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>764</v>
+      </c>
+      <c r="M61" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="M62" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="M63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="M64" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="M65" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="M66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="M67" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="M68" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>769</v>
+      </c>
+      <c r="M69" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>770</v>
+      </c>
+      <c r="M70" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>771</v>
+      </c>
+      <c r="M71" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>774</v>
+      </c>
+      <c r="M72" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>773</v>
+      </c>
+      <c r="M73" t="s">
+        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -8631,7 +8890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+    <sheetView topLeftCell="B31" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACDCAD9E-004B-44DB-B583-DC08A1611F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC18E78-69F8-4F7D-A026-A61ABFB501E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="794">
   <si>
     <t>English</t>
   </si>
@@ -5475,6 +5475,158 @@
   </si>
   <si>
     <t>船員達を監視して、怪しい奴を見つけ出せ</t>
+  </si>
+  <si>
+    <t>アドミンの使用時間</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドミン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Supervisor</t>
+  </si>
+  <si>
+    <t>SupervisorSpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SupervisorRoleNum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SupervisorHasOtherVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SupervisorVison</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SupervisorApplyEnvironmentVisionEffect</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SupervisorAbilityCoolTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SupervisorAbilityActiveTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スーパーバイザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Admin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「アドミン」がいつでも使えるクルー役職
+使用には時間制限があり、使用する毎に時間制限は短くなる
+時間制限はクールタイムが終了するか、タスクを終了させる
+ことで役職に設定された充電の持続時間まで回復する</t>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>ジカンセイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ミジカ</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>ジカンセイゲン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="82" eb="84">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ジュウデン</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>ジゾク</t>
+    </rPh>
+    <rPh sb="92" eb="94">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="96" eb="98">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>監督者として、船員達の位置情報を収集せよ</t>
+    <rPh sb="0" eb="2">
+      <t>カントク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュウシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アドミンで、船員達の位置情報を洗い出せ</t>
+    <rPh sb="6" eb="8">
+      <t>センイン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タチ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>イチジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -6881,10 +7033,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7479,6 +7631,102 @@
       </c>
       <c r="M73" t="s">
         <v>776</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="M75" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="M76" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="M77" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="M78" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="M79" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="M80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="M81" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="M82" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>769</v>
+      </c>
+      <c r="M83" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>770</v>
+      </c>
+      <c r="M84" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>771</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>790</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>780</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC18E78-69F8-4F7D-A026-A61ABFB501E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC12BE4-68AD-447E-8DE6-824F87B5C449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7035,8 +7035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC12BE4-68AD-447E-8DE6-824F87B5C449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03007E2F-8A00-4E0F-9598-695B4367B12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="797">
   <si>
     <t>English</t>
   </si>
@@ -5626,6 +5626,18 @@
     <rPh sb="17" eb="18">
       <t>ダ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SupervisorFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SupervisorShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SupervisorIntroDescription</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7036,7 +7048,7 @@
   <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7699,7 +7711,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>769</v>
+        <v>796</v>
       </c>
       <c r="M83" t="s">
         <v>792</v>
@@ -7707,7 +7719,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>770</v>
+        <v>795</v>
       </c>
       <c r="M84" t="s">
         <v>793</v>
@@ -7715,7 +7727,7 @@
     </row>
     <row r="85" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>771</v>
+        <v>794</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>791</v>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03007E2F-8A00-4E0F-9598-695B4367B12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41956998-67EB-45CC-9670-553BCB10BF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="822">
   <si>
     <t>English</t>
   </si>
@@ -5638,6 +5638,176 @@
   </si>
   <si>
     <t>SupervisorIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PainterSpawnRate</t>
+  </si>
+  <si>
+    <t>PainterRoleNum</t>
+  </si>
+  <si>
+    <t>PainterHasOtherVison</t>
+  </si>
+  <si>
+    <t>PainterVison</t>
+  </si>
+  <si>
+    <t>PainterApplyEnvironmentVisionEffect</t>
+  </si>
+  <si>
+    <t>PainterHasOtherKillCool</t>
+  </si>
+  <si>
+    <t>PainterKillCoolDown</t>
+  </si>
+  <si>
+    <t>PainterHasOtherKillRange</t>
+  </si>
+  <si>
+    <t>PainterKillRange</t>
+  </si>
+  <si>
+    <t>PainterAbilityCoolTime</t>
+  </si>
+  <si>
+    <t>PainterCanPaintDistance</t>
+  </si>
+  <si>
+    <t>Painter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペインター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペイントのクールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペイントが行える距離</t>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペイントした後の死体の色がランダムか</t>
+    <rPh sb="6" eb="7">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PainterPaintColorIsRandom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PainterIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PainterShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PainterFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死体でアートを描こう</t>
+    <rPh sb="0" eb="2">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死体の色を変更できるインポスター役職
+死体の変更先の色はデフォルトでは透明
+オプションで死体の色がランダムになっている場合、プレイヤー
+ごとに色が異なる死体になります</t>
+    <rPh sb="0" eb="2">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>シタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今回の死体(作品)はどのように描こうか</t>
+    <rPh sb="0" eb="2">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サクヒン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>エガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>paint</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペイント</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7047,7 +7217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+    <sheetView topLeftCell="A74" workbookViewId="0">
       <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
@@ -7750,10 +7920,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131ED9DB-7094-4FCA-8832-3F1005AB8270}">
-  <dimension ref="A1:Q96"/>
+  <dimension ref="A1:Q114"/>
   <sheetViews>
-    <sheetView topLeftCell="B78" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView tabSelected="1" topLeftCell="B99" workbookViewId="0">
+      <selection activeCell="M115" sqref="M115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8530,6 +8700,142 @@
       </c>
       <c r="M96" s="2" t="s">
         <v>609</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>808</v>
+      </c>
+      <c r="M98" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="M99" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="M100" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="M101" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="M102" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="M103" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="M104" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="M105" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="M106" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="M107" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="M108" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="M109" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="M110" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>814</v>
+      </c>
+      <c r="M111" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>815</v>
+      </c>
+      <c r="M112" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="75" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>816</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>820</v>
+      </c>
+      <c r="M114" t="s">
+        <v>821</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41956998-67EB-45CC-9670-553BCB10BF21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972AC0D0-7D00-4C50-A8FC-0D515C6AF9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -5449,10 +5449,6 @@
     <t>doorLog</t>
   </si>
   <si>
-    <t>securityCamera</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>セキュリティカメラ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5523,10 +5519,6 @@
   </si>
   <si>
     <t>スーパーバイザー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Admin</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5809,6 +5801,13 @@
   <si>
     <t>ペイント</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>securityCamera</t>
   </si>
 </sst>
 </file>
@@ -7217,8 +7216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7780,7 +7779,7 @@
         <v>769</v>
       </c>
       <c r="M69" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
@@ -7788,7 +7787,7 @@
         <v>770</v>
       </c>
       <c r="M70" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -7801,10 +7800,10 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
+        <v>821</v>
+      </c>
+      <c r="M72" s="2" t="s">
         <v>774</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
@@ -7812,28 +7811,28 @@
         <v>773</v>
       </c>
       <c r="M73" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="M75" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M76" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M77" t="s">
         <v>109</v>
@@ -7841,7 +7840,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M78" t="s">
         <v>428</v>
@@ -7849,7 +7848,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="M79" t="s">
         <v>429</v>
@@ -7857,7 +7856,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="M80" t="s">
         <v>110</v>
@@ -7865,15 +7864,15 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="M81" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M82" t="s">
         <v>767</v>
@@ -7881,34 +7880,34 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="M83" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="M84" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>790</v>
+        <v>820</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -7922,7 +7921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131ED9DB-7094-4FCA-8832-3F1005AB8270}">
   <dimension ref="A1:Q114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B99" workbookViewId="0">
+    <sheetView topLeftCell="A75" workbookViewId="0">
       <selection activeCell="M115" sqref="M115"/>
     </sheetView>
   </sheetViews>
@@ -8704,23 +8703,23 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="M98" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="M99" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="M100" t="s">
         <v>109</v>
@@ -8728,7 +8727,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="M101" t="s">
         <v>428</v>
@@ -8736,7 +8735,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="M102" t="s">
         <v>429</v>
@@ -8744,7 +8743,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="M103" t="s">
         <v>110</v>
@@ -8752,7 +8751,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="M104" t="s">
         <v>122</v>
@@ -8760,7 +8759,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="M105" t="s">
         <v>121</v>
@@ -8768,7 +8767,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="M106" t="s">
         <v>123</v>
@@ -8776,7 +8775,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="M107" t="s">
         <v>124</v>
@@ -8784,58 +8783,58 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="M108" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="M109" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="M110" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="M111" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
+        <v>813</v>
+      </c>
+      <c r="M112" t="s">
         <v>815</v>
-      </c>
-      <c r="M112" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
+        <v>814</v>
+      </c>
+      <c r="M113" s="2" t="s">
         <v>816</v>
-      </c>
-      <c r="M113" s="2" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="M114" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972AC0D0-7D00-4C50-A8FC-0D515C6AF9D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC09E10-C317-46FA-84F3-A2B6AA9D233A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="824">
   <si>
     <t>English</t>
   </si>
@@ -5808,6 +5808,17 @@
   </si>
   <si>
     <t>securityCamera</t>
+  </si>
+  <si>
+    <t>MarlinCanSeeAssassin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マーリンがアサシンを見ることができるか</t>
+    <rPh sb="10" eb="11">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -7216,7 +7227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
   <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+    <sheetView topLeftCell="A74" workbookViewId="0">
       <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
@@ -9453,10 +9464,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9685,111 +9696,111 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>822</v>
       </c>
       <c r="M23" t="s">
-        <v>168</v>
+        <v>823</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>367</v>
+        <v>166</v>
       </c>
       <c r="M25" t="s">
-        <v>368</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>211</v>
+        <v>367</v>
       </c>
       <c r="M26" t="s">
-        <v>222</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M27" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="111.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
+        <v>212</v>
+      </c>
+      <c r="M28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="112.5" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>532</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>639</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>214</v>
-      </c>
-      <c r="M29" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="309" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
+        <v>215</v>
+      </c>
+      <c r="M31" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="300" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>533</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M32" s="2" t="s">
         <v>757</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>312</v>
-      </c>
-      <c r="M32" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M33" t="s">
-        <v>315</v>
+        <v>613</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
+        <v>314</v>
+      </c>
+      <c r="M34" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
         <v>313</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M35" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>234</v>
-      </c>
-      <c r="M36" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="M37" t="s">
         <v>173</v>
@@ -9797,337 +9808,345 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="M39" t="s">
-        <v>140</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M40" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="M41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M42" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M43" t="s">
-        <v>428</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M45" t="s">
-        <v>110</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M46" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M48" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M49" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="M50" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="M53" t="s">
-        <v>223</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M54" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="284.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
+        <v>219</v>
+      </c>
+      <c r="M55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="281.25" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
         <v>534</v>
       </c>
-      <c r="M55" s="2" t="s">
+      <c r="M56" s="2" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="243.75" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+    <row r="57" spans="1:13" ht="243.75" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
         <v>536</v>
       </c>
-      <c r="M56" s="2" t="s">
+      <c r="M57" s="2" t="s">
         <v>637</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" ht="150" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>535</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
+        <v>535</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
         <v>537</v>
       </c>
-      <c r="M58" s="2" t="s">
+      <c r="M59" s="2" t="s">
         <v>638</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>489</v>
-      </c>
-      <c r="M59" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>543</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>544</v>
+        <v>489</v>
+      </c>
+      <c r="M60" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
+        <v>543</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
         <v>365</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M62" t="s">
         <v>366</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>467</v>
-      </c>
-      <c r="M63" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="M64" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M65" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M66" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M67" t="s">
-        <v>140</v>
+        <v>468</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M68" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M69" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="M70" t="s">
-        <v>428</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M71" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M72" t="s">
-        <v>110</v>
+        <v>429</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M73" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M74" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="M75" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M77" t="s">
-        <v>486</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
+        <v>484</v>
+      </c>
+      <c r="M78" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
         <v>485</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M79" t="s">
         <v>487</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
-        <v>538</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
+        <v>538</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
         <v>539</v>
       </c>
-      <c r="M80" s="2" t="s">
+      <c r="M81" s="2" t="s">
         <v>734</v>
       </c>
     </row>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC09E10-C317-46FA-84F3-A2B6AA9D233A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6F92F4-3011-48DE-8E78-C7149ED84027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="853">
   <si>
     <t>English</t>
   </si>
@@ -5817,6 +5817,312 @@
     <t>マーリンがアサシンを見ることができるか</t>
     <rPh sb="10" eb="11">
       <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MissionaryRoleNum</t>
+  </si>
+  <si>
+    <t>MissionaryHasOtherVison</t>
+  </si>
+  <si>
+    <t>MissionaryVison</t>
+  </si>
+  <si>
+    <t>MissionaryApplyEnvironmentVisionEffect</t>
+  </si>
+  <si>
+    <t>MissionaryTellDeparture</t>
+  </si>
+  <si>
+    <t>MissionaryDepartureMinTime</t>
+  </si>
+  <si>
+    <t>MissionaryDepartureMaxTime</t>
+  </si>
+  <si>
+    <t>MissionaryPropagateRange</t>
+  </si>
+  <si>
+    <t>MissionarySpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Missionary</t>
+  </si>
+  <si>
+    <t>ミッショナリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宣教後自決する時間の最大時間</t>
+    <rPh sb="0" eb="2">
+      <t>センキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジケツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宣教後自決する時間の最小時間</t>
+    <rPh sb="0" eb="2">
+      <t>センキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジケツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイショウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宣教後の自決が分かるかどうか</t>
+    <rPh sb="0" eb="2">
+      <t>センキョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジケツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MissionaryAbilityCoolTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MissionaryIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MissionaryShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船員たちに神(死)の世界の素晴らしさを教えまわろう</t>
+    <rPh sb="0" eb="2">
+      <t>センイン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スバ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宣教活動を行おう</t>
+    <rPh sb="0" eb="4">
+      <t>センキョウカツドウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MissionaryFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三陣営役職
+勝利条件：インポスター及びキル能力を持つ第三陣営が
+全滅しており、生存者の半数以上が同じ陣営。
+「宣教」を行うことで、一定時間後にプレイヤーが自決する
+自決までの時間は「宣教後自決する時間の最小時間」と「宣教
+後自決する時間の最大時間」の間でランダムに決定される
+宣教後の自決は会議中でも発生する</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ゼンメツ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>セイゾンシャ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ハンスウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>センキョウ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="66" eb="71">
+      <t>イッテイジカンゴ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ジケツ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ジケツ</t>
+    </rPh>
+    <rPh sb="88" eb="90">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>センキョウ</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>ジケツ</t>
+    </rPh>
+    <rPh sb="146" eb="149">
+      <t>カイギチュウ</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「宣教」できる範囲</t>
+    <rPh sb="1" eb="3">
+      <t>センキョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>propagate</t>
+  </si>
+  <si>
+    <t>宣教</t>
+    <rPh sb="0" eb="2">
+      <t>センキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>哀れな子羊がまた、神の世界に旅立ちました</t>
+    <rPh sb="0" eb="1">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コヒツジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セカイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>タビダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「宣教」のクールタイム</t>
+    <rPh sb="1" eb="3">
+      <t>センキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>departureText</t>
+  </si>
+  <si>
+    <t>Departure</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旅立ち</t>
+    <rPh sb="0" eb="2">
+      <t>タビダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6149,10 +6455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q145"/>
+  <dimension ref="A1:Q146"/>
   <sheetViews>
-    <sheetView topLeftCell="C126" workbookViewId="0">
-      <selection activeCell="M145" sqref="M145"/>
+    <sheetView tabSelected="1" topLeftCell="C89" workbookViewId="0">
+      <selection activeCell="Q102" sqref="Q102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6984,235 +7290,243 @@
         <v>641</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A107" t="s">
-        <v>508</v>
-      </c>
-      <c r="M107" t="s">
-        <v>509</v>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>851</v>
+      </c>
+      <c r="M106" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
+        <v>508</v>
+      </c>
+      <c r="M108" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A109" t="s">
         <v>507</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M109" t="s">
         <v>510</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
-        <v>303</v>
-      </c>
-      <c r="M110" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
+        <v>303</v>
+      </c>
+      <c r="M111" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
         <v>304</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M112" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A113" t="s">
-        <v>405</v>
-      </c>
-      <c r="M113" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
+        <v>405</v>
+      </c>
+      <c r="M114" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
         <v>404</v>
       </c>
-      <c r="M114" t="s">
+      <c r="M115" t="s">
         <v>406</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A116" t="s">
-        <v>238</v>
-      </c>
-      <c r="M116" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M117" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M118" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M119" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
+        <v>241</v>
+      </c>
+      <c r="M120" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A121" t="s">
         <v>242</v>
       </c>
-      <c r="M120" t="s">
+      <c r="M121" t="s">
         <v>244</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A122" t="s">
-        <v>321</v>
-      </c>
-      <c r="M122" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M123" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
+        <v>320</v>
+      </c>
+      <c r="M124" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A125" t="s">
         <v>310</v>
       </c>
-      <c r="M124" t="s">
+      <c r="M125" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A126" t="s">
-        <v>511</v>
-      </c>
-      <c r="M126" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="M127" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
+        <v>513</v>
+      </c>
+      <c r="M128" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
         <v>515</v>
       </c>
-      <c r="M128" t="s">
+      <c r="M129" t="s">
         <v>516</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A130" t="s">
-        <v>545</v>
-      </c>
-      <c r="M130" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
+        <v>545</v>
+      </c>
+      <c r="M131" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
         <v>546</v>
       </c>
-      <c r="M131" t="s">
+      <c r="M132" t="s">
         <v>547</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A133" t="s">
-        <v>618</v>
-      </c>
-      <c r="M133" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
+        <v>618</v>
+      </c>
+      <c r="M134" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A135" t="s">
         <v>620</v>
       </c>
-      <c r="M134" t="s">
+      <c r="M135" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A136" t="s">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
         <v>621</v>
       </c>
-      <c r="M136" t="s">
+      <c r="M137" t="s">
         <v>622</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A138" t="s">
-        <v>735</v>
-      </c>
-      <c r="M138" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="M139" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="M140" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="M141" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="M142" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
+        <v>743</v>
+      </c>
+      <c r="M143" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A144" t="s">
         <v>744</v>
       </c>
-      <c r="M143" t="s">
+      <c r="M144" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A145" t="s">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
         <v>755</v>
       </c>
-      <c r="M145" t="s">
+      <c r="M146" t="s">
         <v>756</v>
       </c>
     </row>
@@ -8857,10 +9171,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445F46B3-1A86-46EF-9440-E5378C8C2CDD}">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9455,6 +9769,134 @@
         <v>729</v>
       </c>
     </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>833</v>
+      </c>
+      <c r="M72" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="M73" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>839</v>
+      </c>
+      <c r="M83" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>840</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="132" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>843</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>846</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>850</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9466,7 +9908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6F92F4-3011-48DE-8E78-C7149ED84027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA364D3-D3BF-466D-9B60-9C7AF64497B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,13 +155,6 @@
     <t>Maximum Impostor Roles</t>
   </si>
   <si>
-    <t>ExtremeRoles Settings</t>
-  </si>
-  <si>
-    <t>ExtremeRolesの設定</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PresetSelection</t>
   </si>
   <si>
@@ -6124,6 +6117,14 @@
     <rPh sb="0" eb="2">
       <t>タビダ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Extreme Roles Settings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Extreme Rolesの設定</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6457,8 +6458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C89" workbookViewId="0">
-      <selection activeCell="Q102" sqref="Q102"/>
+    <sheetView tabSelected="1" topLeftCell="C124" workbookViewId="0">
+      <selection activeCell="I142" sqref="I142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6520,13 +6521,13 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>851</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>852</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
@@ -6586,7 +6587,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -6597,937 +6598,937 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>33</v>
       </c>
       <c r="M11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
       </c>
       <c r="M12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
       </c>
       <c r="M13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
       </c>
       <c r="M14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
       <c r="M15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
       <c r="M16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="M19" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M23" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M25" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="M26" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M27" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
+        <v>275</v>
+      </c>
+      <c r="M30" t="s">
         <v>277</v>
-      </c>
-      <c r="M30" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M34" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M36" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
+        <v>693</v>
+      </c>
+      <c r="B37" t="s">
+        <v>694</v>
+      </c>
+      <c r="M37" t="s">
         <v>695</v>
-      </c>
-      <c r="B37" t="s">
-        <v>696</v>
-      </c>
-      <c r="M37" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M39" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M41" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M42" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M43" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M44" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M46" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M47" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M48" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M49" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B51" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="M51" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B52" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="M52" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="M53" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M59" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="M60" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M61" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="M63" t="s">
         <v>68</v>
-      </c>
-      <c r="B63" t="s">
-        <v>69</v>
-      </c>
-      <c r="M63" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
+      </c>
+      <c r="M64" t="s">
         <v>71</v>
-      </c>
-      <c r="B64" t="s">
-        <v>72</v>
-      </c>
-      <c r="M64" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M66" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M67" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M68" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M70" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M71" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M72" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
+        <v>80</v>
+      </c>
+      <c r="M74" t="s">
         <v>81</v>
-      </c>
-      <c r="B74" t="s">
-        <v>82</v>
-      </c>
-      <c r="M74" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B76" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M76" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B77" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M77" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
+        <v>247</v>
+      </c>
+      <c r="B79" t="s">
+        <v>248</v>
+      </c>
+      <c r="M79" t="s">
         <v>249</v>
-      </c>
-      <c r="B79" t="s">
-        <v>250</v>
-      </c>
-      <c r="M79" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
+        <v>250</v>
+      </c>
+      <c r="B81" t="s">
+        <v>251</v>
+      </c>
+      <c r="M81" t="s">
         <v>252</v>
-      </c>
-      <c r="B81" t="s">
-        <v>253</v>
-      </c>
-      <c r="M81" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
+        <v>253</v>
+      </c>
+      <c r="B82" t="s">
+        <v>254</v>
+      </c>
+      <c r="M82" t="s">
         <v>255</v>
-      </c>
-      <c r="B82" t="s">
-        <v>256</v>
-      </c>
-      <c r="M82" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B83" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M83" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B84" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M84" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B85" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M85" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B86" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M86" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M89" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M91" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M92" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M95" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M96" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M97" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M98" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M99" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M100" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M101" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M102" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
+        <v>622</v>
+      </c>
+      <c r="M103" t="s">
         <v>624</v>
-      </c>
-      <c r="M103" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
+        <v>623</v>
+      </c>
+      <c r="M104" t="s">
         <v>625</v>
-      </c>
-      <c r="M104" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="M105" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="M106" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M108" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="M109" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
+        <v>301</v>
+      </c>
+      <c r="M111" t="s">
         <v>303</v>
-      </c>
-      <c r="M111" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M112" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="M114" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
+        <v>402</v>
+      </c>
+      <c r="M115" t="s">
         <v>404</v>
-      </c>
-      <c r="M115" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M117" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
+        <v>235</v>
+      </c>
+      <c r="M118" t="s">
         <v>237</v>
-      </c>
-      <c r="M118" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
+        <v>239</v>
+      </c>
+      <c r="M120" t="s">
         <v>241</v>
-      </c>
-      <c r="M120" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
+        <v>240</v>
+      </c>
+      <c r="M121" t="s">
         <v>242</v>
-      </c>
-      <c r="M121" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M123" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
+        <v>318</v>
+      </c>
+      <c r="M124" t="s">
         <v>320</v>
-      </c>
-      <c r="M124" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M125" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M127" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="M128" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M129" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M131" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="M132" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="M134" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="M135" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="M137" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="M139" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="M140" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
+        <v>736</v>
+      </c>
+      <c r="M141" t="s">
         <v>738</v>
-      </c>
-      <c r="M141" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
+        <v>737</v>
+      </c>
+      <c r="M142" t="s">
         <v>739</v>
-      </c>
-      <c r="M142" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="M143" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="M144" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="M146" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -7603,636 +7604,636 @@
     </row>
     <row r="2" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>552</v>
+      </c>
+      <c r="M3" t="s">
         <v>554</v>
-      </c>
-      <c r="M3" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>553</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M16" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M17" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M19" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M20" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M26" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M27" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="M28" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M29" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M30" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="111" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="M33" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="M34" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="M36" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M37" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M39" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M40" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M41" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="M42" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M44" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="M46" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="M47" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M48" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="M49" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="M50" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="M51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M52" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="M53" t="s">
         <v>502</v>
-      </c>
-      <c r="M53" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="M54" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M55" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M56" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="M57" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="M61" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="M62" t="s">
         <v>763</v>
-      </c>
-      <c r="M62" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="M63" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M64" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="M65" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="M66" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="M67" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M68" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="M69" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="M70" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
+        <v>771</v>
+      </c>
+      <c r="M73" t="s">
         <v>773</v>
-      </c>
-      <c r="M73" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="M75" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="M76" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="M77" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="M78" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="M79" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="M80" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="M81" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="M82" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M83" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M84" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -8308,858 +8309,858 @@
     </row>
     <row r="2" spans="1:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M9" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="64.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="M14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>195</v>
+      </c>
+      <c r="M15" t="s">
         <v>197</v>
-      </c>
-      <c r="M15" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>196</v>
+      </c>
+      <c r="M16" t="s">
         <v>198</v>
-      </c>
-      <c r="M16" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M19" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="M20" t="s">
         <v>342</v>
-      </c>
-      <c r="M20" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M22" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M23" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="M29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M30" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M31" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="M32" t="s">
         <v>361</v>
-      </c>
-      <c r="M32" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="M33" t="s">
         <v>362</v>
-      </c>
-      <c r="M33" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M34" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="M35" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="83.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M36" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M37" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M38" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="M40" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M41" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M43" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="M44" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M46" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M47" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M48" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="M50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="M51" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="M52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M53" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M54" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="M55" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="M56" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M57" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M58" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M60" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="M62" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="M63" t="s">
         <v>572</v>
-      </c>
-      <c r="M63" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="M64" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="M65" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="M66" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M67" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="M68" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M69" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="M70" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M71" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="M72" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="M73" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="M74" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="M75" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="135.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
+        <v>578</v>
+      </c>
+      <c r="M76" t="s">
         <v>580</v>
-      </c>
-      <c r="M76" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="M79" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="M80" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="M81" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M82" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="M83" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="M84" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="M85" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="M86" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M87" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="M88" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="M89" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="M90" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="M91" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M92" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="M93" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="M94" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="M95" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="M98" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="M99" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="M100" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="M101" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="M102" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="M103" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="M104" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="M105" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="M106" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="M107" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="M108" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="M109" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="M110" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="M111" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
+        <v>811</v>
+      </c>
+      <c r="M112" t="s">
         <v>813</v>
-      </c>
-      <c r="M112" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
+        <v>812</v>
+      </c>
+      <c r="M113" s="2" t="s">
         <v>814</v>
-      </c>
-      <c r="M113" s="2" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="M114" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
   </sheetData>
@@ -9235,666 +9236,666 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M5" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="s">
         <v>134</v>
-      </c>
-      <c r="M12" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M13" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M14" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M15" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M16" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
+        <v>199</v>
+      </c>
+      <c r="M17" t="s">
         <v>201</v>
-      </c>
-      <c r="M17" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>200</v>
+      </c>
+      <c r="M18" t="s">
         <v>202</v>
-      </c>
-      <c r="M18" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="177" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M20" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="M23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M52" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M53" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="M55" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M56" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="M59" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="M60" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="M68" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="M69" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="95.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="M72" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="M73" t="s">
         <v>832</v>
-      </c>
-      <c r="M73" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
+        <v>837</v>
+      </c>
+      <c r="M83" t="s">
         <v>839</v>
-      </c>
-      <c r="M83" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
+        <v>838</v>
+      </c>
+      <c r="M84" s="1" t="s">
         <v>840</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="132" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
   </sheetData>
@@ -9908,7 +9909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA3747E3-550F-4585-A066-931F491B69D2}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
@@ -9970,626 +9971,626 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="M6" t="s">
         <v>142</v>
-      </c>
-      <c r="M6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M8" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="M14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="M15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M16" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M19" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M20" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M22" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="M23" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M24" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M25" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M26" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="111.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M28" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M30" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="309" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="300" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M33" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="M35" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M37" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M39" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M41" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M42" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M43" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M44" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M45" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M47" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M48" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M49" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M52" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M53" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M54" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="284.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M55" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="281.25" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="243.75" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="M60" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M62" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M64" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="M65" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M66" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="M67" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M68" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="M69" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M70" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M71" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M72" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="M73" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M74" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M75" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M76" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="M77" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
+        <v>482</v>
+      </c>
+      <c r="M78" t="s">
         <v>484</v>
-      </c>
-      <c r="M78" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
+        <v>483</v>
+      </c>
+      <c r="M79" t="s">
         <v>485</v>
-      </c>
-      <c r="M79" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="168.75" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA364D3-D3BF-466D-9B60-9C7AF64497B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C9AFDF-4D8C-43EC-83A7-776DFF2065D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="874">
   <si>
     <t>English</t>
   </si>
@@ -6125,6 +6125,174 @@
   </si>
   <si>
     <t>Extreme Rolesの設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BodyGuardRoleNum</t>
+  </si>
+  <si>
+    <t>BodyGuardHasOtherVison</t>
+  </si>
+  <si>
+    <t>BodyGuardVison</t>
+  </si>
+  <si>
+    <t>BodyGuardApplyEnvironmentVisionEffect</t>
+  </si>
+  <si>
+    <t>BodyGuardAbilityCoolTime</t>
+  </si>
+  <si>
+    <t>BodyGuardSpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BodyGuard</t>
+  </si>
+  <si>
+    <t>ボディーガード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BodyGuardShieldRange</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シールドを付与できる範囲</t>
+    <rPh sb="5" eb="7">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シールドのクールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シールドが付与できる回数</t>
+    <rPh sb="5" eb="7">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BodyGuardAbilityCount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BodyGuardIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BodyGuardShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BodyGuardFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shield</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>船員たちにシールド張って、その船員を守れ</t>
+    <rPh sb="0" eb="2">
+      <t>センイン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センイン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>身を張って船員達を守れ</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センイン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「シールド」を貼ることが出来るクルー役職
+「シールド」が貼られた船員が「キルボタン」によって「キル」
+されようとすると身代わりになってキルされ、その船員はキルされない。
+付与された「シールド」は会議毎にリセットされる
+キルされた場合も「シールド」はリセットされる
+「シールドが付与できる回数」は会議毎に設定される値に
+リセットされる。</t>
+    <rPh sb="7" eb="8">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>センイン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ミガ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>センイン</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="138" eb="140">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="143" eb="145">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="147" eb="149">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="151" eb="153">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>アタイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6458,8 +6626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C124" workbookViewId="0">
-      <selection activeCell="I142" sqref="I142"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7540,10 +7708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
-  <dimension ref="A1:Q86"/>
+  <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8234,6 +8402,110 @@
       </c>
       <c r="M86" s="2" t="s">
         <v>777</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>859</v>
+      </c>
+      <c r="M88" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="M89" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="M90" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="M91" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="M92" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="M93" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="M94" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="M95" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="M96" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>866</v>
+      </c>
+      <c r="M97" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>867</v>
+      </c>
+      <c r="M98" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="156" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>868</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>869</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>870</v>
       </c>
     </row>
   </sheetData>
@@ -9174,7 +9446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445F46B3-1A86-46EF-9440-E5378C8C2CDD}">
   <dimension ref="A1:Q87"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C9AFDF-4D8C-43EC-83A7-776DFF2065D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661C249F-8F3A-4BD8-B9EA-DDC765FC682B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="876">
   <si>
     <t>English</t>
   </si>
@@ -6292,6 +6292,16 @@
     </rPh>
     <rPh sb="156" eb="157">
       <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Martyrdom</t>
+  </si>
+  <si>
+    <t>殉職</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンショク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6624,10 +6634,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q146"/>
+  <dimension ref="A1:Q147"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView topLeftCell="C127" workbookViewId="0">
+      <selection activeCell="M108" sqref="M108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7467,235 +7477,243 @@
         <v>850</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A108" t="s">
-        <v>506</v>
-      </c>
-      <c r="M108" t="s">
-        <v>507</v>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A107" t="s">
+        <v>874</v>
+      </c>
+      <c r="M107" t="s">
+        <v>875</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
+        <v>506</v>
+      </c>
+      <c r="M109" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
         <v>505</v>
       </c>
-      <c r="M109" t="s">
+      <c r="M110" t="s">
         <v>508</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
-        <v>301</v>
-      </c>
-      <c r="M111" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
+        <v>301</v>
+      </c>
+      <c r="M112" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
         <v>302</v>
       </c>
-      <c r="M112" t="s">
+      <c r="M113" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A114" t="s">
-        <v>403</v>
-      </c>
-      <c r="M114" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
+        <v>403</v>
+      </c>
+      <c r="M115" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
         <v>402</v>
       </c>
-      <c r="M115" t="s">
+      <c r="M116" t="s">
         <v>404</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
-        <v>236</v>
-      </c>
-      <c r="M117" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M118" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M119" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M120" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
+        <v>239</v>
+      </c>
+      <c r="M121" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A122" t="s">
         <v>240</v>
       </c>
-      <c r="M121" t="s">
+      <c r="M122" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A123" t="s">
-        <v>319</v>
-      </c>
-      <c r="M123" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M124" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
+        <v>318</v>
+      </c>
+      <c r="M125" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A126" t="s">
         <v>308</v>
       </c>
-      <c r="M125" t="s">
+      <c r="M126" t="s">
         <v>309</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A127" t="s">
-        <v>509</v>
-      </c>
-      <c r="M127" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M128" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
+        <v>511</v>
+      </c>
+      <c r="M129" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
         <v>513</v>
       </c>
-      <c r="M129" t="s">
+      <c r="M130" t="s">
         <v>514</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
-        <v>543</v>
-      </c>
-      <c r="M131" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
+        <v>543</v>
+      </c>
+      <c r="M132" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
         <v>544</v>
       </c>
-      <c r="M132" t="s">
+      <c r="M133" t="s">
         <v>545</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A134" t="s">
-        <v>616</v>
-      </c>
-      <c r="M134" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
+        <v>616</v>
+      </c>
+      <c r="M135" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
         <v>618</v>
       </c>
-      <c r="M135" t="s">
+      <c r="M136" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A137" t="s">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
         <v>619</v>
       </c>
-      <c r="M137" t="s">
+      <c r="M138" t="s">
         <v>620</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A139" t="s">
-        <v>733</v>
-      </c>
-      <c r="M139" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="M140" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="M141" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="M142" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="M143" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
+        <v>741</v>
+      </c>
+      <c r="M144" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A145" t="s">
         <v>742</v>
       </c>
-      <c r="M144" t="s">
+      <c r="M145" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A146" t="s">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
         <v>753</v>
       </c>
-      <c r="M146" t="s">
+      <c r="M147" t="s">
         <v>754</v>
       </c>
     </row>
@@ -7710,8 +7728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
   <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="L85" sqref="L85"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="M99" sqref="M99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661C249F-8F3A-4BD8-B9EA-DDC765FC682B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D83840B-0CA1-4AEE-B81D-019C915D8A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="891">
   <si>
     <t>English</t>
   </si>
@@ -6304,6 +6304,51 @@
       <t>ジュンショク</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>preset6</t>
+  </si>
+  <si>
+    <t>preset7</t>
+  </si>
+  <si>
+    <t>preset8</t>
+  </si>
+  <si>
+    <t>preset9</t>
+  </si>
+  <si>
+    <t>preset10</t>
+  </si>
+  <si>
+    <t>Preset 6</t>
+  </si>
+  <si>
+    <t>Preset 7</t>
+  </si>
+  <si>
+    <t>Preset 8</t>
+  </si>
+  <si>
+    <t>Preset 9</t>
+  </si>
+  <si>
+    <t>Preset 10</t>
+  </si>
+  <si>
+    <t>プリセット６</t>
+  </si>
+  <si>
+    <t>プリセット７</t>
+  </si>
+  <si>
+    <t>プリセット８</t>
+  </si>
+  <si>
+    <t>プリセット９</t>
+  </si>
+  <si>
+    <t>プリセット１０</t>
   </si>
 </sst>
 </file>
@@ -6634,10 +6679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q147"/>
+  <dimension ref="A1:Q153"/>
   <sheetViews>
-    <sheetView topLeftCell="C127" workbookViewId="0">
-      <selection activeCell="M108" sqref="M108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6765,955 +6810,1010 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>876</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>881</v>
       </c>
       <c r="M9" t="s">
-        <v>21</v>
+        <v>886</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>280</v>
+      <c r="A10" t="s">
+        <v>877</v>
+      </c>
+      <c r="B10" t="s">
+        <v>882</v>
       </c>
       <c r="M10" t="s">
-        <v>281</v>
+        <v>887</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>878</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>883</v>
       </c>
       <c r="M11" t="s">
-        <v>85</v>
+        <v>888</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>879</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>884</v>
       </c>
       <c r="M12" t="s">
-        <v>86</v>
+        <v>889</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>880</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>885</v>
       </c>
       <c r="M13" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" t="s">
-        <v>88</v>
+        <v>890</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M15" t="s">
-        <v>89</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
+      <c r="A16" s="1" t="s">
+        <v>280</v>
       </c>
       <c r="M16" t="s">
-        <v>90</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>264</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M18" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>267</v>
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
       </c>
       <c r="M19" t="s">
-        <v>268</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>265</v>
+      <c r="A20" t="s">
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M20" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="M21" t="s">
-        <v>266</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M22" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>51</v>
-      </c>
-      <c r="M23" t="s">
-        <v>747</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>264</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M24" t="s">
-        <v>219</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>745</v>
+      <c r="A26" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
       </c>
       <c r="M26" t="s">
-        <v>746</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>270</v>
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
       </c>
       <c r="M27" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>269</v>
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
       </c>
       <c r="M28" t="s">
-        <v>274</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="M29" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>275</v>
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
       </c>
       <c r="M30" t="s">
-        <v>277</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>276</v>
+      <c r="A31" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="M31" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>278</v>
+        <v>745</v>
       </c>
       <c r="M32" t="s">
-        <v>279</v>
+        <v>746</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" t="s">
-        <v>59</v>
+      <c r="A33" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="M33" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" t="s">
-        <v>61</v>
+      <c r="A34" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="M34" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" t="s">
-        <v>63</v>
-      </c>
-      <c r="M35" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" t="s">
-        <v>65</v>
+        <v>275</v>
       </c>
       <c r="M36" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>693</v>
-      </c>
-      <c r="B37" t="s">
-        <v>694</v>
+        <v>276</v>
       </c>
       <c r="M37" t="s">
-        <v>695</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>278</v>
+      </c>
+      <c r="M38" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>434</v>
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>59</v>
       </c>
       <c r="M39" t="s">
-        <v>435</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" t="s">
+        <v>61</v>
+      </c>
+      <c r="M40" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>283</v>
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
       </c>
       <c r="M41" t="s">
-        <v>437</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>285</v>
+        <v>64</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
       </c>
       <c r="M42" t="s">
-        <v>438</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>286</v>
+        <v>693</v>
+      </c>
+      <c r="B43" t="s">
+        <v>694</v>
       </c>
       <c r="M43" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>288</v>
-      </c>
-      <c r="M44" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>284</v>
-      </c>
-      <c r="M46" t="s">
-        <v>436</v>
+        <v>695</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>434</v>
+      </c>
+      <c r="M45" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M47" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M48" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="M49" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>626</v>
-      </c>
-      <c r="B51" t="s">
-        <v>633</v>
-      </c>
-      <c r="M51" t="s">
-        <v>632</v>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>288</v>
+      </c>
+      <c r="M50" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>627</v>
-      </c>
-      <c r="B52" t="s">
-        <v>628</v>
+        <v>284</v>
       </c>
       <c r="M52" t="s">
-        <v>631</v>
+        <v>436</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>629</v>
+        <v>287</v>
       </c>
       <c r="M53" t="s">
-        <v>630</v>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>289</v>
+      </c>
+      <c r="M54" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>290</v>
+      </c>
+      <c r="M55" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>626</v>
+      </c>
+      <c r="B57" t="s">
+        <v>633</v>
+      </c>
+      <c r="M57" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>627</v>
+      </c>
+      <c r="B58" t="s">
+        <v>628</v>
+      </c>
+      <c r="M58" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
+        <v>629</v>
+      </c>
+      <c r="M59" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
         <v>407</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M65" t="s">
         <v>297</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>405</v>
-      </c>
-      <c r="M60" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>406</v>
-      </c>
-      <c r="M61" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" t="s">
-        <v>67</v>
-      </c>
-      <c r="M63" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" t="s">
-        <v>70</v>
-      </c>
-      <c r="M64" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66" t="s">
-        <v>95</v>
+        <v>405</v>
       </c>
       <c r="M66" t="s">
-        <v>98</v>
+        <v>298</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>92</v>
-      </c>
-      <c r="B67" t="s">
-        <v>96</v>
+        <v>406</v>
       </c>
       <c r="M67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>93</v>
-      </c>
-      <c r="B68" t="s">
-        <v>97</v>
-      </c>
-      <c r="M68" t="s">
-        <v>100</v>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+      <c r="M69" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="M70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" t="s">
-        <v>76</v>
-      </c>
-      <c r="M71" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="M72" t="s">
-        <v>84</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" t="s">
+        <v>96</v>
+      </c>
+      <c r="M73" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="M74" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>243</v>
+        <v>73</v>
       </c>
       <c r="B76" t="s">
-        <v>244</v>
+        <v>74</v>
       </c>
       <c r="M76" t="s">
-        <v>263</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>245</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>246</v>
+        <v>76</v>
       </c>
       <c r="M77" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
-        <v>247</v>
-      </c>
-      <c r="B79" t="s">
-        <v>248</v>
-      </c>
-      <c r="M79" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
-        <v>250</v>
-      </c>
-      <c r="B81" t="s">
-        <v>251</v>
-      </c>
-      <c r="M81" t="s">
-        <v>252</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="M78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>80</v>
+      </c>
+      <c r="M80" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B82" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="M82" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>300</v>
+        <v>245</v>
       </c>
       <c r="B83" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="M83" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
-        <v>257</v>
-      </c>
-      <c r="B84" t="s">
-        <v>256</v>
-      </c>
-      <c r="M84" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>323</v>
+        <v>247</v>
       </c>
       <c r="B85" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="M85" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>324</v>
-      </c>
-      <c r="B86" t="s">
-        <v>325</v>
-      </c>
-      <c r="M86" t="s">
-        <v>325</v>
+        <v>249</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>250</v>
+      </c>
+      <c r="B87" t="s">
+        <v>251</v>
+      </c>
+      <c r="M87" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>253</v>
+      </c>
+      <c r="B88" t="s">
+        <v>254</v>
+      </c>
+      <c r="M88" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>304</v>
+        <v>300</v>
+      </c>
+      <c r="B89" t="s">
+        <v>256</v>
       </c>
       <c r="M89" t="s">
-        <v>305</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>257</v>
+      </c>
+      <c r="B90" t="s">
+        <v>256</v>
+      </c>
+      <c r="M90" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>380</v>
+        <v>323</v>
+      </c>
+      <c r="B91" t="s">
+        <v>258</v>
       </c>
       <c r="M91" t="s">
-        <v>381</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>382</v>
+        <v>324</v>
+      </c>
+      <c r="B92" t="s">
+        <v>325</v>
       </c>
       <c r="M92" t="s">
-        <v>410</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>367</v>
+        <v>304</v>
       </c>
       <c r="M95" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
-        <v>368</v>
-      </c>
-      <c r="M96" t="s">
-        <v>378</v>
+        <v>305</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="M97" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="M98" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
-        <v>371</v>
-      </c>
-      <c r="M99" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
-        <v>372</v>
-      </c>
-      <c r="M100" t="s">
-        <v>373</v>
+        <v>410</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>408</v>
+        <v>367</v>
       </c>
       <c r="M101" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>702</v>
+        <v>368</v>
       </c>
       <c r="M102" t="s">
-        <v>703</v>
+        <v>378</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>622</v>
+        <v>369</v>
       </c>
       <c r="M103" t="s">
-        <v>624</v>
+        <v>376</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>623</v>
+        <v>370</v>
       </c>
       <c r="M104" t="s">
-        <v>625</v>
+        <v>375</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>638</v>
+        <v>371</v>
       </c>
       <c r="M105" t="s">
-        <v>639</v>
+        <v>374</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>849</v>
+        <v>372</v>
       </c>
       <c r="M106" t="s">
-        <v>850</v>
+        <v>373</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>874</v>
+        <v>408</v>
       </c>
       <c r="M107" t="s">
-        <v>875</v>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A108" t="s">
+        <v>702</v>
+      </c>
+      <c r="M108" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>506</v>
+        <v>622</v>
       </c>
       <c r="M109" t="s">
-        <v>507</v>
+        <v>624</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>505</v>
+        <v>623</v>
       </c>
       <c r="M110" t="s">
-        <v>508</v>
+        <v>625</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>638</v>
+      </c>
+      <c r="M111" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>301</v>
+        <v>849</v>
       </c>
       <c r="M112" t="s">
-        <v>303</v>
+        <v>850</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>302</v>
+        <v>874</v>
       </c>
       <c r="M113" t="s">
-        <v>379</v>
+        <v>875</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>403</v>
+        <v>506</v>
       </c>
       <c r="M115" t="s">
-        <v>401</v>
+        <v>507</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>402</v>
+        <v>505</v>
       </c>
       <c r="M116" t="s">
-        <v>404</v>
+        <v>508</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="M118" t="s">
-        <v>233</v>
+        <v>303</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>235</v>
+        <v>302</v>
       </c>
       <c r="M119" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A120" t="s">
-        <v>238</v>
-      </c>
-      <c r="M120" t="s">
-        <v>234</v>
+        <v>379</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>239</v>
+        <v>403</v>
       </c>
       <c r="M121" t="s">
-        <v>241</v>
+        <v>401</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>240</v>
+        <v>402</v>
       </c>
       <c r="M122" t="s">
-        <v>242</v>
+        <v>404</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>319</v>
+        <v>236</v>
       </c>
       <c r="M124" t="s">
-        <v>326</v>
+        <v>233</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>318</v>
+        <v>235</v>
       </c>
       <c r="M125" t="s">
-        <v>320</v>
+        <v>237</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>308</v>
+        <v>238</v>
       </c>
       <c r="M126" t="s">
-        <v>309</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A127" t="s">
+        <v>239</v>
+      </c>
+      <c r="M127" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>509</v>
+        <v>240</v>
       </c>
       <c r="M128" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A129" t="s">
-        <v>511</v>
-      </c>
-      <c r="M129" t="s">
-        <v>512</v>
+        <v>242</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>513</v>
+        <v>319</v>
       </c>
       <c r="M130" t="s">
-        <v>514</v>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>318</v>
+      </c>
+      <c r="M131" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>543</v>
+        <v>308</v>
       </c>
       <c r="M132" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A133" t="s">
-        <v>544</v>
-      </c>
-      <c r="M133" t="s">
-        <v>545</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>509</v>
+      </c>
+      <c r="M134" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>616</v>
+        <v>511</v>
       </c>
       <c r="M135" t="s">
-        <v>617</v>
+        <v>512</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>618</v>
+        <v>513</v>
       </c>
       <c r="M136" t="s">
-        <v>621</v>
+        <v>514</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>619</v>
+        <v>543</v>
       </c>
       <c r="M138" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A140" t="s">
-        <v>733</v>
-      </c>
-      <c r="M140" t="s">
-        <v>744</v>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A139" t="s">
+        <v>544</v>
+      </c>
+      <c r="M139" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>734</v>
+        <v>616</v>
       </c>
       <c r="M141" t="s">
-        <v>735</v>
+        <v>617</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>736</v>
+        <v>618</v>
       </c>
       <c r="M142" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A143" t="s">
-        <v>737</v>
-      </c>
-      <c r="M143" t="s">
-        <v>739</v>
+        <v>621</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>741</v>
+        <v>619</v>
       </c>
       <c r="M144" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A145" t="s">
-        <v>742</v>
-      </c>
-      <c r="M145" t="s">
-        <v>743</v>
+        <v>620</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
+        <v>733</v>
+      </c>
+      <c r="M146" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
+        <v>734</v>
+      </c>
+      <c r="M147" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
+        <v>736</v>
+      </c>
+      <c r="M148" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
+        <v>737</v>
+      </c>
+      <c r="M149" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
+        <v>741</v>
+      </c>
+      <c r="M150" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A151" t="s">
+        <v>742</v>
+      </c>
+      <c r="M151" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A153" t="s">
         <v>753</v>
       </c>
-      <c r="M147" t="s">
+      <c r="M153" t="s">
         <v>754</v>
       </c>
     </row>
@@ -7728,8 +7828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
   <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="M99" sqref="M99"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D83840B-0CA1-4AEE-B81D-019C915D8A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1602F8-AEF9-4CEB-AF48-00227167813C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -6681,8 +6681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8637,7 +8637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131ED9DB-7094-4FCA-8832-3F1005AB8270}">
   <dimension ref="A1:Q114"/>
   <sheetViews>
-    <sheetView topLeftCell="A75" workbookViewId="0">
+    <sheetView topLeftCell="A93" workbookViewId="0">
       <selection activeCell="M115" sqref="M115"/>
     </sheetView>
   </sheetViews>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1602F8-AEF9-4CEB-AF48-00227167813C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BF4F9C-2C0B-4ECC-83B7-D9FA7FDBF665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="920">
   <si>
     <t>English</t>
   </si>
@@ -6349,6 +6349,232 @@
   </si>
   <si>
     <t>プリセット１０</t>
+  </si>
+  <si>
+    <t>OverLoaderRoleNum</t>
+  </si>
+  <si>
+    <t>OverLoaderHasOtherVison</t>
+  </si>
+  <si>
+    <t>OverLoaderVison</t>
+  </si>
+  <si>
+    <t>OverLoaderApplyEnvironmentVisionEffect</t>
+  </si>
+  <si>
+    <t>OverLoaderHasOtherKillCool</t>
+  </si>
+  <si>
+    <t>OverLoaderKillCoolDown</t>
+  </si>
+  <si>
+    <t>OverLoaderHasOtherKillRange</t>
+  </si>
+  <si>
+    <t>OverLoaderKillRange</t>
+  </si>
+  <si>
+    <t>OverLoaderAbilityCoolTime</t>
+  </si>
+  <si>
+    <t>OverLoaderAbilityActiveTime</t>
+  </si>
+  <si>
+    <t>OverLoaderKillCoolReduceRate</t>
+  </si>
+  <si>
+    <t>OverLoaderSpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OverLoader</t>
+  </si>
+  <si>
+    <t>overLoad</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>downLoad</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーバーロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダウンロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OverLoaderMoveSpeed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OverLoaderFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーバーローダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーバーロードのクールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーバーロード発動後、解除可能になるまでの時間</t>
+    <rPh sb="7" eb="10">
+      <t>ハツドウゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーバーロード時のキルクールの減少率</t>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ゲンショウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーバーロード時のプレイヤーの移動速度</t>
+    <rPh sb="7" eb="8">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OverLoaderIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OverLoaderShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーバーロードを使いこなし、全てを超越せよ</t>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョウエツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーバーロードによる役職公開を使いこなせ</t>
+    <rPh sb="10" eb="12">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>役職を公開することが出来るインポスター役職
+「オーバーロード」を使用することで、役職が公開状態になる
+「オーバーロード」使用後、ボタンが「ダウンロード」に変化
+する。「ダウンロード」を使う事で役職が再度非公開状態になる
+役職が公開状態になるとどのプレイヤーから見てもプレイヤーの名前がインポスター表記になるが、移動速度がブーストされ
+キルレンジがロング固定、キルクールタイムに大きな減少
+ボーナスがかかる
+会議が発生すると「オーバーロード」は強制的に解除され
+役職は非公開状態になる</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="113" eb="117">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="148" eb="150">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="155" eb="159">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="176" eb="178">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="188" eb="189">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>ゲンショウ</t>
+    </rPh>
+    <rPh sb="203" eb="205">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="206" eb="208">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="221" eb="224">
+      <t>キョウセイテキ</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="230" eb="232">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="233" eb="236">
+      <t>ヒコウカイ</t>
+    </rPh>
+    <rPh sb="236" eb="238">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -6681,7 +6907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
@@ -8635,10 +8861,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131ED9DB-7094-4FCA-8832-3F1005AB8270}">
-  <dimension ref="A1:Q114"/>
+  <dimension ref="A1:Q134"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="M115" sqref="M115"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9551,6 +9777,158 @@
       </c>
       <c r="M114" t="s">
         <v>817</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>903</v>
+      </c>
+      <c r="M116" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="M117" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="M118" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="M119" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A120" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="M120" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A121" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="M121" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A122" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="M122" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A123" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="M123" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="M124" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="M125" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="M126" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="M127" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A128" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="M128" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A129" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="M129" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>915</v>
+      </c>
+      <c r="M130" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
+        <v>916</v>
+      </c>
+      <c r="M131" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="191.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>909</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A133" t="s">
+        <v>904</v>
+      </c>
+      <c r="M133" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A134" t="s">
+        <v>905</v>
+      </c>
+      <c r="M134" t="s">
+        <v>907</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85BF4F9C-2C0B-4ECC-83B7-D9FA7FDBF665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63A35C7-9264-4D99-867B-9E59319899B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="944">
   <si>
     <t>English</t>
   </si>
@@ -6573,6 +6573,263 @@
     </rPh>
     <rPh sb="236" eb="238">
       <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JesterRoleNum</t>
+  </si>
+  <si>
+    <t>JesterHasOtherVison</t>
+  </si>
+  <si>
+    <t>JesterVison</t>
+  </si>
+  <si>
+    <t>JesterApplyEnvironmentVisionEffect</t>
+  </si>
+  <si>
+    <t>JesterOutburstDistance</t>
+  </si>
+  <si>
+    <t>JesterAbilityCoolTime</t>
+  </si>
+  <si>
+    <t>JesterAbilityActiveTime</t>
+  </si>
+  <si>
+    <t>JesterSpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jester</t>
+  </si>
+  <si>
+    <t>ジェスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポーン数</t>
+    <rPh sb="4" eb="5">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「暴発」が発動できる範囲</t>
+    <rPh sb="1" eb="3">
+      <t>ボウハツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「暴発」のクールタイム</t>
+    <rPh sb="1" eb="3">
+      <t>ボウハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「暴発」が発動するまでの時間</t>
+    <rPh sb="1" eb="3">
+      <t>ボウハツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「暴発」の使用上限</t>
+    <rPh sb="1" eb="3">
+      <t>ボウハツ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>outburst</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>暴発</t>
+    <rPh sb="0" eb="2">
+      <t>ボウハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JesterAbilityCount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JesterIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JesterShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JesterFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会議の人気者になって吊られろ</t>
+    <rPh sb="0" eb="2">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ニンキモノ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第三陣営役職
+勝利条件：会議で吊られること
+能力「暴発」は対象のキル能力を暴発させる
+プレイヤーがキル能力を持たないプレイヤーが「暴発」の対象
+でも「暴発」は発動できる
+「暴発」の対象になったプレイヤーは一定時間後、キルが
+強制発動する、ただし、以下の条件のどれかに当たる場合キル
+が不発する
+①：対象となったプレイヤーがキル能力を持たない
+②：対象となったプレイヤーのキル範囲にプレイヤーが居ない
+③：対象となったプレイヤーのキル対象が「暴発」を発動させた</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ボウハツ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ボウハツ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ボウハツ</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="102" eb="107">
+      <t>イッテイジカンゴ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="126" eb="128">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="142" eb="144">
+      <t>フハツ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="163" eb="165">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="173" eb="175">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="187" eb="189">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="196" eb="197">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="202" eb="213">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="216" eb="218">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="220" eb="222">
+      <t>ボウハツ</t>
+    </rPh>
+    <rPh sb="224" eb="226">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会議はいつも自分の話題で持ち切りだ！！</t>
+    <rPh sb="0" eb="2">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ワダイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8863,7 +9120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131ED9DB-7094-4FCA-8832-3F1005AB8270}">
   <dimension ref="A1:Q134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+    <sheetView topLeftCell="A122" workbookViewId="0">
       <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
@@ -9940,10 +10197,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445F46B3-1A86-46EF-9440-E5378C8C2CDD}">
-  <dimension ref="A1:Q87"/>
+  <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10664,6 +10921,118 @@
       </c>
       <c r="M87" s="1" t="s">
         <v>846</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>928</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="M94" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>938</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>939</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="210" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>940</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>936</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63A35C7-9264-4D99-867B-9E59319899B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D6FAD6-0E82-4B80-81DE-42D6FC8C429A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6702,8 +6702,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>会議はいつも自分の話題で持ち切りだ！！</t>
+    <rPh sb="0" eb="2">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ワダイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>第三陣営役職
 勝利条件：会議で吊られること
+処理速度やラグの関係上、ジェスターの勝利画面でジェスターの状態が「生存」になることがあります。
 能力「暴発」は対象のキル能力を暴発させる
 プレイヤーがキル能力を持たないプレイヤーが「暴発」の対象
 でも「暴発」は発動できる
@@ -6737,99 +6757,98 @@
     <rPh sb="15" eb="16">
       <t>ツ</t>
     </rPh>
-    <rPh sb="22" eb="24">
+    <rPh sb="22" eb="26">
+      <t>ショリソクド</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>カンケイジョウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ショウリ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>セイゾン</t>
+    </rPh>
+    <rPh sb="70" eb="72">
       <t>ノウリョク</t>
     </rPh>
-    <rPh sb="25" eb="27">
+    <rPh sb="73" eb="75">
       <t>ボウハツ</t>
     </rPh>
-    <rPh sb="29" eb="31">
+    <rPh sb="77" eb="79">
       <t>タイショウ</t>
     </rPh>
-    <rPh sb="34" eb="36">
+    <rPh sb="82" eb="84">
       <t>ノウリョク</t>
     </rPh>
-    <rPh sb="37" eb="39">
+    <rPh sb="85" eb="87">
       <t>ボウハツ</t>
     </rPh>
-    <rPh sb="86" eb="88">
+    <rPh sb="134" eb="136">
       <t>ボウハツ</t>
     </rPh>
-    <rPh sb="90" eb="92">
+    <rPh sb="138" eb="140">
       <t>タイショウ</t>
     </rPh>
-    <rPh sb="102" eb="107">
+    <rPh sb="150" eb="155">
       <t>イッテイジカンゴ</t>
     </rPh>
-    <rPh sb="112" eb="114">
+    <rPh sb="160" eb="162">
       <t>キョウセイ</t>
     </rPh>
-    <rPh sb="114" eb="116">
+    <rPh sb="162" eb="164">
       <t>ハツドウ</t>
     </rPh>
-    <rPh sb="123" eb="125">
+    <rPh sb="171" eb="173">
       <t>イカ</t>
     </rPh>
-    <rPh sb="126" eb="128">
+    <rPh sb="174" eb="176">
       <t>ジョウケン</t>
     </rPh>
-    <rPh sb="133" eb="134">
+    <rPh sb="181" eb="182">
       <t>ア</t>
     </rPh>
-    <rPh sb="136" eb="138">
+    <rPh sb="184" eb="186">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="142" eb="144">
+    <rPh sb="190" eb="192">
       <t>フハツ</t>
     </rPh>
-    <rPh sb="149" eb="151">
+    <rPh sb="197" eb="199">
       <t>タイショウ</t>
     </rPh>
-    <rPh sb="163" eb="165">
+    <rPh sb="211" eb="213">
       <t>ノウリョク</t>
     </rPh>
-    <rPh sb="166" eb="167">
+    <rPh sb="214" eb="215">
       <t>モ</t>
     </rPh>
-    <rPh sb="173" eb="175">
+    <rPh sb="221" eb="223">
       <t>タイショウ</t>
     </rPh>
-    <rPh sb="187" eb="189">
+    <rPh sb="235" eb="237">
       <t>ハンイ</t>
     </rPh>
-    <rPh sb="196" eb="197">
+    <rPh sb="244" eb="245">
       <t>イ</t>
     </rPh>
-    <rPh sb="202" eb="213">
+    <rPh sb="250" eb="261">
       <t>タ</t>
     </rPh>
-    <rPh sb="216" eb="218">
+    <rPh sb="264" eb="266">
       <t>タイショウ</t>
     </rPh>
-    <rPh sb="220" eb="222">
+    <rPh sb="268" eb="270">
       <t>ボウハツ</t>
     </rPh>
-    <rPh sb="224" eb="226">
+    <rPh sb="272" eb="274">
       <t>ハツドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会議はいつも自分の話題で持ち切りだ！！</t>
-    <rPh sb="0" eb="2">
-      <t>カイギ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ワダイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>キ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -10200,7 +10219,7 @@
   <dimension ref="A1:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="I99" sqref="I99"/>
+      <selection activeCell="M101" sqref="M101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11008,7 +11027,7 @@
         <v>938</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
@@ -11019,12 +11038,12 @@
         <v>941</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="210" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:13" ht="246" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>940</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D6FAD6-0E82-4B80-81DE-42D6FC8C429A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03C223D-28DA-4F05-953F-7F9BA8C6C870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6616,35 +6616,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「暴発」が発動できる範囲</t>
-    <rPh sb="1" eb="3">
-      <t>ボウハツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハツドウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「暴発」のクールタイム</t>
     <rPh sb="1" eb="3">
       <t>ボウハツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「暴発」が発動するまでの時間</t>
-    <rPh sb="1" eb="3">
-      <t>ボウハツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ハツドウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6732,7 +6706,8 @@
 が不発する
 ①：対象となったプレイヤーがキル能力を持たない
 ②：対象となったプレイヤーのキル範囲にプレイヤーが居ない
-③：対象となったプレイヤーのキル対象が「暴発」を発動させた</t>
+③：対象となったプレイヤーのキル対象が「暴発」を発動させた
+ジェスター</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
     </rPh>
@@ -6849,6 +6824,29 @@
     </rPh>
     <rPh sb="272" eb="274">
       <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「暴発」を発動できる距離</t>
+    <rPh sb="1" eb="3">
+      <t>ボウハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「暴発」後キルが発生するまでの時間</t>
+    <rPh sb="1" eb="3">
+      <t>ボウハツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -10995,7 +10993,7 @@
         <v>924</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>931</v>
+        <v>942</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.4">
@@ -11003,7 +11001,7 @@
         <v>925</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
@@ -11011,47 +11009,47 @@
         <v>926</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>933</v>
+        <v>943</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
+        <v>937</v>
+      </c>
+      <c r="M100" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="M100" s="1" t="s">
+    </row>
+    <row r="101" spans="1:13" ht="260.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>938</v>
+      </c>
+      <c r="M101" s="2" t="s">
         <v>941</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" ht="246" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
-        <v>940</v>
-      </c>
-      <c r="M101" s="2" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03C223D-28DA-4F05-953F-7F9BA8C6C870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2573D3-76BC-4977-91F2-5376F7B313E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="954">
   <si>
     <t>English</t>
   </si>
@@ -6847,6 +6847,82 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>errorCannotGameStart</t>
+  </si>
+  <si>
+    <t>以下の理由でゲームを開始できません</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>errorNotInstalled</t>
+  </si>
+  <si>
+    <t>Extreme Rolesの導入に失敗しています</t>
+    <rPh sb="14" eb="16">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シッパイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>errorOldInstalled</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>errorDiffHostVersion</t>
+  </si>
+  <si>
+    <t>errorNewInstalled</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホストに導入されているExtreme Rolesとバージョンが異なっています。\n{0}秒後に強制切断します</t>
+    <rPh sb="4" eb="6">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ビョウゴ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>セツダン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>導入されているExtreme Rolesのバージョンが古いです</t>
+    <rPh sb="0" eb="2">
+      <t>ドウニュウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>フル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>導入されているExtreme Rolesのバージョンが新しいです</t>
+    <rPh sb="27" eb="28">
+      <t>アタラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7179,10 +7255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q153"/>
+  <dimension ref="A1:Q159"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="C136" workbookViewId="0">
+      <selection activeCell="M151" sqref="M151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8315,6 +8391,46 @@
       </c>
       <c r="M153" t="s">
         <v>754</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A155" t="s">
+        <v>944</v>
+      </c>
+      <c r="M155" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A156" t="s">
+        <v>946</v>
+      </c>
+      <c r="M156" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A157" t="s">
+        <v>948</v>
+      </c>
+      <c r="M157" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A158" t="s">
+        <v>950</v>
+      </c>
+      <c r="M158" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A159" t="s">
+        <v>949</v>
+      </c>
+      <c r="M159" t="s">
+        <v>951</v>
       </c>
     </row>
   </sheetData>
@@ -10216,7 +10332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{445F46B3-1A86-46EF-9440-E5378C8C2CDD}">
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="M101" sqref="M101"/>
     </sheetView>
   </sheetViews>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2573D3-76BC-4977-91F2-5376F7B313E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC627F4-CC8E-4F2A-9E13-A201D6198DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="1033">
   <si>
     <t>English</t>
   </si>
@@ -6923,6 +6923,659 @@
     <t>導入されているExtreme Rolesのバージョンが新しいです</t>
     <rPh sb="27" eb="28">
       <t>アタラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WhisperRoleNum</t>
+  </si>
+  <si>
+    <t>WhisperHasOtherVison</t>
+  </si>
+  <si>
+    <t>WhisperVison</t>
+  </si>
+  <si>
+    <t>WhisperApplyEnvironmentVisionEffect</t>
+  </si>
+  <si>
+    <t>WhisperAbilityOffTime</t>
+  </si>
+  <si>
+    <t>WhisperAbilityOnTime</t>
+  </si>
+  <si>
+    <t>WhisperTellTextTime</t>
+  </si>
+  <si>
+    <t>WhisperSpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Whisper</t>
+  </si>
+  <si>
+    <t>ウィスパー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>能力の発動時間</t>
+    <rPh sb="0" eb="2">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>停止してから能力が発動するまでの時間</t>
+    <rPh sb="0" eb="2">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キルされたテキストの表示時間</t>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キルされたテキストの最大表示数</t>
+    <rPh sb="10" eb="12">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ヒョウジスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FakerRoleNum</t>
+  </si>
+  <si>
+    <t>FakerHasOtherVison</t>
+  </si>
+  <si>
+    <t>FakerVison</t>
+  </si>
+  <si>
+    <t>FakerApplyEnvironmentVisionEffect</t>
+  </si>
+  <si>
+    <t>FakerHasOtherKillCool</t>
+  </si>
+  <si>
+    <t>FakerKillCoolDown</t>
+  </si>
+  <si>
+    <t>FakerHasOtherKillRange</t>
+  </si>
+  <si>
+    <t>FakerKillRange</t>
+  </si>
+  <si>
+    <t>FakerSpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Faker</t>
+  </si>
+  <si>
+    <t>フェイカー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダミーのクールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FakerAbilityCoolTime</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FakerIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FakerShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FakerFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dummy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダミー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死体を偽造することが出来るインポスター役職
+「ダミー」によって生きている船員(陣営問わず)からランダム
+で死体を偽造する
+偽造された死体は通報できない
+偽造された死体はキルされたときの倒れるアニメーションが
+再生される</t>
+    <rPh sb="0" eb="2">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ギゾウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>センイン</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ギゾウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ギゾウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ツウホウ</t>
+    </rPh>
+    <rPh sb="76" eb="78">
+      <t>ギゾウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>サイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死体を偽造して、クルーを混乱ささせろ</t>
+    <rPh sb="0" eb="2">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ギゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>偽造死体で、船を死体だらけにしよう</t>
+    <rPh sb="0" eb="2">
+      <t>ギゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フネ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CrackerRoleNum</t>
+  </si>
+  <si>
+    <t>CrackerHasOtherVison</t>
+  </si>
+  <si>
+    <t>CrackerVison</t>
+  </si>
+  <si>
+    <t>CrackerApplyEnvironmentVisionEffect</t>
+  </si>
+  <si>
+    <t>CrackerHasOtherKillCool</t>
+  </si>
+  <si>
+    <t>CrackerKillCoolDown</t>
+  </si>
+  <si>
+    <t>CrackerHasOtherKillRange</t>
+  </si>
+  <si>
+    <t>CrackerKillRange</t>
+  </si>
+  <si>
+    <t>CrackerAbilityCoolTime</t>
+  </si>
+  <si>
+    <t>CrackerCanCrackDistance</t>
+  </si>
+  <si>
+    <t>CrackerSpawnRate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cracker</t>
+  </si>
+  <si>
+    <t>クラッカー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「クラック」のクールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「クラック」が発動できる範囲</t>
+    <rPh sb="7" eb="9">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「クラック」によって死体を消すか</t>
+    <rPh sb="10" eb="12">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死体をクラックして、死体を通報できなくせよ</t>
+    <rPh sb="0" eb="2">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハック！クラック！！No Report！！！</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CrackerRemoveDeadBody</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CrackerIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CrackerShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CrackerFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死体をクラックすることで、その死体を通報できなくする
+インポスター役職
+「「クラック」によって死体を消す」オプションが有効時、死体
+を消したあとに「クラック」を使った痕跡が残る
+消えてなく、通報できない死体は会議発生時死体として上がる</t>
+    <rPh sb="0" eb="2">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ツウホウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>コンセキ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="95" eb="97">
+      <t>ツウホウ</t>
+    </rPh>
+    <rPh sb="101" eb="103">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>カイギ</t>
+    </rPh>
+    <rPh sb="106" eb="109">
+      <t>ハッセイジ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abilityRemain</t>
+  </si>
+  <si>
+    <t>abilityOnText</t>
+  </si>
+  <si>
+    <t>能力発動まで残り{0}秒</t>
+    <rPh sb="0" eb="2">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>能力発動中、残り{0}秒</t>
+    <rPh sb="0" eb="2">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WhisperMaxTellText</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WhisperIntroDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WhisperShortDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耳すましでキルを感じろ</t>
+    <rPh sb="0" eb="1">
+      <t>ミミ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WhisperFullDescription</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>五感を研ぎ澄まし、耳をすまして、異変を感じろ</t>
+    <rPh sb="0" eb="2">
+      <t>ゴカン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミミ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>イヘン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>killedText</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>down</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>left</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>右</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{0}の方で誰かが殺されたみたい({1})</t>
+    <rPh sb="4" eb="5">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>能力「耳すまし」が使えるクルー役職
+能力「耳すまし」は一定時間停止した状態で強制発動する
+一定時間の停止はプレイヤーが動ける状態かつタスク等を行って
+いいない状態でカウントが進む
+「耳すまし」発動中も停止しない場合、能力は解除される
+「耳すまし」が発動すると全てのキルが察知され通知が来る
+ただし、通知はキルと時間、方角のみわかる</t>
+    <rPh sb="3" eb="4">
+      <t>ミミ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ミミ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>イッテイジカン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="45" eb="49">
+      <t>イッテイジカン</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ミミ</t>
+    </rPh>
+    <rPh sb="96" eb="99">
+      <t>ハツドウチュウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="108" eb="110">
+      <t>ノウリョク</t>
+    </rPh>
+    <rPh sb="111" eb="113">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ミミ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="135" eb="137">
+      <t>サッチ</t>
+    </rPh>
+    <rPh sb="139" eb="141">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="155" eb="157">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>ホウガク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7255,10 +7908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q159"/>
+  <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C136" workbookViewId="0">
-      <selection activeCell="M151" sqref="M151"/>
+    <sheetView topLeftCell="C151" workbookViewId="0">
+      <selection activeCell="M168" sqref="M168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8433,6 +9086,54 @@
         <v>951</v>
       </c>
     </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A161" t="s">
+        <v>1012</v>
+      </c>
+      <c r="M161" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A162" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M162" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A164" t="s">
+        <v>1023</v>
+      </c>
+      <c r="M164" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M165" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A166" t="s">
+        <v>1025</v>
+      </c>
+      <c r="M166" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
+        <v>1026</v>
+      </c>
+      <c r="M167" t="s">
+        <v>1030</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8442,10 +9143,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:Q115"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="M114" sqref="M114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9242,6 +9943,118 @@
         <v>870</v>
       </c>
     </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
+        <v>962</v>
+      </c>
+      <c r="M102" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="M103" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="M104" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="M105" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="M106" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="M107" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="M108" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="M109" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="M110" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M111" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M112" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>1018</v>
+      </c>
+      <c r="M113" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="133.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>1020</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A115" t="s">
+        <v>1022</v>
+      </c>
+      <c r="M115" t="s">
+        <v>1031</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9251,10 +10064,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131ED9DB-7094-4FCA-8832-3F1005AB8270}">
-  <dimension ref="A1:Q134"/>
+  <dimension ref="A1:Q167"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="M169" sqref="M169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10171,23 +10984,23 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>903</v>
+        <v>977</v>
       </c>
       <c r="M116" t="s">
-        <v>910</v>
+        <v>978</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
-        <v>902</v>
+        <v>976</v>
       </c>
       <c r="M117" t="s">
-        <v>910</v>
+        <v>978</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
-        <v>891</v>
+        <v>968</v>
       </c>
       <c r="M118" t="s">
         <v>107</v>
@@ -10195,7 +11008,7 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
-        <v>892</v>
+        <v>969</v>
       </c>
       <c r="M119" t="s">
         <v>426</v>
@@ -10203,7 +11016,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
-        <v>893</v>
+        <v>970</v>
       </c>
       <c r="M120" t="s">
         <v>427</v>
@@ -10211,7 +11024,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
-        <v>894</v>
+        <v>971</v>
       </c>
       <c r="M121" t="s">
         <v>108</v>
@@ -10219,7 +11032,7 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
-        <v>895</v>
+        <v>972</v>
       </c>
       <c r="M122" t="s">
         <v>120</v>
@@ -10227,7 +11040,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
-        <v>896</v>
+        <v>973</v>
       </c>
       <c r="M123" t="s">
         <v>119</v>
@@ -10235,7 +11048,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
-        <v>897</v>
+        <v>974</v>
       </c>
       <c r="M124" t="s">
         <v>121</v>
@@ -10243,7 +11056,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
-        <v>898</v>
+        <v>975</v>
       </c>
       <c r="M125" t="s">
         <v>122</v>
@@ -10251,74 +11064,322 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
-        <v>899</v>
+        <v>980</v>
       </c>
       <c r="M126" t="s">
-        <v>911</v>
+        <v>979</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A127" s="1" t="s">
-        <v>900</v>
+      <c r="A127" t="s">
+        <v>981</v>
       </c>
       <c r="M127" t="s">
-        <v>912</v>
+        <v>988</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A128" s="1" t="s">
-        <v>901</v>
+      <c r="A128" t="s">
+        <v>982</v>
       </c>
       <c r="M128" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A129" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="M129" t="s">
-        <v>914</v>
+        <v>987</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="93" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>983</v>
+      </c>
+      <c r="M129" s="2" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
+        <v>984</v>
+      </c>
+      <c r="M130" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
+        <v>903</v>
+      </c>
+      <c r="M132" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A133" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="M133" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A134" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="M134" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A135" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="M135" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A136" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="M136" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A137" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="M137" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="M138" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A139" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="M139" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A140" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="M140" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A141" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="M141" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A142" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="M142" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A143" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="M143" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A144" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="M144" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A145" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="M145" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A146" t="s">
         <v>915</v>
       </c>
-      <c r="M130" t="s">
+      <c r="M146" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A131" t="s">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A147" t="s">
         <v>916</v>
       </c>
-      <c r="M131" t="s">
+      <c r="M147" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="191.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A132" t="s">
+    <row r="148" spans="1:13" ht="187.5" x14ac:dyDescent="0.4">
+      <c r="A148" t="s">
         <v>909</v>
       </c>
-      <c r="M132" s="2" t="s">
+      <c r="M148" s="2" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A133" t="s">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A149" t="s">
         <v>904</v>
       </c>
-      <c r="M133" t="s">
+      <c r="M149" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A134" t="s">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A150" t="s">
         <v>905</v>
       </c>
-      <c r="M134" t="s">
+      <c r="M150" t="s">
         <v>907</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A152" t="s">
+        <v>1000</v>
+      </c>
+      <c r="M152" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A153" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="M153" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A154" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="M154" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A155" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="M155" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A156" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="M156" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A157" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="M157" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A158" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="M158" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A159" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="M159" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A160" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="M160" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A161" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="M161" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A162" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="M162" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A163" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="M163" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A164" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="M164" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
+        <v>1008</v>
+      </c>
+      <c r="M165" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A166" t="s">
+        <v>1009</v>
+      </c>
+      <c r="M166" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M167" s="2" t="s">
+        <v>1011</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC627F4-CC8E-4F2A-9E13-A201D6198DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3973360-B5DC-4133-ACF6-4AA3CC2FDDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="1035">
   <si>
     <t>English</t>
   </si>
@@ -7577,6 +7577,14 @@
     <rPh sb="158" eb="160">
       <t>ホウガク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>crack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クラック</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -9145,7 +9153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
   <dimension ref="A1:Q115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="M114" sqref="M114"/>
     </sheetView>
   </sheetViews>
@@ -10064,10 +10072,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131ED9DB-7094-4FCA-8832-3F1005AB8270}">
-  <dimension ref="A1:Q167"/>
+  <dimension ref="A1:Q168"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="M169" sqref="M169"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11380,6 +11388,14 @@
       </c>
       <c r="M167" s="2" t="s">
         <v>1011</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
+        <v>1033</v>
+      </c>
+      <c r="M168" t="s">
+        <v>1034</v>
       </c>
     </row>
   </sheetData>

--- a/transData.xlsx
+++ b/transData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ドキュメント\VisualStudioProject\AmongUs\ExtremeRoles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3973360-B5DC-4133-ACF6-4AA3CC2FDDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB84AD5-19BA-4DB9-9BE9-C41E34BACE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -531,13 +531,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>破壊工作のクールタイム</t>
-    <rPh sb="0" eb="4">
-      <t>ハカイコウサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JackalSpawnRate</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1539,16 +1532,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>破壊工作の回数</t>
-    <rPh sb="0" eb="4">
-      <t>ハカイコウサク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カイスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>crewImportantText</t>
   </si>
   <si>
@@ -1700,19 +1683,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>捕食を行える範囲</t>
-    <rPh sb="0" eb="2">
-      <t>ホショク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>進化後、死体を消すか</t>
     <rPh sb="0" eb="3">
       <t>シンカゴ</t>
@@ -1726,19 +1696,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>捕食を行う時間</t>
-    <rPh sb="0" eb="2">
-      <t>ホショク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>最終進化までの回数</t>
     <rPh sb="0" eb="4">
       <t>サイシュウシンカ</t>
@@ -2163,29 +2120,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>緊急修理の回数</t>
-    <rPh sb="0" eb="2">
-      <t>キンキュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウリ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カイスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>緊急修理のクールタイム</t>
-    <rPh sb="0" eb="2">
-      <t>キンキュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メンテナー</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2431,23 +2365,6 @@
   </si>
   <si>
     <t>キルして、その死体を隠せ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>死体を運べる時間</t>
-    <rPh sb="0" eb="2">
-      <t>シタイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ハコ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャリーのクールタイム</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5068,70 +4985,6 @@
   </si>
   <si>
     <t>CarrierCarryDistance</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャリーが発動できる死体からの距離</t>
-    <rPh sb="5" eb="7">
-      <t>ハツドウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シタイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キョリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>破壊工作によって巻き戻る通常タスクの数</t>
-    <rPh sb="0" eb="4">
-      <t>ハカイコウサク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ツウジョウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>破壊工作によって巻き戻るロングタスクの数</t>
-    <rPh sb="0" eb="4">
-      <t>ハカイコウサク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>破壊工作によって巻き戻るショートタスクの数</t>
-    <rPh sb="0" eb="4">
-      <t>ハカイコウサク</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カズ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -5667,33 +5520,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ペイントのクールタイム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ペイントが行える距離</t>
-    <rPh sb="5" eb="6">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キョリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ペイントした後の死体の色がランダムか</t>
-    <rPh sb="6" eb="7">
-      <t>アト</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シタイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>イロ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PainterPaintColorIsRandom</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6158,30 +5984,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シールドを付与できる範囲</t>
-    <rPh sb="5" eb="7">
-      <t>フヨ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ハンイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シールドのクールタイム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シールドが付与できる回数</t>
-    <rPh sb="5" eb="7">
-      <t>フヨ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カイスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BodyGuardAbilityCount</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -6416,46 +6218,6 @@
   </si>
   <si>
     <t>オーバーローダー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オーバーロードのクールタイム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オーバーロード発動後、解除可能になるまでの時間</t>
-    <rPh sb="7" eb="10">
-      <t>ハツドウゴ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カイジョ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オーバーロード時のキルクールの減少率</t>
-    <rPh sb="7" eb="8">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>ゲンショウリツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オーバーロード時のプレイヤーの移動速度</t>
-    <rPh sb="7" eb="8">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="15" eb="19">
-      <t>イドウソクド</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -7043,10 +6805,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ダミーのクールタイム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FakerAbilityCoolTime</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -7585,6 +7343,260 @@
   </si>
   <si>
     <t>クラック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ダミー」のクールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「オーバーロード」のクールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「オーバーロード」発動後、解除可能になるまでの時間</t>
+    <rPh sb="9" eb="12">
+      <t>ハツドウゴ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「オーバーロード」時のキルクールの減少率</t>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ゲンショウリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「オーバーロード」時のプレイヤーの移動速度</t>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ペイント」した後の死体の色がランダムか</t>
+    <rPh sb="8" eb="9">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ペイント」が行える距離</t>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「ペイント」のクールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「キャリー」が発動できる死体からの距離</t>
+    <rPh sb="7" eb="9">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「キャリー」のクールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「キャリー」で死体を運べる時間</t>
+    <rPh sb="7" eb="9">
+      <t>シタイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「捕食」を行える範囲</t>
+    <rPh sb="1" eb="3">
+      <t>ホショク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「捕食」を行う時間</t>
+    <rPh sb="1" eb="3">
+      <t>ホショク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「シールド」が付与できる回数</t>
+    <rPh sb="7" eb="9">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「シールド」のクールタイム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「シールド」を付与できる範囲</t>
+    <rPh sb="7" eb="9">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「緊急修理」の回数</t>
+    <rPh sb="1" eb="3">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「緊急修理」のクールタイム</t>
+    <rPh sb="1" eb="3">
+      <t>キンキュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「破壊工作」のクールタイム</t>
+    <rPh sb="1" eb="5">
+      <t>ハカイコウサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「破壊工作」の回数</t>
+    <rPh sb="1" eb="3">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウサク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「破壊工作」によって巻き戻るショートタスクの数</t>
+    <rPh sb="1" eb="3">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウサク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「破壊工作」によって巻き戻るロングタスクの数</t>
+    <rPh sb="1" eb="3">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウサク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「破壊工作」によって巻き戻る通常タスクの数</t>
+    <rPh sb="1" eb="3">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウサク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カズ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7984,10 +7996,10 @@
         <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>851</v>
+        <v>836</v>
       </c>
       <c r="M2" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.4">
@@ -8047,57 +8059,57 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
       <c r="B9" t="s">
-        <v>881</v>
+        <v>863</v>
       </c>
       <c r="M9" t="s">
-        <v>886</v>
+        <v>868</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
       <c r="B10" t="s">
-        <v>882</v>
+        <v>864</v>
       </c>
       <c r="M10" t="s">
-        <v>887</v>
+        <v>869</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
       <c r="B11" t="s">
-        <v>883</v>
+        <v>865</v>
       </c>
       <c r="M11" t="s">
-        <v>888</v>
+        <v>870</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>879</v>
+        <v>861</v>
       </c>
       <c r="B12" t="s">
-        <v>884</v>
+        <v>866</v>
       </c>
       <c r="M12" t="s">
-        <v>889</v>
+        <v>871</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
       <c r="B13" t="s">
-        <v>885</v>
+        <v>867</v>
       </c>
       <c r="M13" t="s">
-        <v>890</v>
+        <v>872</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
@@ -8113,10 +8125,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="M16" t="s">
         <v>280</v>
-      </c>
-      <c r="M16" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
@@ -8187,7 +8199,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
@@ -8198,15 +8210,15 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M25" t="s">
         <v>267</v>
-      </c>
-      <c r="M25" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s">
         <v>46</v>
@@ -8223,7 +8235,7 @@
         <v>48</v>
       </c>
       <c r="M27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
@@ -8245,7 +8257,7 @@
         <v>51</v>
       </c>
       <c r="M29" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
@@ -8256,63 +8268,63 @@
         <v>56</v>
       </c>
       <c r="M30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="M31" t="s">
         <v>271</v>
-      </c>
-      <c r="M31" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="M32" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
+        <v>275</v>
+      </c>
+      <c r="M37" t="s">
         <v>276</v>
-      </c>
-      <c r="M37" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
+        <v>277</v>
+      </c>
+      <c r="M38" t="s">
         <v>278</v>
-      </c>
-      <c r="M38" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
@@ -8323,7 +8335,7 @@
         <v>59</v>
       </c>
       <c r="M39" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
@@ -8334,7 +8346,7 @@
         <v>61</v>
       </c>
       <c r="M40" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
@@ -8345,7 +8357,7 @@
         <v>63</v>
       </c>
       <c r="M41" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
@@ -8356,144 +8368,144 @@
         <v>65</v>
       </c>
       <c r="M42" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="B43" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="M43" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="M45" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="M47" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M48" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="M49" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M50" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M52" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M53" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M54" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
+        <v>289</v>
+      </c>
+      <c r="M55" t="s">
         <v>290</v>
-      </c>
-      <c r="M55" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="B57" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="M57" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="B58" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="M58" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="M59" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="M65" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="M66" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="M67" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
@@ -8597,549 +8609,549 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
+        <v>242</v>
+      </c>
+      <c r="B82" t="s">
         <v>243</v>
       </c>
-      <c r="B82" t="s">
-        <v>244</v>
-      </c>
       <c r="M82" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
+        <v>244</v>
+      </c>
+      <c r="B83" t="s">
         <v>245</v>
       </c>
-      <c r="B83" t="s">
-        <v>246</v>
-      </c>
       <c r="M83" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
+        <v>246</v>
+      </c>
+      <c r="B85" t="s">
         <v>247</v>
       </c>
-      <c r="B85" t="s">
+      <c r="M85" t="s">
         <v>248</v>
-      </c>
-      <c r="M85" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
+        <v>249</v>
+      </c>
+      <c r="B87" t="s">
         <v>250</v>
       </c>
-      <c r="B87" t="s">
+      <c r="M87" t="s">
         <v>251</v>
-      </c>
-      <c r="M87" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
+        <v>252</v>
+      </c>
+      <c r="B88" t="s">
         <v>253</v>
       </c>
-      <c r="B88" t="s">
+      <c r="M88" t="s">
         <v>254</v>
-      </c>
-      <c r="M88" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B89" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M89" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M90" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B91" t="s">
+        <v>257</v>
+      </c>
+      <c r="M91" t="s">
         <v>258</v>
-      </c>
-      <c r="M91" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B92" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M92" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
+        <v>303</v>
+      </c>
+      <c r="M95" t="s">
         <v>304</v>
-      </c>
-      <c r="M95" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M97" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="M98" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="M101" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M102" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M103" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M104" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M105" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M106" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="M107" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="M108" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="M109" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="M110" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="M111" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
       <c r="M112" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>874</v>
+        <v>856</v>
       </c>
       <c r="M113" t="s">
-        <v>875</v>
+        <v>857</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="M115" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="M116" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M118" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M119" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="M121" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M122" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M124" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M125" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M126" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M127" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M128" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M130" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
+        <v>316</v>
+      </c>
+      <c r="M131" t="s">
         <v>318</v>
-      </c>
-      <c r="M131" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M132" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="M134" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="M135" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="M136" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="M138" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="M139" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="M141" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="M142" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="M144" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="M146" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="M147" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
       <c r="M148" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="M149" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="M150" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="M151" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="M153" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
-        <v>944</v>
+        <v>922</v>
       </c>
       <c r="M155" t="s">
-        <v>945</v>
+        <v>923</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
-        <v>946</v>
+        <v>924</v>
       </c>
       <c r="M156" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
-        <v>948</v>
+        <v>926</v>
       </c>
       <c r="M157" t="s">
-        <v>952</v>
+        <v>930</v>
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>950</v>
+        <v>928</v>
       </c>
       <c r="M158" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
       <c r="M159" t="s">
-        <v>951</v>
+        <v>929</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
-        <v>1012</v>
+        <v>989</v>
       </c>
       <c r="M161" t="s">
-        <v>1014</v>
+        <v>991</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
-        <v>1013</v>
+        <v>990</v>
       </c>
       <c r="M162" t="s">
-        <v>1015</v>
+        <v>992</v>
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
-        <v>1023</v>
+        <v>1000</v>
       </c>
       <c r="M164" t="s">
-        <v>1027</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
-        <v>1024</v>
+        <v>1001</v>
       </c>
       <c r="M165" t="s">
-        <v>1028</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
-        <v>1025</v>
+        <v>1002</v>
       </c>
       <c r="M166" t="s">
-        <v>1029</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
-        <v>1026</v>
+        <v>1003</v>
       </c>
       <c r="M167" t="s">
-        <v>1030</v>
+        <v>1007</v>
       </c>
     </row>
   </sheetData>
@@ -9153,8 +9165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5C264A-D4F8-4177-9D21-7A3435066086}">
   <dimension ref="A1:Q115"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="M114" sqref="M114"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9215,32 +9227,32 @@
     </row>
     <row r="2" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="M3" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="41.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M6" t="s">
         <v>106</v>
@@ -9267,7 +9279,7 @@
         <v>102</v>
       </c>
       <c r="M9" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -9275,7 +9287,7 @@
         <v>103</v>
       </c>
       <c r="M10" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
@@ -9288,47 +9300,47 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="M13" t="s">
         <v>192</v>
-      </c>
-      <c r="M13" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M16" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="M17" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M18" t="s">
         <v>107</v>
@@ -9336,23 +9348,23 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="M19" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M20" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="M21" t="s">
         <v>108</v>
@@ -9360,7 +9372,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M22" t="s">
         <v>120</v>
@@ -9368,7 +9380,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="M23" t="s">
         <v>119</v>
@@ -9376,7 +9388,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M24" t="s">
         <v>121</v>
@@ -9384,7 +9396,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M25" t="s">
         <v>122</v>
@@ -9392,72 +9404,72 @@
     </row>
     <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="M26" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="M27" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="M28" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M29" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="M30" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="111" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="M33" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="M34" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M35" t="s">
         <v>107</v>
@@ -9465,23 +9477,23 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M36" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="M37" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="M38" t="s">
         <v>108</v>
@@ -9489,71 +9501,71 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M39" t="s">
-        <v>421</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M40" t="s">
-        <v>420</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
+        <v>414</v>
+      </c>
+      <c r="M41" t="s">
         <v>418</v>
-      </c>
-      <c r="M41" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
+        <v>415</v>
+      </c>
+      <c r="M42" t="s">
         <v>419</v>
-      </c>
-      <c r="M42" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="M44" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="M46" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="M47" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="M48" t="s">
         <v>107</v>
@@ -9561,111 +9573,111 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="M49" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="M50" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="M51" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="M52" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="M53" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="M54" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="M55" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="M56" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="M57" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="M61" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="M62" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="M63" t="s">
         <v>107</v>
@@ -9673,23 +9685,23 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="M64" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="M65" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="M66" t="s">
         <v>108</v>
@@ -9697,79 +9709,79 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="M67" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
       <c r="M68" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
       <c r="M69" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="M70" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="94.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="M73" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="M75" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="M76" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="M77" t="s">
         <v>107</v>
@@ -9777,23 +9789,23 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="M78" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="M79" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t=